--- a/AAPL.xlsx
+++ b/AAPL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F720F5D-A3D6-433C-8E99-97A877862FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D5B28F-B1CB-4F40-A02A-8F4314B1FE53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="390" windowWidth="38175" windowHeight="15240" xr2:uid="{5CC9697C-BEBF-454C-9830-8930A9F64DCB}"/>
+    <workbookView xWindow="225" yWindow="4680" windowWidth="38175" windowHeight="15240" xr2:uid="{5CC9697C-BEBF-454C-9830-8930A9F64DCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="85">
   <si>
     <t>AAPL</t>
   </si>
@@ -286,6 +286,12 @@
   </si>
   <si>
     <t>Q425</t>
+  </si>
+  <si>
+    <t>CEO: Tim Cook</t>
+  </si>
+  <si>
+    <t>Founded: 1976 by Steve Jobs</t>
   </si>
 </sst>
 </file>
@@ -721,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64CED78A-9E29-4339-B274-4FCECE48B9E7}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,6 +820,16 @@
       <c r="H8" s="4">
         <f>H5-H6+H7</f>
         <v>2725158.6892300001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/AAPL.xlsx
+++ b/AAPL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D5B28F-B1CB-4F40-A02A-8F4314B1FE53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10F6235-0098-442A-8932-B36CFDC0272A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="4680" windowWidth="38175" windowHeight="15240" xr2:uid="{5CC9697C-BEBF-454C-9830-8930A9F64DCB}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{5CC9697C-BEBF-454C-9830-8930A9F64DCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="83">
   <si>
     <t>AAPL</t>
   </si>
@@ -204,12 +204,6 @@
     <t>Tax Rate</t>
   </si>
   <si>
-    <t>Income Statement</t>
-  </si>
-  <si>
-    <t>Balance Sheet</t>
-  </si>
-  <si>
     <t>Cash and Cash Equivalents</t>
   </si>
   <si>
@@ -303,7 +297,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.0;\(#,##0.0\)"/>
     <numFmt numFmtId="166" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,14 +337,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -374,7 +360,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -390,7 +376,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -730,7 +715,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I6" sqref="I6:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,7 +739,7 @@
         <v>4</v>
       </c>
       <c r="H3" s="5">
-        <v>184.51</v>
+        <v>206.15</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -765,10 +750,10 @@
         <v>5</v>
       </c>
       <c r="H4" s="4">
-        <v>15022.073</v>
+        <v>14935.825999999999</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -780,7 +765,7 @@
       </c>
       <c r="H5" s="4">
         <f>H3*H4</f>
-        <v>2771722.6892300001</v>
+        <v>3079020.5299</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -788,11 +773,11 @@
         <v>7</v>
       </c>
       <c r="H6" s="4">
-        <f>87593+30299+23476</f>
-        <v>141368</v>
+        <f>84424+28162+20336</f>
+        <v>132922</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -806,11 +791,11 @@
         <v>8</v>
       </c>
       <c r="H7" s="4">
-        <f>83956+10848</f>
-        <v>94804</v>
+        <f>78566+13638+5982</f>
+        <v>98186</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -819,17 +804,17 @@
       </c>
       <c r="H8" s="4">
         <f>H5-H6+H7</f>
-        <v>2725158.6892300001</v>
+        <v>3044284.5299</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -839,13 +824,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41AC909-CB0A-404C-BB37-AEC25D043BC8}">
-  <dimension ref="A1:V555"/>
+  <dimension ref="A1:V548"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,16 +870,16 @@
         <v>20</v>
       </c>
       <c r="K2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>82</v>
       </c>
       <c r="O2" s="6"/>
       <c r="P2" s="6" t="s">
@@ -920,47 +905,74 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4">
+        <v>39669</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4">
+        <v>69702</v>
+      </c>
+      <c r="H3" s="4">
+        <v>45963</v>
+      </c>
+      <c r="I3" s="4">
+        <v>39296</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4">
+        <v>69138</v>
+      </c>
+      <c r="L3" s="4">
+        <v>46841</v>
+      </c>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4">
+        <v>205489</v>
+      </c>
+      <c r="U3" s="4">
+        <v>200583</v>
+      </c>
+      <c r="V3" s="4">
+        <v>201183</v>
+      </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4">
-        <v>39669</v>
+        <v>6840</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4">
-        <v>69702</v>
-      </c>
-      <c r="H4" s="4"/>
+        <v>7780</v>
+      </c>
+      <c r="H4" s="4">
+        <v>7451</v>
+      </c>
       <c r="I4" s="4">
-        <v>39296</v>
+        <v>7009</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4">
-        <v>69138</v>
-      </c>
-      <c r="L4" s="4"/>
+        <v>8987</v>
+      </c>
+      <c r="L4" s="4">
+        <v>7949</v>
+      </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -969,37 +981,41 @@
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
       <c r="T4" s="4">
-        <v>205489</v>
+        <v>40177</v>
       </c>
       <c r="U4" s="4">
-        <v>200583</v>
+        <v>29357</v>
       </c>
       <c r="V4" s="4">
-        <v>201183</v>
+        <v>29984</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4">
-        <v>6840</v>
+        <v>5791</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4">
-        <v>7780</v>
-      </c>
-      <c r="H5" s="4"/>
+        <v>7023</v>
+      </c>
+      <c r="H5" s="4">
+        <v>5559</v>
+      </c>
       <c r="I5" s="4">
-        <v>7009</v>
+        <v>7162</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4">
-        <v>8987</v>
-      </c>
-      <c r="L5" s="4"/>
+        <v>8088</v>
+      </c>
+      <c r="L5" s="4">
+        <v>6402</v>
+      </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -1008,37 +1024,41 @@
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
       <c r="T5" s="4">
-        <v>40177</v>
+        <v>29292</v>
       </c>
       <c r="U5" s="4">
-        <v>29357</v>
+        <v>28300</v>
       </c>
       <c r="V5" s="4">
-        <v>29984</v>
+        <v>26694</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4">
-        <v>5791</v>
+        <v>8284</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4">
-        <v>7023</v>
-      </c>
-      <c r="H6" s="4"/>
+        <v>11953</v>
+      </c>
+      <c r="H6" s="4">
+        <v>7913</v>
+      </c>
       <c r="I6" s="4">
-        <v>7162</v>
+        <v>8097</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4">
-        <v>8088</v>
-      </c>
-      <c r="L6" s="4"/>
+        <v>11747</v>
+      </c>
+      <c r="L6" s="4">
+        <v>7522</v>
+      </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
@@ -1047,37 +1067,41 @@
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
       <c r="T6" s="4">
-        <v>29292</v>
+        <v>41241</v>
       </c>
       <c r="U6" s="4">
-        <v>28300</v>
+        <v>39845</v>
       </c>
       <c r="V6" s="4">
-        <v>26694</v>
+        <v>37005</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4">
-        <v>8284</v>
+        <v>60584</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4">
-        <v>11953</v>
-      </c>
-      <c r="H7" s="4"/>
+        <v>96458</v>
+      </c>
+      <c r="H7" s="4">
+        <v>66886</v>
+      </c>
       <c r="I7" s="4">
-        <v>8097</v>
+        <v>61564</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4">
-        <v>11747</v>
-      </c>
-      <c r="L7" s="4"/>
+        <v>97960</v>
+      </c>
+      <c r="L7" s="4">
+        <v>68714</v>
+      </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
@@ -1086,37 +1110,44 @@
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
       <c r="T7" s="4">
-        <v>41241</v>
+        <f>+SUM(T3:T6)</f>
+        <v>316199</v>
       </c>
       <c r="U7" s="4">
-        <v>39845</v>
+        <f>+SUM(U3:U6)</f>
+        <v>298085</v>
       </c>
       <c r="V7" s="4">
-        <v>37005</v>
+        <f>+SUM(V3:V6)</f>
+        <v>294866</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4">
-        <v>60584</v>
+        <v>21213</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4">
-        <v>96458</v>
-      </c>
-      <c r="H8" s="4"/>
+        <v>23117</v>
+      </c>
+      <c r="H8" s="4">
+        <v>23867</v>
+      </c>
       <c r="I8" s="4">
-        <v>61564</v>
+        <v>24213</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4">
-        <v>97960</v>
-      </c>
-      <c r="L8" s="4"/>
+        <v>26340</v>
+      </c>
+      <c r="L8" s="4">
+        <v>26645</v>
+      </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
@@ -1125,161 +1156,166 @@
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
       <c r="T8" s="4">
-        <f>+SUM(T4:T7)</f>
-        <v>316199</v>
+        <v>78129</v>
       </c>
       <c r="U8" s="4">
-        <f>+SUM(U4:U7)</f>
-        <v>298085</v>
+        <v>85200</v>
       </c>
       <c r="V8" s="4">
-        <f>+SUM(V4:V7)</f>
-        <v>294866</v>
+        <v>96169</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4">
-        <v>21213</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4">
-        <v>23117</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4">
-        <v>24213</v>
-      </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4">
-        <v>26340</v>
-      </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4">
-        <v>78129</v>
-      </c>
-      <c r="U9" s="4">
-        <v>85200</v>
-      </c>
-      <c r="V9" s="4">
-        <v>96169</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="8">
-        <f t="shared" ref="C10:H10" si="0">C8+C9</f>
+      <c r="C9" s="8">
+        <f t="shared" ref="C9:H9" si="0">C7+C8</f>
         <v>0</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D9" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E9" s="8">
         <f t="shared" si="0"/>
         <v>81797</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F9" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G9" s="8">
         <f t="shared" si="0"/>
         <v>119575</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H9" s="8">
         <f t="shared" si="0"/>
+        <v>90753</v>
+      </c>
+      <c r="I9" s="8">
+        <f>I7+I8</f>
+        <v>85777</v>
+      </c>
+      <c r="J9" s="8">
+        <f t="shared" ref="J9:N9" si="1">J7+J8</f>
         <v>0</v>
       </c>
-      <c r="I10" s="8">
-        <f>I8+I9</f>
-        <v>85777</v>
-      </c>
-      <c r="J10" s="8">
-        <f t="shared" ref="J10:N10" si="1">J8+J9</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="8">
+      <c r="K9" s="8">
         <f t="shared" si="1"/>
         <v>124300</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L9" s="8">
+        <f t="shared" si="1"/>
+        <v>95359</v>
+      </c>
+      <c r="M9" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M10" s="8">
+      <c r="N9" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N10" s="8">
-        <f t="shared" si="1"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="8">
+        <f t="shared" ref="P9:U9" si="2">+P7+P8</f>
         <v>0</v>
       </c>
-      <c r="O10" s="4"/>
-      <c r="P10" s="8">
-        <f t="shared" ref="P10:U10" si="2">+P8+P9</f>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="8">
+      <c r="Q9" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R10" s="8">
+      <c r="R9" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S10" s="8">
+      <c r="S9" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T10" s="8">
+      <c r="T9" s="8">
         <f t="shared" si="2"/>
         <v>394328</v>
       </c>
-      <c r="U10" s="8">
+      <c r="U9" s="8">
         <f t="shared" si="2"/>
         <v>383285</v>
       </c>
-      <c r="V10" s="8">
-        <f>+V8+V9</f>
+      <c r="V9" s="8">
+        <f>+V7+V8</f>
         <v>391035</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4">
+        <v>39136</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4">
+        <v>58440</v>
+      </c>
+      <c r="H10" s="4">
+        <v>42424</v>
+      </c>
+      <c r="I10" s="4">
+        <v>39803</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4">
+        <v>59447</v>
+      </c>
+      <c r="L10" s="4">
+        <v>44030</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4">
+        <v>201471</v>
+      </c>
+      <c r="U10" s="4">
+        <v>189282</v>
+      </c>
+      <c r="V10" s="4">
+        <v>185233</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4">
-        <v>39136</v>
+        <v>6248</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4">
-        <v>58440</v>
-      </c>
-      <c r="H11" s="4"/>
+        <v>6280</v>
+      </c>
+      <c r="H11" s="4">
+        <v>6058</v>
+      </c>
       <c r="I11" s="4">
-        <v>39803</v>
+        <v>6296</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4">
-        <v>59447</v>
-      </c>
-      <c r="L11" s="4"/>
+        <v>6578</v>
+      </c>
+      <c r="L11" s="4">
+        <v>6462</v>
+      </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -1288,158 +1324,166 @@
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
       <c r="T11" s="4">
-        <v>201471</v>
+        <v>22075</v>
       </c>
       <c r="U11" s="4">
-        <v>189282</v>
+        <v>24855</v>
       </c>
       <c r="V11" s="4">
-        <v>185233</v>
+        <v>25119</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="C12" s="4">
+        <f t="shared" ref="C12:H12" si="3">C9-SUM(C10:C11)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="E12" s="4">
-        <v>6248</v>
-      </c>
-      <c r="F12" s="4"/>
+        <f t="shared" si="3"/>
+        <v>36413</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G12" s="4">
-        <v>6280</v>
-      </c>
-      <c r="H12" s="4"/>
+        <f t="shared" si="3"/>
+        <v>54855</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="3"/>
+        <v>42271</v>
+      </c>
       <c r="I12" s="4">
-        <v>6296</v>
-      </c>
-      <c r="J12" s="4"/>
+        <f>I9-SUM(I10:I11)</f>
+        <v>39678</v>
+      </c>
+      <c r="J12" s="4">
+        <f>J9-SUM(J10:J11)</f>
+        <v>0</v>
+      </c>
       <c r="K12" s="4">
-        <v>6578</v>
-      </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
+        <f t="shared" ref="K12:N12" si="4">K9-SUM(K10:K11)</f>
+        <v>58275</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" si="4"/>
+        <v>44867</v>
+      </c>
+      <c r="M12" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
+      <c r="P12" s="4">
+        <f t="shared" ref="P12:V12" si="5">P9-SUM(P10:P11)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="T12" s="4">
-        <v>22075</v>
+        <f t="shared" si="5"/>
+        <v>170782</v>
       </c>
       <c r="U12" s="4">
-        <v>24855</v>
+        <f t="shared" si="5"/>
+        <v>169148</v>
       </c>
       <c r="V12" s="4">
-        <v>25119</v>
+        <f t="shared" si="5"/>
+        <v>180683</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="4">
-        <f t="shared" ref="C13:H13" si="3">C10-SUM(C11:C12)</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
       <c r="E13" s="4">
-        <f t="shared" si="3"/>
-        <v>36413</v>
-      </c>
-      <c r="F13" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+        <v>7442</v>
+      </c>
+      <c r="F13" s="4"/>
       <c r="G13" s="4">
-        <f t="shared" si="3"/>
-        <v>54855</v>
+        <v>7696</v>
       </c>
       <c r="H13" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7903</v>
       </c>
       <c r="I13" s="4">
-        <f>I10-SUM(I11:I12)</f>
-        <v>39678</v>
-      </c>
-      <c r="J13" s="4">
-        <f>J10-SUM(J11:J12)</f>
-        <v>0</v>
-      </c>
+        <v>8006</v>
+      </c>
+      <c r="J13" s="4"/>
       <c r="K13" s="4">
-        <f t="shared" ref="K13:N13" si="4">K10-SUM(K11:K12)</f>
-        <v>58275</v>
+        <v>8268</v>
       </c>
       <c r="L13" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N13" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+        <v>8550</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
       <c r="O13" s="4"/>
-      <c r="P13" s="4">
-        <f t="shared" ref="P13:V13" si="5">P10-SUM(P11:P12)</f>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R13" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S13" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
       <c r="T13" s="4">
-        <f t="shared" si="5"/>
-        <v>170782</v>
+        <v>26251</v>
       </c>
       <c r="U13" s="4">
-        <f t="shared" si="5"/>
-        <v>169148</v>
+        <v>29915</v>
       </c>
       <c r="V13" s="4">
-        <f t="shared" si="5"/>
-        <v>180683</v>
+        <v>31370</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4">
-        <v>7442</v>
+        <v>5973</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4">
-        <v>7696</v>
-      </c>
-      <c r="H14" s="4"/>
+        <v>6786</v>
+      </c>
+      <c r="H14" s="4">
+        <v>6468</v>
+      </c>
       <c r="I14" s="4">
-        <v>8006</v>
+        <v>6320</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4">
-        <v>8268</v>
-      </c>
-      <c r="L14" s="4"/>
+        <v>7175</v>
+      </c>
+      <c r="L14" s="4">
+        <v>6728</v>
+      </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -1448,504 +1492,505 @@
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
       <c r="T14" s="4">
-        <v>26251</v>
+        <v>25094</v>
       </c>
       <c r="U14" s="4">
-        <v>29915</v>
+        <v>24932</v>
       </c>
       <c r="V14" s="4">
-        <v>31370</v>
+        <v>26097</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" ref="C15:H15" si="6">C12-SUM(C13:C14)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="E15" s="4">
-        <v>5973</v>
-      </c>
-      <c r="F15" s="4"/>
+        <f t="shared" si="6"/>
+        <v>22998</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="G15" s="4">
-        <v>6786</v>
-      </c>
-      <c r="H15" s="4"/>
+        <f t="shared" si="6"/>
+        <v>40373</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="6"/>
+        <v>27900</v>
+      </c>
       <c r="I15" s="4">
-        <v>6320</v>
-      </c>
-      <c r="J15" s="4"/>
+        <f>I12-SUM(I13:I14)</f>
+        <v>25352</v>
+      </c>
+      <c r="J15" s="4">
+        <f>J12-SUM(J13:J14)</f>
+        <v>0</v>
+      </c>
       <c r="K15" s="4">
-        <v>7175</v>
-      </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
+        <f t="shared" ref="K15:N15" si="7">K12-SUM(K13:K14)</f>
+        <v>42832</v>
+      </c>
+      <c r="L15" s="4">
+        <f t="shared" si="7"/>
+        <v>29589</v>
+      </c>
+      <c r="M15" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
+      <c r="P15" s="4">
+        <f t="shared" ref="P15:V15" si="8">P12-SUM(P13:P14)</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="T15" s="4">
-        <v>25094</v>
+        <f t="shared" si="8"/>
+        <v>119437</v>
       </c>
       <c r="U15" s="4">
-        <v>24932</v>
+        <f t="shared" si="8"/>
+        <v>114301</v>
       </c>
       <c r="V15" s="4">
-        <v>26097</v>
+        <f t="shared" si="8"/>
+        <v>123216</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="4">
-        <f t="shared" ref="C16:H16" si="6">C13-SUM(C14:C15)</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
       <c r="E16" s="4">
-        <f t="shared" si="6"/>
-        <v>22998</v>
-      </c>
-      <c r="F16" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+        <v>-265</v>
+      </c>
+      <c r="F16" s="4"/>
       <c r="G16" s="4">
-        <f t="shared" si="6"/>
-        <v>40373</v>
+        <v>-50</v>
       </c>
       <c r="H16" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="I16" s="4">
-        <f>I13-SUM(I14:I15)</f>
-        <v>25352</v>
-      </c>
-      <c r="J16" s="4">
-        <f>J13-SUM(J14:J15)</f>
-        <v>0</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="J16" s="4"/>
       <c r="K16" s="4">
-        <f t="shared" ref="K16:N16" si="7">K13-SUM(K14:K15)</f>
-        <v>42832</v>
+        <v>-248</v>
       </c>
       <c r="L16" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N16" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+        <v>-279</v>
+      </c>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
       <c r="O16" s="4"/>
-      <c r="P16" s="4">
-        <f t="shared" ref="P16:V16" si="8">P13-SUM(P14:P15)</f>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="4">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="4">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S16" s="4">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
       <c r="T16" s="4">
-        <f t="shared" si="8"/>
-        <v>119437</v>
+        <v>-334</v>
       </c>
       <c r="U16" s="4">
-        <f t="shared" si="8"/>
-        <v>114301</v>
+        <v>-565</v>
       </c>
       <c r="V16" s="4">
-        <f t="shared" si="8"/>
-        <v>123216</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" ref="C17:H17" si="9">C15+C16</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="E17" s="4">
-        <v>-265</v>
-      </c>
-      <c r="F17" s="4"/>
+        <f t="shared" si="9"/>
+        <v>22733</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="G17" s="4">
-        <v>-50</v>
-      </c>
-      <c r="H17" s="4"/>
+        <f t="shared" si="9"/>
+        <v>40323</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="9"/>
+        <v>28058</v>
+      </c>
       <c r="I17" s="4">
-        <v>142</v>
-      </c>
-      <c r="J17" s="4"/>
+        <f>I15+I16</f>
+        <v>25494</v>
+      </c>
+      <c r="J17" s="4">
+        <f>J15+J16</f>
+        <v>0</v>
+      </c>
       <c r="K17" s="4">
-        <v>-248</v>
-      </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
+        <f t="shared" ref="K17:N17" si="10">K15+K16</f>
+        <v>42584</v>
+      </c>
+      <c r="L17" s="4">
+        <f t="shared" si="10"/>
+        <v>29310</v>
+      </c>
+      <c r="M17" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
+      <c r="P17" s="4">
+        <f t="shared" ref="P17:V17" si="11">P15+P16</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="T17" s="4">
-        <v>-334</v>
+        <f t="shared" si="11"/>
+        <v>119103</v>
       </c>
       <c r="U17" s="4">
-        <v>-565</v>
+        <f t="shared" si="11"/>
+        <v>113736</v>
       </c>
       <c r="V17" s="4">
-        <v>269</v>
+        <f t="shared" si="11"/>
+        <v>123485</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="4">
-        <f t="shared" ref="C18:H18" si="9">C16+C17</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="4">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
       <c r="E18" s="4">
-        <f t="shared" si="9"/>
-        <v>22733</v>
-      </c>
-      <c r="F18" s="4">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+        <v>2852</v>
+      </c>
+      <c r="F18" s="4"/>
       <c r="G18" s="4">
-        <f t="shared" si="9"/>
-        <v>40323</v>
+        <v>6407</v>
       </c>
       <c r="H18" s="4">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4422</v>
       </c>
       <c r="I18" s="4">
-        <f>I16+I17</f>
-        <v>25494</v>
-      </c>
-      <c r="J18" s="4">
-        <f>J16+J17</f>
-        <v>0</v>
-      </c>
+        <v>4046</v>
+      </c>
+      <c r="J18" s="4"/>
       <c r="K18" s="4">
-        <f t="shared" ref="K18:N18" si="10">K16+K17</f>
-        <v>42584</v>
+        <v>6254</v>
       </c>
       <c r="L18" s="4">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="4">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N18" s="4">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
+        <v>4530</v>
+      </c>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
       <c r="O18" s="4"/>
-      <c r="P18" s="4">
-        <f t="shared" ref="P18:V18" si="11">P16+P17</f>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="4">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="R18" s="4">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S18" s="4">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
       <c r="T18" s="4">
-        <f t="shared" si="11"/>
-        <v>119103</v>
+        <v>19300</v>
       </c>
       <c r="U18" s="4">
-        <f t="shared" si="11"/>
-        <v>113736</v>
+        <v>16741</v>
       </c>
       <c r="V18" s="4">
-        <f t="shared" si="11"/>
-        <v>123485</v>
+        <v>29749</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4">
-        <v>2852</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4">
-        <v>6407</v>
-      </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4">
-        <v>4046</v>
-      </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4">
-        <v>6254</v>
-      </c>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4">
-        <v>19300</v>
-      </c>
-      <c r="U19" s="4">
-        <v>16741</v>
-      </c>
-      <c r="V19" s="4">
-        <v>29749</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="4">
-        <f t="shared" ref="C20:D20" si="12">C18-C19</f>
+      <c r="C19" s="4">
+        <f t="shared" ref="C19:D19" si="12">C17-C18</f>
         <v>0</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D19" s="4">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E20" s="4">
-        <f>E18-E19</f>
+      <c r="E19" s="4">
+        <f>E17-E18</f>
         <v>19881</v>
       </c>
-      <c r="F20" s="4">
-        <f t="shared" ref="F20:V20" si="13">F18-F19</f>
+      <c r="F19" s="4">
+        <f t="shared" ref="F19:V19" si="13">F17-F18</f>
         <v>0</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G19" s="4">
         <f t="shared" si="13"/>
         <v>33916</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H19" s="4">
+        <f t="shared" si="13"/>
+        <v>23636</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="13"/>
+        <v>21448</v>
+      </c>
+      <c r="J19" s="4">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I20" s="4">
+      <c r="K19" s="4">
         <f t="shared" si="13"/>
-        <v>21448</v>
-      </c>
-      <c r="J20" s="4">
+        <v>36330</v>
+      </c>
+      <c r="L19" s="4">
+        <f t="shared" si="13"/>
+        <v>24780</v>
+      </c>
+      <c r="M19" s="4">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="K20" s="4">
-        <f t="shared" si="13"/>
-        <v>36330</v>
-      </c>
-      <c r="L20" s="4">
+      <c r="N19" s="4">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M20" s="4">
+      <c r="O19" s="4"/>
+      <c r="P19" s="4">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N20" s="4">
+      <c r="Q19" s="4">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4">
+      <c r="R19" s="4">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="S19" s="4">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="R20" s="4">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="S20" s="4">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T20" s="4">
+      <c r="T19" s="4">
         <f t="shared" si="13"/>
         <v>99803</v>
       </c>
-      <c r="U20" s="4">
+      <c r="U19" s="4">
         <f t="shared" si="13"/>
         <v>96995</v>
       </c>
-      <c r="V20" s="4">
+      <c r="V19" s="4">
         <f t="shared" si="13"/>
         <v>93736</v>
       </c>
     </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+    </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="9" t="e">
+        <f t="shared" ref="C21:D21" si="14">C19/C22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D21" s="9" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E21" s="9">
+        <f>E19/E22</f>
+        <v>1.2664982079442137</v>
+      </c>
+      <c r="F21" s="9" t="e">
+        <f t="shared" ref="F21:V21" si="15">F19/F22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G21" s="9">
+        <f t="shared" si="15"/>
+        <v>2.1867516608732189</v>
+      </c>
+      <c r="H21" s="9">
+        <f t="shared" si="15"/>
+        <v>1.5342217920250585</v>
+      </c>
+      <c r="I21" s="9">
+        <f t="shared" si="15"/>
+        <v>1.4029743605912299</v>
+      </c>
+      <c r="J21" s="9" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K21" s="9">
+        <f t="shared" si="15"/>
+        <v>2.408875802262394</v>
+      </c>
+      <c r="L21" s="9">
+        <f t="shared" si="15"/>
+        <v>1.6526520263127813</v>
+      </c>
+      <c r="M21" s="9" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N21" s="9" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
+      <c r="P21" s="9" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q21" s="9" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R21" s="9" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S21" s="9" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T21" s="9">
+        <f t="shared" si="15"/>
+        <v>6.1546144376377772</v>
+      </c>
+      <c r="U21" s="9">
+        <f t="shared" si="15"/>
+        <v>6.1606692635543778</v>
+      </c>
+      <c r="V21" s="9">
+        <f t="shared" si="15"/>
+        <v>6.1090540709549925</v>
+      </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="9" t="e">
-        <f t="shared" ref="C22:D22" si="14">C20/C23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D22" s="9" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E22" s="9">
-        <f>E20/E23</f>
-        <v>1.2664982079442137</v>
-      </c>
-      <c r="F22" s="9" t="e">
-        <f t="shared" ref="F22:V22" si="15">F20/F23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G22" s="9">
-        <f t="shared" si="15"/>
-        <v>2.1867516608732189</v>
-      </c>
-      <c r="H22" s="9" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I22" s="9">
-        <f t="shared" si="15"/>
-        <v>1.4029743605912299</v>
-      </c>
-      <c r="J22" s="9" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K22" s="9">
-        <f t="shared" si="15"/>
-        <v>2.408875802262394</v>
-      </c>
-      <c r="L22" s="9" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M22" s="9" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N22" s="9" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4">
+        <v>15697.614</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4">
+        <v>15509.763000000001</v>
+      </c>
+      <c r="H22" s="4">
+        <v>15405.856</v>
+      </c>
+      <c r="I22" s="4">
+        <v>15287.521000000001</v>
+      </c>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4">
+        <v>15081.724</v>
+      </c>
+      <c r="L22" s="4">
+        <v>14994.082</v>
+      </c>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
       <c r="O22" s="4"/>
-      <c r="P22" s="9" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q22" s="9" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R22" s="9" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S22" s="9" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T22" s="9">
-        <f t="shared" si="15"/>
-        <v>6.1546144376377772</v>
-      </c>
-      <c r="U22" s="9">
-        <f t="shared" si="15"/>
-        <v>6.1606692635543778</v>
-      </c>
-      <c r="V22" s="9">
-        <f t="shared" si="15"/>
-        <v>6.1090540709549925</v>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4">
+        <v>16215.963</v>
+      </c>
+      <c r="U22" s="4">
+        <v>15744.231</v>
+      </c>
+      <c r="V22" s="4">
+        <v>15343.782999999999</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="4">
-        <v>15697.614</v>
-      </c>
+      <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="4">
-        <v>15509.763000000001</v>
-      </c>
+      <c r="G23" s="4"/>
       <c r="H23" s="4"/>
-      <c r="I23" s="4">
-        <v>15287.521000000001</v>
-      </c>
+      <c r="I23" s="4"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="4">
-        <v>15081.724</v>
-      </c>
+      <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
@@ -1954,41 +1999,65 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
-      <c r="T23" s="4">
-        <v>16215.963</v>
-      </c>
-      <c r="U23" s="4">
-        <v>15744.231</v>
-      </c>
-      <c r="V23" s="4">
-        <v>15343.782999999999</v>
-      </c>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
+      <c r="H24" s="4" t="e">
+        <f t="shared" ref="H24:H27" si="16">H3/D3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I24" s="10">
+        <f>I3/E3-1</f>
+        <v>-9.4028082381708566E-3</v>
+      </c>
+      <c r="J24" s="4" t="e">
+        <f>J3/F3-1</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
+      <c r="Q24" s="10" t="e">
+        <f t="shared" ref="Q24:U27" si="17">+Q3/P3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R24" s="10" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S24" s="10" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T24" s="10" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U24" s="10">
+        <f t="shared" si="17"/>
+        <v>-2.3874757286278081E-2</v>
+      </c>
+      <c r="V24" s="10">
+        <f>+V3/U3-1</f>
+        <v>2.9912804175826757E-3</v>
+      </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -1996,15 +2065,15 @@
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4" t="e">
-        <f t="shared" ref="H25:H28" si="16">H4/D4-1</f>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I25" s="10">
-        <f>I4/E4-1</f>
-        <v>-9.4028082381708566E-3</v>
+        <f t="shared" ref="I25:J27" si="18">I4/E4-1</f>
+        <v>2.4707602339181234E-2</v>
       </c>
       <c r="J25" s="4" t="e">
-        <f>J4/F4-1</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K25" s="4"/>
@@ -2014,7 +2083,7 @@
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="10" t="e">
-        <f t="shared" ref="Q25:U28" si="17">+Q4/P4-1</f>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R25" s="10" t="e">
@@ -2031,16 +2100,16 @@
       </c>
       <c r="U25" s="10">
         <f t="shared" si="17"/>
-        <v>-2.3874757286278081E-2</v>
+        <v>-0.26930831072504169</v>
       </c>
       <c r="V25" s="10">
-        <f>+V4/U4-1</f>
-        <v>2.9912804175826757E-3</v>
+        <f t="shared" ref="V25:V27" si="19">+V4/U4-1</f>
+        <v>2.1357768164322E-2</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -2052,8 +2121,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I26" s="10">
-        <f t="shared" ref="I26:J28" si="18">I5/E5-1</f>
-        <v>2.4707602339181234E-2</v>
+        <f t="shared" si="18"/>
+        <v>0.23674667587635989</v>
       </c>
       <c r="J26" s="4" t="e">
         <f t="shared" si="18"/>
@@ -2083,16 +2152,16 @@
       </c>
       <c r="U26" s="10">
         <f t="shared" si="17"/>
-        <v>-0.26930831072504169</v>
+        <v>-3.3865901952751631E-2</v>
       </c>
       <c r="V26" s="10">
-        <f t="shared" ref="V26:V28" si="19">+V5/U5-1</f>
-        <v>2.1357768164322E-2</v>
+        <f t="shared" si="19"/>
+        <v>-5.674911660777382E-2</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -2105,7 +2174,7 @@
       </c>
       <c r="I27" s="10">
         <f t="shared" si="18"/>
-        <v>0.23674667587635989</v>
+        <v>-2.2573635924674096E-2</v>
       </c>
       <c r="J27" s="4" t="e">
         <f t="shared" si="18"/>
@@ -2135,16 +2204,16 @@
       </c>
       <c r="U27" s="10">
         <f t="shared" si="17"/>
-        <v>-3.3865901952751631E-2</v>
+        <v>-3.3849809655439933E-2</v>
       </c>
       <c r="V27" s="10">
         <f t="shared" si="19"/>
-        <v>-5.674911660777382E-2</v>
+        <v>-7.1276195256619435E-2</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -2152,15 +2221,15 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="H28" si="20">H8/D8-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I28" s="10">
-        <f t="shared" si="18"/>
-        <v>-2.2573635924674096E-2</v>
+        <f>I8/E8-1</f>
+        <v>0.1414227124876255</v>
       </c>
       <c r="J28" s="4" t="e">
-        <f t="shared" si="18"/>
+        <f>J8/F8-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K28" s="4"/>
@@ -2170,48 +2239,48 @@
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="Q28:U28" si="21">+Q8/P8-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R28" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S28" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T28" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U28" s="10">
-        <f t="shared" si="17"/>
-        <v>-3.3849809655439933E-2</v>
+        <f t="shared" si="21"/>
+        <v>9.0504166186691215E-2</v>
       </c>
       <c r="V28" s="10">
-        <f t="shared" si="19"/>
-        <v>-7.1276195256619435E-2</v>
+        <f>+V8/U8-1</f>
+        <v>0.12874413145539898</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="4" t="e">
-        <f t="shared" ref="H29" si="20">H9/D9-1</f>
+      <c r="H29" s="10" t="e">
+        <f>H9/D9-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I29" s="10">
         <f>I9/E9-1</f>
-        <v>0.1414227124876255</v>
-      </c>
-      <c r="J29" s="4" t="e">
+        <v>4.8657041211780383E-2</v>
+      </c>
+      <c r="J29" s="10" t="e">
         <f>J9/F9-1</f>
         <v>#DIV/0!</v>
       </c>
@@ -2222,49 +2291,64 @@
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="10" t="e">
-        <f t="shared" ref="Q29:U29" si="21">+Q9/P9-1</f>
+        <f t="shared" ref="Q29:U29" si="22">+Q9/P9-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R29" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S29" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T29" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U29" s="10">
-        <f t="shared" si="21"/>
-        <v>9.0504166186691215E-2</v>
+        <f t="shared" si="22"/>
+        <v>-2.800460530319937E-2</v>
       </c>
       <c r="V29" s="10">
         <f>+V9/U9-1</f>
-        <v>0.12874413145539898</v>
+        <v>2.021994077514111E-2</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="10" t="e">
-        <f>H10/D10-1</f>
+        <v>52</v>
+      </c>
+      <c r="C30" s="10" t="e">
+        <f t="shared" ref="C30:H30" si="23">C12/C9</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="D30" s="10" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E30" s="10">
+        <f t="shared" si="23"/>
+        <v>0.44516302553883397</v>
+      </c>
+      <c r="F30" s="10" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G30" s="10">
+        <f t="shared" si="23"/>
+        <v>0.45874973865774621</v>
+      </c>
+      <c r="H30" s="10">
+        <f t="shared" si="23"/>
+        <v>0.46578074554009236</v>
+      </c>
       <c r="I30" s="10">
-        <f>I10/E10-1</f>
-        <v>4.8657041211780383E-2</v>
+        <f>I12/I9</f>
+        <v>0.46257155181458898</v>
       </c>
       <c r="J30" s="10" t="e">
-        <f>J10/F10-1</f>
+        <f>J12/J9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K30" s="4"/>
@@ -2273,65 +2357,47 @@
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
-      <c r="Q30" s="10" t="e">
-        <f t="shared" ref="Q30:U30" si="22">+Q10/P10-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R30" s="10" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S30" s="10" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T30" s="10" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U30" s="10">
-        <f t="shared" si="22"/>
-        <v>-2.800460530319937E-2</v>
-      </c>
-      <c r="V30" s="10">
-        <f>+V10/U10-1</f>
-        <v>2.021994077514111E-2</v>
-      </c>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C31" s="10" t="e">
-        <f t="shared" ref="C31:H31" si="23">C13/C10</f>
+        <f t="shared" ref="C31:H31" si="24">C15/C9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D31" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E31" s="10">
-        <f t="shared" si="23"/>
-        <v>0.44516302553883397</v>
+        <f t="shared" si="24"/>
+        <v>0.28115945572576012</v>
       </c>
       <c r="F31" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G31" s="10">
-        <f t="shared" si="23"/>
-        <v>0.45874973865774621</v>
-      </c>
-      <c r="H31" s="10" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="24"/>
+        <v>0.33763746602550698</v>
+      </c>
+      <c r="H31" s="10">
+        <f t="shared" si="24"/>
+        <v>0.30742785362467356</v>
       </c>
       <c r="I31" s="10">
-        <f>I13/I10</f>
-        <v>0.46257155181458898</v>
+        <f>I15/I9</f>
+        <v>0.29555708406682446</v>
       </c>
       <c r="J31" s="10" t="e">
-        <f>J13/J10</f>
+        <f>J15/J9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K31" s="4"/>
@@ -2349,38 +2415,38 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C32" s="10" t="e">
-        <f t="shared" ref="C32:H32" si="24">C16/C10</f>
+        <f t="shared" ref="C32:H32" si="25">C18/C17</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D32" s="10" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E32" s="10">
-        <f t="shared" si="24"/>
-        <v>0.28115945572576012</v>
+        <f t="shared" si="25"/>
+        <v>0.12545638499098227</v>
       </c>
       <c r="F32" s="10" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G32" s="10">
-        <f t="shared" si="24"/>
-        <v>0.33763746602550698</v>
-      </c>
-      <c r="H32" s="10" t="e">
-        <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="25"/>
+        <v>0.15889194752374575</v>
+      </c>
+      <c r="H32" s="10">
+        <f t="shared" si="25"/>
+        <v>0.1576021099151757</v>
       </c>
       <c r="I32" s="10">
-        <f>I16/I10</f>
-        <v>0.29555708406682446</v>
+        <f>I18/I17</f>
+        <v>0.15870400878638111</v>
       </c>
       <c r="J32" s="10" t="e">
-        <f>J16/J10</f>
+        <f>J18/J17</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K32" s="4"/>
@@ -2397,41 +2463,14 @@
       <c r="V32" s="4"/>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="10" t="e">
-        <f t="shared" ref="C33:H33" si="25">C19/C18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D33" s="10" t="e">
-        <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E33" s="10">
-        <f t="shared" si="25"/>
-        <v>0.12545638499098227</v>
-      </c>
-      <c r="F33" s="10" t="e">
-        <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G33" s="10">
-        <f t="shared" si="25"/>
-        <v>0.15889194752374575</v>
-      </c>
-      <c r="H33" s="10" t="e">
-        <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I33" s="10">
-        <f>I19/I18</f>
-        <v>0.15870400878638111</v>
-      </c>
-      <c r="J33" s="10" t="e">
-        <f>J19/J18</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
@@ -2446,16 +2485,27 @@
       <c r="V33" s="4"/>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
+      <c r="E34" s="4">
+        <v>29965</v>
+      </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
+      <c r="H34" s="4">
+        <v>29943</v>
+      </c>
+      <c r="I34" s="4">
+        <v>25565</v>
+      </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
+      <c r="L34" s="4">
+        <v>28162</v>
+      </c>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
@@ -2468,19 +2518,27 @@
       <c r="V34" s="4"/>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B35" s="11" t="s">
+      <c r="B35" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
+      <c r="E35" s="4">
+        <v>31590</v>
+      </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
+      <c r="H35" s="4">
+        <v>35228</v>
+      </c>
+      <c r="I35" s="4">
+        <v>36236</v>
+      </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
+      <c r="L35" s="4">
+        <v>20336</v>
+      </c>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
@@ -2499,17 +2557,21 @@
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4">
-        <v>29965</v>
+        <v>29508</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
+      <c r="H36" s="4">
+        <v>33410</v>
+      </c>
       <c r="I36" s="4">
-        <v>25565</v>
+        <v>22795</v>
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
+      <c r="L36" s="4">
+        <v>26136</v>
+      </c>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
@@ -2528,17 +2590,21 @@
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4">
-        <v>31590</v>
+        <v>31477</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
+      <c r="H37" s="4">
+        <v>32833</v>
+      </c>
       <c r="I37" s="4">
-        <v>36236</v>
+        <v>20377</v>
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
+      <c r="L37" s="4">
+        <v>23662</v>
+      </c>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
@@ -2557,17 +2623,21 @@
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4">
-        <v>29508</v>
+        <v>6331</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
+      <c r="H38" s="4">
+        <v>7286</v>
+      </c>
       <c r="I38" s="4">
-        <v>22795</v>
+        <v>6165</v>
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
+      <c r="L38" s="4">
+        <v>6269</v>
+      </c>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
@@ -2586,17 +2656,21 @@
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4">
-        <v>31477</v>
+        <v>14695</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
+      <c r="H39" s="4">
+        <v>14287</v>
+      </c>
       <c r="I39" s="4">
-        <v>20377</v>
+        <v>14297</v>
       </c>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
+      <c r="L39" s="4">
+        <v>14109</v>
+      </c>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
@@ -2612,20 +2686,43 @@
       <c r="B40" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
+      <c r="C40" s="4">
+        <f t="shared" ref="C40:H40" si="26">SUM(C34:C39)</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="4">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
       <c r="E40" s="4">
-        <v>6331</v>
-      </c>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
+        <f>SUM(E34:E39)</f>
+        <v>143566</v>
+      </c>
+      <c r="F40" s="4">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="4">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="4">
+        <f t="shared" si="26"/>
+        <v>152987</v>
+      </c>
       <c r="I40" s="4">
-        <v>6165</v>
-      </c>
-      <c r="J40" s="4"/>
+        <f>SUM(I34:I39)</f>
+        <v>125435</v>
+      </c>
+      <c r="J40" s="4">
+        <f>SUM(J34:J39)</f>
+        <v>0</v>
+      </c>
       <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
+      <c r="L40" s="4">
+        <f>SUM(L34:L39)</f>
+        <v>118674</v>
+      </c>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
@@ -2639,22 +2736,26 @@
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4">
-        <v>14695</v>
+        <v>100544</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
+      <c r="H41" s="4">
+        <v>91479</v>
+      </c>
       <c r="I41" s="4">
-        <v>14297</v>
+        <v>91240</v>
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
+      <c r="L41" s="4">
+        <v>84424</v>
+      </c>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
@@ -2668,39 +2769,26 @@
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>63</v>
-      </c>
-      <c r="C42" s="4">
-        <f t="shared" ref="C42:H42" si="26">SUM(C36:C41)</f>
-        <v>0</v>
-      </c>
-      <c r="D42" s="4">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
       <c r="E42" s="4">
-        <f>SUM(E36:E41)</f>
-        <v>143566</v>
-      </c>
-      <c r="F42" s="4">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="G42" s="4">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
+        <v>43715</v>
+      </c>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
       <c r="H42" s="4">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <v>45680</v>
       </c>
       <c r="I42" s="4">
-        <f>SUM(I36:I41)</f>
-        <v>125435</v>
+        <v>44502</v>
       </c>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
+      <c r="L42" s="4">
+        <v>46876</v>
+      </c>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
@@ -2714,22 +2802,26 @@
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4">
-        <v>100544</v>
+        <v>64758</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
+      <c r="H43" s="4">
+        <v>74834</v>
+      </c>
       <c r="I43" s="4">
-        <v>91240</v>
+        <v>70435</v>
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
+      <c r="L43" s="4">
+        <v>81259</v>
+      </c>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
@@ -2743,22 +2835,48 @@
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>64</v>
-      </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
+        <v>63</v>
+      </c>
+      <c r="C44" s="4">
+        <f t="shared" ref="C44:H44" si="27">SUM(C41:C43)</f>
+        <v>0</v>
+      </c>
+      <c r="D44" s="4">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
       <c r="E44" s="4">
-        <v>43715</v>
-      </c>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
+        <f t="shared" si="27"/>
+        <v>209017</v>
+      </c>
+      <c r="F44" s="4">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="4">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="4">
+        <f t="shared" si="27"/>
+        <v>211993</v>
+      </c>
       <c r="I44" s="4">
-        <v>44502</v>
-      </c>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
+        <f>SUM(I41:I43)</f>
+        <v>206177</v>
+      </c>
+      <c r="J44" s="4">
+        <f t="shared" ref="J44:L44" si="28">SUM(J41:J43)</f>
+        <v>0</v>
+      </c>
+      <c r="K44" s="4">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="4">
+        <f t="shared" si="28"/>
+        <v>212559</v>
+      </c>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
@@ -2771,23 +2889,49 @@
       <c r="V44" s="4"/>
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>62</v>
-      </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4">
-        <v>64758</v>
-      </c>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4">
-        <v>70435</v>
-      </c>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
+      <c r="B45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" s="8">
+        <f>C44+C40</f>
+        <v>0</v>
+      </c>
+      <c r="D45" s="8">
+        <f>D44+D40</f>
+        <v>0</v>
+      </c>
+      <c r="E45" s="8">
+        <f>E44+E40</f>
+        <v>352583</v>
+      </c>
+      <c r="F45" s="8">
+        <f>F44+F40</f>
+        <v>0</v>
+      </c>
+      <c r="G45" s="8">
+        <f>G44+G40</f>
+        <v>0</v>
+      </c>
+      <c r="H45" s="8">
+        <f>H44+H40</f>
+        <v>364980</v>
+      </c>
+      <c r="I45" s="8">
+        <f>I44+I40</f>
+        <v>331612</v>
+      </c>
+      <c r="J45" s="8">
+        <f t="shared" ref="J45:L45" si="29">J44+J40</f>
+        <v>0</v>
+      </c>
+      <c r="K45" s="8">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="8">
+        <f t="shared" si="29"/>
+        <v>331233</v>
+      </c>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
@@ -2803,37 +2947,24 @@
       <c r="B46" t="s">
         <v>65</v>
       </c>
-      <c r="C46" s="4">
-        <f t="shared" ref="C46:H46" si="27">SUM(C43:C45)</f>
-        <v>0</v>
-      </c>
-      <c r="D46" s="4">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
       <c r="E46" s="4">
-        <f t="shared" si="27"/>
-        <v>209017</v>
-      </c>
-      <c r="F46" s="4">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="4">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
+        <v>62611</v>
+      </c>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
       <c r="H46" s="4">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <v>68960</v>
       </c>
       <c r="I46" s="4">
-        <f>SUM(I43:I45)</f>
-        <v>206177</v>
+        <v>47574</v>
       </c>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
+      <c r="L46" s="4">
+        <v>54126</v>
+      </c>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
@@ -2846,16 +2977,27 @@
       <c r="V46" s="4"/>
     </row>
     <row r="47" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>60</v>
+      </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
+      <c r="E47" s="4">
+        <v>58829</v>
+      </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
+      <c r="H47" s="4">
+        <v>78304</v>
+      </c>
+      <c r="I47" s="4">
+        <v>60889</v>
+      </c>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
+      <c r="L47" s="4">
+        <v>61849</v>
+      </c>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
@@ -2868,40 +3010,27 @@
       <c r="V47" s="4"/>
     </row>
     <row r="48" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B48" s="1" t="s">
+      <c r="B48" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="8">
-        <f t="shared" ref="C48:H48" si="28">C46+C42</f>
-        <v>0</v>
-      </c>
-      <c r="D48" s="8">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="E48" s="8">
-        <f t="shared" si="28"/>
-        <v>352583</v>
-      </c>
-      <c r="F48" s="8">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="G48" s="8">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="H48" s="8">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="I48" s="8">
-        <f>I46+I42</f>
-        <v>331612</v>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4">
+        <v>8061</v>
+      </c>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4">
+        <v>8249</v>
+      </c>
+      <c r="I48" s="4">
+        <v>8053</v>
       </c>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
+      <c r="L48" s="4">
+        <v>8976</v>
+      </c>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
@@ -2914,16 +3043,27 @@
       <c r="V48" s="4"/>
     </row>
     <row r="49" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>67</v>
+      </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
+      <c r="E49" s="4">
+        <v>5985</v>
+      </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
+      <c r="H49" s="4">
+        <v>9967</v>
+      </c>
+      <c r="I49" s="4">
+        <v>2994</v>
+      </c>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
+      <c r="L49" s="4">
+        <v>5982</v>
+      </c>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
@@ -2937,22 +3077,26 @@
     </row>
     <row r="50" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4">
-        <v>62611</v>
+        <v>9822</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
+      <c r="H50" s="4">
+        <v>10912</v>
+      </c>
       <c r="I50" s="4">
-        <v>47574</v>
+        <v>12114</v>
       </c>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
+      <c r="L50" s="4">
+        <v>13638</v>
+      </c>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
@@ -2966,22 +3110,48 @@
     </row>
     <row r="51" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>62</v>
-      </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="C51" s="4">
+        <f t="shared" ref="C51:H51" si="30">SUM(C46:C50)</f>
+        <v>0</v>
+      </c>
+      <c r="D51" s="4">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
       <c r="E51" s="4">
-        <v>58829</v>
-      </c>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
+        <f t="shared" si="30"/>
+        <v>145308</v>
+      </c>
+      <c r="F51" s="4">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="G51" s="4">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="H51" s="4">
+        <f t="shared" si="30"/>
+        <v>176392</v>
+      </c>
       <c r="I51" s="4">
-        <v>60889</v>
-      </c>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
+        <f>SUM(I46:I50)</f>
+        <v>131624</v>
+      </c>
+      <c r="J51" s="4">
+        <f t="shared" ref="J51:L51" si="31">SUM(J46:J50)</f>
+        <v>0</v>
+      </c>
+      <c r="K51" s="4">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="L51" s="4">
+        <f t="shared" si="31"/>
+        <v>144571</v>
+      </c>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
@@ -3000,17 +3170,21 @@
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4">
-        <v>8061</v>
+        <v>95281</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
+      <c r="H52" s="4">
+        <v>85750</v>
+      </c>
       <c r="I52" s="4">
-        <v>8053</v>
+        <v>86196</v>
       </c>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
+      <c r="L52" s="4">
+        <v>78566</v>
+      </c>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
@@ -3024,22 +3198,26 @@
     </row>
     <row r="53" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4">
-        <v>5985</v>
+        <v>49848</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
+      <c r="H53" s="4">
+        <v>45888</v>
+      </c>
       <c r="I53" s="4">
-        <v>2994</v>
+        <v>47084</v>
       </c>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
+      <c r="L53" s="4">
+        <v>41300</v>
+      </c>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
@@ -3053,22 +3231,45 @@
     </row>
     <row r="54" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>70</v>
-      </c>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="C54" s="4">
+        <f t="shared" ref="C54:H54" si="32">SUM(C52:C53)</f>
+        <v>0</v>
+      </c>
+      <c r="D54" s="4">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
       <c r="E54" s="4">
-        <v>9822</v>
-      </c>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
+        <f t="shared" si="32"/>
+        <v>145129</v>
+      </c>
+      <c r="F54" s="4">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="4">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="H54" s="4">
+        <f t="shared" si="32"/>
+        <v>131638</v>
+      </c>
       <c r="I54" s="4">
-        <v>12114</v>
+        <f>SUM(I52:I53)</f>
+        <v>133280</v>
       </c>
       <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
+      <c r="K54" s="4">
+        <f>SUM(K52:K53)</f>
+        <v>0</v>
+      </c>
+      <c r="L54" s="4">
+        <f>SUM(L52:L53)</f>
+        <v>119866</v>
+      </c>
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
@@ -3081,40 +3282,46 @@
       <c r="V54" s="4"/>
     </row>
     <row r="55" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>75</v>
-      </c>
-      <c r="C55" s="4">
-        <f t="shared" ref="C55:H55" si="29">SUM(C50:C54)</f>
+      <c r="B55" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" s="8">
+        <f>C54+C51</f>
         <v>0</v>
       </c>
-      <c r="D55" s="4">
-        <f t="shared" si="29"/>
+      <c r="D55" s="8">
+        <f>D54+D51</f>
         <v>0</v>
       </c>
-      <c r="E55" s="4">
-        <f t="shared" si="29"/>
-        <v>145308</v>
-      </c>
-      <c r="F55" s="4">
-        <f t="shared" si="29"/>
+      <c r="E55" s="8">
+        <f>E54+E51</f>
+        <v>290437</v>
+      </c>
+      <c r="F55" s="8">
+        <f>F54+F51</f>
         <v>0</v>
       </c>
-      <c r="G55" s="4">
-        <f t="shared" si="29"/>
+      <c r="G55" s="8">
+        <f>G54+G51</f>
         <v>0</v>
       </c>
-      <c r="H55" s="4">
-        <f t="shared" si="29"/>
+      <c r="H55" s="8">
+        <f>H54+H51</f>
+        <v>308030</v>
+      </c>
+      <c r="I55" s="8">
+        <f>I54+I51</f>
+        <v>264904</v>
+      </c>
+      <c r="J55" s="4"/>
+      <c r="K55" s="8">
+        <f t="shared" ref="K55:L55" si="33">K54+K51</f>
         <v>0</v>
       </c>
-      <c r="I55" s="4">
-        <f>SUM(I50:I54)</f>
-        <v>131624</v>
-      </c>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
+      <c r="L55" s="8">
+        <f t="shared" si="33"/>
+        <v>264437</v>
+      </c>
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
@@ -3128,22 +3335,26 @@
     </row>
     <row r="56" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4">
-        <v>95281</v>
+        <v>62146</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
+      <c r="H56" s="4">
+        <v>56950</v>
+      </c>
       <c r="I56" s="4">
-        <v>86196</v>
+        <v>66708</v>
       </c>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
+      <c r="L56" s="4">
+        <v>66796</v>
+      </c>
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
       <c r="O56" s="4"/>
@@ -3156,23 +3367,49 @@
       <c r="V56" s="4"/>
     </row>
     <row r="57" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>62</v>
-      </c>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4">
-        <v>49848</v>
-      </c>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4">
-        <v>47084</v>
-      </c>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
+      <c r="B57" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" s="8">
+        <f>C55+C56</f>
+        <v>0</v>
+      </c>
+      <c r="D57" s="8">
+        <f>D55+D56</f>
+        <v>0</v>
+      </c>
+      <c r="E57" s="8">
+        <f>E55+E56</f>
+        <v>352583</v>
+      </c>
+      <c r="F57" s="8">
+        <f>F55+F56</f>
+        <v>0</v>
+      </c>
+      <c r="G57" s="8">
+        <f>G55+G56</f>
+        <v>0</v>
+      </c>
+      <c r="H57" s="8">
+        <f>H55+H56</f>
+        <v>364980</v>
+      </c>
+      <c r="I57" s="8">
+        <f>I55+I56</f>
+        <v>331612</v>
+      </c>
+      <c r="J57" s="8">
+        <f t="shared" ref="J57:L57" si="34">J55+J56</f>
+        <v>0</v>
+      </c>
+      <c r="K57" s="8">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="L57" s="8">
+        <f t="shared" si="34"/>
+        <v>331233</v>
+      </c>
       <c r="M57" s="4"/>
       <c r="N57" s="4"/>
       <c r="O57" s="4"/>
@@ -3185,37 +3422,13 @@
       <c r="V57" s="4"/>
     </row>
     <row r="58" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>71</v>
-      </c>
-      <c r="C58" s="4">
-        <f t="shared" ref="C58:H58" si="30">SUM(C56:C57)</f>
-        <v>0</v>
-      </c>
-      <c r="D58" s="4">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="E58" s="4">
-        <f t="shared" si="30"/>
-        <v>145129</v>
-      </c>
-      <c r="F58" s="4">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="G58" s="4">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="H58" s="4">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="I58" s="4">
-        <f>SUM(I56:I57)</f>
-        <v>133280</v>
-      </c>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
@@ -3253,40 +3466,27 @@
       <c r="V59" s="4"/>
     </row>
     <row r="60" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B60" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C60" s="8">
-        <f t="shared" ref="C60:H60" si="31">C58+C55</f>
-        <v>0</v>
-      </c>
-      <c r="D60" s="8">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E60" s="8">
-        <f t="shared" si="31"/>
-        <v>290437</v>
-      </c>
-      <c r="F60" s="8">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="G60" s="8">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="H60" s="8">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="I60" s="8">
-        <f>I58+I55</f>
-        <v>264904</v>
+      <c r="B60" t="s">
+        <v>74</v>
+      </c>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4">
+        <v>88945</v>
+      </c>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4">
+        <v>62585</v>
+      </c>
+      <c r="I60" s="4">
+        <v>91443</v>
       </c>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
+      <c r="L60" s="4">
+        <v>53887</v>
+      </c>
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
       <c r="O60" s="4"/>
@@ -3299,16 +3499,27 @@
       <c r="V60" s="4"/>
     </row>
     <row r="61" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>75</v>
+      </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
+      <c r="E61" s="4">
+        <v>-8796</v>
+      </c>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
+      <c r="H61" s="4">
+        <v>-4388</v>
+      </c>
+      <c r="I61" s="4">
+        <v>-6539</v>
+      </c>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
+      <c r="L61" s="4">
+        <v>-6011</v>
+      </c>
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
       <c r="O61" s="4"/>
@@ -3322,22 +3533,48 @@
     </row>
     <row r="62" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>73</v>
-      </c>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
+        <v>76</v>
+      </c>
+      <c r="C62" s="4">
+        <f t="shared" ref="C62" si="35">C60-C61</f>
+        <v>0</v>
+      </c>
+      <c r="D62" s="4">
+        <f t="shared" ref="D62:H62" si="36">+D60+D61</f>
+        <v>0</v>
+      </c>
       <c r="E62" s="4">
-        <v>62146</v>
-      </c>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
+        <f t="shared" si="36"/>
+        <v>80149</v>
+      </c>
+      <c r="F62" s="4">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G62" s="4">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="H62" s="4">
+        <f t="shared" si="36"/>
+        <v>58197</v>
+      </c>
       <c r="I62" s="4">
-        <v>66708</v>
-      </c>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
+        <f>+I60+I61</f>
+        <v>84904</v>
+      </c>
+      <c r="J62" s="4">
+        <f t="shared" ref="J62:L62" si="37">+J60+J61</f>
+        <v>0</v>
+      </c>
+      <c r="K62" s="4">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="L62" s="4">
+        <f t="shared" si="37"/>
+        <v>47876</v>
+      </c>
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
       <c r="O62" s="4"/>
@@ -3372,37 +3609,13 @@
       <c r="V63" s="4"/>
     </row>
     <row r="64" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B64" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C64" s="8">
-        <f t="shared" ref="C64:H64" si="32">C60+C62</f>
-        <v>0</v>
-      </c>
-      <c r="D64" s="8">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="E64" s="8">
-        <f t="shared" si="32"/>
-        <v>352583</v>
-      </c>
-      <c r="F64" s="8">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="G64" s="8">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="H64" s="8">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="I64" s="8">
-        <f>I60+I62</f>
-        <v>331612</v>
-      </c>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
@@ -3417,7 +3630,7 @@
       <c r="U64" s="4"/>
       <c r="V64" s="4"/>
     </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
@@ -3439,7 +3652,7 @@
       <c r="U65" s="4"/>
       <c r="V65" s="4"/>
     </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
@@ -3461,21 +3674,14 @@
       <c r="U66" s="4"/>
       <c r="V66" s="4"/>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>76</v>
-      </c>
+    <row r="67" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
-      <c r="E67" s="4">
-        <v>88945</v>
-      </c>
+      <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
-      <c r="I67" s="4">
-        <v>91443</v>
-      </c>
+      <c r="I67" s="4"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
@@ -3490,21 +3696,14 @@
       <c r="U67" s="4"/>
       <c r="V67" s="4"/>
     </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>77</v>
-      </c>
+    <row r="68" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
-      <c r="E68" s="4">
-        <v>8796</v>
-      </c>
+      <c r="E68" s="4"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
-      <c r="I68" s="4">
-        <v>6539</v>
-      </c>
+      <c r="I68" s="4"/>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
@@ -3519,38 +3718,14 @@
       <c r="U68" s="4"/>
       <c r="V68" s="4"/>
     </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>78</v>
-      </c>
-      <c r="C69" s="4">
-        <f t="shared" ref="C69:H69" si="33">C67-C68</f>
-        <v>0</v>
-      </c>
-      <c r="D69" s="4">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="E69" s="4">
-        <f t="shared" si="33"/>
-        <v>80149</v>
-      </c>
-      <c r="F69" s="4">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="G69" s="4">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="H69" s="4">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="I69" s="4">
-        <f>I67-I68</f>
-        <v>84904</v>
-      </c>
+    <row r="69" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
@@ -3565,7 +3740,7 @@
       <c r="U69" s="4"/>
       <c r="V69" s="4"/>
     </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
@@ -3587,7 +3762,7 @@
       <c r="U70" s="4"/>
       <c r="V70" s="4"/>
     </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
@@ -3609,7 +3784,7 @@
       <c r="U71" s="4"/>
       <c r="V71" s="4"/>
     </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
@@ -3631,7 +3806,7 @@
       <c r="U72" s="4"/>
       <c r="V72" s="4"/>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
@@ -3653,7 +3828,7 @@
       <c r="U73" s="4"/>
       <c r="V73" s="4"/>
     </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
@@ -3675,7 +3850,7 @@
       <c r="U74" s="4"/>
       <c r="V74" s="4"/>
     </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
@@ -3697,7 +3872,7 @@
       <c r="U75" s="4"/>
       <c r="V75" s="4"/>
     </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
@@ -3719,7 +3894,7 @@
       <c r="U76" s="4"/>
       <c r="V76" s="4"/>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
@@ -3741,7 +3916,7 @@
       <c r="U77" s="4"/>
       <c r="V77" s="4"/>
     </row>
-    <row r="78" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
@@ -3763,7 +3938,7 @@
       <c r="U78" s="4"/>
       <c r="V78" s="4"/>
     </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
@@ -3785,7 +3960,7 @@
       <c r="U79" s="4"/>
       <c r="V79" s="4"/>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
@@ -14103,160 +14278,6 @@
       <c r="U548" s="4"/>
       <c r="V548" s="4"/>
     </row>
-    <row r="549" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C549" s="4"/>
-      <c r="D549" s="4"/>
-      <c r="E549" s="4"/>
-      <c r="F549" s="4"/>
-      <c r="G549" s="4"/>
-      <c r="H549" s="4"/>
-      <c r="I549" s="4"/>
-      <c r="J549" s="4"/>
-      <c r="K549" s="4"/>
-      <c r="L549" s="4"/>
-      <c r="M549" s="4"/>
-      <c r="N549" s="4"/>
-      <c r="O549" s="4"/>
-      <c r="P549" s="4"/>
-      <c r="Q549" s="4"/>
-      <c r="R549" s="4"/>
-      <c r="S549" s="4"/>
-      <c r="T549" s="4"/>
-      <c r="U549" s="4"/>
-      <c r="V549" s="4"/>
-    </row>
-    <row r="550" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C550" s="4"/>
-      <c r="D550" s="4"/>
-      <c r="E550" s="4"/>
-      <c r="F550" s="4"/>
-      <c r="G550" s="4"/>
-      <c r="H550" s="4"/>
-      <c r="I550" s="4"/>
-      <c r="J550" s="4"/>
-      <c r="K550" s="4"/>
-      <c r="L550" s="4"/>
-      <c r="M550" s="4"/>
-      <c r="N550" s="4"/>
-      <c r="O550" s="4"/>
-      <c r="P550" s="4"/>
-      <c r="Q550" s="4"/>
-      <c r="R550" s="4"/>
-      <c r="S550" s="4"/>
-      <c r="T550" s="4"/>
-      <c r="U550" s="4"/>
-      <c r="V550" s="4"/>
-    </row>
-    <row r="551" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C551" s="4"/>
-      <c r="D551" s="4"/>
-      <c r="E551" s="4"/>
-      <c r="F551" s="4"/>
-      <c r="G551" s="4"/>
-      <c r="H551" s="4"/>
-      <c r="I551" s="4"/>
-      <c r="J551" s="4"/>
-      <c r="K551" s="4"/>
-      <c r="L551" s="4"/>
-      <c r="M551" s="4"/>
-      <c r="N551" s="4"/>
-      <c r="O551" s="4"/>
-      <c r="P551" s="4"/>
-      <c r="Q551" s="4"/>
-      <c r="R551" s="4"/>
-      <c r="S551" s="4"/>
-      <c r="T551" s="4"/>
-      <c r="U551" s="4"/>
-      <c r="V551" s="4"/>
-    </row>
-    <row r="552" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C552" s="4"/>
-      <c r="D552" s="4"/>
-      <c r="E552" s="4"/>
-      <c r="F552" s="4"/>
-      <c r="G552" s="4"/>
-      <c r="H552" s="4"/>
-      <c r="I552" s="4"/>
-      <c r="J552" s="4"/>
-      <c r="K552" s="4"/>
-      <c r="L552" s="4"/>
-      <c r="M552" s="4"/>
-      <c r="N552" s="4"/>
-      <c r="O552" s="4"/>
-      <c r="P552" s="4"/>
-      <c r="Q552" s="4"/>
-      <c r="R552" s="4"/>
-      <c r="S552" s="4"/>
-      <c r="T552" s="4"/>
-      <c r="U552" s="4"/>
-      <c r="V552" s="4"/>
-    </row>
-    <row r="553" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C553" s="4"/>
-      <c r="D553" s="4"/>
-      <c r="E553" s="4"/>
-      <c r="F553" s="4"/>
-      <c r="G553" s="4"/>
-      <c r="H553" s="4"/>
-      <c r="I553" s="4"/>
-      <c r="J553" s="4"/>
-      <c r="K553" s="4"/>
-      <c r="L553" s="4"/>
-      <c r="M553" s="4"/>
-      <c r="N553" s="4"/>
-      <c r="O553" s="4"/>
-      <c r="P553" s="4"/>
-      <c r="Q553" s="4"/>
-      <c r="R553" s="4"/>
-      <c r="S553" s="4"/>
-      <c r="T553" s="4"/>
-      <c r="U553" s="4"/>
-      <c r="V553" s="4"/>
-    </row>
-    <row r="554" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C554" s="4"/>
-      <c r="D554" s="4"/>
-      <c r="E554" s="4"/>
-      <c r="F554" s="4"/>
-      <c r="G554" s="4"/>
-      <c r="H554" s="4"/>
-      <c r="I554" s="4"/>
-      <c r="J554" s="4"/>
-      <c r="K554" s="4"/>
-      <c r="L554" s="4"/>
-      <c r="M554" s="4"/>
-      <c r="N554" s="4"/>
-      <c r="O554" s="4"/>
-      <c r="P554" s="4"/>
-      <c r="Q554" s="4"/>
-      <c r="R554" s="4"/>
-      <c r="S554" s="4"/>
-      <c r="T554" s="4"/>
-      <c r="U554" s="4"/>
-      <c r="V554" s="4"/>
-    </row>
-    <row r="555" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C555" s="4"/>
-      <c r="D555" s="4"/>
-      <c r="E555" s="4"/>
-      <c r="F555" s="4"/>
-      <c r="G555" s="4"/>
-      <c r="H555" s="4"/>
-      <c r="I555" s="4"/>
-      <c r="J555" s="4"/>
-      <c r="K555" s="4"/>
-      <c r="L555" s="4"/>
-      <c r="M555" s="4"/>
-      <c r="N555" s="4"/>
-      <c r="O555" s="4"/>
-      <c r="P555" s="4"/>
-      <c r="Q555" s="4"/>
-      <c r="R555" s="4"/>
-      <c r="S555" s="4"/>
-      <c r="T555" s="4"/>
-      <c r="U555" s="4"/>
-      <c r="V555" s="4"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{1E0A2920-CA5F-4F5B-A0AF-B7AD0B650413}"/>

--- a/AAPL.xlsx
+++ b/AAPL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10F6235-0098-442A-8932-B36CFDC0272A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BD31E5-6CA0-4852-BAA2-70E48C38DA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{5CC9697C-BEBF-454C-9830-8930A9F64DCB}"/>
   </bookViews>
@@ -360,7 +360,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -376,6 +376,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -715,7 +716,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:I7"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,7 +740,7 @@
         <v>4</v>
       </c>
       <c r="H3" s="5">
-        <v>206.15</v>
+        <v>203.75</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -750,10 +751,10 @@
         <v>5</v>
       </c>
       <c r="H4" s="4">
-        <v>14935.825999999999</v>
+        <v>14840.39</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -765,7 +766,7 @@
       </c>
       <c r="H5" s="4">
         <f>H3*H4</f>
-        <v>3079020.5299</v>
+        <v>3023729.4624999999</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -773,11 +774,11 @@
         <v>7</v>
       </c>
       <c r="H6" s="4">
-        <f>84424+28162+20336</f>
-        <v>132922</v>
+        <f>36269+19103+77614</f>
+        <v>132986</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -791,11 +792,11 @@
         <v>8</v>
       </c>
       <c r="H7" s="4">
-        <f>78566+13638+5982</f>
-        <v>98186</v>
+        <f>9345+82430</f>
+        <v>91775</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -804,7 +805,7 @@
       </c>
       <c r="H8" s="4">
         <f>H5-H6+H7</f>
-        <v>3044284.5299</v>
+        <v>2982518.4624999999</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -824,13 +825,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41AC909-CB0A-404C-BB37-AEC25D043BC8}">
-  <dimension ref="A1:V548"/>
+  <dimension ref="A1:W548"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomRight" activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,7 +931,9 @@
       <c r="L3" s="4">
         <v>46841</v>
       </c>
-      <c r="M3" s="4"/>
+      <c r="M3" s="4">
+        <v>44582</v>
+      </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
@@ -973,7 +976,9 @@
       <c r="L4" s="4">
         <v>7949</v>
       </c>
-      <c r="M4" s="4"/>
+      <c r="M4" s="4">
+        <v>8046</v>
+      </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
@@ -1016,7 +1021,9 @@
       <c r="L5" s="4">
         <v>6402</v>
       </c>
-      <c r="M5" s="4"/>
+      <c r="M5" s="4">
+        <v>6581</v>
+      </c>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
@@ -1059,7 +1066,9 @@
       <c r="L6" s="4">
         <v>7522</v>
       </c>
-      <c r="M6" s="4"/>
+      <c r="M6" s="4">
+        <v>7404</v>
+      </c>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
@@ -1102,7 +1111,9 @@
       <c r="L7" s="4">
         <v>68714</v>
       </c>
-      <c r="M7" s="4"/>
+      <c r="M7" s="4">
+        <v>66613</v>
+      </c>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
@@ -1148,7 +1159,9 @@
       <c r="L8" s="4">
         <v>26645</v>
       </c>
-      <c r="M8" s="4"/>
+      <c r="M8" s="4">
+        <v>27423</v>
+      </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
@@ -1211,7 +1224,7 @@
       </c>
       <c r="M9" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>94036</v>
       </c>
       <c r="N9" s="8">
         <f t="shared" si="1"/>
@@ -1273,7 +1286,9 @@
       <c r="L10" s="4">
         <v>44030</v>
       </c>
-      <c r="M10" s="4"/>
+      <c r="M10" s="4">
+        <v>43620</v>
+      </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
@@ -1316,7 +1331,9 @@
       <c r="L11" s="4">
         <v>6462</v>
       </c>
-      <c r="M11" s="4"/>
+      <c r="M11" s="4">
+        <v>6698</v>
+      </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
@@ -1379,7 +1396,7 @@
       </c>
       <c r="M12" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>43718</v>
       </c>
       <c r="N12" s="4">
         <f t="shared" si="4"/>
@@ -1441,7 +1458,9 @@
       <c r="L13" s="4">
         <v>8550</v>
       </c>
-      <c r="M13" s="4"/>
+      <c r="M13" s="4">
+        <v>8866</v>
+      </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
@@ -1484,7 +1503,9 @@
       <c r="L14" s="4">
         <v>6728</v>
       </c>
-      <c r="M14" s="4"/>
+      <c r="M14" s="4">
+        <v>6650</v>
+      </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
@@ -1547,7 +1568,7 @@
       </c>
       <c r="M15" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>28202</v>
       </c>
       <c r="N15" s="4">
         <f t="shared" si="7"/>
@@ -1609,7 +1630,9 @@
       <c r="L16" s="4">
         <v>-279</v>
       </c>
-      <c r="M16" s="4"/>
+      <c r="M16" s="4">
+        <v>-171</v>
+      </c>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
@@ -1626,7 +1649,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>38</v>
       </c>
@@ -1672,7 +1695,7 @@
       </c>
       <c r="M17" s="4">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>28031</v>
       </c>
       <c r="N17" s="4">
         <f t="shared" si="10"/>
@@ -1708,7 +1731,7 @@
         <v>123485</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>39</v>
       </c>
@@ -1734,7 +1757,9 @@
       <c r="L18" s="4">
         <v>4530</v>
       </c>
-      <c r="M18" s="4"/>
+      <c r="M18" s="4">
+        <v>4597</v>
+      </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
@@ -1751,7 +1776,7 @@
         <v>29749</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>40</v>
       </c>
@@ -1797,7 +1822,7 @@
       </c>
       <c r="M19" s="4">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>23434</v>
       </c>
       <c r="N19" s="4">
         <f t="shared" si="13"/>
@@ -1833,7 +1858,7 @@
         <v>93736</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -1856,7 +1881,7 @@
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>41</v>
       </c>
@@ -1900,9 +1925,9 @@
         <f t="shared" si="15"/>
         <v>1.6526520263127813</v>
       </c>
-      <c r="M21" s="9" t="e">
+      <c r="M21" s="9">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>1.5724471085667568</v>
       </c>
       <c r="N21" s="9" t="e">
         <f t="shared" si="15"/>
@@ -1938,7 +1963,7 @@
         <v>6.1090540709549925</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>5</v>
       </c>
@@ -1964,7 +1989,9 @@
       <c r="L22" s="4">
         <v>14994.082</v>
       </c>
-      <c r="M22" s="4"/>
+      <c r="M22" s="4">
+        <v>14902.886</v>
+      </c>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
@@ -1981,7 +2008,7 @@
         <v>15343.782999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -2003,7 +2030,7 @@
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>46</v>
       </c>
@@ -2024,30 +2051,42 @@
         <f>J3/F3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
+      <c r="K24" s="10">
+        <f t="shared" ref="K24:N27" si="17">K3/G3-1</f>
+        <v>-8.0915899113368495E-3</v>
+      </c>
+      <c r="L24" s="10">
+        <f t="shared" si="17"/>
+        <v>1.9102321432456604E-2</v>
+      </c>
+      <c r="M24" s="10">
+        <f t="shared" si="17"/>
+        <v>0.13451750814332253</v>
+      </c>
+      <c r="N24" s="10" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="10" t="e">
-        <f t="shared" ref="Q24:U27" si="17">+Q3/P3-1</f>
+        <f t="shared" ref="Q24:U27" si="18">+Q3/P3-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R24" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S24" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T24" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U24" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-2.3874757286278081E-2</v>
       </c>
       <c r="V24" s="10">
@@ -2055,7 +2094,7 @@
         <v>2.9912804175826757E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>47</v>
       </c>
@@ -2069,45 +2108,57 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I25" s="10">
-        <f t="shared" ref="I25:J27" si="18">I4/E4-1</f>
+        <f t="shared" ref="I25:J27" si="19">I4/E4-1</f>
         <v>2.4707602339181234E-2</v>
       </c>
       <c r="J25" s="4" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
+      <c r="K25" s="10">
+        <f t="shared" si="17"/>
+        <v>0.15514138817480716</v>
+      </c>
+      <c r="L25" s="10">
+        <f t="shared" si="17"/>
+        <v>6.6836666219299401E-2</v>
+      </c>
+      <c r="M25" s="10">
+        <f t="shared" si="17"/>
+        <v>0.14795263232986167</v>
+      </c>
+      <c r="N25" s="10" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R25" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S25" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T25" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U25" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-0.26930831072504169</v>
       </c>
       <c r="V25" s="10">
-        <f t="shared" ref="V25:V27" si="19">+V4/U4-1</f>
+        <f t="shared" ref="V25:V27" si="20">+V4/U4-1</f>
         <v>2.1357768164322E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>48</v>
       </c>
@@ -2121,45 +2172,57 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I26" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.23674667587635989</v>
       </c>
       <c r="J26" s="4" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
+      <c r="K26" s="10">
+        <f t="shared" si="17"/>
+        <v>0.15164459632635618</v>
+      </c>
+      <c r="L26" s="10">
+        <f t="shared" si="17"/>
+        <v>0.15164597949271452</v>
+      </c>
+      <c r="M26" s="10">
+        <f t="shared" si="17"/>
+        <v>-8.1122591454900861E-2</v>
+      </c>
+      <c r="N26" s="10" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R26" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S26" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T26" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U26" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-3.3865901952751631E-2</v>
       </c>
       <c r="V26" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-5.674911660777382E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>49</v>
       </c>
@@ -2173,45 +2236,57 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I27" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-2.2573635924674096E-2</v>
       </c>
       <c r="J27" s="4" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
+      <c r="K27" s="10">
+        <f t="shared" si="17"/>
+        <v>-1.7234167154689173E-2</v>
+      </c>
+      <c r="L27" s="10">
+        <f t="shared" si="17"/>
+        <v>-4.9412359408568141E-2</v>
+      </c>
+      <c r="M27" s="10">
+        <f t="shared" si="17"/>
+        <v>-8.5587254538718072E-2</v>
+      </c>
+      <c r="N27" s="10" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R27" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S27" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T27" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U27" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-3.3849809655439933E-2</v>
       </c>
       <c r="V27" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-7.1276195256619435E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>50</v>
       </c>
@@ -2221,7 +2296,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4" t="e">
-        <f t="shared" ref="H28" si="20">H8/D8-1</f>
+        <f t="shared" ref="H28" si="21">H8/D8-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I28" s="10">
@@ -2232,30 +2307,42 @@
         <f>J8/F8-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
+      <c r="K28" s="10">
+        <f t="shared" ref="K28:N28" si="22">K8/G8-1</f>
+        <v>0.13942120517368162</v>
+      </c>
+      <c r="L28" s="10">
+        <f t="shared" si="22"/>
+        <v>0.11639502241588806</v>
+      </c>
+      <c r="M28" s="10">
+        <f t="shared" si="22"/>
+        <v>0.13257341097757402</v>
+      </c>
+      <c r="N28" s="10" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="10" t="e">
-        <f t="shared" ref="Q28:U28" si="21">+Q8/P8-1</f>
+        <f t="shared" ref="Q28:U28" si="23">+Q8/P8-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R28" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S28" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T28" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U28" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>9.0504166186691215E-2</v>
       </c>
       <c r="V28" s="10">
@@ -2263,84 +2350,97 @@
         <v>0.12874413145539898</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="10" t="e">
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="11" t="e">
         <f>H9/D9-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I29" s="11">
         <f>I9/E9-1</f>
         <v>4.8657041211780383E-2</v>
       </c>
-      <c r="J29" s="10" t="e">
+      <c r="J29" s="11" t="e">
         <f>J9/F9-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="10" t="e">
-        <f t="shared" ref="Q29:U29" si="22">+Q9/P9-1</f>
+      <c r="K29" s="11">
+        <f t="shared" ref="K29:N29" si="24">K9/G9-1</f>
+        <v>3.9514948776918191E-2</v>
+      </c>
+      <c r="L29" s="11">
+        <f t="shared" si="24"/>
+        <v>5.075314314678292E-2</v>
+      </c>
+      <c r="M29" s="11">
+        <f t="shared" si="24"/>
+        <v>9.628455180293094E-2</v>
+      </c>
+      <c r="N29" s="11" t="e">
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R29" s="10" t="e">
-        <f t="shared" si="22"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="11" t="e">
+        <f t="shared" ref="Q29:U29" si="25">+Q9/P9-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S29" s="10" t="e">
-        <f t="shared" si="22"/>
+      <c r="R29" s="11" t="e">
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T29" s="10" t="e">
-        <f t="shared" si="22"/>
+      <c r="S29" s="11" t="e">
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U29" s="10">
-        <f t="shared" si="22"/>
+      <c r="T29" s="11" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U29" s="11">
+        <f t="shared" si="25"/>
         <v>-2.800460530319937E-2</v>
       </c>
-      <c r="V29" s="10">
+      <c r="V29" s="11">
         <f>+V9/U9-1</f>
         <v>2.021994077514111E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W29" s="1"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>52</v>
       </c>
       <c r="C30" s="10" t="e">
-        <f t="shared" ref="C30:H30" si="23">C12/C9</f>
+        <f t="shared" ref="C30:H30" si="26">C12/C9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D30" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E30" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.44516302553883397</v>
       </c>
       <c r="F30" s="10" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G30" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.45874973865774621</v>
       </c>
       <c r="H30" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.46578074554009236</v>
       </c>
       <c r="I30" s="10">
@@ -2351,10 +2451,22 @@
         <f>J12/J9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
+      <c r="K30" s="10">
+        <f t="shared" ref="K30:N30" si="27">K12/K9</f>
+        <v>0.46882542236524538</v>
+      </c>
+      <c r="L30" s="10">
+        <f t="shared" si="27"/>
+        <v>0.47050619238876246</v>
+      </c>
+      <c r="M30" s="10">
+        <f t="shared" si="27"/>
+        <v>0.46490705687183631</v>
+      </c>
+      <c r="N30" s="10" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
@@ -2364,32 +2476,32 @@
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>53</v>
       </c>
       <c r="C31" s="10" t="e">
-        <f t="shared" ref="C31:H31" si="24">C15/C9</f>
+        <f t="shared" ref="C31:H31" si="28">C15/C9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D31" s="10" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E31" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0.28115945572576012</v>
       </c>
       <c r="F31" s="10" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G31" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0.33763746602550698</v>
       </c>
       <c r="H31" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0.30742785362467356</v>
       </c>
       <c r="I31" s="10">
@@ -2400,10 +2512,22 @@
         <f>J15/J9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
+      <c r="K31" s="10">
+        <f t="shared" ref="K31:N31" si="29">K15/K9</f>
+        <v>0.34458567980691873</v>
+      </c>
+      <c r="L31" s="10">
+        <f t="shared" si="29"/>
+        <v>0.31029058610094484</v>
+      </c>
+      <c r="M31" s="10">
+        <f t="shared" si="29"/>
+        <v>0.29990641881832492</v>
+      </c>
+      <c r="N31" s="10" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
@@ -2413,32 +2537,32 @@
       <c r="U31" s="4"/>
       <c r="V31" s="4"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>54</v>
       </c>
       <c r="C32" s="10" t="e">
-        <f t="shared" ref="C32:H32" si="25">C18/C17</f>
+        <f t="shared" ref="C32:H32" si="30">C18/C17</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D32" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E32" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0.12545638499098227</v>
       </c>
       <c r="F32" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G32" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0.15889194752374575</v>
       </c>
       <c r="H32" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0.1576021099151757</v>
       </c>
       <c r="I32" s="10">
@@ -2449,10 +2573,22 @@
         <f>J18/J17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
+      <c r="K32" s="10">
+        <f t="shared" ref="K32:N32" si="31">K18/K17</f>
+        <v>0.14686267142588766</v>
+      </c>
+      <c r="L32" s="10">
+        <f t="shared" si="31"/>
+        <v>0.15455475946775846</v>
+      </c>
+      <c r="M32" s="10">
+        <f t="shared" si="31"/>
+        <v>0.16399700331775535</v>
+      </c>
+      <c r="N32" s="10" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
@@ -2687,11 +2823,11 @@
         <v>61</v>
       </c>
       <c r="C40" s="4">
-        <f t="shared" ref="C40:H40" si="26">SUM(C34:C39)</f>
+        <f t="shared" ref="C40:H40" si="32">SUM(C34:C39)</f>
         <v>0</v>
       </c>
       <c r="D40" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="E40" s="4">
@@ -2699,15 +2835,15 @@
         <v>143566</v>
       </c>
       <c r="F40" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="G40" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H40" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>152987</v>
       </c>
       <c r="I40" s="4">
@@ -2838,27 +2974,27 @@
         <v>63</v>
       </c>
       <c r="C44" s="4">
-        <f t="shared" ref="C44:H44" si="27">SUM(C41:C43)</f>
+        <f t="shared" ref="C44:H44" si="33">SUM(C41:C43)</f>
         <v>0</v>
       </c>
       <c r="D44" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="E44" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>209017</v>
       </c>
       <c r="F44" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="G44" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="H44" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>211993</v>
       </c>
       <c r="I44" s="4">
@@ -2866,15 +3002,15 @@
         <v>206177</v>
       </c>
       <c r="J44" s="4">
-        <f t="shared" ref="J44:L44" si="28">SUM(J41:J43)</f>
+        <f t="shared" ref="J44:L44" si="34">SUM(J41:J43)</f>
         <v>0</v>
       </c>
       <c r="K44" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L44" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>212559</v>
       </c>
       <c r="M44" s="4"/>
@@ -2893,43 +3029,43 @@
         <v>64</v>
       </c>
       <c r="C45" s="8">
-        <f>C44+C40</f>
+        <f t="shared" ref="C45:I45" si="35">C44+C40</f>
         <v>0</v>
       </c>
       <c r="D45" s="8">
-        <f>D44+D40</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="E45" s="8">
-        <f>E44+E40</f>
+        <f t="shared" si="35"/>
         <v>352583</v>
       </c>
       <c r="F45" s="8">
-        <f>F44+F40</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="G45" s="8">
-        <f>G44+G40</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H45" s="8">
-        <f>H44+H40</f>
+        <f t="shared" si="35"/>
         <v>364980</v>
       </c>
       <c r="I45" s="8">
-        <f>I44+I40</f>
+        <f t="shared" si="35"/>
         <v>331612</v>
       </c>
       <c r="J45" s="8">
-        <f t="shared" ref="J45:L45" si="29">J44+J40</f>
+        <f t="shared" ref="J45:L45" si="36">J44+J40</f>
         <v>0</v>
       </c>
       <c r="K45" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="L45" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>331233</v>
       </c>
       <c r="M45" s="4"/>
@@ -3113,27 +3249,27 @@
         <v>73</v>
       </c>
       <c r="C51" s="4">
-        <f t="shared" ref="C51:H51" si="30">SUM(C46:C50)</f>
+        <f t="shared" ref="C51:H51" si="37">SUM(C46:C50)</f>
         <v>0</v>
       </c>
       <c r="D51" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="E51" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>145308</v>
       </c>
       <c r="F51" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="G51" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="H51" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>176392</v>
       </c>
       <c r="I51" s="4">
@@ -3141,15 +3277,15 @@
         <v>131624</v>
       </c>
       <c r="J51" s="4">
-        <f t="shared" ref="J51:L51" si="31">SUM(J46:J50)</f>
+        <f t="shared" ref="J51:L51" si="38">SUM(J46:J50)</f>
         <v>0</v>
       </c>
       <c r="K51" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="L51" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>144571</v>
       </c>
       <c r="M51" s="4"/>
@@ -3234,27 +3370,27 @@
         <v>69</v>
       </c>
       <c r="C54" s="4">
-        <f t="shared" ref="C54:H54" si="32">SUM(C52:C53)</f>
+        <f t="shared" ref="C54:H54" si="39">SUM(C52:C53)</f>
         <v>0</v>
       </c>
       <c r="D54" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="E54" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>145129</v>
       </c>
       <c r="F54" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="G54" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="H54" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>131638</v>
       </c>
       <c r="I54" s="4">
@@ -3286,40 +3422,40 @@
         <v>70</v>
       </c>
       <c r="C55" s="8">
-        <f>C54+C51</f>
+        <f t="shared" ref="C55:I55" si="40">C54+C51</f>
         <v>0</v>
       </c>
       <c r="D55" s="8">
-        <f>D54+D51</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="E55" s="8">
-        <f>E54+E51</f>
+        <f t="shared" si="40"/>
         <v>290437</v>
       </c>
       <c r="F55" s="8">
-        <f>F54+F51</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="G55" s="8">
-        <f>G54+G51</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="H55" s="8">
-        <f>H54+H51</f>
+        <f t="shared" si="40"/>
         <v>308030</v>
       </c>
       <c r="I55" s="8">
-        <f>I54+I51</f>
+        <f t="shared" si="40"/>
         <v>264904</v>
       </c>
       <c r="J55" s="4"/>
       <c r="K55" s="8">
-        <f t="shared" ref="K55:L55" si="33">K54+K51</f>
+        <f t="shared" ref="K55:L55" si="41">K54+K51</f>
         <v>0</v>
       </c>
       <c r="L55" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>264437</v>
       </c>
       <c r="M55" s="4"/>
@@ -3371,43 +3507,43 @@
         <v>72</v>
       </c>
       <c r="C57" s="8">
-        <f>C55+C56</f>
+        <f t="shared" ref="C57:I57" si="42">C55+C56</f>
         <v>0</v>
       </c>
       <c r="D57" s="8">
-        <f>D55+D56</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="E57" s="8">
-        <f>E55+E56</f>
+        <f t="shared" si="42"/>
         <v>352583</v>
       </c>
       <c r="F57" s="8">
-        <f>F55+F56</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="G57" s="8">
-        <f>G55+G56</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="H57" s="8">
-        <f>H55+H56</f>
+        <f t="shared" si="42"/>
         <v>364980</v>
       </c>
       <c r="I57" s="8">
-        <f>I55+I56</f>
+        <f t="shared" si="42"/>
         <v>331612</v>
       </c>
       <c r="J57" s="8">
-        <f t="shared" ref="J57:L57" si="34">J55+J56</f>
+        <f t="shared" ref="J57:L57" si="43">J55+J56</f>
         <v>0</v>
       </c>
       <c r="K57" s="8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="L57" s="8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>331233</v>
       </c>
       <c r="M57" s="4"/>
@@ -3536,27 +3672,27 @@
         <v>76</v>
       </c>
       <c r="C62" s="4">
-        <f t="shared" ref="C62" si="35">C60-C61</f>
+        <f t="shared" ref="C62" si="44">C60-C61</f>
         <v>0</v>
       </c>
       <c r="D62" s="4">
-        <f t="shared" ref="D62:H62" si="36">+D60+D61</f>
+        <f t="shared" ref="D62:H62" si="45">+D60+D61</f>
         <v>0</v>
       </c>
       <c r="E62" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="45"/>
         <v>80149</v>
       </c>
       <c r="F62" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="G62" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="H62" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="45"/>
         <v>58197</v>
       </c>
       <c r="I62" s="4">
@@ -3564,15 +3700,15 @@
         <v>84904</v>
       </c>
       <c r="J62" s="4">
-        <f t="shared" ref="J62:L62" si="37">+J60+J61</f>
+        <f t="shared" ref="J62:L62" si="46">+J60+J61</f>
         <v>0</v>
       </c>
       <c r="K62" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="L62" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>47876</v>
       </c>
       <c r="M62" s="4"/>

--- a/AAPL.xlsx
+++ b/AAPL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BD31E5-6CA0-4852-BAA2-70E48C38DA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C590DDF8-858B-457F-A6D3-A8585D0B0350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{5CC9697C-BEBF-454C-9830-8930A9F64DCB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="1" xr2:uid="{5CC9697C-BEBF-454C-9830-8930A9F64DCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -297,7 +297,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.0;\(#,##0.0\)"/>
     <numFmt numFmtId="166" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,23 +306,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -336,6 +325,28 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -357,26 +368,27 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -715,53 +727,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64CED78A-9E29-4339-B274-4FCECE48B9E7}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="2" customWidth="1"/>
+    <col min="2" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="3">
         <v>203.75</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H4" s="4">
         <v>14840.39</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H5" s="4">
@@ -769,38 +783,38 @@
         <v>3023729.4624999999</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G6" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H6" s="4">
         <f>36269+19103+77614</f>
         <v>132986</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H7" s="4">
         <f>9345+82430</f>
         <v>91775</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G8" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H8" s="4">
@@ -808,13 +822,13 @@
         <v>2982518.4624999999</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G10" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G10" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G11" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G11" s="2" t="s">
         <v>82</v>
       </c>
     </row>
@@ -827,86 +841,87 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41AC909-CB0A-404C-BB37-AEC25D043BC8}">
   <dimension ref="A1:W548"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M26" sqref="M26"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C2" s="6" t="s">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6" t="s">
+      <c r="O2" s="5"/>
+      <c r="P2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="S2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="U2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="V2" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C3" s="4"/>
@@ -950,8 +965,8 @@
         <v>201183</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C4" s="4"/>
@@ -995,8 +1010,8 @@
         <v>29984</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C5" s="4"/>
@@ -1040,8 +1055,8 @@
         <v>26694</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="4"/>
@@ -1085,8 +1100,8 @@
         <v>37005</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="4"/>
@@ -1133,8 +1148,8 @@
         <v>294866</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="4"/>
@@ -1178,90 +1193,90 @@
         <v>96169</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="9">
         <f t="shared" ref="C9:H9" si="0">C7+C8</f>
         <v>0</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="9">
         <f t="shared" si="0"/>
         <v>81797</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="9">
         <f t="shared" si="0"/>
         <v>119575</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="9">
         <f t="shared" si="0"/>
         <v>90753</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="9">
         <f>I7+I8</f>
         <v>85777</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="9">
         <f t="shared" ref="J9:N9" si="1">J7+J8</f>
         <v>0</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="9">
         <f t="shared" si="1"/>
         <v>124300</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="9">
         <f t="shared" si="1"/>
         <v>95359</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="9">
         <f t="shared" si="1"/>
         <v>94036</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O9" s="4"/>
-      <c r="P9" s="8">
+      <c r="P9" s="9">
         <f t="shared" ref="P9:U9" si="2">+P7+P8</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="Q9" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R9" s="8">
+      <c r="R9" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S9" s="8">
+      <c r="S9" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T9" s="8">
+      <c r="T9" s="9">
         <f t="shared" si="2"/>
         <v>394328</v>
       </c>
-      <c r="U9" s="8">
+      <c r="U9" s="9">
         <f t="shared" si="2"/>
         <v>383285</v>
       </c>
-      <c r="V9" s="8">
+      <c r="V9" s="9">
         <f>+V7+V8</f>
         <v>391035</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="4"/>
@@ -1305,8 +1320,8 @@
         <v>185233</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="4"/>
@@ -1350,8 +1365,8 @@
         <v>25119</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="4">
@@ -1432,8 +1447,8 @@
         <v>180683</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="4"/>
@@ -1477,8 +1492,8 @@
         <v>31370</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="4"/>
@@ -1522,8 +1537,8 @@
         <v>26097</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="4">
@@ -1604,8 +1619,8 @@
         <v>123216</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C16" s="4"/>
@@ -1649,8 +1664,8 @@
         <v>269</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C17" s="4">
@@ -1731,8 +1746,8 @@
         <v>123485</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C18" s="4"/>
@@ -1776,8 +1791,8 @@
         <v>29749</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C19" s="4">
@@ -1858,7 +1873,7 @@
         <v>93736</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -1881,90 +1896,90 @@
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="9" t="e">
+      <c r="C21" s="10" t="e">
         <f t="shared" ref="C21:D21" si="14">C19/C22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D21" s="9" t="e">
+      <c r="D21" s="10" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="10">
         <f>E19/E22</f>
         <v>1.2664982079442137</v>
       </c>
-      <c r="F21" s="9" t="e">
+      <c r="F21" s="10" t="e">
         <f t="shared" ref="F21:V21" si="15">F19/F22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="10">
         <f t="shared" si="15"/>
         <v>2.1867516608732189</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="10">
         <f t="shared" si="15"/>
         <v>1.5342217920250585</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="10">
         <f t="shared" si="15"/>
         <v>1.4029743605912299</v>
       </c>
-      <c r="J21" s="9" t="e">
+      <c r="J21" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K21" s="10">
         <f t="shared" si="15"/>
         <v>2.408875802262394</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L21" s="10">
         <f t="shared" si="15"/>
         <v>1.6526520263127813</v>
       </c>
-      <c r="M21" s="9">
+      <c r="M21" s="10">
         <f t="shared" si="15"/>
         <v>1.5724471085667568</v>
       </c>
-      <c r="N21" s="9" t="e">
+      <c r="N21" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O21" s="4"/>
-      <c r="P21" s="9" t="e">
+      <c r="P21" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q21" s="9" t="e">
+      <c r="Q21" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R21" s="9" t="e">
+      <c r="R21" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S21" s="9" t="e">
+      <c r="S21" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T21" s="9">
+      <c r="T21" s="10">
         <f t="shared" si="15"/>
         <v>6.1546144376377772</v>
       </c>
-      <c r="U21" s="9">
+      <c r="U21" s="10">
         <f t="shared" si="15"/>
         <v>6.1606692635543778</v>
       </c>
-      <c r="V21" s="9">
+      <c r="V21" s="10">
         <f t="shared" si="15"/>
         <v>6.1090540709549925</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="4"/>
@@ -2008,7 +2023,7 @@
         <v>15343.782999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -2030,8 +2045,8 @@
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C24" s="4"/>
@@ -2043,7 +2058,7 @@
         <f t="shared" ref="H24:H27" si="16">H3/D3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I24" s="11">
         <f>I3/E3-1</f>
         <v>-9.4028082381708566E-3</v>
       </c>
@@ -2051,51 +2066,51 @@
         <f>J3/F3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K24" s="10">
+      <c r="K24" s="11">
         <f t="shared" ref="K24:N27" si="17">K3/G3-1</f>
         <v>-8.0915899113368495E-3</v>
       </c>
-      <c r="L24" s="10">
+      <c r="L24" s="11">
         <f t="shared" si="17"/>
         <v>1.9102321432456604E-2</v>
       </c>
-      <c r="M24" s="10">
+      <c r="M24" s="11">
         <f t="shared" si="17"/>
         <v>0.13451750814332253</v>
       </c>
-      <c r="N24" s="10" t="e">
+      <c r="N24" s="11" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
-      <c r="Q24" s="10" t="e">
+      <c r="Q24" s="11" t="e">
         <f t="shared" ref="Q24:U27" si="18">+Q3/P3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R24" s="10" t="e">
+      <c r="R24" s="11" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S24" s="10" t="e">
+      <c r="S24" s="11" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T24" s="10" t="e">
+      <c r="T24" s="11" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U24" s="10">
+      <c r="U24" s="11">
         <f t="shared" si="18"/>
         <v>-2.3874757286278081E-2</v>
       </c>
-      <c r="V24" s="10">
+      <c r="V24" s="11">
         <f>+V3/U3-1</f>
         <v>2.9912804175826757E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C25" s="4"/>
@@ -2107,7 +2122,7 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" s="11">
         <f t="shared" ref="I25:J27" si="19">I4/E4-1</f>
         <v>2.4707602339181234E-2</v>
       </c>
@@ -2115,51 +2130,51 @@
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K25" s="10">
+      <c r="K25" s="11">
         <f t="shared" si="17"/>
         <v>0.15514138817480716</v>
       </c>
-      <c r="L25" s="10">
+      <c r="L25" s="11">
         <f t="shared" si="17"/>
         <v>6.6836666219299401E-2</v>
       </c>
-      <c r="M25" s="10">
+      <c r="M25" s="11">
         <f t="shared" si="17"/>
         <v>0.14795263232986167</v>
       </c>
-      <c r="N25" s="10" t="e">
+      <c r="N25" s="11" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
-      <c r="Q25" s="10" t="e">
+      <c r="Q25" s="11" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R25" s="10" t="e">
+      <c r="R25" s="11" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S25" s="10" t="e">
+      <c r="S25" s="11" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T25" s="10" t="e">
+      <c r="T25" s="11" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U25" s="10">
+      <c r="U25" s="11">
         <f t="shared" si="18"/>
         <v>-0.26930831072504169</v>
       </c>
-      <c r="V25" s="10">
+      <c r="V25" s="11">
         <f t="shared" ref="V25:V27" si="20">+V4/U4-1</f>
         <v>2.1357768164322E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C26" s="4"/>
@@ -2171,7 +2186,7 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" s="11">
         <f t="shared" si="19"/>
         <v>0.23674667587635989</v>
       </c>
@@ -2179,51 +2194,51 @@
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K26" s="10">
+      <c r="K26" s="11">
         <f t="shared" si="17"/>
         <v>0.15164459632635618</v>
       </c>
-      <c r="L26" s="10">
+      <c r="L26" s="11">
         <f t="shared" si="17"/>
         <v>0.15164597949271452</v>
       </c>
-      <c r="M26" s="10">
+      <c r="M26" s="11">
         <f t="shared" si="17"/>
         <v>-8.1122591454900861E-2</v>
       </c>
-      <c r="N26" s="10" t="e">
+      <c r="N26" s="11" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
-      <c r="Q26" s="10" t="e">
+      <c r="Q26" s="11" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R26" s="10" t="e">
+      <c r="R26" s="11" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S26" s="10" t="e">
+      <c r="S26" s="11" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T26" s="10" t="e">
+      <c r="T26" s="11" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U26" s="10">
+      <c r="U26" s="11">
         <f t="shared" si="18"/>
         <v>-3.3865901952751631E-2</v>
       </c>
-      <c r="V26" s="10">
+      <c r="V26" s="11">
         <f t="shared" si="20"/>
         <v>-5.674911660777382E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C27" s="4"/>
@@ -2235,7 +2250,7 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="10">
+      <c r="I27" s="11">
         <f t="shared" si="19"/>
         <v>-2.2573635924674096E-2</v>
       </c>
@@ -2243,51 +2258,51 @@
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K27" s="10">
+      <c r="K27" s="11">
         <f t="shared" si="17"/>
         <v>-1.7234167154689173E-2</v>
       </c>
-      <c r="L27" s="10">
+      <c r="L27" s="11">
         <f t="shared" si="17"/>
         <v>-4.9412359408568141E-2</v>
       </c>
-      <c r="M27" s="10">
+      <c r="M27" s="11">
         <f t="shared" si="17"/>
         <v>-8.5587254538718072E-2</v>
       </c>
-      <c r="N27" s="10" t="e">
+      <c r="N27" s="11" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
-      <c r="Q27" s="10" t="e">
+      <c r="Q27" s="11" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R27" s="10" t="e">
+      <c r="R27" s="11" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S27" s="10" t="e">
+      <c r="S27" s="11" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T27" s="10" t="e">
+      <c r="T27" s="11" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U27" s="10">
+      <c r="U27" s="11">
         <f t="shared" si="18"/>
         <v>-3.3849809655439933E-2</v>
       </c>
-      <c r="V27" s="10">
+      <c r="V27" s="11">
         <f t="shared" si="20"/>
         <v>-7.1276195256619435E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C28" s="4"/>
@@ -2299,7 +2314,7 @@
         <f t="shared" ref="H28" si="21">H8/D8-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I28" s="11">
         <f>I8/E8-1</f>
         <v>0.1414227124876255</v>
       </c>
@@ -2307,163 +2322,163 @@
         <f>J8/F8-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K28" s="10">
+      <c r="K28" s="11">
         <f t="shared" ref="K28:N28" si="22">K8/G8-1</f>
         <v>0.13942120517368162</v>
       </c>
-      <c r="L28" s="10">
+      <c r="L28" s="11">
         <f t="shared" si="22"/>
         <v>0.11639502241588806</v>
       </c>
-      <c r="M28" s="10">
+      <c r="M28" s="11">
         <f t="shared" si="22"/>
         <v>0.13257341097757402</v>
       </c>
-      <c r="N28" s="10" t="e">
+      <c r="N28" s="11" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
-      <c r="Q28" s="10" t="e">
+      <c r="Q28" s="11" t="e">
         <f t="shared" ref="Q28:U28" si="23">+Q8/P8-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R28" s="10" t="e">
+      <c r="R28" s="11" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S28" s="10" t="e">
+      <c r="S28" s="11" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T28" s="10" t="e">
+      <c r="T28" s="11" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U28" s="10">
+      <c r="U28" s="11">
         <f t="shared" si="23"/>
         <v>9.0504166186691215E-2</v>
       </c>
-      <c r="V28" s="10">
+      <c r="V28" s="11">
         <f>+V8/U8-1</f>
         <v>0.12874413145539898</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="11" t="e">
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="12" t="e">
         <f>H9/D9-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I29" s="11">
+      <c r="I29" s="12">
         <f>I9/E9-1</f>
         <v>4.8657041211780383E-2</v>
       </c>
-      <c r="J29" s="11" t="e">
+      <c r="J29" s="12" t="e">
         <f>J9/F9-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K29" s="11">
+      <c r="K29" s="12">
         <f t="shared" ref="K29:N29" si="24">K9/G9-1</f>
         <v>3.9514948776918191E-2</v>
       </c>
-      <c r="L29" s="11">
+      <c r="L29" s="12">
         <f t="shared" si="24"/>
         <v>5.075314314678292E-2</v>
       </c>
-      <c r="M29" s="11">
+      <c r="M29" s="12">
         <f t="shared" si="24"/>
         <v>9.628455180293094E-2</v>
       </c>
-      <c r="N29" s="11" t="e">
+      <c r="N29" s="12" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="11" t="e">
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="12" t="e">
         <f t="shared" ref="Q29:U29" si="25">+Q9/P9-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R29" s="11" t="e">
+      <c r="R29" s="12" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S29" s="11" t="e">
+      <c r="S29" s="12" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T29" s="11" t="e">
+      <c r="T29" s="12" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U29" s="11">
+      <c r="U29" s="12">
         <f t="shared" si="25"/>
         <v>-2.800460530319937E-2</v>
       </c>
-      <c r="V29" s="11">
+      <c r="V29" s="12">
         <f>+V9/U9-1</f>
         <v>2.021994077514111E-2</v>
       </c>
       <c r="W29" s="1"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="10" t="e">
+      <c r="C30" s="11" t="e">
         <f t="shared" ref="C30:H30" si="26">C12/C9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D30" s="10" t="e">
+      <c r="D30" s="11" t="e">
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="11">
         <f t="shared" si="26"/>
         <v>0.44516302553883397</v>
       </c>
-      <c r="F30" s="10" t="e">
+      <c r="F30" s="11" t="e">
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="11">
         <f t="shared" si="26"/>
         <v>0.45874973865774621</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="11">
         <f t="shared" si="26"/>
         <v>0.46578074554009236</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="11">
         <f>I12/I9</f>
         <v>0.46257155181458898</v>
       </c>
-      <c r="J30" s="10" t="e">
+      <c r="J30" s="11" t="e">
         <f>J12/J9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K30" s="10">
+      <c r="K30" s="11">
         <f t="shared" ref="K30:N30" si="27">K12/K9</f>
         <v>0.46882542236524538</v>
       </c>
-      <c r="L30" s="10">
+      <c r="L30" s="11">
         <f t="shared" si="27"/>
         <v>0.47050619238876246</v>
       </c>
-      <c r="M30" s="10">
+      <c r="M30" s="11">
         <f t="shared" si="27"/>
         <v>0.46490705687183631</v>
       </c>
-      <c r="N30" s="10" t="e">
+      <c r="N30" s="11" t="e">
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
@@ -2476,55 +2491,55 @@
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="10" t="e">
+      <c r="C31" s="11" t="e">
         <f t="shared" ref="C31:H31" si="28">C15/C9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D31" s="10" t="e">
+      <c r="D31" s="11" t="e">
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="11">
         <f t="shared" si="28"/>
         <v>0.28115945572576012</v>
       </c>
-      <c r="F31" s="10" t="e">
+      <c r="F31" s="11" t="e">
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="11">
         <f t="shared" si="28"/>
         <v>0.33763746602550698</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="11">
         <f t="shared" si="28"/>
         <v>0.30742785362467356</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="11">
         <f>I15/I9</f>
         <v>0.29555708406682446</v>
       </c>
-      <c r="J31" s="10" t="e">
+      <c r="J31" s="11" t="e">
         <f>J15/J9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K31" s="10">
+      <c r="K31" s="11">
         <f t="shared" ref="K31:N31" si="29">K15/K9</f>
         <v>0.34458567980691873</v>
       </c>
-      <c r="L31" s="10">
+      <c r="L31" s="11">
         <f t="shared" si="29"/>
         <v>0.31029058610094484</v>
       </c>
-      <c r="M31" s="10">
+      <c r="M31" s="11">
         <f t="shared" si="29"/>
         <v>0.29990641881832492</v>
       </c>
-      <c r="N31" s="10" t="e">
+      <c r="N31" s="11" t="e">
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
@@ -2537,55 +2552,55 @@
       <c r="U31" s="4"/>
       <c r="V31" s="4"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="10" t="e">
+      <c r="C32" s="11" t="e">
         <f t="shared" ref="C32:H32" si="30">C18/C17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D32" s="10" t="e">
+      <c r="D32" s="11" t="e">
         <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="11">
         <f t="shared" si="30"/>
         <v>0.12545638499098227</v>
       </c>
-      <c r="F32" s="10" t="e">
+      <c r="F32" s="11" t="e">
         <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="11">
         <f t="shared" si="30"/>
         <v>0.15889194752374575</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H32" s="11">
         <f t="shared" si="30"/>
         <v>0.1576021099151757</v>
       </c>
-      <c r="I32" s="10">
+      <c r="I32" s="11">
         <f>I18/I17</f>
         <v>0.15870400878638111</v>
       </c>
-      <c r="J32" s="10" t="e">
+      <c r="J32" s="11" t="e">
         <f>J18/J17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K32" s="10">
+      <c r="K32" s="11">
         <f t="shared" ref="K32:N32" si="31">K18/K17</f>
         <v>0.14686267142588766</v>
       </c>
-      <c r="L32" s="10">
+      <c r="L32" s="11">
         <f t="shared" si="31"/>
         <v>0.15455475946775846</v>
       </c>
-      <c r="M32" s="10">
+      <c r="M32" s="11">
         <f t="shared" si="31"/>
         <v>0.16399700331775535</v>
       </c>
-      <c r="N32" s="10" t="e">
+      <c r="N32" s="11" t="e">
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
@@ -2598,7 +2613,7 @@
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -2620,8 +2635,8 @@
       <c r="U33" s="4"/>
       <c r="V33" s="4"/>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C34" s="4"/>
@@ -2653,8 +2668,8 @@
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="4"/>
@@ -2686,8 +2701,8 @@
       <c r="U35" s="4"/>
       <c r="V35" s="4"/>
     </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+    <row r="36" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C36" s="4"/>
@@ -2719,8 +2734,8 @@
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C37" s="4"/>
@@ -2752,8 +2767,8 @@
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B38" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C38" s="4"/>
@@ -2785,8 +2800,8 @@
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C39" s="4"/>
@@ -2818,8 +2833,8 @@
       <c r="U39" s="4"/>
       <c r="V39" s="4"/>
     </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C40" s="4">
@@ -2870,8 +2885,8 @@
       <c r="U40" s="4"/>
       <c r="V40" s="4"/>
     </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C41" s="4"/>
@@ -2903,8 +2918,8 @@
       <c r="U41" s="4"/>
       <c r="V41" s="4"/>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C42" s="4"/>
@@ -2936,8 +2951,8 @@
       <c r="U42" s="4"/>
       <c r="V42" s="4"/>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C43" s="4"/>
@@ -2969,8 +2984,8 @@
       <c r="U43" s="4"/>
       <c r="V43" s="4"/>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C44" s="4">
@@ -3024,47 +3039,47 @@
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="9">
         <f t="shared" ref="C45:I45" si="35">C44+C40</f>
         <v>0</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="9">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E45" s="9">
         <f t="shared" si="35"/>
         <v>352583</v>
       </c>
-      <c r="F45" s="8">
+      <c r="F45" s="9">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="G45" s="8">
+      <c r="G45" s="9">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="H45" s="8">
+      <c r="H45" s="9">
         <f t="shared" si="35"/>
         <v>364980</v>
       </c>
-      <c r="I45" s="8">
+      <c r="I45" s="9">
         <f t="shared" si="35"/>
         <v>331612</v>
       </c>
-      <c r="J45" s="8">
+      <c r="J45" s="9">
         <f t="shared" ref="J45:L45" si="36">J44+J40</f>
         <v>0</v>
       </c>
-      <c r="K45" s="8">
+      <c r="K45" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="L45" s="8">
+      <c r="L45" s="9">
         <f t="shared" si="36"/>
         <v>331233</v>
       </c>
@@ -3079,8 +3094,8 @@
       <c r="U45" s="4"/>
       <c r="V45" s="4"/>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B46" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C46" s="4"/>
@@ -3112,8 +3127,8 @@
       <c r="U46" s="4"/>
       <c r="V46" s="4"/>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B47" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C47" s="4"/>
@@ -3145,8 +3160,8 @@
       <c r="U47" s="4"/>
       <c r="V47" s="4"/>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B48" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C48" s="4"/>
@@ -3178,8 +3193,8 @@
       <c r="U48" s="4"/>
       <c r="V48" s="4"/>
     </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+    <row r="49" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B49" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C49" s="4"/>
@@ -3211,8 +3226,8 @@
       <c r="U49" s="4"/>
       <c r="V49" s="4"/>
     </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+    <row r="50" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B50" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C50" s="4"/>
@@ -3244,8 +3259,8 @@
       <c r="U50" s="4"/>
       <c r="V50" s="4"/>
     </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+    <row r="51" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B51" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C51" s="4">
@@ -3299,8 +3314,8 @@
       <c r="U51" s="4"/>
       <c r="V51" s="4"/>
     </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+    <row r="52" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B52" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C52" s="4"/>
@@ -3332,8 +3347,8 @@
       <c r="U52" s="4"/>
       <c r="V52" s="4"/>
     </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+    <row r="53" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B53" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C53" s="4"/>
@@ -3365,8 +3380,8 @@
       <c r="U53" s="4"/>
       <c r="V53" s="4"/>
     </row>
-    <row r="54" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+    <row r="54" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B54" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C54" s="4">
@@ -3417,44 +3432,44 @@
       <c r="U54" s="4"/>
       <c r="V54" s="4"/>
     </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C55" s="8">
+      <c r="C55" s="9">
         <f t="shared" ref="C55:I55" si="40">C54+C51</f>
         <v>0</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D55" s="9">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="E55" s="8">
+      <c r="E55" s="9">
         <f t="shared" si="40"/>
         <v>290437</v>
       </c>
-      <c r="F55" s="8">
+      <c r="F55" s="9">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="G55" s="8">
+      <c r="G55" s="9">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="H55" s="8">
+      <c r="H55" s="9">
         <f t="shared" si="40"/>
         <v>308030</v>
       </c>
-      <c r="I55" s="8">
+      <c r="I55" s="9">
         <f t="shared" si="40"/>
         <v>264904</v>
       </c>
       <c r="J55" s="4"/>
-      <c r="K55" s="8">
+      <c r="K55" s="9">
         <f t="shared" ref="K55:L55" si="41">K54+K51</f>
         <v>0</v>
       </c>
-      <c r="L55" s="8">
+      <c r="L55" s="9">
         <f t="shared" si="41"/>
         <v>264437</v>
       </c>
@@ -3469,8 +3484,8 @@
       <c r="U55" s="4"/>
       <c r="V55" s="4"/>
     </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
+    <row r="56" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B56" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C56" s="4"/>
@@ -3502,47 +3517,47 @@
       <c r="U56" s="4"/>
       <c r="V56" s="4"/>
     </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C57" s="8">
+      <c r="C57" s="9">
         <f t="shared" ref="C57:I57" si="42">C55+C56</f>
         <v>0</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D57" s="9">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="E57" s="8">
+      <c r="E57" s="9">
         <f t="shared" si="42"/>
         <v>352583</v>
       </c>
-      <c r="F57" s="8">
+      <c r="F57" s="9">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="G57" s="8">
+      <c r="G57" s="9">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="H57" s="8">
+      <c r="H57" s="9">
         <f t="shared" si="42"/>
         <v>364980</v>
       </c>
-      <c r="I57" s="8">
+      <c r="I57" s="9">
         <f t="shared" si="42"/>
         <v>331612</v>
       </c>
-      <c r="J57" s="8">
+      <c r="J57" s="9">
         <f t="shared" ref="J57:L57" si="43">J55+J56</f>
         <v>0</v>
       </c>
-      <c r="K57" s="8">
+      <c r="K57" s="9">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="L57" s="8">
+      <c r="L57" s="9">
         <f t="shared" si="43"/>
         <v>331233</v>
       </c>
@@ -3557,7 +3572,7 @@
       <c r="U57" s="4"/>
       <c r="V57" s="4"/>
     </row>
-    <row r="58" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -3579,7 +3594,7 @@
       <c r="U58" s="4"/>
       <c r="V58" s="4"/>
     </row>
-    <row r="59" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -3601,8 +3616,8 @@
       <c r="U59" s="4"/>
       <c r="V59" s="4"/>
     </row>
-    <row r="60" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
+    <row r="60" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B60" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C60" s="4"/>
@@ -3634,8 +3649,8 @@
       <c r="U60" s="4"/>
       <c r="V60" s="4"/>
     </row>
-    <row r="61" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
+    <row r="61" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B61" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C61" s="4"/>
@@ -3667,8 +3682,8 @@
       <c r="U61" s="4"/>
       <c r="V61" s="4"/>
     </row>
-    <row r="62" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
+    <row r="62" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B62" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C62" s="4">
@@ -3722,7 +3737,7 @@
       <c r="U62" s="4"/>
       <c r="V62" s="4"/>
     </row>
-    <row r="63" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
@@ -3744,7 +3759,7 @@
       <c r="U63" s="4"/>
       <c r="V63" s="4"/>
     </row>
-    <row r="64" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
@@ -3766,7 +3781,7 @@
       <c r="U64" s="4"/>
       <c r="V64" s="4"/>
     </row>
-    <row r="65" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
@@ -3788,7 +3803,7 @@
       <c r="U65" s="4"/>
       <c r="V65" s="4"/>
     </row>
-    <row r="66" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
@@ -3810,7 +3825,7 @@
       <c r="U66" s="4"/>
       <c r="V66" s="4"/>
     </row>
-    <row r="67" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
@@ -3832,7 +3847,7 @@
       <c r="U67" s="4"/>
       <c r="V67" s="4"/>
     </row>
-    <row r="68" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
@@ -3854,7 +3869,7 @@
       <c r="U68" s="4"/>
       <c r="V68" s="4"/>
     </row>
-    <row r="69" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
@@ -3876,7 +3891,7 @@
       <c r="U69" s="4"/>
       <c r="V69" s="4"/>
     </row>
-    <row r="70" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
@@ -3898,7 +3913,7 @@
       <c r="U70" s="4"/>
       <c r="V70" s="4"/>
     </row>
-    <row r="71" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
@@ -3920,7 +3935,7 @@
       <c r="U71" s="4"/>
       <c r="V71" s="4"/>
     </row>
-    <row r="72" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
@@ -3942,7 +3957,7 @@
       <c r="U72" s="4"/>
       <c r="V72" s="4"/>
     </row>
-    <row r="73" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
@@ -3964,7 +3979,7 @@
       <c r="U73" s="4"/>
       <c r="V73" s="4"/>
     </row>
-    <row r="74" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
@@ -3986,7 +4001,7 @@
       <c r="U74" s="4"/>
       <c r="V74" s="4"/>
     </row>
-    <row r="75" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
@@ -4008,7 +4023,7 @@
       <c r="U75" s="4"/>
       <c r="V75" s="4"/>
     </row>
-    <row r="76" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
@@ -4030,7 +4045,7 @@
       <c r="U76" s="4"/>
       <c r="V76" s="4"/>
     </row>
-    <row r="77" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
@@ -4052,7 +4067,7 @@
       <c r="U77" s="4"/>
       <c r="V77" s="4"/>
     </row>
-    <row r="78" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
@@ -4074,7 +4089,7 @@
       <c r="U78" s="4"/>
       <c r="V78" s="4"/>
     </row>
-    <row r="79" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
@@ -4096,7 +4111,7 @@
       <c r="U79" s="4"/>
       <c r="V79" s="4"/>
     </row>
-    <row r="80" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
@@ -4118,7 +4133,7 @@
       <c r="U80" s="4"/>
       <c r="V80" s="4"/>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
@@ -4140,7 +4155,7 @@
       <c r="U81" s="4"/>
       <c r="V81" s="4"/>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
@@ -4162,7 +4177,7 @@
       <c r="U82" s="4"/>
       <c r="V82" s="4"/>
     </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
@@ -4184,7 +4199,7 @@
       <c r="U83" s="4"/>
       <c r="V83" s="4"/>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
@@ -4206,7 +4221,7 @@
       <c r="U84" s="4"/>
       <c r="V84" s="4"/>
     </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
@@ -4228,7 +4243,7 @@
       <c r="U85" s="4"/>
       <c r="V85" s="4"/>
     </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
@@ -4250,7 +4265,7 @@
       <c r="U86" s="4"/>
       <c r="V86" s="4"/>
     </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -4272,7 +4287,7 @@
       <c r="U87" s="4"/>
       <c r="V87" s="4"/>
     </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
@@ -4294,7 +4309,7 @@
       <c r="U88" s="4"/>
       <c r="V88" s="4"/>
     </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
@@ -4316,7 +4331,7 @@
       <c r="U89" s="4"/>
       <c r="V89" s="4"/>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -4338,7 +4353,7 @@
       <c r="U90" s="4"/>
       <c r="V90" s="4"/>
     </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
@@ -4360,7 +4375,7 @@
       <c r="U91" s="4"/>
       <c r="V91" s="4"/>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
@@ -4382,7 +4397,7 @@
       <c r="U92" s="4"/>
       <c r="V92" s="4"/>
     </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
@@ -4404,7 +4419,7 @@
       <c r="U93" s="4"/>
       <c r="V93" s="4"/>
     </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
@@ -4426,7 +4441,7 @@
       <c r="U94" s="4"/>
       <c r="V94" s="4"/>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
@@ -4448,7 +4463,7 @@
       <c r="U95" s="4"/>
       <c r="V95" s="4"/>
     </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
@@ -4470,7 +4485,7 @@
       <c r="U96" s="4"/>
       <c r="V96" s="4"/>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
@@ -4492,7 +4507,7 @@
       <c r="U97" s="4"/>
       <c r="V97" s="4"/>
     </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
@@ -4514,7 +4529,7 @@
       <c r="U98" s="4"/>
       <c r="V98" s="4"/>
     </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
@@ -4536,7 +4551,7 @@
       <c r="U99" s="4"/>
       <c r="V99" s="4"/>
     </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
@@ -4558,7 +4573,7 @@
       <c r="U100" s="4"/>
       <c r="V100" s="4"/>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
@@ -4580,7 +4595,7 @@
       <c r="U101" s="4"/>
       <c r="V101" s="4"/>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
@@ -4602,7 +4617,7 @@
       <c r="U102" s="4"/>
       <c r="V102" s="4"/>
     </row>
-    <row r="103" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
@@ -4624,7 +4639,7 @@
       <c r="U103" s="4"/>
       <c r="V103" s="4"/>
     </row>
-    <row r="104" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
@@ -4646,7 +4661,7 @@
       <c r="U104" s="4"/>
       <c r="V104" s="4"/>
     </row>
-    <row r="105" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
@@ -4668,7 +4683,7 @@
       <c r="U105" s="4"/>
       <c r="V105" s="4"/>
     </row>
-    <row r="106" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
@@ -4690,7 +4705,7 @@
       <c r="U106" s="4"/>
       <c r="V106" s="4"/>
     </row>
-    <row r="107" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
@@ -4712,7 +4727,7 @@
       <c r="U107" s="4"/>
       <c r="V107" s="4"/>
     </row>
-    <row r="108" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
@@ -4734,7 +4749,7 @@
       <c r="U108" s="4"/>
       <c r="V108" s="4"/>
     </row>
-    <row r="109" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
@@ -4756,7 +4771,7 @@
       <c r="U109" s="4"/>
       <c r="V109" s="4"/>
     </row>
-    <row r="110" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
@@ -4778,7 +4793,7 @@
       <c r="U110" s="4"/>
       <c r="V110" s="4"/>
     </row>
-    <row r="111" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
@@ -4800,7 +4815,7 @@
       <c r="U111" s="4"/>
       <c r="V111" s="4"/>
     </row>
-    <row r="112" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
@@ -4822,7 +4837,7 @@
       <c r="U112" s="4"/>
       <c r="V112" s="4"/>
     </row>
-    <row r="113" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
@@ -4844,7 +4859,7 @@
       <c r="U113" s="4"/>
       <c r="V113" s="4"/>
     </row>
-    <row r="114" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
@@ -4866,7 +4881,7 @@
       <c r="U114" s="4"/>
       <c r="V114" s="4"/>
     </row>
-    <row r="115" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
@@ -4888,7 +4903,7 @@
       <c r="U115" s="4"/>
       <c r="V115" s="4"/>
     </row>
-    <row r="116" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
@@ -4910,7 +4925,7 @@
       <c r="U116" s="4"/>
       <c r="V116" s="4"/>
     </row>
-    <row r="117" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
@@ -4932,7 +4947,7 @@
       <c r="U117" s="4"/>
       <c r="V117" s="4"/>
     </row>
-    <row r="118" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
@@ -4954,7 +4969,7 @@
       <c r="U118" s="4"/>
       <c r="V118" s="4"/>
     </row>
-    <row r="119" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
@@ -4976,7 +4991,7 @@
       <c r="U119" s="4"/>
       <c r="V119" s="4"/>
     </row>
-    <row r="120" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
@@ -4998,7 +5013,7 @@
       <c r="U120" s="4"/>
       <c r="V120" s="4"/>
     </row>
-    <row r="121" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
@@ -5020,7 +5035,7 @@
       <c r="U121" s="4"/>
       <c r="V121" s="4"/>
     </row>
-    <row r="122" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
@@ -5042,7 +5057,7 @@
       <c r="U122" s="4"/>
       <c r="V122" s="4"/>
     </row>
-    <row r="123" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
@@ -5064,7 +5079,7 @@
       <c r="U123" s="4"/>
       <c r="V123" s="4"/>
     </row>
-    <row r="124" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
@@ -5086,7 +5101,7 @@
       <c r="U124" s="4"/>
       <c r="V124" s="4"/>
     </row>
-    <row r="125" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
@@ -5108,7 +5123,7 @@
       <c r="U125" s="4"/>
       <c r="V125" s="4"/>
     </row>
-    <row r="126" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
@@ -5130,7 +5145,7 @@
       <c r="U126" s="4"/>
       <c r="V126" s="4"/>
     </row>
-    <row r="127" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
@@ -5152,7 +5167,7 @@
       <c r="U127" s="4"/>
       <c r="V127" s="4"/>
     </row>
-    <row r="128" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
@@ -5174,7 +5189,7 @@
       <c r="U128" s="4"/>
       <c r="V128" s="4"/>
     </row>
-    <row r="129" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
@@ -5196,7 +5211,7 @@
       <c r="U129" s="4"/>
       <c r="V129" s="4"/>
     </row>
-    <row r="130" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
@@ -5218,7 +5233,7 @@
       <c r="U130" s="4"/>
       <c r="V130" s="4"/>
     </row>
-    <row r="131" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
@@ -5240,7 +5255,7 @@
       <c r="U131" s="4"/>
       <c r="V131" s="4"/>
     </row>
-    <row r="132" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
@@ -5262,7 +5277,7 @@
       <c r="U132" s="4"/>
       <c r="V132" s="4"/>
     </row>
-    <row r="133" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
@@ -5284,7 +5299,7 @@
       <c r="U133" s="4"/>
       <c r="V133" s="4"/>
     </row>
-    <row r="134" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
@@ -5306,7 +5321,7 @@
       <c r="U134" s="4"/>
       <c r="V134" s="4"/>
     </row>
-    <row r="135" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
@@ -5328,7 +5343,7 @@
       <c r="U135" s="4"/>
       <c r="V135" s="4"/>
     </row>
-    <row r="136" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
@@ -5350,7 +5365,7 @@
       <c r="U136" s="4"/>
       <c r="V136" s="4"/>
     </row>
-    <row r="137" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
@@ -5372,7 +5387,7 @@
       <c r="U137" s="4"/>
       <c r="V137" s="4"/>
     </row>
-    <row r="138" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
@@ -5394,7 +5409,7 @@
       <c r="U138" s="4"/>
       <c r="V138" s="4"/>
     </row>
-    <row r="139" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
@@ -5416,7 +5431,7 @@
       <c r="U139" s="4"/>
       <c r="V139" s="4"/>
     </row>
-    <row r="140" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
@@ -5438,7 +5453,7 @@
       <c r="U140" s="4"/>
       <c r="V140" s="4"/>
     </row>
-    <row r="141" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
@@ -5460,7 +5475,7 @@
       <c r="U141" s="4"/>
       <c r="V141" s="4"/>
     </row>
-    <row r="142" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
@@ -5482,7 +5497,7 @@
       <c r="U142" s="4"/>
       <c r="V142" s="4"/>
     </row>
-    <row r="143" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
@@ -5504,7 +5519,7 @@
       <c r="U143" s="4"/>
       <c r="V143" s="4"/>
     </row>
-    <row r="144" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
@@ -5526,7 +5541,7 @@
       <c r="U144" s="4"/>
       <c r="V144" s="4"/>
     </row>
-    <row r="145" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
@@ -5548,7 +5563,7 @@
       <c r="U145" s="4"/>
       <c r="V145" s="4"/>
     </row>
-    <row r="146" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
@@ -5570,7 +5585,7 @@
       <c r="U146" s="4"/>
       <c r="V146" s="4"/>
     </row>
-    <row r="147" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
@@ -5592,7 +5607,7 @@
       <c r="U147" s="4"/>
       <c r="V147" s="4"/>
     </row>
-    <row r="148" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
@@ -5614,7 +5629,7 @@
       <c r="U148" s="4"/>
       <c r="V148" s="4"/>
     </row>
-    <row r="149" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
@@ -5636,7 +5651,7 @@
       <c r="U149" s="4"/>
       <c r="V149" s="4"/>
     </row>
-    <row r="150" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
@@ -5658,7 +5673,7 @@
       <c r="U150" s="4"/>
       <c r="V150" s="4"/>
     </row>
-    <row r="151" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
@@ -5680,7 +5695,7 @@
       <c r="U151" s="4"/>
       <c r="V151" s="4"/>
     </row>
-    <row r="152" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
@@ -5702,7 +5717,7 @@
       <c r="U152" s="4"/>
       <c r="V152" s="4"/>
     </row>
-    <row r="153" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
@@ -5724,7 +5739,7 @@
       <c r="U153" s="4"/>
       <c r="V153" s="4"/>
     </row>
-    <row r="154" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
@@ -5746,7 +5761,7 @@
       <c r="U154" s="4"/>
       <c r="V154" s="4"/>
     </row>
-    <row r="155" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
@@ -5768,7 +5783,7 @@
       <c r="U155" s="4"/>
       <c r="V155" s="4"/>
     </row>
-    <row r="156" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
@@ -5790,7 +5805,7 @@
       <c r="U156" s="4"/>
       <c r="V156" s="4"/>
     </row>
-    <row r="157" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
@@ -5812,7 +5827,7 @@
       <c r="U157" s="4"/>
       <c r="V157" s="4"/>
     </row>
-    <row r="158" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
@@ -5834,7 +5849,7 @@
       <c r="U158" s="4"/>
       <c r="V158" s="4"/>
     </row>
-    <row r="159" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
@@ -5856,7 +5871,7 @@
       <c r="U159" s="4"/>
       <c r="V159" s="4"/>
     </row>
-    <row r="160" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
@@ -5878,7 +5893,7 @@
       <c r="U160" s="4"/>
       <c r="V160" s="4"/>
     </row>
-    <row r="161" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
@@ -5900,7 +5915,7 @@
       <c r="U161" s="4"/>
       <c r="V161" s="4"/>
     </row>
-    <row r="162" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
@@ -5922,7 +5937,7 @@
       <c r="U162" s="4"/>
       <c r="V162" s="4"/>
     </row>
-    <row r="163" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
@@ -5944,7 +5959,7 @@
       <c r="U163" s="4"/>
       <c r="V163" s="4"/>
     </row>
-    <row r="164" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
@@ -5966,7 +5981,7 @@
       <c r="U164" s="4"/>
       <c r="V164" s="4"/>
     </row>
-    <row r="165" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
@@ -5988,7 +6003,7 @@
       <c r="U165" s="4"/>
       <c r="V165" s="4"/>
     </row>
-    <row r="166" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
@@ -6010,7 +6025,7 @@
       <c r="U166" s="4"/>
       <c r="V166" s="4"/>
     </row>
-    <row r="167" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
@@ -6032,7 +6047,7 @@
       <c r="U167" s="4"/>
       <c r="V167" s="4"/>
     </row>
-    <row r="168" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
@@ -6054,7 +6069,7 @@
       <c r="U168" s="4"/>
       <c r="V168" s="4"/>
     </row>
-    <row r="169" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
@@ -6076,7 +6091,7 @@
       <c r="U169" s="4"/>
       <c r="V169" s="4"/>
     </row>
-    <row r="170" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
@@ -6098,7 +6113,7 @@
       <c r="U170" s="4"/>
       <c r="V170" s="4"/>
     </row>
-    <row r="171" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
@@ -6120,7 +6135,7 @@
       <c r="U171" s="4"/>
       <c r="V171" s="4"/>
     </row>
-    <row r="172" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
@@ -6142,7 +6157,7 @@
       <c r="U172" s="4"/>
       <c r="V172" s="4"/>
     </row>
-    <row r="173" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
@@ -6164,7 +6179,7 @@
       <c r="U173" s="4"/>
       <c r="V173" s="4"/>
     </row>
-    <row r="174" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
@@ -6186,7 +6201,7 @@
       <c r="U174" s="4"/>
       <c r="V174" s="4"/>
     </row>
-    <row r="175" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
@@ -6208,7 +6223,7 @@
       <c r="U175" s="4"/>
       <c r="V175" s="4"/>
     </row>
-    <row r="176" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
@@ -6230,7 +6245,7 @@
       <c r="U176" s="4"/>
       <c r="V176" s="4"/>
     </row>
-    <row r="177" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
@@ -6252,7 +6267,7 @@
       <c r="U177" s="4"/>
       <c r="V177" s="4"/>
     </row>
-    <row r="178" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="4"/>
@@ -6274,7 +6289,7 @@
       <c r="U178" s="4"/>
       <c r="V178" s="4"/>
     </row>
-    <row r="179" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
@@ -6296,7 +6311,7 @@
       <c r="U179" s="4"/>
       <c r="V179" s="4"/>
     </row>
-    <row r="180" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="4"/>
@@ -6318,7 +6333,7 @@
       <c r="U180" s="4"/>
       <c r="V180" s="4"/>
     </row>
-    <row r="181" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="4"/>
@@ -6340,7 +6355,7 @@
       <c r="U181" s="4"/>
       <c r="V181" s="4"/>
     </row>
-    <row r="182" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
       <c r="E182" s="4"/>
@@ -6362,7 +6377,7 @@
       <c r="U182" s="4"/>
       <c r="V182" s="4"/>
     </row>
-    <row r="183" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
       <c r="E183" s="4"/>
@@ -6384,7 +6399,7 @@
       <c r="U183" s="4"/>
       <c r="V183" s="4"/>
     </row>
-    <row r="184" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
@@ -6406,7 +6421,7 @@
       <c r="U184" s="4"/>
       <c r="V184" s="4"/>
     </row>
-    <row r="185" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
@@ -6428,7 +6443,7 @@
       <c r="U185" s="4"/>
       <c r="V185" s="4"/>
     </row>
-    <row r="186" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
       <c r="E186" s="4"/>
@@ -6450,7 +6465,7 @@
       <c r="U186" s="4"/>
       <c r="V186" s="4"/>
     </row>
-    <row r="187" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
@@ -6472,7 +6487,7 @@
       <c r="U187" s="4"/>
       <c r="V187" s="4"/>
     </row>
-    <row r="188" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
       <c r="E188" s="4"/>
@@ -6494,7 +6509,7 @@
       <c r="U188" s="4"/>
       <c r="V188" s="4"/>
     </row>
-    <row r="189" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="4"/>
@@ -6516,7 +6531,7 @@
       <c r="U189" s="4"/>
       <c r="V189" s="4"/>
     </row>
-    <row r="190" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
       <c r="E190" s="4"/>
@@ -6538,7 +6553,7 @@
       <c r="U190" s="4"/>
       <c r="V190" s="4"/>
     </row>
-    <row r="191" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
       <c r="E191" s="4"/>
@@ -6560,7 +6575,7 @@
       <c r="U191" s="4"/>
       <c r="V191" s="4"/>
     </row>
-    <row r="192" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
       <c r="E192" s="4"/>
@@ -6582,7 +6597,7 @@
       <c r="U192" s="4"/>
       <c r="V192" s="4"/>
     </row>
-    <row r="193" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
       <c r="E193" s="4"/>
@@ -6604,7 +6619,7 @@
       <c r="U193" s="4"/>
       <c r="V193" s="4"/>
     </row>
-    <row r="194" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
       <c r="E194" s="4"/>
@@ -6626,7 +6641,7 @@
       <c r="U194" s="4"/>
       <c r="V194" s="4"/>
     </row>
-    <row r="195" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
       <c r="E195" s="4"/>
@@ -6648,7 +6663,7 @@
       <c r="U195" s="4"/>
       <c r="V195" s="4"/>
     </row>
-    <row r="196" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
       <c r="E196" s="4"/>
@@ -6670,7 +6685,7 @@
       <c r="U196" s="4"/>
       <c r="V196" s="4"/>
     </row>
-    <row r="197" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
       <c r="E197" s="4"/>
@@ -6692,7 +6707,7 @@
       <c r="U197" s="4"/>
       <c r="V197" s="4"/>
     </row>
-    <row r="198" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
       <c r="E198" s="4"/>
@@ -6714,7 +6729,7 @@
       <c r="U198" s="4"/>
       <c r="V198" s="4"/>
     </row>
-    <row r="199" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
       <c r="E199" s="4"/>
@@ -6736,7 +6751,7 @@
       <c r="U199" s="4"/>
       <c r="V199" s="4"/>
     </row>
-    <row r="200" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
       <c r="E200" s="4"/>
@@ -6758,7 +6773,7 @@
       <c r="U200" s="4"/>
       <c r="V200" s="4"/>
     </row>
-    <row r="201" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
       <c r="E201" s="4"/>
@@ -6780,7 +6795,7 @@
       <c r="U201" s="4"/>
       <c r="V201" s="4"/>
     </row>
-    <row r="202" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
       <c r="E202" s="4"/>
@@ -6802,7 +6817,7 @@
       <c r="U202" s="4"/>
       <c r="V202" s="4"/>
     </row>
-    <row r="203" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
       <c r="E203" s="4"/>
@@ -6824,7 +6839,7 @@
       <c r="U203" s="4"/>
       <c r="V203" s="4"/>
     </row>
-    <row r="204" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
       <c r="E204" s="4"/>
@@ -6846,7 +6861,7 @@
       <c r="U204" s="4"/>
       <c r="V204" s="4"/>
     </row>
-    <row r="205" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
       <c r="E205" s="4"/>
@@ -6868,7 +6883,7 @@
       <c r="U205" s="4"/>
       <c r="V205" s="4"/>
     </row>
-    <row r="206" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
       <c r="E206" s="4"/>
@@ -6890,7 +6905,7 @@
       <c r="U206" s="4"/>
       <c r="V206" s="4"/>
     </row>
-    <row r="207" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
@@ -6912,7 +6927,7 @@
       <c r="U207" s="4"/>
       <c r="V207" s="4"/>
     </row>
-    <row r="208" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
       <c r="E208" s="4"/>
@@ -6934,7 +6949,7 @@
       <c r="U208" s="4"/>
       <c r="V208" s="4"/>
     </row>
-    <row r="209" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
       <c r="E209" s="4"/>
@@ -6956,7 +6971,7 @@
       <c r="U209" s="4"/>
       <c r="V209" s="4"/>
     </row>
-    <row r="210" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
       <c r="E210" s="4"/>
@@ -6978,7 +6993,7 @@
       <c r="U210" s="4"/>
       <c r="V210" s="4"/>
     </row>
-    <row r="211" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
       <c r="E211" s="4"/>
@@ -7000,7 +7015,7 @@
       <c r="U211" s="4"/>
       <c r="V211" s="4"/>
     </row>
-    <row r="212" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
       <c r="E212" s="4"/>
@@ -7022,7 +7037,7 @@
       <c r="U212" s="4"/>
       <c r="V212" s="4"/>
     </row>
-    <row r="213" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
       <c r="E213" s="4"/>
@@ -7044,7 +7059,7 @@
       <c r="U213" s="4"/>
       <c r="V213" s="4"/>
     </row>
-    <row r="214" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
       <c r="E214" s="4"/>
@@ -7066,7 +7081,7 @@
       <c r="U214" s="4"/>
       <c r="V214" s="4"/>
     </row>
-    <row r="215" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
       <c r="E215" s="4"/>
@@ -7088,7 +7103,7 @@
       <c r="U215" s="4"/>
       <c r="V215" s="4"/>
     </row>
-    <row r="216" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
       <c r="E216" s="4"/>
@@ -7110,7 +7125,7 @@
       <c r="U216" s="4"/>
       <c r="V216" s="4"/>
     </row>
-    <row r="217" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
       <c r="E217" s="4"/>
@@ -7132,7 +7147,7 @@
       <c r="U217" s="4"/>
       <c r="V217" s="4"/>
     </row>
-    <row r="218" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
       <c r="E218" s="4"/>
@@ -7154,7 +7169,7 @@
       <c r="U218" s="4"/>
       <c r="V218" s="4"/>
     </row>
-    <row r="219" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
@@ -7176,7 +7191,7 @@
       <c r="U219" s="4"/>
       <c r="V219" s="4"/>
     </row>
-    <row r="220" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
       <c r="E220" s="4"/>
@@ -7198,7 +7213,7 @@
       <c r="U220" s="4"/>
       <c r="V220" s="4"/>
     </row>
-    <row r="221" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
@@ -7220,7 +7235,7 @@
       <c r="U221" s="4"/>
       <c r="V221" s="4"/>
     </row>
-    <row r="222" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
       <c r="E222" s="4"/>
@@ -7242,7 +7257,7 @@
       <c r="U222" s="4"/>
       <c r="V222" s="4"/>
     </row>
-    <row r="223" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
       <c r="E223" s="4"/>
@@ -7264,7 +7279,7 @@
       <c r="U223" s="4"/>
       <c r="V223" s="4"/>
     </row>
-    <row r="224" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
       <c r="E224" s="4"/>
@@ -7286,7 +7301,7 @@
       <c r="U224" s="4"/>
       <c r="V224" s="4"/>
     </row>
-    <row r="225" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="4"/>
@@ -7308,7 +7323,7 @@
       <c r="U225" s="4"/>
       <c r="V225" s="4"/>
     </row>
-    <row r="226" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
       <c r="E226" s="4"/>
@@ -7330,7 +7345,7 @@
       <c r="U226" s="4"/>
       <c r="V226" s="4"/>
     </row>
-    <row r="227" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
       <c r="E227" s="4"/>
@@ -7352,7 +7367,7 @@
       <c r="U227" s="4"/>
       <c r="V227" s="4"/>
     </row>
-    <row r="228" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
       <c r="E228" s="4"/>
@@ -7374,7 +7389,7 @@
       <c r="U228" s="4"/>
       <c r="V228" s="4"/>
     </row>
-    <row r="229" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
       <c r="E229" s="4"/>
@@ -7396,7 +7411,7 @@
       <c r="U229" s="4"/>
       <c r="V229" s="4"/>
     </row>
-    <row r="230" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
       <c r="E230" s="4"/>
@@ -7418,7 +7433,7 @@
       <c r="U230" s="4"/>
       <c r="V230" s="4"/>
     </row>
-    <row r="231" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
       <c r="E231" s="4"/>
@@ -7440,7 +7455,7 @@
       <c r="U231" s="4"/>
       <c r="V231" s="4"/>
     </row>
-    <row r="232" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
       <c r="E232" s="4"/>
@@ -7462,7 +7477,7 @@
       <c r="U232" s="4"/>
       <c r="V232" s="4"/>
     </row>
-    <row r="233" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
       <c r="E233" s="4"/>
@@ -7484,7 +7499,7 @@
       <c r="U233" s="4"/>
       <c r="V233" s="4"/>
     </row>
-    <row r="234" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
       <c r="E234" s="4"/>
@@ -7506,7 +7521,7 @@
       <c r="U234" s="4"/>
       <c r="V234" s="4"/>
     </row>
-    <row r="235" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
       <c r="E235" s="4"/>
@@ -7528,7 +7543,7 @@
       <c r="U235" s="4"/>
       <c r="V235" s="4"/>
     </row>
-    <row r="236" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
       <c r="E236" s="4"/>
@@ -7550,7 +7565,7 @@
       <c r="U236" s="4"/>
       <c r="V236" s="4"/>
     </row>
-    <row r="237" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
       <c r="E237" s="4"/>
@@ -7572,7 +7587,7 @@
       <c r="U237" s="4"/>
       <c r="V237" s="4"/>
     </row>
-    <row r="238" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
       <c r="E238" s="4"/>
@@ -7594,7 +7609,7 @@
       <c r="U238" s="4"/>
       <c r="V238" s="4"/>
     </row>
-    <row r="239" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
       <c r="E239" s="4"/>
@@ -7616,7 +7631,7 @@
       <c r="U239" s="4"/>
       <c r="V239" s="4"/>
     </row>
-    <row r="240" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
       <c r="E240" s="4"/>
@@ -7638,7 +7653,7 @@
       <c r="U240" s="4"/>
       <c r="V240" s="4"/>
     </row>
-    <row r="241" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
       <c r="E241" s="4"/>
@@ -7660,7 +7675,7 @@
       <c r="U241" s="4"/>
       <c r="V241" s="4"/>
     </row>
-    <row r="242" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
       <c r="E242" s="4"/>
@@ -7682,7 +7697,7 @@
       <c r="U242" s="4"/>
       <c r="V242" s="4"/>
     </row>
-    <row r="243" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
       <c r="E243" s="4"/>
@@ -7704,7 +7719,7 @@
       <c r="U243" s="4"/>
       <c r="V243" s="4"/>
     </row>
-    <row r="244" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
       <c r="E244" s="4"/>
@@ -7726,7 +7741,7 @@
       <c r="U244" s="4"/>
       <c r="V244" s="4"/>
     </row>
-    <row r="245" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
       <c r="E245" s="4"/>
@@ -7748,7 +7763,7 @@
       <c r="U245" s="4"/>
       <c r="V245" s="4"/>
     </row>
-    <row r="246" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
       <c r="E246" s="4"/>
@@ -7770,7 +7785,7 @@
       <c r="U246" s="4"/>
       <c r="V246" s="4"/>
     </row>
-    <row r="247" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
       <c r="E247" s="4"/>
@@ -7792,7 +7807,7 @@
       <c r="U247" s="4"/>
       <c r="V247" s="4"/>
     </row>
-    <row r="248" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
       <c r="E248" s="4"/>
@@ -7814,7 +7829,7 @@
       <c r="U248" s="4"/>
       <c r="V248" s="4"/>
     </row>
-    <row r="249" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
       <c r="E249" s="4"/>
@@ -7836,7 +7851,7 @@
       <c r="U249" s="4"/>
       <c r="V249" s="4"/>
     </row>
-    <row r="250" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
       <c r="E250" s="4"/>
@@ -7858,7 +7873,7 @@
       <c r="U250" s="4"/>
       <c r="V250" s="4"/>
     </row>
-    <row r="251" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
       <c r="E251" s="4"/>
@@ -7880,7 +7895,7 @@
       <c r="U251" s="4"/>
       <c r="V251" s="4"/>
     </row>
-    <row r="252" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
       <c r="E252" s="4"/>
@@ -7902,7 +7917,7 @@
       <c r="U252" s="4"/>
       <c r="V252" s="4"/>
     </row>
-    <row r="253" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
       <c r="E253" s="4"/>
@@ -7924,7 +7939,7 @@
       <c r="U253" s="4"/>
       <c r="V253" s="4"/>
     </row>
-    <row r="254" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
       <c r="E254" s="4"/>
@@ -7946,7 +7961,7 @@
       <c r="U254" s="4"/>
       <c r="V254" s="4"/>
     </row>
-    <row r="255" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
       <c r="E255" s="4"/>
@@ -7968,7 +7983,7 @@
       <c r="U255" s="4"/>
       <c r="V255" s="4"/>
     </row>
-    <row r="256" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
       <c r="E256" s="4"/>
@@ -7990,7 +8005,7 @@
       <c r="U256" s="4"/>
       <c r="V256" s="4"/>
     </row>
-    <row r="257" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
       <c r="E257" s="4"/>
@@ -8012,7 +8027,7 @@
       <c r="U257" s="4"/>
       <c r="V257" s="4"/>
     </row>
-    <row r="258" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
       <c r="E258" s="4"/>
@@ -8034,7 +8049,7 @@
       <c r="U258" s="4"/>
       <c r="V258" s="4"/>
     </row>
-    <row r="259" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
       <c r="E259" s="4"/>
@@ -8056,7 +8071,7 @@
       <c r="U259" s="4"/>
       <c r="V259" s="4"/>
     </row>
-    <row r="260" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
       <c r="E260" s="4"/>
@@ -8078,7 +8093,7 @@
       <c r="U260" s="4"/>
       <c r="V260" s="4"/>
     </row>
-    <row r="261" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
       <c r="E261" s="4"/>
@@ -8100,7 +8115,7 @@
       <c r="U261" s="4"/>
       <c r="V261" s="4"/>
     </row>
-    <row r="262" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
       <c r="E262" s="4"/>
@@ -8122,7 +8137,7 @@
       <c r="U262" s="4"/>
       <c r="V262" s="4"/>
     </row>
-    <row r="263" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
       <c r="E263" s="4"/>
@@ -8144,7 +8159,7 @@
       <c r="U263" s="4"/>
       <c r="V263" s="4"/>
     </row>
-    <row r="264" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
       <c r="E264" s="4"/>
@@ -8166,7 +8181,7 @@
       <c r="U264" s="4"/>
       <c r="V264" s="4"/>
     </row>
-    <row r="265" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
       <c r="E265" s="4"/>
@@ -8188,7 +8203,7 @@
       <c r="U265" s="4"/>
       <c r="V265" s="4"/>
     </row>
-    <row r="266" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
       <c r="E266" s="4"/>
@@ -8210,7 +8225,7 @@
       <c r="U266" s="4"/>
       <c r="V266" s="4"/>
     </row>
-    <row r="267" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
       <c r="E267" s="4"/>
@@ -8232,7 +8247,7 @@
       <c r="U267" s="4"/>
       <c r="V267" s="4"/>
     </row>
-    <row r="268" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C268" s="4"/>
       <c r="D268" s="4"/>
       <c r="E268" s="4"/>
@@ -8254,7 +8269,7 @@
       <c r="U268" s="4"/>
       <c r="V268" s="4"/>
     </row>
-    <row r="269" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C269" s="4"/>
       <c r="D269" s="4"/>
       <c r="E269" s="4"/>
@@ -8276,7 +8291,7 @@
       <c r="U269" s="4"/>
       <c r="V269" s="4"/>
     </row>
-    <row r="270" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C270" s="4"/>
       <c r="D270" s="4"/>
       <c r="E270" s="4"/>
@@ -8298,7 +8313,7 @@
       <c r="U270" s="4"/>
       <c r="V270" s="4"/>
     </row>
-    <row r="271" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
       <c r="E271" s="4"/>
@@ -8320,7 +8335,7 @@
       <c r="U271" s="4"/>
       <c r="V271" s="4"/>
     </row>
-    <row r="272" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C272" s="4"/>
       <c r="D272" s="4"/>
       <c r="E272" s="4"/>
@@ -8342,7 +8357,7 @@
       <c r="U272" s="4"/>
       <c r="V272" s="4"/>
     </row>
-    <row r="273" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C273" s="4"/>
       <c r="D273" s="4"/>
       <c r="E273" s="4"/>
@@ -8364,7 +8379,7 @@
       <c r="U273" s="4"/>
       <c r="V273" s="4"/>
     </row>
-    <row r="274" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C274" s="4"/>
       <c r="D274" s="4"/>
       <c r="E274" s="4"/>
@@ -8386,7 +8401,7 @@
       <c r="U274" s="4"/>
       <c r="V274" s="4"/>
     </row>
-    <row r="275" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C275" s="4"/>
       <c r="D275" s="4"/>
       <c r="E275" s="4"/>
@@ -8408,7 +8423,7 @@
       <c r="U275" s="4"/>
       <c r="V275" s="4"/>
     </row>
-    <row r="276" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C276" s="4"/>
       <c r="D276" s="4"/>
       <c r="E276" s="4"/>
@@ -8430,7 +8445,7 @@
       <c r="U276" s="4"/>
       <c r="V276" s="4"/>
     </row>
-    <row r="277" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C277" s="4"/>
       <c r="D277" s="4"/>
       <c r="E277" s="4"/>
@@ -8452,7 +8467,7 @@
       <c r="U277" s="4"/>
       <c r="V277" s="4"/>
     </row>
-    <row r="278" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C278" s="4"/>
       <c r="D278" s="4"/>
       <c r="E278" s="4"/>
@@ -8474,7 +8489,7 @@
       <c r="U278" s="4"/>
       <c r="V278" s="4"/>
     </row>
-    <row r="279" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C279" s="4"/>
       <c r="D279" s="4"/>
       <c r="E279" s="4"/>
@@ -8496,7 +8511,7 @@
       <c r="U279" s="4"/>
       <c r="V279" s="4"/>
     </row>
-    <row r="280" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C280" s="4"/>
       <c r="D280" s="4"/>
       <c r="E280" s="4"/>
@@ -8518,7 +8533,7 @@
       <c r="U280" s="4"/>
       <c r="V280" s="4"/>
     </row>
-    <row r="281" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C281" s="4"/>
       <c r="D281" s="4"/>
       <c r="E281" s="4"/>
@@ -8540,7 +8555,7 @@
       <c r="U281" s="4"/>
       <c r="V281" s="4"/>
     </row>
-    <row r="282" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C282" s="4"/>
       <c r="D282" s="4"/>
       <c r="E282" s="4"/>
@@ -8562,7 +8577,7 @@
       <c r="U282" s="4"/>
       <c r="V282" s="4"/>
     </row>
-    <row r="283" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C283" s="4"/>
       <c r="D283" s="4"/>
       <c r="E283" s="4"/>
@@ -8584,7 +8599,7 @@
       <c r="U283" s="4"/>
       <c r="V283" s="4"/>
     </row>
-    <row r="284" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C284" s="4"/>
       <c r="D284" s="4"/>
       <c r="E284" s="4"/>
@@ -8606,7 +8621,7 @@
       <c r="U284" s="4"/>
       <c r="V284" s="4"/>
     </row>
-    <row r="285" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C285" s="4"/>
       <c r="D285" s="4"/>
       <c r="E285" s="4"/>
@@ -8628,7 +8643,7 @@
       <c r="U285" s="4"/>
       <c r="V285" s="4"/>
     </row>
-    <row r="286" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C286" s="4"/>
       <c r="D286" s="4"/>
       <c r="E286" s="4"/>
@@ -8650,7 +8665,7 @@
       <c r="U286" s="4"/>
       <c r="V286" s="4"/>
     </row>
-    <row r="287" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C287" s="4"/>
       <c r="D287" s="4"/>
       <c r="E287" s="4"/>
@@ -8672,7 +8687,7 @@
       <c r="U287" s="4"/>
       <c r="V287" s="4"/>
     </row>
-    <row r="288" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C288" s="4"/>
       <c r="D288" s="4"/>
       <c r="E288" s="4"/>
@@ -8694,7 +8709,7 @@
       <c r="U288" s="4"/>
       <c r="V288" s="4"/>
     </row>
-    <row r="289" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C289" s="4"/>
       <c r="D289" s="4"/>
       <c r="E289" s="4"/>
@@ -8716,7 +8731,7 @@
       <c r="U289" s="4"/>
       <c r="V289" s="4"/>
     </row>
-    <row r="290" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C290" s="4"/>
       <c r="D290" s="4"/>
       <c r="E290" s="4"/>
@@ -8738,7 +8753,7 @@
       <c r="U290" s="4"/>
       <c r="V290" s="4"/>
     </row>
-    <row r="291" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C291" s="4"/>
       <c r="D291" s="4"/>
       <c r="E291" s="4"/>
@@ -8760,7 +8775,7 @@
       <c r="U291" s="4"/>
       <c r="V291" s="4"/>
     </row>
-    <row r="292" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C292" s="4"/>
       <c r="D292" s="4"/>
       <c r="E292" s="4"/>
@@ -8782,7 +8797,7 @@
       <c r="U292" s="4"/>
       <c r="V292" s="4"/>
     </row>
-    <row r="293" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C293" s="4"/>
       <c r="D293" s="4"/>
       <c r="E293" s="4"/>
@@ -8804,7 +8819,7 @@
       <c r="U293" s="4"/>
       <c r="V293" s="4"/>
     </row>
-    <row r="294" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C294" s="4"/>
       <c r="D294" s="4"/>
       <c r="E294" s="4"/>
@@ -8826,7 +8841,7 @@
       <c r="U294" s="4"/>
       <c r="V294" s="4"/>
     </row>
-    <row r="295" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C295" s="4"/>
       <c r="D295" s="4"/>
       <c r="E295" s="4"/>
@@ -8848,7 +8863,7 @@
       <c r="U295" s="4"/>
       <c r="V295" s="4"/>
     </row>
-    <row r="296" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C296" s="4"/>
       <c r="D296" s="4"/>
       <c r="E296" s="4"/>
@@ -8870,7 +8885,7 @@
       <c r="U296" s="4"/>
       <c r="V296" s="4"/>
     </row>
-    <row r="297" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C297" s="4"/>
       <c r="D297" s="4"/>
       <c r="E297" s="4"/>
@@ -8892,7 +8907,7 @@
       <c r="U297" s="4"/>
       <c r="V297" s="4"/>
     </row>
-    <row r="298" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C298" s="4"/>
       <c r="D298" s="4"/>
       <c r="E298" s="4"/>
@@ -8914,7 +8929,7 @@
       <c r="U298" s="4"/>
       <c r="V298" s="4"/>
     </row>
-    <row r="299" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C299" s="4"/>
       <c r="D299" s="4"/>
       <c r="E299" s="4"/>
@@ -8936,7 +8951,7 @@
       <c r="U299" s="4"/>
       <c r="V299" s="4"/>
     </row>
-    <row r="300" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C300" s="4"/>
       <c r="D300" s="4"/>
       <c r="E300" s="4"/>
@@ -8958,7 +8973,7 @@
       <c r="U300" s="4"/>
       <c r="V300" s="4"/>
     </row>
-    <row r="301" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C301" s="4"/>
       <c r="D301" s="4"/>
       <c r="E301" s="4"/>
@@ -8980,7 +8995,7 @@
       <c r="U301" s="4"/>
       <c r="V301" s="4"/>
     </row>
-    <row r="302" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C302" s="4"/>
       <c r="D302" s="4"/>
       <c r="E302" s="4"/>
@@ -9002,7 +9017,7 @@
       <c r="U302" s="4"/>
       <c r="V302" s="4"/>
     </row>
-    <row r="303" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C303" s="4"/>
       <c r="D303" s="4"/>
       <c r="E303" s="4"/>
@@ -9024,7 +9039,7 @@
       <c r="U303" s="4"/>
       <c r="V303" s="4"/>
     </row>
-    <row r="304" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C304" s="4"/>
       <c r="D304" s="4"/>
       <c r="E304" s="4"/>
@@ -9046,7 +9061,7 @@
       <c r="U304" s="4"/>
       <c r="V304" s="4"/>
     </row>
-    <row r="305" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C305" s="4"/>
       <c r="D305" s="4"/>
       <c r="E305" s="4"/>
@@ -9068,7 +9083,7 @@
       <c r="U305" s="4"/>
       <c r="V305" s="4"/>
     </row>
-    <row r="306" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C306" s="4"/>
       <c r="D306" s="4"/>
       <c r="E306" s="4"/>
@@ -9090,7 +9105,7 @@
       <c r="U306" s="4"/>
       <c r="V306" s="4"/>
     </row>
-    <row r="307" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C307" s="4"/>
       <c r="D307" s="4"/>
       <c r="E307" s="4"/>
@@ -9112,7 +9127,7 @@
       <c r="U307" s="4"/>
       <c r="V307" s="4"/>
     </row>
-    <row r="308" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C308" s="4"/>
       <c r="D308" s="4"/>
       <c r="E308" s="4"/>
@@ -9134,7 +9149,7 @@
       <c r="U308" s="4"/>
       <c r="V308" s="4"/>
     </row>
-    <row r="309" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C309" s="4"/>
       <c r="D309" s="4"/>
       <c r="E309" s="4"/>
@@ -9156,7 +9171,7 @@
       <c r="U309" s="4"/>
       <c r="V309" s="4"/>
     </row>
-    <row r="310" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C310" s="4"/>
       <c r="D310" s="4"/>
       <c r="E310" s="4"/>
@@ -9178,7 +9193,7 @@
       <c r="U310" s="4"/>
       <c r="V310" s="4"/>
     </row>
-    <row r="311" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C311" s="4"/>
       <c r="D311" s="4"/>
       <c r="E311" s="4"/>
@@ -9200,7 +9215,7 @@
       <c r="U311" s="4"/>
       <c r="V311" s="4"/>
     </row>
-    <row r="312" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C312" s="4"/>
       <c r="D312" s="4"/>
       <c r="E312" s="4"/>
@@ -9222,7 +9237,7 @@
       <c r="U312" s="4"/>
       <c r="V312" s="4"/>
     </row>
-    <row r="313" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C313" s="4"/>
       <c r="D313" s="4"/>
       <c r="E313" s="4"/>
@@ -9244,7 +9259,7 @@
       <c r="U313" s="4"/>
       <c r="V313" s="4"/>
     </row>
-    <row r="314" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C314" s="4"/>
       <c r="D314" s="4"/>
       <c r="E314" s="4"/>
@@ -9266,7 +9281,7 @@
       <c r="U314" s="4"/>
       <c r="V314" s="4"/>
     </row>
-    <row r="315" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C315" s="4"/>
       <c r="D315" s="4"/>
       <c r="E315" s="4"/>
@@ -9288,7 +9303,7 @@
       <c r="U315" s="4"/>
       <c r="V315" s="4"/>
     </row>
-    <row r="316" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C316" s="4"/>
       <c r="D316" s="4"/>
       <c r="E316" s="4"/>
@@ -9310,7 +9325,7 @@
       <c r="U316" s="4"/>
       <c r="V316" s="4"/>
     </row>
-    <row r="317" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C317" s="4"/>
       <c r="D317" s="4"/>
       <c r="E317" s="4"/>
@@ -9332,7 +9347,7 @@
       <c r="U317" s="4"/>
       <c r="V317" s="4"/>
     </row>
-    <row r="318" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C318" s="4"/>
       <c r="D318" s="4"/>
       <c r="E318" s="4"/>
@@ -9354,7 +9369,7 @@
       <c r="U318" s="4"/>
       <c r="V318" s="4"/>
     </row>
-    <row r="319" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C319" s="4"/>
       <c r="D319" s="4"/>
       <c r="E319" s="4"/>
@@ -9376,7 +9391,7 @@
       <c r="U319" s="4"/>
       <c r="V319" s="4"/>
     </row>
-    <row r="320" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C320" s="4"/>
       <c r="D320" s="4"/>
       <c r="E320" s="4"/>
@@ -9398,7 +9413,7 @@
       <c r="U320" s="4"/>
       <c r="V320" s="4"/>
     </row>
-    <row r="321" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C321" s="4"/>
       <c r="D321" s="4"/>
       <c r="E321" s="4"/>
@@ -9420,7 +9435,7 @@
       <c r="U321" s="4"/>
       <c r="V321" s="4"/>
     </row>
-    <row r="322" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C322" s="4"/>
       <c r="D322" s="4"/>
       <c r="E322" s="4"/>
@@ -9442,7 +9457,7 @@
       <c r="U322" s="4"/>
       <c r="V322" s="4"/>
     </row>
-    <row r="323" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C323" s="4"/>
       <c r="D323" s="4"/>
       <c r="E323" s="4"/>
@@ -9464,7 +9479,7 @@
       <c r="U323" s="4"/>
       <c r="V323" s="4"/>
     </row>
-    <row r="324" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C324" s="4"/>
       <c r="D324" s="4"/>
       <c r="E324" s="4"/>
@@ -9486,7 +9501,7 @@
       <c r="U324" s="4"/>
       <c r="V324" s="4"/>
     </row>
-    <row r="325" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C325" s="4"/>
       <c r="D325" s="4"/>
       <c r="E325" s="4"/>
@@ -9508,7 +9523,7 @@
       <c r="U325" s="4"/>
       <c r="V325" s="4"/>
     </row>
-    <row r="326" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C326" s="4"/>
       <c r="D326" s="4"/>
       <c r="E326" s="4"/>
@@ -9530,7 +9545,7 @@
       <c r="U326" s="4"/>
       <c r="V326" s="4"/>
     </row>
-    <row r="327" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C327" s="4"/>
       <c r="D327" s="4"/>
       <c r="E327" s="4"/>
@@ -9552,7 +9567,7 @@
       <c r="U327" s="4"/>
       <c r="V327" s="4"/>
     </row>
-    <row r="328" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C328" s="4"/>
       <c r="D328" s="4"/>
       <c r="E328" s="4"/>
@@ -9574,7 +9589,7 @@
       <c r="U328" s="4"/>
       <c r="V328" s="4"/>
     </row>
-    <row r="329" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C329" s="4"/>
       <c r="D329" s="4"/>
       <c r="E329" s="4"/>
@@ -9596,7 +9611,7 @@
       <c r="U329" s="4"/>
       <c r="V329" s="4"/>
     </row>
-    <row r="330" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C330" s="4"/>
       <c r="D330" s="4"/>
       <c r="E330" s="4"/>
@@ -9618,7 +9633,7 @@
       <c r="U330" s="4"/>
       <c r="V330" s="4"/>
     </row>
-    <row r="331" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C331" s="4"/>
       <c r="D331" s="4"/>
       <c r="E331" s="4"/>
@@ -9640,7 +9655,7 @@
       <c r="U331" s="4"/>
       <c r="V331" s="4"/>
     </row>
-    <row r="332" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C332" s="4"/>
       <c r="D332" s="4"/>
       <c r="E332" s="4"/>
@@ -9662,7 +9677,7 @@
       <c r="U332" s="4"/>
       <c r="V332" s="4"/>
     </row>
-    <row r="333" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C333" s="4"/>
       <c r="D333" s="4"/>
       <c r="E333" s="4"/>
@@ -9684,7 +9699,7 @@
       <c r="U333" s="4"/>
       <c r="V333" s="4"/>
     </row>
-    <row r="334" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C334" s="4"/>
       <c r="D334" s="4"/>
       <c r="E334" s="4"/>
@@ -9706,7 +9721,7 @@
       <c r="U334" s="4"/>
       <c r="V334" s="4"/>
     </row>
-    <row r="335" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C335" s="4"/>
       <c r="D335" s="4"/>
       <c r="E335" s="4"/>
@@ -9728,7 +9743,7 @@
       <c r="U335" s="4"/>
       <c r="V335" s="4"/>
     </row>
-    <row r="336" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C336" s="4"/>
       <c r="D336" s="4"/>
       <c r="E336" s="4"/>
@@ -9750,7 +9765,7 @@
       <c r="U336" s="4"/>
       <c r="V336" s="4"/>
     </row>
-    <row r="337" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C337" s="4"/>
       <c r="D337" s="4"/>
       <c r="E337" s="4"/>
@@ -9772,7 +9787,7 @@
       <c r="U337" s="4"/>
       <c r="V337" s="4"/>
     </row>
-    <row r="338" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C338" s="4"/>
       <c r="D338" s="4"/>
       <c r="E338" s="4"/>
@@ -9794,7 +9809,7 @@
       <c r="U338" s="4"/>
       <c r="V338" s="4"/>
     </row>
-    <row r="339" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C339" s="4"/>
       <c r="D339" s="4"/>
       <c r="E339" s="4"/>
@@ -9816,7 +9831,7 @@
       <c r="U339" s="4"/>
       <c r="V339" s="4"/>
     </row>
-    <row r="340" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C340" s="4"/>
       <c r="D340" s="4"/>
       <c r="E340" s="4"/>
@@ -9838,7 +9853,7 @@
       <c r="U340" s="4"/>
       <c r="V340" s="4"/>
     </row>
-    <row r="341" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C341" s="4"/>
       <c r="D341" s="4"/>
       <c r="E341" s="4"/>
@@ -9860,7 +9875,7 @@
       <c r="U341" s="4"/>
       <c r="V341" s="4"/>
     </row>
-    <row r="342" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C342" s="4"/>
       <c r="D342" s="4"/>
       <c r="E342" s="4"/>
@@ -9882,7 +9897,7 @@
       <c r="U342" s="4"/>
       <c r="V342" s="4"/>
     </row>
-    <row r="343" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C343" s="4"/>
       <c r="D343" s="4"/>
       <c r="E343" s="4"/>
@@ -9904,7 +9919,7 @@
       <c r="U343" s="4"/>
       <c r="V343" s="4"/>
     </row>
-    <row r="344" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C344" s="4"/>
       <c r="D344" s="4"/>
       <c r="E344" s="4"/>
@@ -9926,7 +9941,7 @@
       <c r="U344" s="4"/>
       <c r="V344" s="4"/>
     </row>
-    <row r="345" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C345" s="4"/>
       <c r="D345" s="4"/>
       <c r="E345" s="4"/>
@@ -9948,7 +9963,7 @@
       <c r="U345" s="4"/>
       <c r="V345" s="4"/>
     </row>
-    <row r="346" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C346" s="4"/>
       <c r="D346" s="4"/>
       <c r="E346" s="4"/>
@@ -9970,7 +9985,7 @@
       <c r="U346" s="4"/>
       <c r="V346" s="4"/>
     </row>
-    <row r="347" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C347" s="4"/>
       <c r="D347" s="4"/>
       <c r="E347" s="4"/>
@@ -9992,7 +10007,7 @@
       <c r="U347" s="4"/>
       <c r="V347" s="4"/>
     </row>
-    <row r="348" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C348" s="4"/>
       <c r="D348" s="4"/>
       <c r="E348" s="4"/>
@@ -10014,7 +10029,7 @@
       <c r="U348" s="4"/>
       <c r="V348" s="4"/>
     </row>
-    <row r="349" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C349" s="4"/>
       <c r="D349" s="4"/>
       <c r="E349" s="4"/>
@@ -10036,7 +10051,7 @@
       <c r="U349" s="4"/>
       <c r="V349" s="4"/>
     </row>
-    <row r="350" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C350" s="4"/>
       <c r="D350" s="4"/>
       <c r="E350" s="4"/>
@@ -10058,7 +10073,7 @@
       <c r="U350" s="4"/>
       <c r="V350" s="4"/>
     </row>
-    <row r="351" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C351" s="4"/>
       <c r="D351" s="4"/>
       <c r="E351" s="4"/>
@@ -10080,7 +10095,7 @@
       <c r="U351" s="4"/>
       <c r="V351" s="4"/>
     </row>
-    <row r="352" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C352" s="4"/>
       <c r="D352" s="4"/>
       <c r="E352" s="4"/>
@@ -10102,7 +10117,7 @@
       <c r="U352" s="4"/>
       <c r="V352" s="4"/>
     </row>
-    <row r="353" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C353" s="4"/>
       <c r="D353" s="4"/>
       <c r="E353" s="4"/>
@@ -10124,7 +10139,7 @@
       <c r="U353" s="4"/>
       <c r="V353" s="4"/>
     </row>
-    <row r="354" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C354" s="4"/>
       <c r="D354" s="4"/>
       <c r="E354" s="4"/>
@@ -10146,7 +10161,7 @@
       <c r="U354" s="4"/>
       <c r="V354" s="4"/>
     </row>
-    <row r="355" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C355" s="4"/>
       <c r="D355" s="4"/>
       <c r="E355" s="4"/>
@@ -10168,7 +10183,7 @@
       <c r="U355" s="4"/>
       <c r="V355" s="4"/>
     </row>
-    <row r="356" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C356" s="4"/>
       <c r="D356" s="4"/>
       <c r="E356" s="4"/>
@@ -10190,7 +10205,7 @@
       <c r="U356" s="4"/>
       <c r="V356" s="4"/>
     </row>
-    <row r="357" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C357" s="4"/>
       <c r="D357" s="4"/>
       <c r="E357" s="4"/>
@@ -10212,7 +10227,7 @@
       <c r="U357" s="4"/>
       <c r="V357" s="4"/>
     </row>
-    <row r="358" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C358" s="4"/>
       <c r="D358" s="4"/>
       <c r="E358" s="4"/>
@@ -10234,7 +10249,7 @@
       <c r="U358" s="4"/>
       <c r="V358" s="4"/>
     </row>
-    <row r="359" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C359" s="4"/>
       <c r="D359" s="4"/>
       <c r="E359" s="4"/>
@@ -10256,7 +10271,7 @@
       <c r="U359" s="4"/>
       <c r="V359" s="4"/>
     </row>
-    <row r="360" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C360" s="4"/>
       <c r="D360" s="4"/>
       <c r="E360" s="4"/>
@@ -10278,7 +10293,7 @@
       <c r="U360" s="4"/>
       <c r="V360" s="4"/>
     </row>
-    <row r="361" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C361" s="4"/>
       <c r="D361" s="4"/>
       <c r="E361" s="4"/>
@@ -10300,7 +10315,7 @@
       <c r="U361" s="4"/>
       <c r="V361" s="4"/>
     </row>
-    <row r="362" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C362" s="4"/>
       <c r="D362" s="4"/>
       <c r="E362" s="4"/>
@@ -10322,7 +10337,7 @@
       <c r="U362" s="4"/>
       <c r="V362" s="4"/>
     </row>
-    <row r="363" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C363" s="4"/>
       <c r="D363" s="4"/>
       <c r="E363" s="4"/>
@@ -10344,7 +10359,7 @@
       <c r="U363" s="4"/>
       <c r="V363" s="4"/>
     </row>
-    <row r="364" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C364" s="4"/>
       <c r="D364" s="4"/>
       <c r="E364" s="4"/>
@@ -10366,7 +10381,7 @@
       <c r="U364" s="4"/>
       <c r="V364" s="4"/>
     </row>
-    <row r="365" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C365" s="4"/>
       <c r="D365" s="4"/>
       <c r="E365" s="4"/>
@@ -10388,7 +10403,7 @@
       <c r="U365" s="4"/>
       <c r="V365" s="4"/>
     </row>
-    <row r="366" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C366" s="4"/>
       <c r="D366" s="4"/>
       <c r="E366" s="4"/>
@@ -10410,7 +10425,7 @@
       <c r="U366" s="4"/>
       <c r="V366" s="4"/>
     </row>
-    <row r="367" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C367" s="4"/>
       <c r="D367" s="4"/>
       <c r="E367" s="4"/>
@@ -10432,7 +10447,7 @@
       <c r="U367" s="4"/>
       <c r="V367" s="4"/>
     </row>
-    <row r="368" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C368" s="4"/>
       <c r="D368" s="4"/>
       <c r="E368" s="4"/>
@@ -10454,7 +10469,7 @@
       <c r="U368" s="4"/>
       <c r="V368" s="4"/>
     </row>
-    <row r="369" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C369" s="4"/>
       <c r="D369" s="4"/>
       <c r="E369" s="4"/>
@@ -10476,7 +10491,7 @@
       <c r="U369" s="4"/>
       <c r="V369" s="4"/>
     </row>
-    <row r="370" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C370" s="4"/>
       <c r="D370" s="4"/>
       <c r="E370" s="4"/>
@@ -10498,7 +10513,7 @@
       <c r="U370" s="4"/>
       <c r="V370" s="4"/>
     </row>
-    <row r="371" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C371" s="4"/>
       <c r="D371" s="4"/>
       <c r="E371" s="4"/>
@@ -10520,7 +10535,7 @@
       <c r="U371" s="4"/>
       <c r="V371" s="4"/>
     </row>
-    <row r="372" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C372" s="4"/>
       <c r="D372" s="4"/>
       <c r="E372" s="4"/>
@@ -10542,7 +10557,7 @@
       <c r="U372" s="4"/>
       <c r="V372" s="4"/>
     </row>
-    <row r="373" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C373" s="4"/>
       <c r="D373" s="4"/>
       <c r="E373" s="4"/>
@@ -10564,7 +10579,7 @@
       <c r="U373" s="4"/>
       <c r="V373" s="4"/>
     </row>
-    <row r="374" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C374" s="4"/>
       <c r="D374" s="4"/>
       <c r="E374" s="4"/>
@@ -10586,7 +10601,7 @@
       <c r="U374" s="4"/>
       <c r="V374" s="4"/>
     </row>
-    <row r="375" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C375" s="4"/>
       <c r="D375" s="4"/>
       <c r="E375" s="4"/>
@@ -10608,7 +10623,7 @@
       <c r="U375" s="4"/>
       <c r="V375" s="4"/>
     </row>
-    <row r="376" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C376" s="4"/>
       <c r="D376" s="4"/>
       <c r="E376" s="4"/>
@@ -10630,7 +10645,7 @@
       <c r="U376" s="4"/>
       <c r="V376" s="4"/>
     </row>
-    <row r="377" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C377" s="4"/>
       <c r="D377" s="4"/>
       <c r="E377" s="4"/>
@@ -10652,7 +10667,7 @@
       <c r="U377" s="4"/>
       <c r="V377" s="4"/>
     </row>
-    <row r="378" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C378" s="4"/>
       <c r="D378" s="4"/>
       <c r="E378" s="4"/>
@@ -10674,7 +10689,7 @@
       <c r="U378" s="4"/>
       <c r="V378" s="4"/>
     </row>
-    <row r="379" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C379" s="4"/>
       <c r="D379" s="4"/>
       <c r="E379" s="4"/>
@@ -10696,7 +10711,7 @@
       <c r="U379" s="4"/>
       <c r="V379" s="4"/>
     </row>
-    <row r="380" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C380" s="4"/>
       <c r="D380" s="4"/>
       <c r="E380" s="4"/>
@@ -10718,7 +10733,7 @@
       <c r="U380" s="4"/>
       <c r="V380" s="4"/>
     </row>
-    <row r="381" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C381" s="4"/>
       <c r="D381" s="4"/>
       <c r="E381" s="4"/>
@@ -10740,7 +10755,7 @@
       <c r="U381" s="4"/>
       <c r="V381" s="4"/>
     </row>
-    <row r="382" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C382" s="4"/>
       <c r="D382" s="4"/>
       <c r="E382" s="4"/>
@@ -10762,7 +10777,7 @@
       <c r="U382" s="4"/>
       <c r="V382" s="4"/>
     </row>
-    <row r="383" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C383" s="4"/>
       <c r="D383" s="4"/>
       <c r="E383" s="4"/>
@@ -10784,7 +10799,7 @@
       <c r="U383" s="4"/>
       <c r="V383" s="4"/>
     </row>
-    <row r="384" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C384" s="4"/>
       <c r="D384" s="4"/>
       <c r="E384" s="4"/>
@@ -10806,7 +10821,7 @@
       <c r="U384" s="4"/>
       <c r="V384" s="4"/>
     </row>
-    <row r="385" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C385" s="4"/>
       <c r="D385" s="4"/>
       <c r="E385" s="4"/>
@@ -10828,7 +10843,7 @@
       <c r="U385" s="4"/>
       <c r="V385" s="4"/>
     </row>
-    <row r="386" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C386" s="4"/>
       <c r="D386" s="4"/>
       <c r="E386" s="4"/>
@@ -10850,7 +10865,7 @@
       <c r="U386" s="4"/>
       <c r="V386" s="4"/>
     </row>
-    <row r="387" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C387" s="4"/>
       <c r="D387" s="4"/>
       <c r="E387" s="4"/>
@@ -10872,7 +10887,7 @@
       <c r="U387" s="4"/>
       <c r="V387" s="4"/>
     </row>
-    <row r="388" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C388" s="4"/>
       <c r="D388" s="4"/>
       <c r="E388" s="4"/>
@@ -10894,7 +10909,7 @@
       <c r="U388" s="4"/>
       <c r="V388" s="4"/>
     </row>
-    <row r="389" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C389" s="4"/>
       <c r="D389" s="4"/>
       <c r="E389" s="4"/>
@@ -10916,7 +10931,7 @@
       <c r="U389" s="4"/>
       <c r="V389" s="4"/>
     </row>
-    <row r="390" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C390" s="4"/>
       <c r="D390" s="4"/>
       <c r="E390" s="4"/>
@@ -10938,7 +10953,7 @@
       <c r="U390" s="4"/>
       <c r="V390" s="4"/>
     </row>
-    <row r="391" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C391" s="4"/>
       <c r="D391" s="4"/>
       <c r="E391" s="4"/>
@@ -10960,7 +10975,7 @@
       <c r="U391" s="4"/>
       <c r="V391" s="4"/>
     </row>
-    <row r="392" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C392" s="4"/>
       <c r="D392" s="4"/>
       <c r="E392" s="4"/>
@@ -10982,7 +10997,7 @@
       <c r="U392" s="4"/>
       <c r="V392" s="4"/>
     </row>
-    <row r="393" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C393" s="4"/>
       <c r="D393" s="4"/>
       <c r="E393" s="4"/>
@@ -11004,7 +11019,7 @@
       <c r="U393" s="4"/>
       <c r="V393" s="4"/>
     </row>
-    <row r="394" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C394" s="4"/>
       <c r="D394" s="4"/>
       <c r="E394" s="4"/>
@@ -11026,7 +11041,7 @@
       <c r="U394" s="4"/>
       <c r="V394" s="4"/>
     </row>
-    <row r="395" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C395" s="4"/>
       <c r="D395" s="4"/>
       <c r="E395" s="4"/>
@@ -11048,7 +11063,7 @@
       <c r="U395" s="4"/>
       <c r="V395" s="4"/>
     </row>
-    <row r="396" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C396" s="4"/>
       <c r="D396" s="4"/>
       <c r="E396" s="4"/>
@@ -11070,7 +11085,7 @@
       <c r="U396" s="4"/>
       <c r="V396" s="4"/>
     </row>
-    <row r="397" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C397" s="4"/>
       <c r="D397" s="4"/>
       <c r="E397" s="4"/>
@@ -11092,7 +11107,7 @@
       <c r="U397" s="4"/>
       <c r="V397" s="4"/>
     </row>
-    <row r="398" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C398" s="4"/>
       <c r="D398" s="4"/>
       <c r="E398" s="4"/>
@@ -11114,7 +11129,7 @@
       <c r="U398" s="4"/>
       <c r="V398" s="4"/>
     </row>
-    <row r="399" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C399" s="4"/>
       <c r="D399" s="4"/>
       <c r="E399" s="4"/>
@@ -11136,7 +11151,7 @@
       <c r="U399" s="4"/>
       <c r="V399" s="4"/>
     </row>
-    <row r="400" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C400" s="4"/>
       <c r="D400" s="4"/>
       <c r="E400" s="4"/>
@@ -11158,7 +11173,7 @@
       <c r="U400" s="4"/>
       <c r="V400" s="4"/>
     </row>
-    <row r="401" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C401" s="4"/>
       <c r="D401" s="4"/>
       <c r="E401" s="4"/>
@@ -11180,7 +11195,7 @@
       <c r="U401" s="4"/>
       <c r="V401" s="4"/>
     </row>
-    <row r="402" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C402" s="4"/>
       <c r="D402" s="4"/>
       <c r="E402" s="4"/>
@@ -11202,7 +11217,7 @@
       <c r="U402" s="4"/>
       <c r="V402" s="4"/>
     </row>
-    <row r="403" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C403" s="4"/>
       <c r="D403" s="4"/>
       <c r="E403" s="4"/>
@@ -11224,7 +11239,7 @@
       <c r="U403" s="4"/>
       <c r="V403" s="4"/>
     </row>
-    <row r="404" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C404" s="4"/>
       <c r="D404" s="4"/>
       <c r="E404" s="4"/>
@@ -11246,7 +11261,7 @@
       <c r="U404" s="4"/>
       <c r="V404" s="4"/>
     </row>
-    <row r="405" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C405" s="4"/>
       <c r="D405" s="4"/>
       <c r="E405" s="4"/>
@@ -11268,7 +11283,7 @@
       <c r="U405" s="4"/>
       <c r="V405" s="4"/>
     </row>
-    <row r="406" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C406" s="4"/>
       <c r="D406" s="4"/>
       <c r="E406" s="4"/>
@@ -11290,7 +11305,7 @@
       <c r="U406" s="4"/>
       <c r="V406" s="4"/>
     </row>
-    <row r="407" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="407" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C407" s="4"/>
       <c r="D407" s="4"/>
       <c r="E407" s="4"/>
@@ -11312,7 +11327,7 @@
       <c r="U407" s="4"/>
       <c r="V407" s="4"/>
     </row>
-    <row r="408" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="408" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C408" s="4"/>
       <c r="D408" s="4"/>
       <c r="E408" s="4"/>
@@ -11334,7 +11349,7 @@
       <c r="U408" s="4"/>
       <c r="V408" s="4"/>
     </row>
-    <row r="409" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="409" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C409" s="4"/>
       <c r="D409" s="4"/>
       <c r="E409" s="4"/>
@@ -11356,7 +11371,7 @@
       <c r="U409" s="4"/>
       <c r="V409" s="4"/>
     </row>
-    <row r="410" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="410" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C410" s="4"/>
       <c r="D410" s="4"/>
       <c r="E410" s="4"/>
@@ -11378,7 +11393,7 @@
       <c r="U410" s="4"/>
       <c r="V410" s="4"/>
     </row>
-    <row r="411" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="411" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C411" s="4"/>
       <c r="D411" s="4"/>
       <c r="E411" s="4"/>
@@ -11400,7 +11415,7 @@
       <c r="U411" s="4"/>
       <c r="V411" s="4"/>
     </row>
-    <row r="412" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="412" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C412" s="4"/>
       <c r="D412" s="4"/>
       <c r="E412" s="4"/>
@@ -11422,7 +11437,7 @@
       <c r="U412" s="4"/>
       <c r="V412" s="4"/>
     </row>
-    <row r="413" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="413" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C413" s="4"/>
       <c r="D413" s="4"/>
       <c r="E413" s="4"/>
@@ -11444,7 +11459,7 @@
       <c r="U413" s="4"/>
       <c r="V413" s="4"/>
     </row>
-    <row r="414" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="414" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C414" s="4"/>
       <c r="D414" s="4"/>
       <c r="E414" s="4"/>
@@ -11466,7 +11481,7 @@
       <c r="U414" s="4"/>
       <c r="V414" s="4"/>
     </row>
-    <row r="415" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="415" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C415" s="4"/>
       <c r="D415" s="4"/>
       <c r="E415" s="4"/>
@@ -11488,7 +11503,7 @@
       <c r="U415" s="4"/>
       <c r="V415" s="4"/>
     </row>
-    <row r="416" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="416" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C416" s="4"/>
       <c r="D416" s="4"/>
       <c r="E416" s="4"/>
@@ -11510,7 +11525,7 @@
       <c r="U416" s="4"/>
       <c r="V416" s="4"/>
     </row>
-    <row r="417" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="417" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C417" s="4"/>
       <c r="D417" s="4"/>
       <c r="E417" s="4"/>
@@ -11532,7 +11547,7 @@
       <c r="U417" s="4"/>
       <c r="V417" s="4"/>
     </row>
-    <row r="418" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="418" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C418" s="4"/>
       <c r="D418" s="4"/>
       <c r="E418" s="4"/>
@@ -11554,7 +11569,7 @@
       <c r="U418" s="4"/>
       <c r="V418" s="4"/>
     </row>
-    <row r="419" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="419" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C419" s="4"/>
       <c r="D419" s="4"/>
       <c r="E419" s="4"/>
@@ -11576,7 +11591,7 @@
       <c r="U419" s="4"/>
       <c r="V419" s="4"/>
     </row>
-    <row r="420" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="420" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C420" s="4"/>
       <c r="D420" s="4"/>
       <c r="E420" s="4"/>
@@ -11598,7 +11613,7 @@
       <c r="U420" s="4"/>
       <c r="V420" s="4"/>
     </row>
-    <row r="421" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="421" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C421" s="4"/>
       <c r="D421" s="4"/>
       <c r="E421" s="4"/>
@@ -11620,7 +11635,7 @@
       <c r="U421" s="4"/>
       <c r="V421" s="4"/>
     </row>
-    <row r="422" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="422" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C422" s="4"/>
       <c r="D422" s="4"/>
       <c r="E422" s="4"/>
@@ -11642,7 +11657,7 @@
       <c r="U422" s="4"/>
       <c r="V422" s="4"/>
     </row>
-    <row r="423" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="423" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C423" s="4"/>
       <c r="D423" s="4"/>
       <c r="E423" s="4"/>
@@ -11664,7 +11679,7 @@
       <c r="U423" s="4"/>
       <c r="V423" s="4"/>
     </row>
-    <row r="424" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="424" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C424" s="4"/>
       <c r="D424" s="4"/>
       <c r="E424" s="4"/>
@@ -11686,7 +11701,7 @@
       <c r="U424" s="4"/>
       <c r="V424" s="4"/>
     </row>
-    <row r="425" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="425" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C425" s="4"/>
       <c r="D425" s="4"/>
       <c r="E425" s="4"/>
@@ -11708,7 +11723,7 @@
       <c r="U425" s="4"/>
       <c r="V425" s="4"/>
     </row>
-    <row r="426" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="426" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C426" s="4"/>
       <c r="D426" s="4"/>
       <c r="E426" s="4"/>
@@ -11730,7 +11745,7 @@
       <c r="U426" s="4"/>
       <c r="V426" s="4"/>
     </row>
-    <row r="427" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="427" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C427" s="4"/>
       <c r="D427" s="4"/>
       <c r="E427" s="4"/>
@@ -11752,7 +11767,7 @@
       <c r="U427" s="4"/>
       <c r="V427" s="4"/>
     </row>
-    <row r="428" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="428" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C428" s="4"/>
       <c r="D428" s="4"/>
       <c r="E428" s="4"/>
@@ -11774,7 +11789,7 @@
       <c r="U428" s="4"/>
       <c r="V428" s="4"/>
     </row>
-    <row r="429" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="429" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C429" s="4"/>
       <c r="D429" s="4"/>
       <c r="E429" s="4"/>
@@ -11796,7 +11811,7 @@
       <c r="U429" s="4"/>
       <c r="V429" s="4"/>
     </row>
-    <row r="430" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="430" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C430" s="4"/>
       <c r="D430" s="4"/>
       <c r="E430" s="4"/>
@@ -11818,7 +11833,7 @@
       <c r="U430" s="4"/>
       <c r="V430" s="4"/>
     </row>
-    <row r="431" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="431" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C431" s="4"/>
       <c r="D431" s="4"/>
       <c r="E431" s="4"/>
@@ -11840,7 +11855,7 @@
       <c r="U431" s="4"/>
       <c r="V431" s="4"/>
     </row>
-    <row r="432" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="432" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C432" s="4"/>
       <c r="D432" s="4"/>
       <c r="E432" s="4"/>
@@ -11862,7 +11877,7 @@
       <c r="U432" s="4"/>
       <c r="V432" s="4"/>
     </row>
-    <row r="433" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="433" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C433" s="4"/>
       <c r="D433" s="4"/>
       <c r="E433" s="4"/>
@@ -11884,7 +11899,7 @@
       <c r="U433" s="4"/>
       <c r="V433" s="4"/>
     </row>
-    <row r="434" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="434" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C434" s="4"/>
       <c r="D434" s="4"/>
       <c r="E434" s="4"/>
@@ -11906,7 +11921,7 @@
       <c r="U434" s="4"/>
       <c r="V434" s="4"/>
     </row>
-    <row r="435" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="435" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C435" s="4"/>
       <c r="D435" s="4"/>
       <c r="E435" s="4"/>
@@ -11928,7 +11943,7 @@
       <c r="U435" s="4"/>
       <c r="V435" s="4"/>
     </row>
-    <row r="436" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="436" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C436" s="4"/>
       <c r="D436" s="4"/>
       <c r="E436" s="4"/>
@@ -11950,7 +11965,7 @@
       <c r="U436" s="4"/>
       <c r="V436" s="4"/>
     </row>
-    <row r="437" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="437" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C437" s="4"/>
       <c r="D437" s="4"/>
       <c r="E437" s="4"/>
@@ -11972,7 +11987,7 @@
       <c r="U437" s="4"/>
       <c r="V437" s="4"/>
     </row>
-    <row r="438" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="438" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C438" s="4"/>
       <c r="D438" s="4"/>
       <c r="E438" s="4"/>
@@ -11994,7 +12009,7 @@
       <c r="U438" s="4"/>
       <c r="V438" s="4"/>
     </row>
-    <row r="439" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="439" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C439" s="4"/>
       <c r="D439" s="4"/>
       <c r="E439" s="4"/>
@@ -12016,7 +12031,7 @@
       <c r="U439" s="4"/>
       <c r="V439" s="4"/>
     </row>
-    <row r="440" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="440" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C440" s="4"/>
       <c r="D440" s="4"/>
       <c r="E440" s="4"/>
@@ -12038,7 +12053,7 @@
       <c r="U440" s="4"/>
       <c r="V440" s="4"/>
     </row>
-    <row r="441" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="441" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C441" s="4"/>
       <c r="D441" s="4"/>
       <c r="E441" s="4"/>
@@ -12060,7 +12075,7 @@
       <c r="U441" s="4"/>
       <c r="V441" s="4"/>
     </row>
-    <row r="442" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="442" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C442" s="4"/>
       <c r="D442" s="4"/>
       <c r="E442" s="4"/>
@@ -12082,7 +12097,7 @@
       <c r="U442" s="4"/>
       <c r="V442" s="4"/>
     </row>
-    <row r="443" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="443" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C443" s="4"/>
       <c r="D443" s="4"/>
       <c r="E443" s="4"/>
@@ -12104,7 +12119,7 @@
       <c r="U443" s="4"/>
       <c r="V443" s="4"/>
     </row>
-    <row r="444" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="444" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C444" s="4"/>
       <c r="D444" s="4"/>
       <c r="E444" s="4"/>
@@ -12126,7 +12141,7 @@
       <c r="U444" s="4"/>
       <c r="V444" s="4"/>
     </row>
-    <row r="445" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="445" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C445" s="4"/>
       <c r="D445" s="4"/>
       <c r="E445" s="4"/>
@@ -12148,7 +12163,7 @@
       <c r="U445" s="4"/>
       <c r="V445" s="4"/>
     </row>
-    <row r="446" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="446" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C446" s="4"/>
       <c r="D446" s="4"/>
       <c r="E446" s="4"/>
@@ -12170,7 +12185,7 @@
       <c r="U446" s="4"/>
       <c r="V446" s="4"/>
     </row>
-    <row r="447" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="447" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C447" s="4"/>
       <c r="D447" s="4"/>
       <c r="E447" s="4"/>
@@ -12192,7 +12207,7 @@
       <c r="U447" s="4"/>
       <c r="V447" s="4"/>
     </row>
-    <row r="448" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="448" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C448" s="4"/>
       <c r="D448" s="4"/>
       <c r="E448" s="4"/>
@@ -12214,7 +12229,7 @@
       <c r="U448" s="4"/>
       <c r="V448" s="4"/>
     </row>
-    <row r="449" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="449" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C449" s="4"/>
       <c r="D449" s="4"/>
       <c r="E449" s="4"/>
@@ -12236,7 +12251,7 @@
       <c r="U449" s="4"/>
       <c r="V449" s="4"/>
     </row>
-    <row r="450" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="450" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C450" s="4"/>
       <c r="D450" s="4"/>
       <c r="E450" s="4"/>
@@ -12258,7 +12273,7 @@
       <c r="U450" s="4"/>
       <c r="V450" s="4"/>
     </row>
-    <row r="451" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="451" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C451" s="4"/>
       <c r="D451" s="4"/>
       <c r="E451" s="4"/>
@@ -12280,7 +12295,7 @@
       <c r="U451" s="4"/>
       <c r="V451" s="4"/>
     </row>
-    <row r="452" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="452" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C452" s="4"/>
       <c r="D452" s="4"/>
       <c r="E452" s="4"/>
@@ -12302,7 +12317,7 @@
       <c r="U452" s="4"/>
       <c r="V452" s="4"/>
     </row>
-    <row r="453" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="453" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C453" s="4"/>
       <c r="D453" s="4"/>
       <c r="E453" s="4"/>
@@ -12324,7 +12339,7 @@
       <c r="U453" s="4"/>
       <c r="V453" s="4"/>
     </row>
-    <row r="454" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="454" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C454" s="4"/>
       <c r="D454" s="4"/>
       <c r="E454" s="4"/>
@@ -12346,7 +12361,7 @@
       <c r="U454" s="4"/>
       <c r="V454" s="4"/>
     </row>
-    <row r="455" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="455" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C455" s="4"/>
       <c r="D455" s="4"/>
       <c r="E455" s="4"/>
@@ -12368,7 +12383,7 @@
       <c r="U455" s="4"/>
       <c r="V455" s="4"/>
     </row>
-    <row r="456" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="456" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C456" s="4"/>
       <c r="D456" s="4"/>
       <c r="E456" s="4"/>
@@ -12390,7 +12405,7 @@
       <c r="U456" s="4"/>
       <c r="V456" s="4"/>
     </row>
-    <row r="457" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="457" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C457" s="4"/>
       <c r="D457" s="4"/>
       <c r="E457" s="4"/>
@@ -12412,7 +12427,7 @@
       <c r="U457" s="4"/>
       <c r="V457" s="4"/>
     </row>
-    <row r="458" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="458" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C458" s="4"/>
       <c r="D458" s="4"/>
       <c r="E458" s="4"/>
@@ -12434,7 +12449,7 @@
       <c r="U458" s="4"/>
       <c r="V458" s="4"/>
     </row>
-    <row r="459" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="459" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C459" s="4"/>
       <c r="D459" s="4"/>
       <c r="E459" s="4"/>
@@ -12456,7 +12471,7 @@
       <c r="U459" s="4"/>
       <c r="V459" s="4"/>
     </row>
-    <row r="460" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="460" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C460" s="4"/>
       <c r="D460" s="4"/>
       <c r="E460" s="4"/>
@@ -12478,7 +12493,7 @@
       <c r="U460" s="4"/>
       <c r="V460" s="4"/>
     </row>
-    <row r="461" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="461" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C461" s="4"/>
       <c r="D461" s="4"/>
       <c r="E461" s="4"/>
@@ -12500,7 +12515,7 @@
       <c r="U461" s="4"/>
       <c r="V461" s="4"/>
     </row>
-    <row r="462" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="462" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C462" s="4"/>
       <c r="D462" s="4"/>
       <c r="E462" s="4"/>
@@ -12522,7 +12537,7 @@
       <c r="U462" s="4"/>
       <c r="V462" s="4"/>
     </row>
-    <row r="463" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="463" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C463" s="4"/>
       <c r="D463" s="4"/>
       <c r="E463" s="4"/>
@@ -12544,7 +12559,7 @@
       <c r="U463" s="4"/>
       <c r="V463" s="4"/>
     </row>
-    <row r="464" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="464" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C464" s="4"/>
       <c r="D464" s="4"/>
       <c r="E464" s="4"/>
@@ -12566,7 +12581,7 @@
       <c r="U464" s="4"/>
       <c r="V464" s="4"/>
     </row>
-    <row r="465" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="465" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C465" s="4"/>
       <c r="D465" s="4"/>
       <c r="E465" s="4"/>
@@ -12588,7 +12603,7 @@
       <c r="U465" s="4"/>
       <c r="V465" s="4"/>
     </row>
-    <row r="466" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="466" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C466" s="4"/>
       <c r="D466" s="4"/>
       <c r="E466" s="4"/>
@@ -12610,7 +12625,7 @@
       <c r="U466" s="4"/>
       <c r="V466" s="4"/>
     </row>
-    <row r="467" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="467" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C467" s="4"/>
       <c r="D467" s="4"/>
       <c r="E467" s="4"/>
@@ -12632,7 +12647,7 @@
       <c r="U467" s="4"/>
       <c r="V467" s="4"/>
     </row>
-    <row r="468" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="468" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C468" s="4"/>
       <c r="D468" s="4"/>
       <c r="E468" s="4"/>
@@ -12654,7 +12669,7 @@
       <c r="U468" s="4"/>
       <c r="V468" s="4"/>
     </row>
-    <row r="469" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="469" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C469" s="4"/>
       <c r="D469" s="4"/>
       <c r="E469" s="4"/>
@@ -12676,7 +12691,7 @@
       <c r="U469" s="4"/>
       <c r="V469" s="4"/>
     </row>
-    <row r="470" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="470" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C470" s="4"/>
       <c r="D470" s="4"/>
       <c r="E470" s="4"/>
@@ -12698,7 +12713,7 @@
       <c r="U470" s="4"/>
       <c r="V470" s="4"/>
     </row>
-    <row r="471" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="471" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C471" s="4"/>
       <c r="D471" s="4"/>
       <c r="E471" s="4"/>
@@ -12720,7 +12735,7 @@
       <c r="U471" s="4"/>
       <c r="V471" s="4"/>
     </row>
-    <row r="472" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="472" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C472" s="4"/>
       <c r="D472" s="4"/>
       <c r="E472" s="4"/>
@@ -12742,7 +12757,7 @@
       <c r="U472" s="4"/>
       <c r="V472" s="4"/>
     </row>
-    <row r="473" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="473" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C473" s="4"/>
       <c r="D473" s="4"/>
       <c r="E473" s="4"/>
@@ -12764,7 +12779,7 @@
       <c r="U473" s="4"/>
       <c r="V473" s="4"/>
     </row>
-    <row r="474" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="474" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C474" s="4"/>
       <c r="D474" s="4"/>
       <c r="E474" s="4"/>
@@ -12786,7 +12801,7 @@
       <c r="U474" s="4"/>
       <c r="V474" s="4"/>
     </row>
-    <row r="475" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="475" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C475" s="4"/>
       <c r="D475" s="4"/>
       <c r="E475" s="4"/>
@@ -12808,7 +12823,7 @@
       <c r="U475" s="4"/>
       <c r="V475" s="4"/>
     </row>
-    <row r="476" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="476" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C476" s="4"/>
       <c r="D476" s="4"/>
       <c r="E476" s="4"/>
@@ -12830,7 +12845,7 @@
       <c r="U476" s="4"/>
       <c r="V476" s="4"/>
     </row>
-    <row r="477" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="477" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C477" s="4"/>
       <c r="D477" s="4"/>
       <c r="E477" s="4"/>
@@ -12852,7 +12867,7 @@
       <c r="U477" s="4"/>
       <c r="V477" s="4"/>
     </row>
-    <row r="478" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="478" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C478" s="4"/>
       <c r="D478" s="4"/>
       <c r="E478" s="4"/>
@@ -12874,7 +12889,7 @@
       <c r="U478" s="4"/>
       <c r="V478" s="4"/>
     </row>
-    <row r="479" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="479" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C479" s="4"/>
       <c r="D479" s="4"/>
       <c r="E479" s="4"/>
@@ -12896,7 +12911,7 @@
       <c r="U479" s="4"/>
       <c r="V479" s="4"/>
     </row>
-    <row r="480" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="480" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C480" s="4"/>
       <c r="D480" s="4"/>
       <c r="E480" s="4"/>
@@ -12918,7 +12933,7 @@
       <c r="U480" s="4"/>
       <c r="V480" s="4"/>
     </row>
-    <row r="481" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="481" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C481" s="4"/>
       <c r="D481" s="4"/>
       <c r="E481" s="4"/>
@@ -12940,7 +12955,7 @@
       <c r="U481" s="4"/>
       <c r="V481" s="4"/>
     </row>
-    <row r="482" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="482" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C482" s="4"/>
       <c r="D482" s="4"/>
       <c r="E482" s="4"/>
@@ -12962,7 +12977,7 @@
       <c r="U482" s="4"/>
       <c r="V482" s="4"/>
     </row>
-    <row r="483" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="483" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C483" s="4"/>
       <c r="D483" s="4"/>
       <c r="E483" s="4"/>
@@ -12984,7 +12999,7 @@
       <c r="U483" s="4"/>
       <c r="V483" s="4"/>
     </row>
-    <row r="484" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="484" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C484" s="4"/>
       <c r="D484" s="4"/>
       <c r="E484" s="4"/>
@@ -13006,7 +13021,7 @@
       <c r="U484" s="4"/>
       <c r="V484" s="4"/>
     </row>
-    <row r="485" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="485" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C485" s="4"/>
       <c r="D485" s="4"/>
       <c r="E485" s="4"/>
@@ -13028,7 +13043,7 @@
       <c r="U485" s="4"/>
       <c r="V485" s="4"/>
     </row>
-    <row r="486" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="486" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C486" s="4"/>
       <c r="D486" s="4"/>
       <c r="E486" s="4"/>
@@ -13050,7 +13065,7 @@
       <c r="U486" s="4"/>
       <c r="V486" s="4"/>
     </row>
-    <row r="487" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="487" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C487" s="4"/>
       <c r="D487" s="4"/>
       <c r="E487" s="4"/>
@@ -13072,7 +13087,7 @@
       <c r="U487" s="4"/>
       <c r="V487" s="4"/>
     </row>
-    <row r="488" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="488" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C488" s="4"/>
       <c r="D488" s="4"/>
       <c r="E488" s="4"/>
@@ -13094,7 +13109,7 @@
       <c r="U488" s="4"/>
       <c r="V488" s="4"/>
     </row>
-    <row r="489" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="489" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C489" s="4"/>
       <c r="D489" s="4"/>
       <c r="E489" s="4"/>
@@ -13116,7 +13131,7 @@
       <c r="U489" s="4"/>
       <c r="V489" s="4"/>
     </row>
-    <row r="490" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="490" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C490" s="4"/>
       <c r="D490" s="4"/>
       <c r="E490" s="4"/>
@@ -13138,7 +13153,7 @@
       <c r="U490" s="4"/>
       <c r="V490" s="4"/>
     </row>
-    <row r="491" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="491" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C491" s="4"/>
       <c r="D491" s="4"/>
       <c r="E491" s="4"/>
@@ -13160,7 +13175,7 @@
       <c r="U491" s="4"/>
       <c r="V491" s="4"/>
     </row>
-    <row r="492" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="492" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C492" s="4"/>
       <c r="D492" s="4"/>
       <c r="E492" s="4"/>
@@ -13182,7 +13197,7 @@
       <c r="U492" s="4"/>
       <c r="V492" s="4"/>
     </row>
-    <row r="493" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="493" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C493" s="4"/>
       <c r="D493" s="4"/>
       <c r="E493" s="4"/>
@@ -13204,7 +13219,7 @@
       <c r="U493" s="4"/>
       <c r="V493" s="4"/>
     </row>
-    <row r="494" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="494" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C494" s="4"/>
       <c r="D494" s="4"/>
       <c r="E494" s="4"/>
@@ -13226,7 +13241,7 @@
       <c r="U494" s="4"/>
       <c r="V494" s="4"/>
     </row>
-    <row r="495" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="495" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C495" s="4"/>
       <c r="D495" s="4"/>
       <c r="E495" s="4"/>
@@ -13248,7 +13263,7 @@
       <c r="U495" s="4"/>
       <c r="V495" s="4"/>
     </row>
-    <row r="496" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="496" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C496" s="4"/>
       <c r="D496" s="4"/>
       <c r="E496" s="4"/>
@@ -13270,7 +13285,7 @@
       <c r="U496" s="4"/>
       <c r="V496" s="4"/>
     </row>
-    <row r="497" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="497" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C497" s="4"/>
       <c r="D497" s="4"/>
       <c r="E497" s="4"/>
@@ -13292,7 +13307,7 @@
       <c r="U497" s="4"/>
       <c r="V497" s="4"/>
     </row>
-    <row r="498" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="498" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C498" s="4"/>
       <c r="D498" s="4"/>
       <c r="E498" s="4"/>
@@ -13314,7 +13329,7 @@
       <c r="U498" s="4"/>
       <c r="V498" s="4"/>
     </row>
-    <row r="499" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="499" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C499" s="4"/>
       <c r="D499" s="4"/>
       <c r="E499" s="4"/>
@@ -13336,7 +13351,7 @@
       <c r="U499" s="4"/>
       <c r="V499" s="4"/>
     </row>
-    <row r="500" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="500" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C500" s="4"/>
       <c r="D500" s="4"/>
       <c r="E500" s="4"/>
@@ -13358,7 +13373,7 @@
       <c r="U500" s="4"/>
       <c r="V500" s="4"/>
     </row>
-    <row r="501" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="501" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C501" s="4"/>
       <c r="D501" s="4"/>
       <c r="E501" s="4"/>
@@ -13380,7 +13395,7 @@
       <c r="U501" s="4"/>
       <c r="V501" s="4"/>
     </row>
-    <row r="502" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="502" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C502" s="4"/>
       <c r="D502" s="4"/>
       <c r="E502" s="4"/>
@@ -13402,7 +13417,7 @@
       <c r="U502" s="4"/>
       <c r="V502" s="4"/>
     </row>
-    <row r="503" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="503" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C503" s="4"/>
       <c r="D503" s="4"/>
       <c r="E503" s="4"/>
@@ -13424,7 +13439,7 @@
       <c r="U503" s="4"/>
       <c r="V503" s="4"/>
     </row>
-    <row r="504" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="504" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C504" s="4"/>
       <c r="D504" s="4"/>
       <c r="E504" s="4"/>
@@ -13446,7 +13461,7 @@
       <c r="U504" s="4"/>
       <c r="V504" s="4"/>
     </row>
-    <row r="505" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="505" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C505" s="4"/>
       <c r="D505" s="4"/>
       <c r="E505" s="4"/>
@@ -13468,7 +13483,7 @@
       <c r="U505" s="4"/>
       <c r="V505" s="4"/>
     </row>
-    <row r="506" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="506" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C506" s="4"/>
       <c r="D506" s="4"/>
       <c r="E506" s="4"/>
@@ -13490,7 +13505,7 @@
       <c r="U506" s="4"/>
       <c r="V506" s="4"/>
     </row>
-    <row r="507" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="507" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C507" s="4"/>
       <c r="D507" s="4"/>
       <c r="E507" s="4"/>
@@ -13512,7 +13527,7 @@
       <c r="U507" s="4"/>
       <c r="V507" s="4"/>
     </row>
-    <row r="508" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="508" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C508" s="4"/>
       <c r="D508" s="4"/>
       <c r="E508" s="4"/>
@@ -13534,7 +13549,7 @@
       <c r="U508" s="4"/>
       <c r="V508" s="4"/>
     </row>
-    <row r="509" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="509" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C509" s="4"/>
       <c r="D509" s="4"/>
       <c r="E509" s="4"/>
@@ -13556,7 +13571,7 @@
       <c r="U509" s="4"/>
       <c r="V509" s="4"/>
     </row>
-    <row r="510" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="510" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C510" s="4"/>
       <c r="D510" s="4"/>
       <c r="E510" s="4"/>
@@ -13578,7 +13593,7 @@
       <c r="U510" s="4"/>
       <c r="V510" s="4"/>
     </row>
-    <row r="511" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="511" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C511" s="4"/>
       <c r="D511" s="4"/>
       <c r="E511" s="4"/>
@@ -13600,7 +13615,7 @@
       <c r="U511" s="4"/>
       <c r="V511" s="4"/>
     </row>
-    <row r="512" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="512" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C512" s="4"/>
       <c r="D512" s="4"/>
       <c r="E512" s="4"/>
@@ -13622,7 +13637,7 @@
       <c r="U512" s="4"/>
       <c r="V512" s="4"/>
     </row>
-    <row r="513" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="513" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C513" s="4"/>
       <c r="D513" s="4"/>
       <c r="E513" s="4"/>
@@ -13644,7 +13659,7 @@
       <c r="U513" s="4"/>
       <c r="V513" s="4"/>
     </row>
-    <row r="514" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="514" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C514" s="4"/>
       <c r="D514" s="4"/>
       <c r="E514" s="4"/>
@@ -13666,7 +13681,7 @@
       <c r="U514" s="4"/>
       <c r="V514" s="4"/>
     </row>
-    <row r="515" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="515" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C515" s="4"/>
       <c r="D515" s="4"/>
       <c r="E515" s="4"/>
@@ -13688,7 +13703,7 @@
       <c r="U515" s="4"/>
       <c r="V515" s="4"/>
     </row>
-    <row r="516" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="516" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C516" s="4"/>
       <c r="D516" s="4"/>
       <c r="E516" s="4"/>
@@ -13710,7 +13725,7 @@
       <c r="U516" s="4"/>
       <c r="V516" s="4"/>
     </row>
-    <row r="517" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="517" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C517" s="4"/>
       <c r="D517" s="4"/>
       <c r="E517" s="4"/>
@@ -13732,7 +13747,7 @@
       <c r="U517" s="4"/>
       <c r="V517" s="4"/>
     </row>
-    <row r="518" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="518" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C518" s="4"/>
       <c r="D518" s="4"/>
       <c r="E518" s="4"/>
@@ -13754,7 +13769,7 @@
       <c r="U518" s="4"/>
       <c r="V518" s="4"/>
     </row>
-    <row r="519" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="519" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C519" s="4"/>
       <c r="D519" s="4"/>
       <c r="E519" s="4"/>
@@ -13776,7 +13791,7 @@
       <c r="U519" s="4"/>
       <c r="V519" s="4"/>
     </row>
-    <row r="520" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="520" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C520" s="4"/>
       <c r="D520" s="4"/>
       <c r="E520" s="4"/>
@@ -13798,7 +13813,7 @@
       <c r="U520" s="4"/>
       <c r="V520" s="4"/>
     </row>
-    <row r="521" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="521" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C521" s="4"/>
       <c r="D521" s="4"/>
       <c r="E521" s="4"/>
@@ -13820,7 +13835,7 @@
       <c r="U521" s="4"/>
       <c r="V521" s="4"/>
     </row>
-    <row r="522" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="522" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C522" s="4"/>
       <c r="D522" s="4"/>
       <c r="E522" s="4"/>
@@ -13842,7 +13857,7 @@
       <c r="U522" s="4"/>
       <c r="V522" s="4"/>
     </row>
-    <row r="523" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="523" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C523" s="4"/>
       <c r="D523" s="4"/>
       <c r="E523" s="4"/>
@@ -13864,7 +13879,7 @@
       <c r="U523" s="4"/>
       <c r="V523" s="4"/>
     </row>
-    <row r="524" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="524" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C524" s="4"/>
       <c r="D524" s="4"/>
       <c r="E524" s="4"/>
@@ -13886,7 +13901,7 @@
       <c r="U524" s="4"/>
       <c r="V524" s="4"/>
     </row>
-    <row r="525" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="525" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C525" s="4"/>
       <c r="D525" s="4"/>
       <c r="E525" s="4"/>
@@ -13908,7 +13923,7 @@
       <c r="U525" s="4"/>
       <c r="V525" s="4"/>
     </row>
-    <row r="526" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="526" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C526" s="4"/>
       <c r="D526" s="4"/>
       <c r="E526" s="4"/>
@@ -13930,7 +13945,7 @@
       <c r="U526" s="4"/>
       <c r="V526" s="4"/>
     </row>
-    <row r="527" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="527" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C527" s="4"/>
       <c r="D527" s="4"/>
       <c r="E527" s="4"/>
@@ -13952,7 +13967,7 @@
       <c r="U527" s="4"/>
       <c r="V527" s="4"/>
     </row>
-    <row r="528" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="528" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C528" s="4"/>
       <c r="D528" s="4"/>
       <c r="E528" s="4"/>
@@ -13974,7 +13989,7 @@
       <c r="U528" s="4"/>
       <c r="V528" s="4"/>
     </row>
-    <row r="529" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="529" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C529" s="4"/>
       <c r="D529" s="4"/>
       <c r="E529" s="4"/>
@@ -13996,7 +14011,7 @@
       <c r="U529" s="4"/>
       <c r="V529" s="4"/>
     </row>
-    <row r="530" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="530" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C530" s="4"/>
       <c r="D530" s="4"/>
       <c r="E530" s="4"/>
@@ -14018,7 +14033,7 @@
       <c r="U530" s="4"/>
       <c r="V530" s="4"/>
     </row>
-    <row r="531" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="531" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C531" s="4"/>
       <c r="D531" s="4"/>
       <c r="E531" s="4"/>
@@ -14040,7 +14055,7 @@
       <c r="U531" s="4"/>
       <c r="V531" s="4"/>
     </row>
-    <row r="532" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="532" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C532" s="4"/>
       <c r="D532" s="4"/>
       <c r="E532" s="4"/>
@@ -14062,7 +14077,7 @@
       <c r="U532" s="4"/>
       <c r="V532" s="4"/>
     </row>
-    <row r="533" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="533" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C533" s="4"/>
       <c r="D533" s="4"/>
       <c r="E533" s="4"/>
@@ -14084,7 +14099,7 @@
       <c r="U533" s="4"/>
       <c r="V533" s="4"/>
     </row>
-    <row r="534" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="534" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C534" s="4"/>
       <c r="D534" s="4"/>
       <c r="E534" s="4"/>
@@ -14106,7 +14121,7 @@
       <c r="U534" s="4"/>
       <c r="V534" s="4"/>
     </row>
-    <row r="535" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="535" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C535" s="4"/>
       <c r="D535" s="4"/>
       <c r="E535" s="4"/>
@@ -14128,7 +14143,7 @@
       <c r="U535" s="4"/>
       <c r="V535" s="4"/>
     </row>
-    <row r="536" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="536" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C536" s="4"/>
       <c r="D536" s="4"/>
       <c r="E536" s="4"/>
@@ -14150,7 +14165,7 @@
       <c r="U536" s="4"/>
       <c r="V536" s="4"/>
     </row>
-    <row r="537" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="537" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C537" s="4"/>
       <c r="D537" s="4"/>
       <c r="E537" s="4"/>
@@ -14172,7 +14187,7 @@
       <c r="U537" s="4"/>
       <c r="V537" s="4"/>
     </row>
-    <row r="538" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="538" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C538" s="4"/>
       <c r="D538" s="4"/>
       <c r="E538" s="4"/>
@@ -14194,7 +14209,7 @@
       <c r="U538" s="4"/>
       <c r="V538" s="4"/>
     </row>
-    <row r="539" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="539" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C539" s="4"/>
       <c r="D539" s="4"/>
       <c r="E539" s="4"/>
@@ -14216,7 +14231,7 @@
       <c r="U539" s="4"/>
       <c r="V539" s="4"/>
     </row>
-    <row r="540" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="540" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C540" s="4"/>
       <c r="D540" s="4"/>
       <c r="E540" s="4"/>
@@ -14238,7 +14253,7 @@
       <c r="U540" s="4"/>
       <c r="V540" s="4"/>
     </row>
-    <row r="541" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="541" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C541" s="4"/>
       <c r="D541" s="4"/>
       <c r="E541" s="4"/>
@@ -14260,7 +14275,7 @@
       <c r="U541" s="4"/>
       <c r="V541" s="4"/>
     </row>
-    <row r="542" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="542" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C542" s="4"/>
       <c r="D542" s="4"/>
       <c r="E542" s="4"/>
@@ -14282,7 +14297,7 @@
       <c r="U542" s="4"/>
       <c r="V542" s="4"/>
     </row>
-    <row r="543" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="543" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C543" s="4"/>
       <c r="D543" s="4"/>
       <c r="E543" s="4"/>
@@ -14304,7 +14319,7 @@
       <c r="U543" s="4"/>
       <c r="V543" s="4"/>
     </row>
-    <row r="544" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="544" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C544" s="4"/>
       <c r="D544" s="4"/>
       <c r="E544" s="4"/>
@@ -14326,7 +14341,7 @@
       <c r="U544" s="4"/>
       <c r="V544" s="4"/>
     </row>
-    <row r="545" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="545" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C545" s="4"/>
       <c r="D545" s="4"/>
       <c r="E545" s="4"/>
@@ -14348,7 +14363,7 @@
       <c r="U545" s="4"/>
       <c r="V545" s="4"/>
     </row>
-    <row r="546" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="546" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C546" s="4"/>
       <c r="D546" s="4"/>
       <c r="E546" s="4"/>
@@ -14370,7 +14385,7 @@
       <c r="U546" s="4"/>
       <c r="V546" s="4"/>
     </row>
-    <row r="547" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="547" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C547" s="4"/>
       <c r="D547" s="4"/>
       <c r="E547" s="4"/>
@@ -14392,7 +14407,7 @@
       <c r="U547" s="4"/>
       <c r="V547" s="4"/>
     </row>
-    <row r="548" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="548" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C548" s="4"/>
       <c r="D548" s="4"/>
       <c r="E548" s="4"/>

--- a/AAPL.xlsx
+++ b/AAPL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C590DDF8-858B-457F-A6D3-A8585D0B0350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6396B4F3-14C7-478D-904B-4EE3D5238BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="1" xr2:uid="{5CC9697C-BEBF-454C-9830-8930A9F64DCB}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{5CC9697C-BEBF-454C-9830-8930A9F64DCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="84">
   <si>
     <t>AAPL</t>
   </si>
@@ -287,6 +287,9 @@
   <si>
     <t>Founded: 1976 by Steve Jobs</t>
   </si>
+  <si>
+    <t>FY25</t>
+  </si>
 </sst>
 </file>
 
@@ -297,13 +300,19 @@
     <numFmt numFmtId="165" formatCode="#,##0.0;\(#,##0.0\)"/>
     <numFmt numFmtId="166" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -368,27 +377,30 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -727,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64CED78A-9E29-4339-B274-4FCECE48B9E7}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -754,7 +766,7 @@
         <v>4</v>
       </c>
       <c r="H3" s="3">
-        <v>203.75</v>
+        <v>272.89999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -765,10 +777,10 @@
         <v>5</v>
       </c>
       <c r="H4" s="4">
-        <v>14840.39</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>79</v>
+        <v>14776.352999999999</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -780,7 +792,7 @@
       </c>
       <c r="H5" s="4">
         <f>H3*H4</f>
-        <v>3023729.4624999999</v>
+        <v>4032466.7336999993</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -788,11 +800,11 @@
         <v>7</v>
       </c>
       <c r="H6" s="4">
-        <f>36269+19103+77614</f>
-        <v>132986</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>79</v>
+        <f>35934+18763</f>
+        <v>54697</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -806,11 +818,11 @@
         <v>8</v>
       </c>
       <c r="H7" s="4">
-        <f>9345+82430</f>
-        <v>91775</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>79</v>
+        <f>12350+78328</f>
+        <v>90678</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -819,7 +831,7 @@
       </c>
       <c r="H8" s="4">
         <f>H5-H6+H7</f>
-        <v>2982518.4624999999</v>
+        <v>4068447.7336999993</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -839,13 +851,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41AC909-CB0A-404C-BB37-AEC25D043BC8}">
-  <dimension ref="A1:W548"/>
+  <dimension ref="A1:CE548"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -855,12 +867,12 @@
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:83" x14ac:dyDescent="0.2">
       <c r="C2" s="5" t="s">
         <v>14</v>
       </c>
@@ -919,8 +931,11 @@
       <c r="V2" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W2" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:83" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>42</v>
       </c>
@@ -939,7 +954,10 @@
       <c r="I3" s="4">
         <v>39296</v>
       </c>
-      <c r="J3" s="4"/>
+      <c r="J3" s="4">
+        <f>+V3-SUM(G3:I3)</f>
+        <v>46222</v>
+      </c>
       <c r="K3" s="4">
         <v>69138</v>
       </c>
@@ -949,7 +967,10 @@
       <c r="M3" s="4">
         <v>44582</v>
       </c>
-      <c r="N3" s="4"/>
+      <c r="N3" s="4">
+        <f>+W3-SUM(K3:M3)</f>
+        <v>49025</v>
+      </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -964,8 +985,71 @@
       <c r="V3" s="4">
         <v>201183</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W3" s="4">
+        <v>209586</v>
+      </c>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="4"/>
+      <c r="AP3" s="4"/>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="4"/>
+      <c r="AS3" s="4"/>
+      <c r="AT3" s="4"/>
+      <c r="AU3" s="4"/>
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="4"/>
+      <c r="AX3" s="4"/>
+      <c r="AY3" s="4"/>
+      <c r="AZ3" s="4"/>
+      <c r="BA3" s="4"/>
+      <c r="BB3" s="4"/>
+      <c r="BC3" s="4"/>
+      <c r="BD3" s="4"/>
+      <c r="BE3" s="4"/>
+      <c r="BF3" s="4"/>
+      <c r="BG3" s="4"/>
+      <c r="BH3" s="4"/>
+      <c r="BI3" s="4"/>
+      <c r="BJ3" s="4"/>
+      <c r="BK3" s="4"/>
+      <c r="BL3" s="4"/>
+      <c r="BM3" s="4"/>
+      <c r="BN3" s="4"/>
+      <c r="BO3" s="4"/>
+      <c r="BP3" s="4"/>
+      <c r="BQ3" s="4"/>
+      <c r="BR3" s="4"/>
+      <c r="BS3" s="4"/>
+      <c r="BT3" s="4"/>
+      <c r="BU3" s="4"/>
+      <c r="BV3" s="4"/>
+      <c r="BW3" s="4"/>
+      <c r="BX3" s="4"/>
+      <c r="BY3" s="4"/>
+      <c r="BZ3" s="4"/>
+      <c r="CA3" s="4"/>
+      <c r="CB3" s="4"/>
+      <c r="CC3" s="4"/>
+      <c r="CD3" s="4"/>
+      <c r="CE3" s="4"/>
+    </row>
+    <row r="4" spans="1:83" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>44</v>
       </c>
@@ -984,7 +1068,10 @@
       <c r="I4" s="4">
         <v>7009</v>
       </c>
-      <c r="J4" s="4"/>
+      <c r="J4" s="4">
+        <f t="shared" ref="J4:J8" si="0">+V4-SUM(G4:I4)</f>
+        <v>7744</v>
+      </c>
       <c r="K4" s="4">
         <v>8987</v>
       </c>
@@ -994,7 +1081,10 @@
       <c r="M4" s="4">
         <v>8046</v>
       </c>
-      <c r="N4" s="4"/>
+      <c r="N4" s="4">
+        <f t="shared" ref="N4:N8" si="1">+W4-SUM(K4:M4)</f>
+        <v>8726</v>
+      </c>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
@@ -1009,8 +1099,71 @@
       <c r="V4" s="4">
         <v>29984</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W4" s="4">
+        <v>33708</v>
+      </c>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="4"/>
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="4"/>
+      <c r="AS4" s="4"/>
+      <c r="AT4" s="4"/>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="4"/>
+      <c r="AX4" s="4"/>
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="4"/>
+      <c r="BA4" s="4"/>
+      <c r="BB4" s="4"/>
+      <c r="BC4" s="4"/>
+      <c r="BD4" s="4"/>
+      <c r="BE4" s="4"/>
+      <c r="BF4" s="4"/>
+      <c r="BG4" s="4"/>
+      <c r="BH4" s="4"/>
+      <c r="BI4" s="4"/>
+      <c r="BJ4" s="4"/>
+      <c r="BK4" s="4"/>
+      <c r="BL4" s="4"/>
+      <c r="BM4" s="4"/>
+      <c r="BN4" s="4"/>
+      <c r="BO4" s="4"/>
+      <c r="BP4" s="4"/>
+      <c r="BQ4" s="4"/>
+      <c r="BR4" s="4"/>
+      <c r="BS4" s="4"/>
+      <c r="BT4" s="4"/>
+      <c r="BU4" s="4"/>
+      <c r="BV4" s="4"/>
+      <c r="BW4" s="4"/>
+      <c r="BX4" s="4"/>
+      <c r="BY4" s="4"/>
+      <c r="BZ4" s="4"/>
+      <c r="CA4" s="4"/>
+      <c r="CB4" s="4"/>
+      <c r="CC4" s="4"/>
+      <c r="CD4" s="4"/>
+      <c r="CE4" s="4"/>
+    </row>
+    <row r="5" spans="1:83" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>43</v>
       </c>
@@ -1029,7 +1182,10 @@
       <c r="I5" s="4">
         <v>7162</v>
       </c>
-      <c r="J5" s="4"/>
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>6950</v>
+      </c>
       <c r="K5" s="4">
         <v>8088</v>
       </c>
@@ -1039,7 +1195,10 @@
       <c r="M5" s="4">
         <v>6581</v>
       </c>
-      <c r="N5" s="4"/>
+      <c r="N5" s="4">
+        <f t="shared" si="1"/>
+        <v>6952</v>
+      </c>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
@@ -1054,8 +1213,71 @@
       <c r="V5" s="4">
         <v>26694</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W5" s="4">
+        <v>28023</v>
+      </c>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="4"/>
+      <c r="AP5" s="4"/>
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="4"/>
+      <c r="AS5" s="4"/>
+      <c r="AT5" s="4"/>
+      <c r="AU5" s="4"/>
+      <c r="AV5" s="4"/>
+      <c r="AW5" s="4"/>
+      <c r="AX5" s="4"/>
+      <c r="AY5" s="4"/>
+      <c r="AZ5" s="4"/>
+      <c r="BA5" s="4"/>
+      <c r="BB5" s="4"/>
+      <c r="BC5" s="4"/>
+      <c r="BD5" s="4"/>
+      <c r="BE5" s="4"/>
+      <c r="BF5" s="4"/>
+      <c r="BG5" s="4"/>
+      <c r="BH5" s="4"/>
+      <c r="BI5" s="4"/>
+      <c r="BJ5" s="4"/>
+      <c r="BK5" s="4"/>
+      <c r="BL5" s="4"/>
+      <c r="BM5" s="4"/>
+      <c r="BN5" s="4"/>
+      <c r="BO5" s="4"/>
+      <c r="BP5" s="4"/>
+      <c r="BQ5" s="4"/>
+      <c r="BR5" s="4"/>
+      <c r="BS5" s="4"/>
+      <c r="BT5" s="4"/>
+      <c r="BU5" s="4"/>
+      <c r="BV5" s="4"/>
+      <c r="BW5" s="4"/>
+      <c r="BX5" s="4"/>
+      <c r="BY5" s="4"/>
+      <c r="BZ5" s="4"/>
+      <c r="CA5" s="4"/>
+      <c r="CB5" s="4"/>
+      <c r="CC5" s="4"/>
+      <c r="CD5" s="4"/>
+      <c r="CE5" s="4"/>
+    </row>
+    <row r="6" spans="1:83" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>45</v>
       </c>
@@ -1074,7 +1296,10 @@
       <c r="I6" s="4">
         <v>8097</v>
       </c>
-      <c r="J6" s="4"/>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>9042</v>
+      </c>
       <c r="K6" s="4">
         <v>11747</v>
       </c>
@@ -1084,7 +1309,10 @@
       <c r="M6" s="4">
         <v>7404</v>
       </c>
-      <c r="N6" s="4"/>
+      <c r="N6" s="4">
+        <f t="shared" si="1"/>
+        <v>9013</v>
+      </c>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
@@ -1099,8 +1327,71 @@
       <c r="V6" s="4">
         <v>37005</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W6" s="4">
+        <v>35686</v>
+      </c>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="4"/>
+      <c r="AO6" s="4"/>
+      <c r="AP6" s="4"/>
+      <c r="AQ6" s="4"/>
+      <c r="AR6" s="4"/>
+      <c r="AS6" s="4"/>
+      <c r="AT6" s="4"/>
+      <c r="AU6" s="4"/>
+      <c r="AV6" s="4"/>
+      <c r="AW6" s="4"/>
+      <c r="AX6" s="4"/>
+      <c r="AY6" s="4"/>
+      <c r="AZ6" s="4"/>
+      <c r="BA6" s="4"/>
+      <c r="BB6" s="4"/>
+      <c r="BC6" s="4"/>
+      <c r="BD6" s="4"/>
+      <c r="BE6" s="4"/>
+      <c r="BF6" s="4"/>
+      <c r="BG6" s="4"/>
+      <c r="BH6" s="4"/>
+      <c r="BI6" s="4"/>
+      <c r="BJ6" s="4"/>
+      <c r="BK6" s="4"/>
+      <c r="BL6" s="4"/>
+      <c r="BM6" s="4"/>
+      <c r="BN6" s="4"/>
+      <c r="BO6" s="4"/>
+      <c r="BP6" s="4"/>
+      <c r="BQ6" s="4"/>
+      <c r="BR6" s="4"/>
+      <c r="BS6" s="4"/>
+      <c r="BT6" s="4"/>
+      <c r="BU6" s="4"/>
+      <c r="BV6" s="4"/>
+      <c r="BW6" s="4"/>
+      <c r="BX6" s="4"/>
+      <c r="BY6" s="4"/>
+      <c r="BZ6" s="4"/>
+      <c r="CA6" s="4"/>
+      <c r="CB6" s="4"/>
+      <c r="CC6" s="4"/>
+      <c r="CD6" s="4"/>
+      <c r="CE6" s="4"/>
+    </row>
+    <row r="7" spans="1:83" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>28</v>
       </c>
@@ -1119,7 +1410,10 @@
       <c r="I7" s="4">
         <v>61564</v>
       </c>
-      <c r="J7" s="4"/>
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>69958</v>
+      </c>
       <c r="K7" s="4">
         <v>97960</v>
       </c>
@@ -1129,7 +1423,10 @@
       <c r="M7" s="4">
         <v>66613</v>
       </c>
-      <c r="N7" s="4"/>
+      <c r="N7" s="4">
+        <f t="shared" si="1"/>
+        <v>73716</v>
+      </c>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
@@ -1147,8 +1444,71 @@
         <f>+SUM(V3:V6)</f>
         <v>294866</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="4">
+        <v>307003</v>
+      </c>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="4"/>
+      <c r="AP7" s="4"/>
+      <c r="AQ7" s="4"/>
+      <c r="AR7" s="4"/>
+      <c r="AS7" s="4"/>
+      <c r="AT7" s="4"/>
+      <c r="AU7" s="4"/>
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="4"/>
+      <c r="AX7" s="4"/>
+      <c r="AY7" s="4"/>
+      <c r="AZ7" s="4"/>
+      <c r="BA7" s="4"/>
+      <c r="BB7" s="4"/>
+      <c r="BC7" s="4"/>
+      <c r="BD7" s="4"/>
+      <c r="BE7" s="4"/>
+      <c r="BF7" s="4"/>
+      <c r="BG7" s="4"/>
+      <c r="BH7" s="4"/>
+      <c r="BI7" s="4"/>
+      <c r="BJ7" s="4"/>
+      <c r="BK7" s="4"/>
+      <c r="BL7" s="4"/>
+      <c r="BM7" s="4"/>
+      <c r="BN7" s="4"/>
+      <c r="BO7" s="4"/>
+      <c r="BP7" s="4"/>
+      <c r="BQ7" s="4"/>
+      <c r="BR7" s="4"/>
+      <c r="BS7" s="4"/>
+      <c r="BT7" s="4"/>
+      <c r="BU7" s="4"/>
+      <c r="BV7" s="4"/>
+      <c r="BW7" s="4"/>
+      <c r="BX7" s="4"/>
+      <c r="BY7" s="4"/>
+      <c r="BZ7" s="4"/>
+      <c r="CA7" s="4"/>
+      <c r="CB7" s="4"/>
+      <c r="CC7" s="4"/>
+      <c r="CD7" s="4"/>
+      <c r="CE7" s="4"/>
+    </row>
+    <row r="8" spans="1:83" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>29</v>
       </c>
@@ -1167,7 +1527,10 @@
       <c r="I8" s="4">
         <v>24213</v>
       </c>
-      <c r="J8" s="4"/>
+      <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>24972</v>
+      </c>
       <c r="K8" s="4">
         <v>26340</v>
       </c>
@@ -1177,7 +1540,10 @@
       <c r="M8" s="4">
         <v>27423</v>
       </c>
-      <c r="N8" s="4"/>
+      <c r="N8" s="4">
+        <f t="shared" si="1"/>
+        <v>28750</v>
+      </c>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
@@ -1192,33 +1558,96 @@
       <c r="V8" s="4">
         <v>96169</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="4">
+        <v>109158</v>
+      </c>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="4"/>
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="4"/>
+      <c r="AS8" s="4"/>
+      <c r="AT8" s="4"/>
+      <c r="AU8" s="4"/>
+      <c r="AV8" s="4"/>
+      <c r="AW8" s="4"/>
+      <c r="AX8" s="4"/>
+      <c r="AY8" s="4"/>
+      <c r="AZ8" s="4"/>
+      <c r="BA8" s="4"/>
+      <c r="BB8" s="4"/>
+      <c r="BC8" s="4"/>
+      <c r="BD8" s="4"/>
+      <c r="BE8" s="4"/>
+      <c r="BF8" s="4"/>
+      <c r="BG8" s="4"/>
+      <c r="BH8" s="4"/>
+      <c r="BI8" s="4"/>
+      <c r="BJ8" s="4"/>
+      <c r="BK8" s="4"/>
+      <c r="BL8" s="4"/>
+      <c r="BM8" s="4"/>
+      <c r="BN8" s="4"/>
+      <c r="BO8" s="4"/>
+      <c r="BP8" s="4"/>
+      <c r="BQ8" s="4"/>
+      <c r="BR8" s="4"/>
+      <c r="BS8" s="4"/>
+      <c r="BT8" s="4"/>
+      <c r="BU8" s="4"/>
+      <c r="BV8" s="4"/>
+      <c r="BW8" s="4"/>
+      <c r="BX8" s="4"/>
+      <c r="BY8" s="4"/>
+      <c r="BZ8" s="4"/>
+      <c r="CA8" s="4"/>
+      <c r="CB8" s="4"/>
+      <c r="CC8" s="4"/>
+      <c r="CD8" s="4"/>
+      <c r="CE8" s="4"/>
+    </row>
+    <row r="9" spans="1:83" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="9">
-        <f t="shared" ref="C9:H9" si="0">C7+C8</f>
+        <f t="shared" ref="C9:H9" si="2">C7+C8</f>
         <v>0</v>
       </c>
       <c r="D9" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E9" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>81797</v>
       </c>
       <c r="F9" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G9" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>119575</v>
       </c>
       <c r="H9" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>90753</v>
       </c>
       <c r="I9" s="9">
@@ -1226,56 +1655,120 @@
         <v>85777</v>
       </c>
       <c r="J9" s="9">
-        <f t="shared" ref="J9:N9" si="1">J7+J8</f>
-        <v>0</v>
+        <f t="shared" ref="J9:N9" si="3">J7+J8</f>
+        <v>94930</v>
       </c>
       <c r="K9" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>124300</v>
       </c>
       <c r="L9" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>95359</v>
       </c>
       <c r="M9" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>94036</v>
       </c>
       <c r="N9" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>102466</v>
       </c>
       <c r="O9" s="4"/>
       <c r="P9" s="9">
-        <f t="shared" ref="P9:U9" si="2">+P7+P8</f>
+        <f t="shared" ref="P9:U9" si="4">+P7+P8</f>
         <v>0</v>
       </c>
       <c r="Q9" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R9" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S9" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T9" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>394328</v>
       </c>
       <c r="U9" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>383285</v>
       </c>
       <c r="V9" s="9">
         <f>+V7+V8</f>
         <v>391035</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="9">
+        <f>+W7+W8</f>
+        <v>416161</v>
+      </c>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="4"/>
+      <c r="AO9" s="4"/>
+      <c r="AP9" s="4"/>
+      <c r="AQ9" s="4"/>
+      <c r="AR9" s="4"/>
+      <c r="AS9" s="4"/>
+      <c r="AT9" s="4"/>
+      <c r="AU9" s="4"/>
+      <c r="AV9" s="4"/>
+      <c r="AW9" s="4"/>
+      <c r="AX9" s="4"/>
+      <c r="AY9" s="4"/>
+      <c r="AZ9" s="4"/>
+      <c r="BA9" s="4"/>
+      <c r="BB9" s="4"/>
+      <c r="BC9" s="4"/>
+      <c r="BD9" s="4"/>
+      <c r="BE9" s="4"/>
+      <c r="BF9" s="4"/>
+      <c r="BG9" s="4"/>
+      <c r="BH9" s="4"/>
+      <c r="BI9" s="4"/>
+      <c r="BJ9" s="4"/>
+      <c r="BK9" s="4"/>
+      <c r="BL9" s="4"/>
+      <c r="BM9" s="4"/>
+      <c r="BN9" s="4"/>
+      <c r="BO9" s="4"/>
+      <c r="BP9" s="4"/>
+      <c r="BQ9" s="4"/>
+      <c r="BR9" s="4"/>
+      <c r="BS9" s="4"/>
+      <c r="BT9" s="4"/>
+      <c r="BU9" s="4"/>
+      <c r="BV9" s="4"/>
+      <c r="BW9" s="4"/>
+      <c r="BX9" s="4"/>
+      <c r="BY9" s="4"/>
+      <c r="BZ9" s="4"/>
+      <c r="CA9" s="4"/>
+      <c r="CB9" s="4"/>
+      <c r="CC9" s="4"/>
+      <c r="CD9" s="4"/>
+      <c r="CE9" s="4"/>
+    </row>
+    <row r="10" spans="1:83" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>31</v>
       </c>
@@ -1294,7 +1787,10 @@
       <c r="I10" s="4">
         <v>39803</v>
       </c>
-      <c r="J10" s="4"/>
+      <c r="J10" s="4">
+        <f>+V10-SUM(G10:I10)</f>
+        <v>44566</v>
+      </c>
       <c r="K10" s="4">
         <v>59447</v>
       </c>
@@ -1304,7 +1800,10 @@
       <c r="M10" s="4">
         <v>43620</v>
       </c>
-      <c r="N10" s="4"/>
+      <c r="N10" s="4">
+        <f>+W10-SUM(K10:M10)</f>
+        <v>47019</v>
+      </c>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
@@ -1319,8 +1818,71 @@
       <c r="V10" s="4">
         <v>185233</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="4">
+        <v>194116</v>
+      </c>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="4"/>
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="4"/>
+      <c r="AO10" s="4"/>
+      <c r="AP10" s="4"/>
+      <c r="AQ10" s="4"/>
+      <c r="AR10" s="4"/>
+      <c r="AS10" s="4"/>
+      <c r="AT10" s="4"/>
+      <c r="AU10" s="4"/>
+      <c r="AV10" s="4"/>
+      <c r="AW10" s="4"/>
+      <c r="AX10" s="4"/>
+      <c r="AY10" s="4"/>
+      <c r="AZ10" s="4"/>
+      <c r="BA10" s="4"/>
+      <c r="BB10" s="4"/>
+      <c r="BC10" s="4"/>
+      <c r="BD10" s="4"/>
+      <c r="BE10" s="4"/>
+      <c r="BF10" s="4"/>
+      <c r="BG10" s="4"/>
+      <c r="BH10" s="4"/>
+      <c r="BI10" s="4"/>
+      <c r="BJ10" s="4"/>
+      <c r="BK10" s="4"/>
+      <c r="BL10" s="4"/>
+      <c r="BM10" s="4"/>
+      <c r="BN10" s="4"/>
+      <c r="BO10" s="4"/>
+      <c r="BP10" s="4"/>
+      <c r="BQ10" s="4"/>
+      <c r="BR10" s="4"/>
+      <c r="BS10" s="4"/>
+      <c r="BT10" s="4"/>
+      <c r="BU10" s="4"/>
+      <c r="BV10" s="4"/>
+      <c r="BW10" s="4"/>
+      <c r="BX10" s="4"/>
+      <c r="BY10" s="4"/>
+      <c r="BZ10" s="4"/>
+      <c r="CA10" s="4"/>
+      <c r="CB10" s="4"/>
+      <c r="CC10" s="4"/>
+      <c r="CD10" s="4"/>
+      <c r="CE10" s="4"/>
+    </row>
+    <row r="11" spans="1:83" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>32</v>
       </c>
@@ -1339,7 +1901,10 @@
       <c r="I11" s="4">
         <v>6296</v>
       </c>
-      <c r="J11" s="4"/>
+      <c r="J11" s="4">
+        <f>+V11-SUM(G11:I11)</f>
+        <v>6485</v>
+      </c>
       <c r="K11" s="4">
         <v>6578</v>
       </c>
@@ -1349,7 +1914,10 @@
       <c r="M11" s="4">
         <v>6698</v>
       </c>
-      <c r="N11" s="4"/>
+      <c r="N11" s="4">
+        <f>+W11-SUM(K11:M11)</f>
+        <v>7106</v>
+      </c>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
@@ -1364,33 +1932,96 @@
       <c r="V11" s="4">
         <v>25119</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="4">
+        <v>26844</v>
+      </c>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="4"/>
+      <c r="AL11" s="4"/>
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="4"/>
+      <c r="AO11" s="4"/>
+      <c r="AP11" s="4"/>
+      <c r="AQ11" s="4"/>
+      <c r="AR11" s="4"/>
+      <c r="AS11" s="4"/>
+      <c r="AT11" s="4"/>
+      <c r="AU11" s="4"/>
+      <c r="AV11" s="4"/>
+      <c r="AW11" s="4"/>
+      <c r="AX11" s="4"/>
+      <c r="AY11" s="4"/>
+      <c r="AZ11" s="4"/>
+      <c r="BA11" s="4"/>
+      <c r="BB11" s="4"/>
+      <c r="BC11" s="4"/>
+      <c r="BD11" s="4"/>
+      <c r="BE11" s="4"/>
+      <c r="BF11" s="4"/>
+      <c r="BG11" s="4"/>
+      <c r="BH11" s="4"/>
+      <c r="BI11" s="4"/>
+      <c r="BJ11" s="4"/>
+      <c r="BK11" s="4"/>
+      <c r="BL11" s="4"/>
+      <c r="BM11" s="4"/>
+      <c r="BN11" s="4"/>
+      <c r="BO11" s="4"/>
+      <c r="BP11" s="4"/>
+      <c r="BQ11" s="4"/>
+      <c r="BR11" s="4"/>
+      <c r="BS11" s="4"/>
+      <c r="BT11" s="4"/>
+      <c r="BU11" s="4"/>
+      <c r="BV11" s="4"/>
+      <c r="BW11" s="4"/>
+      <c r="BX11" s="4"/>
+      <c r="BY11" s="4"/>
+      <c r="BZ11" s="4"/>
+      <c r="CA11" s="4"/>
+      <c r="CB11" s="4"/>
+      <c r="CC11" s="4"/>
+      <c r="CD11" s="4"/>
+      <c r="CE11" s="4"/>
+    </row>
+    <row r="12" spans="1:83" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="4">
-        <f t="shared" ref="C12:H12" si="3">C9-SUM(C10:C11)</f>
+        <f t="shared" ref="C12:H12" si="5">C9-SUM(C10:C11)</f>
         <v>0</v>
       </c>
       <c r="D12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>36413</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>54855</v>
       </c>
       <c r="H12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>42271</v>
       </c>
       <c r="I12" s="4">
@@ -1399,55 +2030,119 @@
       </c>
       <c r="J12" s="4">
         <f>J9-SUM(J10:J11)</f>
-        <v>0</v>
+        <v>43879</v>
       </c>
       <c r="K12" s="4">
-        <f t="shared" ref="K12:N12" si="4">K9-SUM(K10:K11)</f>
+        <f t="shared" ref="K12:N12" si="6">K9-SUM(K10:K11)</f>
         <v>58275</v>
       </c>
       <c r="L12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44867</v>
       </c>
       <c r="M12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>43718</v>
       </c>
       <c r="N12" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>48341</v>
       </c>
       <c r="O12" s="4"/>
       <c r="P12" s="4">
-        <f t="shared" ref="P12:V12" si="5">P9-SUM(P10:P11)</f>
+        <f t="shared" ref="P12:W12" si="7">P9-SUM(P10:P11)</f>
         <v>0</v>
       </c>
       <c r="Q12" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R12" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S12" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T12" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>170782</v>
       </c>
       <c r="U12" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>169148</v>
       </c>
       <c r="V12" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>180683</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="4">
+        <f t="shared" si="7"/>
+        <v>195201</v>
+      </c>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="4"/>
+      <c r="AO12" s="4"/>
+      <c r="AP12" s="4"/>
+      <c r="AQ12" s="4"/>
+      <c r="AR12" s="4"/>
+      <c r="AS12" s="4"/>
+      <c r="AT12" s="4"/>
+      <c r="AU12" s="4"/>
+      <c r="AV12" s="4"/>
+      <c r="AW12" s="4"/>
+      <c r="AX12" s="4"/>
+      <c r="AY12" s="4"/>
+      <c r="AZ12" s="4"/>
+      <c r="BA12" s="4"/>
+      <c r="BB12" s="4"/>
+      <c r="BC12" s="4"/>
+      <c r="BD12" s="4"/>
+      <c r="BE12" s="4"/>
+      <c r="BF12" s="4"/>
+      <c r="BG12" s="4"/>
+      <c r="BH12" s="4"/>
+      <c r="BI12" s="4"/>
+      <c r="BJ12" s="4"/>
+      <c r="BK12" s="4"/>
+      <c r="BL12" s="4"/>
+      <c r="BM12" s="4"/>
+      <c r="BN12" s="4"/>
+      <c r="BO12" s="4"/>
+      <c r="BP12" s="4"/>
+      <c r="BQ12" s="4"/>
+      <c r="BR12" s="4"/>
+      <c r="BS12" s="4"/>
+      <c r="BT12" s="4"/>
+      <c r="BU12" s="4"/>
+      <c r="BV12" s="4"/>
+      <c r="BW12" s="4"/>
+      <c r="BX12" s="4"/>
+      <c r="BY12" s="4"/>
+      <c r="BZ12" s="4"/>
+      <c r="CA12" s="4"/>
+      <c r="CB12" s="4"/>
+      <c r="CC12" s="4"/>
+      <c r="CD12" s="4"/>
+      <c r="CE12" s="4"/>
+    </row>
+    <row r="13" spans="1:83" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>34</v>
       </c>
@@ -1466,7 +2161,10 @@
       <c r="I13" s="4">
         <v>8006</v>
       </c>
-      <c r="J13" s="4"/>
+      <c r="J13" s="4">
+        <f>+V13-SUM(G13:I13)</f>
+        <v>7765</v>
+      </c>
       <c r="K13" s="4">
         <v>8268</v>
       </c>
@@ -1476,7 +2174,10 @@
       <c r="M13" s="4">
         <v>8866</v>
       </c>
-      <c r="N13" s="4"/>
+      <c r="N13" s="4">
+        <f>+W13-SUM(K13:M13)</f>
+        <v>8866</v>
+      </c>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
@@ -1491,8 +2192,71 @@
       <c r="V13" s="4">
         <v>31370</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="4">
+        <v>34550</v>
+      </c>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="4"/>
+      <c r="AO13" s="4"/>
+      <c r="AP13" s="4"/>
+      <c r="AQ13" s="4"/>
+      <c r="AR13" s="4"/>
+      <c r="AS13" s="4"/>
+      <c r="AT13" s="4"/>
+      <c r="AU13" s="4"/>
+      <c r="AV13" s="4"/>
+      <c r="AW13" s="4"/>
+      <c r="AX13" s="4"/>
+      <c r="AY13" s="4"/>
+      <c r="AZ13" s="4"/>
+      <c r="BA13" s="4"/>
+      <c r="BB13" s="4"/>
+      <c r="BC13" s="4"/>
+      <c r="BD13" s="4"/>
+      <c r="BE13" s="4"/>
+      <c r="BF13" s="4"/>
+      <c r="BG13" s="4"/>
+      <c r="BH13" s="4"/>
+      <c r="BI13" s="4"/>
+      <c r="BJ13" s="4"/>
+      <c r="BK13" s="4"/>
+      <c r="BL13" s="4"/>
+      <c r="BM13" s="4"/>
+      <c r="BN13" s="4"/>
+      <c r="BO13" s="4"/>
+      <c r="BP13" s="4"/>
+      <c r="BQ13" s="4"/>
+      <c r="BR13" s="4"/>
+      <c r="BS13" s="4"/>
+      <c r="BT13" s="4"/>
+      <c r="BU13" s="4"/>
+      <c r="BV13" s="4"/>
+      <c r="BW13" s="4"/>
+      <c r="BX13" s="4"/>
+      <c r="BY13" s="4"/>
+      <c r="BZ13" s="4"/>
+      <c r="CA13" s="4"/>
+      <c r="CB13" s="4"/>
+      <c r="CC13" s="4"/>
+      <c r="CD13" s="4"/>
+      <c r="CE13" s="4"/>
+    </row>
+    <row r="14" spans="1:83" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>35</v>
       </c>
@@ -1511,7 +2275,10 @@
       <c r="I14" s="4">
         <v>6320</v>
       </c>
-      <c r="J14" s="4"/>
+      <c r="J14" s="4">
+        <f>+V14-SUM(G14:I14)</f>
+        <v>6523</v>
+      </c>
       <c r="K14" s="4">
         <v>7175</v>
       </c>
@@ -1521,7 +2288,10 @@
       <c r="M14" s="4">
         <v>6650</v>
       </c>
-      <c r="N14" s="4"/>
+      <c r="N14" s="4">
+        <f>+W14-SUM(K14:M14)</f>
+        <v>7048</v>
+      </c>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
@@ -1536,33 +2306,96 @@
       <c r="V14" s="4">
         <v>26097</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="4">
+        <v>27601</v>
+      </c>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="4"/>
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="4"/>
+      <c r="AO14" s="4"/>
+      <c r="AP14" s="4"/>
+      <c r="AQ14" s="4"/>
+      <c r="AR14" s="4"/>
+      <c r="AS14" s="4"/>
+      <c r="AT14" s="4"/>
+      <c r="AU14" s="4"/>
+      <c r="AV14" s="4"/>
+      <c r="AW14" s="4"/>
+      <c r="AX14" s="4"/>
+      <c r="AY14" s="4"/>
+      <c r="AZ14" s="4"/>
+      <c r="BA14" s="4"/>
+      <c r="BB14" s="4"/>
+      <c r="BC14" s="4"/>
+      <c r="BD14" s="4"/>
+      <c r="BE14" s="4"/>
+      <c r="BF14" s="4"/>
+      <c r="BG14" s="4"/>
+      <c r="BH14" s="4"/>
+      <c r="BI14" s="4"/>
+      <c r="BJ14" s="4"/>
+      <c r="BK14" s="4"/>
+      <c r="BL14" s="4"/>
+      <c r="BM14" s="4"/>
+      <c r="BN14" s="4"/>
+      <c r="BO14" s="4"/>
+      <c r="BP14" s="4"/>
+      <c r="BQ14" s="4"/>
+      <c r="BR14" s="4"/>
+      <c r="BS14" s="4"/>
+      <c r="BT14" s="4"/>
+      <c r="BU14" s="4"/>
+      <c r="BV14" s="4"/>
+      <c r="BW14" s="4"/>
+      <c r="BX14" s="4"/>
+      <c r="BY14" s="4"/>
+      <c r="BZ14" s="4"/>
+      <c r="CA14" s="4"/>
+      <c r="CB14" s="4"/>
+      <c r="CC14" s="4"/>
+      <c r="CD14" s="4"/>
+      <c r="CE14" s="4"/>
+    </row>
+    <row r="15" spans="1:83" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="4">
-        <f t="shared" ref="C15:H15" si="6">C12-SUM(C13:C14)</f>
+        <f t="shared" ref="C15:H15" si="8">C12-SUM(C13:C14)</f>
         <v>0</v>
       </c>
       <c r="D15" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E15" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>22998</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G15" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>40373</v>
       </c>
       <c r="H15" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>27900</v>
       </c>
       <c r="I15" s="4">
@@ -1571,55 +2404,119 @@
       </c>
       <c r="J15" s="4">
         <f>J12-SUM(J13:J14)</f>
-        <v>0</v>
+        <v>29591</v>
       </c>
       <c r="K15" s="4">
-        <f t="shared" ref="K15:N15" si="7">K12-SUM(K13:K14)</f>
+        <f t="shared" ref="K15:N15" si="9">K12-SUM(K13:K14)</f>
         <v>42832</v>
       </c>
       <c r="L15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>29589</v>
       </c>
       <c r="M15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>28202</v>
       </c>
       <c r="N15" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>32427</v>
       </c>
       <c r="O15" s="4"/>
       <c r="P15" s="4">
-        <f t="shared" ref="P15:V15" si="8">P12-SUM(P13:P14)</f>
+        <f t="shared" ref="P15:W15" si="10">P12-SUM(P13:P14)</f>
         <v>0</v>
       </c>
       <c r="Q15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>119437</v>
       </c>
       <c r="U15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>114301</v>
       </c>
       <c r="V15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>123216</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="4">
+        <f t="shared" si="10"/>
+        <v>133050</v>
+      </c>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="4"/>
+      <c r="AL15" s="4"/>
+      <c r="AM15" s="4"/>
+      <c r="AN15" s="4"/>
+      <c r="AO15" s="4"/>
+      <c r="AP15" s="4"/>
+      <c r="AQ15" s="4"/>
+      <c r="AR15" s="4"/>
+      <c r="AS15" s="4"/>
+      <c r="AT15" s="4"/>
+      <c r="AU15" s="4"/>
+      <c r="AV15" s="4"/>
+      <c r="AW15" s="4"/>
+      <c r="AX15" s="4"/>
+      <c r="AY15" s="4"/>
+      <c r="AZ15" s="4"/>
+      <c r="BA15" s="4"/>
+      <c r="BB15" s="4"/>
+      <c r="BC15" s="4"/>
+      <c r="BD15" s="4"/>
+      <c r="BE15" s="4"/>
+      <c r="BF15" s="4"/>
+      <c r="BG15" s="4"/>
+      <c r="BH15" s="4"/>
+      <c r="BI15" s="4"/>
+      <c r="BJ15" s="4"/>
+      <c r="BK15" s="4"/>
+      <c r="BL15" s="4"/>
+      <c r="BM15" s="4"/>
+      <c r="BN15" s="4"/>
+      <c r="BO15" s="4"/>
+      <c r="BP15" s="4"/>
+      <c r="BQ15" s="4"/>
+      <c r="BR15" s="4"/>
+      <c r="BS15" s="4"/>
+      <c r="BT15" s="4"/>
+      <c r="BU15" s="4"/>
+      <c r="BV15" s="4"/>
+      <c r="BW15" s="4"/>
+      <c r="BX15" s="4"/>
+      <c r="BY15" s="4"/>
+      <c r="BZ15" s="4"/>
+      <c r="CA15" s="4"/>
+      <c r="CB15" s="4"/>
+      <c r="CC15" s="4"/>
+      <c r="CD15" s="4"/>
+      <c r="CE15" s="4"/>
+    </row>
+    <row r="16" spans="1:83" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
@@ -1638,7 +2535,10 @@
       <c r="I16" s="4">
         <v>142</v>
       </c>
-      <c r="J16" s="4"/>
+      <c r="J16" s="4">
+        <f>+V16-SUM(G16:I16)</f>
+        <v>19</v>
+      </c>
       <c r="K16" s="4">
         <v>-248</v>
       </c>
@@ -1648,7 +2548,10 @@
       <c r="M16" s="4">
         <v>-171</v>
       </c>
-      <c r="N16" s="4"/>
+      <c r="N16" s="4">
+        <f>+W16-SUM(K16:M16)</f>
+        <v>377</v>
+      </c>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
@@ -1663,33 +2566,96 @@
       <c r="V16" s="4">
         <v>269</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W16" s="4">
+        <v>-321</v>
+      </c>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="4"/>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="4"/>
+      <c r="AN16" s="4"/>
+      <c r="AO16" s="4"/>
+      <c r="AP16" s="4"/>
+      <c r="AQ16" s="4"/>
+      <c r="AR16" s="4"/>
+      <c r="AS16" s="4"/>
+      <c r="AT16" s="4"/>
+      <c r="AU16" s="4"/>
+      <c r="AV16" s="4"/>
+      <c r="AW16" s="4"/>
+      <c r="AX16" s="4"/>
+      <c r="AY16" s="4"/>
+      <c r="AZ16" s="4"/>
+      <c r="BA16" s="4"/>
+      <c r="BB16" s="4"/>
+      <c r="BC16" s="4"/>
+      <c r="BD16" s="4"/>
+      <c r="BE16" s="4"/>
+      <c r="BF16" s="4"/>
+      <c r="BG16" s="4"/>
+      <c r="BH16" s="4"/>
+      <c r="BI16" s="4"/>
+      <c r="BJ16" s="4"/>
+      <c r="BK16" s="4"/>
+      <c r="BL16" s="4"/>
+      <c r="BM16" s="4"/>
+      <c r="BN16" s="4"/>
+      <c r="BO16" s="4"/>
+      <c r="BP16" s="4"/>
+      <c r="BQ16" s="4"/>
+      <c r="BR16" s="4"/>
+      <c r="BS16" s="4"/>
+      <c r="BT16" s="4"/>
+      <c r="BU16" s="4"/>
+      <c r="BV16" s="4"/>
+      <c r="BW16" s="4"/>
+      <c r="BX16" s="4"/>
+      <c r="BY16" s="4"/>
+      <c r="BZ16" s="4"/>
+      <c r="CA16" s="4"/>
+      <c r="CB16" s="4"/>
+      <c r="CC16" s="4"/>
+      <c r="CD16" s="4"/>
+      <c r="CE16" s="4"/>
+    </row>
+    <row r="17" spans="1:83" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C17" s="4">
-        <f t="shared" ref="C17:H17" si="9">C15+C16</f>
+        <f t="shared" ref="C17:H17" si="11">C15+C16</f>
         <v>0</v>
       </c>
       <c r="D17" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E17" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>22733</v>
       </c>
       <c r="F17" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G17" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>40323</v>
       </c>
       <c r="H17" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>28058</v>
       </c>
       <c r="I17" s="4">
@@ -1698,55 +2664,119 @@
       </c>
       <c r="J17" s="4">
         <f>J15+J16</f>
-        <v>0</v>
+        <v>29610</v>
       </c>
       <c r="K17" s="4">
-        <f t="shared" ref="K17:N17" si="10">K15+K16</f>
+        <f t="shared" ref="K17:N17" si="12">K15+K16</f>
         <v>42584</v>
       </c>
       <c r="L17" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>29310</v>
       </c>
       <c r="M17" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>28031</v>
       </c>
       <c r="N17" s="4">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>32804</v>
       </c>
       <c r="O17" s="4"/>
       <c r="P17" s="4">
-        <f t="shared" ref="P17:V17" si="11">P15+P16</f>
+        <f t="shared" ref="P17:W17" si="13">P15+P16</f>
         <v>0</v>
       </c>
       <c r="Q17" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R17" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S17" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T17" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>119103</v>
       </c>
       <c r="U17" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>113736</v>
       </c>
       <c r="V17" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>123485</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W17" s="4">
+        <f t="shared" si="13"/>
+        <v>132729</v>
+      </c>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="4"/>
+      <c r="AN17" s="4"/>
+      <c r="AO17" s="4"/>
+      <c r="AP17" s="4"/>
+      <c r="AQ17" s="4"/>
+      <c r="AR17" s="4"/>
+      <c r="AS17" s="4"/>
+      <c r="AT17" s="4"/>
+      <c r="AU17" s="4"/>
+      <c r="AV17" s="4"/>
+      <c r="AW17" s="4"/>
+      <c r="AX17" s="4"/>
+      <c r="AY17" s="4"/>
+      <c r="AZ17" s="4"/>
+      <c r="BA17" s="4"/>
+      <c r="BB17" s="4"/>
+      <c r="BC17" s="4"/>
+      <c r="BD17" s="4"/>
+      <c r="BE17" s="4"/>
+      <c r="BF17" s="4"/>
+      <c r="BG17" s="4"/>
+      <c r="BH17" s="4"/>
+      <c r="BI17" s="4"/>
+      <c r="BJ17" s="4"/>
+      <c r="BK17" s="4"/>
+      <c r="BL17" s="4"/>
+      <c r="BM17" s="4"/>
+      <c r="BN17" s="4"/>
+      <c r="BO17" s="4"/>
+      <c r="BP17" s="4"/>
+      <c r="BQ17" s="4"/>
+      <c r="BR17" s="4"/>
+      <c r="BS17" s="4"/>
+      <c r="BT17" s="4"/>
+      <c r="BU17" s="4"/>
+      <c r="BV17" s="4"/>
+      <c r="BW17" s="4"/>
+      <c r="BX17" s="4"/>
+      <c r="BY17" s="4"/>
+      <c r="BZ17" s="4"/>
+      <c r="CA17" s="4"/>
+      <c r="CB17" s="4"/>
+      <c r="CC17" s="4"/>
+      <c r="CD17" s="4"/>
+      <c r="CE17" s="4"/>
+    </row>
+    <row r="18" spans="1:83" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>39</v>
       </c>
@@ -1765,7 +2795,10 @@
       <c r="I18" s="4">
         <v>4046</v>
       </c>
-      <c r="J18" s="4"/>
+      <c r="J18" s="4">
+        <f>+V18-SUM(G18:I18)</f>
+        <v>14874</v>
+      </c>
       <c r="K18" s="4">
         <v>6254</v>
       </c>
@@ -1775,7 +2808,10 @@
       <c r="M18" s="4">
         <v>4597</v>
       </c>
-      <c r="N18" s="4"/>
+      <c r="N18" s="4">
+        <f>+W18-SUM(K18:M18)</f>
+        <v>5338</v>
+      </c>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
@@ -1790,17 +2826,80 @@
       <c r="V18" s="4">
         <v>29749</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W18" s="4">
+        <v>20719</v>
+      </c>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="4"/>
+      <c r="AO18" s="4"/>
+      <c r="AP18" s="4"/>
+      <c r="AQ18" s="4"/>
+      <c r="AR18" s="4"/>
+      <c r="AS18" s="4"/>
+      <c r="AT18" s="4"/>
+      <c r="AU18" s="4"/>
+      <c r="AV18" s="4"/>
+      <c r="AW18" s="4"/>
+      <c r="AX18" s="4"/>
+      <c r="AY18" s="4"/>
+      <c r="AZ18" s="4"/>
+      <c r="BA18" s="4"/>
+      <c r="BB18" s="4"/>
+      <c r="BC18" s="4"/>
+      <c r="BD18" s="4"/>
+      <c r="BE18" s="4"/>
+      <c r="BF18" s="4"/>
+      <c r="BG18" s="4"/>
+      <c r="BH18" s="4"/>
+      <c r="BI18" s="4"/>
+      <c r="BJ18" s="4"/>
+      <c r="BK18" s="4"/>
+      <c r="BL18" s="4"/>
+      <c r="BM18" s="4"/>
+      <c r="BN18" s="4"/>
+      <c r="BO18" s="4"/>
+      <c r="BP18" s="4"/>
+      <c r="BQ18" s="4"/>
+      <c r="BR18" s="4"/>
+      <c r="BS18" s="4"/>
+      <c r="BT18" s="4"/>
+      <c r="BU18" s="4"/>
+      <c r="BV18" s="4"/>
+      <c r="BW18" s="4"/>
+      <c r="BX18" s="4"/>
+      <c r="BY18" s="4"/>
+      <c r="BZ18" s="4"/>
+      <c r="CA18" s="4"/>
+      <c r="CB18" s="4"/>
+      <c r="CC18" s="4"/>
+      <c r="CD18" s="4"/>
+      <c r="CE18" s="4"/>
+    </row>
+    <row r="19" spans="1:83" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C19" s="4">
-        <f t="shared" ref="C19:D19" si="12">C17-C18</f>
+        <f t="shared" ref="C19:D19" si="14">C17-C18</f>
         <v>0</v>
       </c>
       <c r="D19" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E19" s="4">
@@ -1808,72 +2907,136 @@
         <v>19881</v>
       </c>
       <c r="F19" s="4">
-        <f t="shared" ref="F19:V19" si="13">F17-F18</f>
+        <f t="shared" ref="F19:W19" si="15">F17-F18</f>
         <v>0</v>
       </c>
       <c r="G19" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>33916</v>
       </c>
       <c r="H19" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>23636</v>
       </c>
       <c r="I19" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>21448</v>
       </c>
       <c r="J19" s="4">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>14736</v>
       </c>
       <c r="K19" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>36330</v>
       </c>
       <c r="L19" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>24780</v>
       </c>
       <c r="M19" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>23434</v>
       </c>
       <c r="N19" s="4">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>27466</v>
       </c>
       <c r="O19" s="4"/>
       <c r="P19" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Q19" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R19" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="S19" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T19" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>99803</v>
       </c>
       <c r="U19" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>96995</v>
       </c>
       <c r="V19" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>93736</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W19" s="4">
+        <f t="shared" si="15"/>
+        <v>112010</v>
+      </c>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="4"/>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="4"/>
+      <c r="AM19" s="4"/>
+      <c r="AN19" s="4"/>
+      <c r="AO19" s="4"/>
+      <c r="AP19" s="4"/>
+      <c r="AQ19" s="4"/>
+      <c r="AR19" s="4"/>
+      <c r="AS19" s="4"/>
+      <c r="AT19" s="4"/>
+      <c r="AU19" s="4"/>
+      <c r="AV19" s="4"/>
+      <c r="AW19" s="4"/>
+      <c r="AX19" s="4"/>
+      <c r="AY19" s="4"/>
+      <c r="AZ19" s="4"/>
+      <c r="BA19" s="4"/>
+      <c r="BB19" s="4"/>
+      <c r="BC19" s="4"/>
+      <c r="BD19" s="4"/>
+      <c r="BE19" s="4"/>
+      <c r="BF19" s="4"/>
+      <c r="BG19" s="4"/>
+      <c r="BH19" s="4"/>
+      <c r="BI19" s="4"/>
+      <c r="BJ19" s="4"/>
+      <c r="BK19" s="4"/>
+      <c r="BL19" s="4"/>
+      <c r="BM19" s="4"/>
+      <c r="BN19" s="4"/>
+      <c r="BO19" s="4"/>
+      <c r="BP19" s="4"/>
+      <c r="BQ19" s="4"/>
+      <c r="BR19" s="4"/>
+      <c r="BS19" s="4"/>
+      <c r="BT19" s="4"/>
+      <c r="BU19" s="4"/>
+      <c r="BV19" s="4"/>
+      <c r="BW19" s="4"/>
+      <c r="BX19" s="4"/>
+      <c r="BY19" s="4"/>
+      <c r="BZ19" s="4"/>
+      <c r="CA19" s="4"/>
+      <c r="CB19" s="4"/>
+      <c r="CC19" s="4"/>
+      <c r="CD19" s="4"/>
+      <c r="CE19" s="4"/>
+    </row>
+    <row r="20" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -1895,17 +3058,78 @@
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="4"/>
+      <c r="AM20" s="4"/>
+      <c r="AN20" s="4"/>
+      <c r="AO20" s="4"/>
+      <c r="AP20" s="4"/>
+      <c r="AQ20" s="4"/>
+      <c r="AR20" s="4"/>
+      <c r="AS20" s="4"/>
+      <c r="AT20" s="4"/>
+      <c r="AU20" s="4"/>
+      <c r="AV20" s="4"/>
+      <c r="AW20" s="4"/>
+      <c r="AX20" s="4"/>
+      <c r="AY20" s="4"/>
+      <c r="AZ20" s="4"/>
+      <c r="BA20" s="4"/>
+      <c r="BB20" s="4"/>
+      <c r="BC20" s="4"/>
+      <c r="BD20" s="4"/>
+      <c r="BE20" s="4"/>
+      <c r="BF20" s="4"/>
+      <c r="BG20" s="4"/>
+      <c r="BH20" s="4"/>
+      <c r="BI20" s="4"/>
+      <c r="BJ20" s="4"/>
+      <c r="BK20" s="4"/>
+      <c r="BL20" s="4"/>
+      <c r="BM20" s="4"/>
+      <c r="BN20" s="4"/>
+      <c r="BO20" s="4"/>
+      <c r="BP20" s="4"/>
+      <c r="BQ20" s="4"/>
+      <c r="BR20" s="4"/>
+      <c r="BS20" s="4"/>
+      <c r="BT20" s="4"/>
+      <c r="BU20" s="4"/>
+      <c r="BV20" s="4"/>
+      <c r="BW20" s="4"/>
+      <c r="BX20" s="4"/>
+      <c r="BY20" s="4"/>
+      <c r="BZ20" s="4"/>
+      <c r="CA20" s="4"/>
+      <c r="CB20" s="4"/>
+      <c r="CC20" s="4"/>
+      <c r="CD20" s="4"/>
+      <c r="CE20" s="4"/>
+    </row>
+    <row r="21" spans="1:83" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C21" s="10" t="e">
-        <f t="shared" ref="C21:D21" si="14">C19/C22</f>
+        <f t="shared" ref="C21:D21" si="16">C19/C22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D21" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E21" s="10">
@@ -1913,72 +3137,136 @@
         <v>1.2664982079442137</v>
       </c>
       <c r="F21" s="10" t="e">
-        <f t="shared" ref="F21:V21" si="15">F19/F22</f>
+        <f t="shared" ref="F21:W21" si="17">F19/F22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G21" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.1867516608732189</v>
       </c>
       <c r="H21" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.5342217920250585</v>
       </c>
       <c r="I21" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.4029743605912299</v>
       </c>
-      <c r="J21" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+      <c r="J21" s="10">
+        <f t="shared" si="17"/>
+        <v>0.96038897317565042</v>
       </c>
       <c r="K21" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.408875802262394</v>
       </c>
       <c r="L21" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.6526520263127813</v>
       </c>
       <c r="M21" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.5724471085667568</v>
       </c>
-      <c r="N21" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+      <c r="N21" s="10">
+        <f t="shared" si="17"/>
+        <v>1.8373749874569354</v>
       </c>
       <c r="O21" s="4"/>
       <c r="P21" s="10" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q21" s="10" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R21" s="10" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S21" s="10" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T21" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6.1546144376377772</v>
       </c>
       <c r="U21" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6.1606692635543778</v>
       </c>
       <c r="V21" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6.1090540709549925</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W21" s="10">
+        <f t="shared" si="17"/>
+        <v>7.4930595042980901</v>
+      </c>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="4"/>
+      <c r="AK21" s="4"/>
+      <c r="AL21" s="4"/>
+      <c r="AM21" s="4"/>
+      <c r="AN21" s="4"/>
+      <c r="AO21" s="4"/>
+      <c r="AP21" s="4"/>
+      <c r="AQ21" s="4"/>
+      <c r="AR21" s="4"/>
+      <c r="AS21" s="4"/>
+      <c r="AT21" s="4"/>
+      <c r="AU21" s="4"/>
+      <c r="AV21" s="4"/>
+      <c r="AW21" s="4"/>
+      <c r="AX21" s="4"/>
+      <c r="AY21" s="4"/>
+      <c r="AZ21" s="4"/>
+      <c r="BA21" s="4"/>
+      <c r="BB21" s="4"/>
+      <c r="BC21" s="4"/>
+      <c r="BD21" s="4"/>
+      <c r="BE21" s="4"/>
+      <c r="BF21" s="4"/>
+      <c r="BG21" s="4"/>
+      <c r="BH21" s="4"/>
+      <c r="BI21" s="4"/>
+      <c r="BJ21" s="4"/>
+      <c r="BK21" s="4"/>
+      <c r="BL21" s="4"/>
+      <c r="BM21" s="4"/>
+      <c r="BN21" s="4"/>
+      <c r="BO21" s="4"/>
+      <c r="BP21" s="4"/>
+      <c r="BQ21" s="4"/>
+      <c r="BR21" s="4"/>
+      <c r="BS21" s="4"/>
+      <c r="BT21" s="4"/>
+      <c r="BU21" s="4"/>
+      <c r="BV21" s="4"/>
+      <c r="BW21" s="4"/>
+      <c r="BX21" s="4"/>
+      <c r="BY21" s="4"/>
+      <c r="BZ21" s="4"/>
+      <c r="CA21" s="4"/>
+      <c r="CB21" s="4"/>
+      <c r="CC21" s="4"/>
+      <c r="CD21" s="4"/>
+      <c r="CE21" s="4"/>
+    </row>
+    <row r="22" spans="1:83" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>5</v>
       </c>
@@ -1997,7 +3285,10 @@
       <c r="I22" s="4">
         <v>15287.521000000001</v>
       </c>
-      <c r="J22" s="4"/>
+      <c r="J22" s="4">
+        <f>+V22</f>
+        <v>15343.782999999999</v>
+      </c>
       <c r="K22" s="4">
         <v>15081.724</v>
       </c>
@@ -2007,7 +3298,10 @@
       <c r="M22" s="4">
         <v>14902.886</v>
       </c>
-      <c r="N22" s="4"/>
+      <c r="N22" s="4">
+        <f>+W22</f>
+        <v>14948.5</v>
+      </c>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
@@ -2022,8 +3316,71 @@
       <c r="V22" s="4">
         <v>15343.782999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W22" s="4">
+        <v>14948.5</v>
+      </c>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
+      <c r="AN22" s="4"/>
+      <c r="AO22" s="4"/>
+      <c r="AP22" s="4"/>
+      <c r="AQ22" s="4"/>
+      <c r="AR22" s="4"/>
+      <c r="AS22" s="4"/>
+      <c r="AT22" s="4"/>
+      <c r="AU22" s="4"/>
+      <c r="AV22" s="4"/>
+      <c r="AW22" s="4"/>
+      <c r="AX22" s="4"/>
+      <c r="AY22" s="4"/>
+      <c r="AZ22" s="4"/>
+      <c r="BA22" s="4"/>
+      <c r="BB22" s="4"/>
+      <c r="BC22" s="4"/>
+      <c r="BD22" s="4"/>
+      <c r="BE22" s="4"/>
+      <c r="BF22" s="4"/>
+      <c r="BG22" s="4"/>
+      <c r="BH22" s="4"/>
+      <c r="BI22" s="4"/>
+      <c r="BJ22" s="4"/>
+      <c r="BK22" s="4"/>
+      <c r="BL22" s="4"/>
+      <c r="BM22" s="4"/>
+      <c r="BN22" s="4"/>
+      <c r="BO22" s="4"/>
+      <c r="BP22" s="4"/>
+      <c r="BQ22" s="4"/>
+      <c r="BR22" s="4"/>
+      <c r="BS22" s="4"/>
+      <c r="BT22" s="4"/>
+      <c r="BU22" s="4"/>
+      <c r="BV22" s="4"/>
+      <c r="BW22" s="4"/>
+      <c r="BX22" s="4"/>
+      <c r="BY22" s="4"/>
+      <c r="BZ22" s="4"/>
+      <c r="CA22" s="4"/>
+      <c r="CB22" s="4"/>
+      <c r="CC22" s="4"/>
+      <c r="CD22" s="4"/>
+      <c r="CE22" s="4"/>
+    </row>
+    <row r="23" spans="1:83" x14ac:dyDescent="0.2">
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -2044,8 +3401,69 @@
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="4"/>
+      <c r="AJ23" s="4"/>
+      <c r="AK23" s="4"/>
+      <c r="AL23" s="4"/>
+      <c r="AM23" s="4"/>
+      <c r="AN23" s="4"/>
+      <c r="AO23" s="4"/>
+      <c r="AP23" s="4"/>
+      <c r="AQ23" s="4"/>
+      <c r="AR23" s="4"/>
+      <c r="AS23" s="4"/>
+      <c r="AT23" s="4"/>
+      <c r="AU23" s="4"/>
+      <c r="AV23" s="4"/>
+      <c r="AW23" s="4"/>
+      <c r="AX23" s="4"/>
+      <c r="AY23" s="4"/>
+      <c r="AZ23" s="4"/>
+      <c r="BA23" s="4"/>
+      <c r="BB23" s="4"/>
+      <c r="BC23" s="4"/>
+      <c r="BD23" s="4"/>
+      <c r="BE23" s="4"/>
+      <c r="BF23" s="4"/>
+      <c r="BG23" s="4"/>
+      <c r="BH23" s="4"/>
+      <c r="BI23" s="4"/>
+      <c r="BJ23" s="4"/>
+      <c r="BK23" s="4"/>
+      <c r="BL23" s="4"/>
+      <c r="BM23" s="4"/>
+      <c r="BN23" s="4"/>
+      <c r="BO23" s="4"/>
+      <c r="BP23" s="4"/>
+      <c r="BQ23" s="4"/>
+      <c r="BR23" s="4"/>
+      <c r="BS23" s="4"/>
+      <c r="BT23" s="4"/>
+      <c r="BU23" s="4"/>
+      <c r="BV23" s="4"/>
+      <c r="BW23" s="4"/>
+      <c r="BX23" s="4"/>
+      <c r="BY23" s="4"/>
+      <c r="BZ23" s="4"/>
+      <c r="CA23" s="4"/>
+      <c r="CB23" s="4"/>
+      <c r="CC23" s="4"/>
+      <c r="CD23" s="4"/>
+      <c r="CE23" s="4"/>
+    </row>
+    <row r="24" spans="1:83" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>46</v>
       </c>
@@ -2055,7 +3473,7 @@
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4" t="e">
-        <f t="shared" ref="H24:H27" si="16">H3/D3-1</f>
+        <f t="shared" ref="H24:H27" si="18">H3/D3-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I24" s="11">
@@ -2067,49 +3485,53 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K24" s="11">
-        <f t="shared" ref="K24:N27" si="17">K3/G3-1</f>
+        <f t="shared" ref="K24:N27" si="19">K3/G3-1</f>
         <v>-8.0915899113368495E-3</v>
       </c>
       <c r="L24" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.9102321432456604E-2</v>
       </c>
       <c r="M24" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.13451750814332253</v>
       </c>
-      <c r="N24" s="11" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+      <c r="N24" s="11">
+        <f t="shared" si="19"/>
+        <v>6.0642118471723405E-2</v>
       </c>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="11" t="e">
-        <f t="shared" ref="Q24:U27" si="18">+Q3/P3-1</f>
+        <f t="shared" ref="Q24:U27" si="20">+Q3/P3-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R24" s="11" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S24" s="11" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T24" s="11" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U24" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-2.3874757286278081E-2</v>
       </c>
       <c r="V24" s="11">
         <f>+V3/U3-1</f>
         <v>2.9912804175826757E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W24" s="11">
+        <f>+W3/V3-1</f>
+        <v>4.1767942619406195E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:83" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>47</v>
       </c>
@@ -2119,61 +3541,65 @@
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I25" s="11">
-        <f t="shared" ref="I25:J27" si="19">I4/E4-1</f>
+        <f t="shared" ref="I25:J27" si="21">I4/E4-1</f>
         <v>2.4707602339181234E-2</v>
       </c>
       <c r="J25" s="4" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K25" s="11">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K25" s="11">
-        <f t="shared" si="17"/>
         <v>0.15514138817480716</v>
       </c>
       <c r="L25" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>6.6836666219299401E-2</v>
       </c>
       <c r="M25" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.14795263232986167</v>
       </c>
-      <c r="N25" s="11" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+      <c r="N25" s="11">
+        <f t="shared" si="19"/>
+        <v>0.12680785123966931</v>
       </c>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="11" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R25" s="11" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S25" s="11" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T25" s="11" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U25" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-0.26930831072504169</v>
       </c>
       <c r="V25" s="11">
-        <f t="shared" ref="V25:V27" si="20">+V4/U4-1</f>
+        <f t="shared" ref="V25:W27" si="22">+V4/U4-1</f>
         <v>2.1357768164322E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W25" s="11">
+        <f t="shared" si="22"/>
+        <v>0.12419957310565644</v>
+      </c>
+    </row>
+    <row r="26" spans="1:83" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>48</v>
       </c>
@@ -2183,61 +3609,65 @@
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I26" s="11">
+        <f t="shared" si="21"/>
+        <v>0.23674667587635989</v>
+      </c>
+      <c r="J26" s="4" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K26" s="11">
         <f t="shared" si="19"/>
-        <v>0.23674667587635989</v>
-      </c>
-      <c r="J26" s="4" t="e">
+        <v>0.15164459632635618</v>
+      </c>
+      <c r="L26" s="11">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K26" s="11">
-        <f t="shared" si="17"/>
-        <v>0.15164459632635618</v>
-      </c>
-      <c r="L26" s="11">
-        <f t="shared" si="17"/>
         <v>0.15164597949271452</v>
       </c>
       <c r="M26" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-8.1122591454900861E-2</v>
       </c>
-      <c r="N26" s="11" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+      <c r="N26" s="11">
+        <f t="shared" si="19"/>
+        <v>2.877697841725535E-4</v>
       </c>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="11" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R26" s="11" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S26" s="11" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T26" s="11" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U26" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-3.3865901952751631E-2</v>
       </c>
       <c r="V26" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>-5.674911660777382E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W26" s="11">
+        <f t="shared" si="22"/>
+        <v>4.9786468869408962E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:83" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>49</v>
       </c>
@@ -2247,61 +3677,65 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I27" s="11">
+        <f t="shared" si="21"/>
+        <v>-2.2573635924674096E-2</v>
+      </c>
+      <c r="J27" s="4" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K27" s="11">
         <f t="shared" si="19"/>
-        <v>-2.2573635924674096E-2</v>
-      </c>
-      <c r="J27" s="4" t="e">
+        <v>-1.7234167154689173E-2</v>
+      </c>
+      <c r="L27" s="11">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K27" s="11">
-        <f t="shared" si="17"/>
-        <v>-1.7234167154689173E-2</v>
-      </c>
-      <c r="L27" s="11">
-        <f t="shared" si="17"/>
         <v>-4.9412359408568141E-2</v>
       </c>
       <c r="M27" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-8.5587254538718072E-2</v>
       </c>
-      <c r="N27" s="11" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+      <c r="N27" s="11">
+        <f t="shared" si="19"/>
+        <v>-3.2072550320725313E-3</v>
       </c>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="11" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R27" s="11" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S27" s="11" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T27" s="11" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U27" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-3.3849809655439933E-2</v>
       </c>
       <c r="V27" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>-7.1276195256619435E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W27" s="11">
+        <f t="shared" si="22"/>
+        <v>-3.5643831914606183E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:83" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>50</v>
       </c>
@@ -2311,7 +3745,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4" t="e">
-        <f t="shared" ref="H28" si="21">H8/D8-1</f>
+        <f t="shared" ref="H28" si="23">H8/D8-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I28" s="11">
@@ -2323,49 +3757,53 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K28" s="11">
-        <f t="shared" ref="K28:N28" si="22">K8/G8-1</f>
+        <f t="shared" ref="K28:N28" si="24">K8/G8-1</f>
         <v>0.13942120517368162</v>
       </c>
       <c r="L28" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.11639502241588806</v>
       </c>
       <c r="M28" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.13257341097757402</v>
       </c>
-      <c r="N28" s="11" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+      <c r="N28" s="11">
+        <f t="shared" si="24"/>
+        <v>0.1512894441774788</v>
       </c>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="11" t="e">
-        <f t="shared" ref="Q28:U28" si="23">+Q8/P8-1</f>
+        <f t="shared" ref="Q28:U28" si="25">+Q8/P8-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R28" s="11" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S28" s="11" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T28" s="11" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U28" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>9.0504166186691215E-2</v>
       </c>
       <c r="V28" s="11">
         <f>+V8/U8-1</f>
         <v>0.12874413145539898</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W28" s="11">
+        <f>+W8/V8-1</f>
+        <v>0.13506431386413498</v>
+      </c>
+    </row>
+    <row r="29" spans="1:83" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>51</v>
       </c>
@@ -2387,231 +3825,300 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K29" s="12">
-        <f t="shared" ref="K29:N29" si="24">K9/G9-1</f>
+        <f t="shared" ref="K29:N29" si="26">K9/G9-1</f>
         <v>3.9514948776918191E-2</v>
       </c>
       <c r="L29" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>5.075314314678292E-2</v>
       </c>
       <c r="M29" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>9.628455180293094E-2</v>
       </c>
-      <c r="N29" s="12" t="e">
-        <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
+      <c r="N29" s="12">
+        <f t="shared" si="26"/>
+        <v>7.9384809859896821E-2</v>
       </c>
       <c r="O29" s="9"/>
       <c r="P29" s="9"/>
       <c r="Q29" s="12" t="e">
-        <f t="shared" ref="Q29:U29" si="25">+Q9/P9-1</f>
+        <f t="shared" ref="Q29:U29" si="27">+Q9/P9-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R29" s="12" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S29" s="12" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T29" s="12" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U29" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-2.800460530319937E-2</v>
       </c>
       <c r="V29" s="12">
         <f>+V9/U9-1</f>
         <v>2.021994077514111E-2</v>
       </c>
-      <c r="W29" s="1"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W29" s="12">
+        <f>+W9/V9-1</f>
+        <v>6.425511782832749E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:83" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C30" s="11" t="e">
-        <f t="shared" ref="C30:H30" si="26">C12/C9</f>
+        <f t="shared" ref="C30:H30" si="28">C12/C9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D30" s="11" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E30" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.44516302553883397</v>
       </c>
       <c r="F30" s="11" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G30" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.45874973865774621</v>
       </c>
       <c r="H30" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.46578074554009236</v>
       </c>
       <c r="I30" s="11">
         <f>I12/I9</f>
         <v>0.46257155181458898</v>
       </c>
-      <c r="J30" s="11" t="e">
+      <c r="J30" s="11">
         <f>J12/J9</f>
-        <v>#DIV/0!</v>
+        <v>0.4622247972190035</v>
       </c>
       <c r="K30" s="11">
-        <f t="shared" ref="K30:N30" si="27">K12/K9</f>
+        <f t="shared" ref="K30:N30" si="29">K12/K9</f>
         <v>0.46882542236524538</v>
       </c>
       <c r="L30" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.47050619238876246</v>
       </c>
       <c r="M30" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.46490705687183631</v>
       </c>
-      <c r="N30" s="11" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+      <c r="N30" s="11">
+        <f t="shared" si="29"/>
+        <v>0.47177600374758455</v>
       </c>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Q30" s="11" t="e">
+        <f t="shared" ref="Q30:W30" si="30">Q12/Q9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R30" s="11" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S30" s="11" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T30" s="11">
+        <f t="shared" si="30"/>
+        <v>0.43309630561360085</v>
+      </c>
+      <c r="U30" s="11">
+        <f t="shared" si="30"/>
+        <v>0.44131129577207562</v>
+      </c>
+      <c r="V30" s="11">
+        <f t="shared" si="30"/>
+        <v>0.46206349815233932</v>
+      </c>
+      <c r="W30" s="11">
+        <f t="shared" si="30"/>
+        <v>0.46905164107160452</v>
+      </c>
+    </row>
+    <row r="31" spans="1:83" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C31" s="11" t="e">
-        <f t="shared" ref="C31:H31" si="28">C15/C9</f>
+        <f t="shared" ref="C31:H31" si="31">C15/C9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D31" s="11" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E31" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0.28115945572576012</v>
       </c>
       <c r="F31" s="11" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G31" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0.33763746602550698</v>
       </c>
       <c r="H31" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0.30742785362467356</v>
       </c>
       <c r="I31" s="11">
         <f>I15/I9</f>
         <v>0.29555708406682446</v>
       </c>
-      <c r="J31" s="11" t="e">
+      <c r="J31" s="11">
         <f>J15/J9</f>
-        <v>#DIV/0!</v>
+        <v>0.31171389444854103</v>
       </c>
       <c r="K31" s="11">
-        <f t="shared" ref="K31:N31" si="29">K15/K9</f>
+        <f t="shared" ref="K31:N31" si="32">K15/K9</f>
         <v>0.34458567980691873</v>
       </c>
       <c r="L31" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.31029058610094484</v>
       </c>
       <c r="M31" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.29990641881832492</v>
       </c>
-      <c r="N31" s="11" t="e">
-        <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
+      <c r="N31" s="11">
+        <f t="shared" si="32"/>
+        <v>0.31646594968086977</v>
       </c>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Q31" s="11" t="e">
+        <f t="shared" ref="Q31:W31" si="33">Q15/Q9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R31" s="11" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S31" s="11" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T31" s="11">
+        <f t="shared" si="33"/>
+        <v>0.30288744395528594</v>
+      </c>
+      <c r="U31" s="11">
+        <f t="shared" si="33"/>
+        <v>0.29821412265024722</v>
+      </c>
+      <c r="V31" s="11">
+        <f t="shared" si="33"/>
+        <v>0.31510222870075566</v>
+      </c>
+      <c r="W31" s="11">
+        <f t="shared" si="33"/>
+        <v>0.31970799762591884</v>
+      </c>
+    </row>
+    <row r="32" spans="1:83" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C32" s="11" t="e">
-        <f t="shared" ref="C32:H32" si="30">C18/C17</f>
+        <f t="shared" ref="C32:H32" si="34">C18/C17</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D32" s="11" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E32" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.12545638499098227</v>
       </c>
       <c r="F32" s="11" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G32" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.15889194752374575</v>
       </c>
       <c r="H32" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.1576021099151757</v>
       </c>
       <c r="I32" s="11">
         <f>I18/I17</f>
         <v>0.15870400878638111</v>
       </c>
-      <c r="J32" s="11" t="e">
+      <c r="J32" s="11">
         <f>J18/J17</f>
-        <v>#DIV/0!</v>
+        <v>0.50233029381965555</v>
       </c>
       <c r="K32" s="11">
-        <f t="shared" ref="K32:N32" si="31">K18/K17</f>
+        <f t="shared" ref="K32:N32" si="35">K18/K17</f>
         <v>0.14686267142588766</v>
       </c>
       <c r="L32" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0.15455475946775846</v>
       </c>
       <c r="M32" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0.16399700331775535</v>
       </c>
-      <c r="N32" s="11" t="e">
-        <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
+      <c r="N32" s="11">
+        <f t="shared" si="35"/>
+        <v>0.16272405804170223</v>
       </c>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
+      <c r="Q32" s="11" t="e">
+        <f t="shared" ref="Q32:W32" si="36">Q18/Q17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R32" s="11" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S32" s="11" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T32" s="11">
+        <f t="shared" si="36"/>
+        <v>0.16204461684424407</v>
+      </c>
+      <c r="U32" s="11">
+        <f t="shared" si="36"/>
+        <v>0.14719174228036858</v>
+      </c>
+      <c r="V32" s="11">
+        <f t="shared" si="36"/>
+        <v>0.24091185164189982</v>
+      </c>
+      <c r="W32" s="11">
+        <f t="shared" si="36"/>
+        <v>0.15610002335586043</v>
+      </c>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="4"/>
@@ -2838,11 +4345,11 @@
         <v>61</v>
       </c>
       <c r="C40" s="4">
-        <f t="shared" ref="C40:H40" si="32">SUM(C34:C39)</f>
+        <f t="shared" ref="C40:H40" si="37">SUM(C34:C39)</f>
         <v>0</v>
       </c>
       <c r="D40" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="E40" s="4">
@@ -2850,15 +4357,15 @@
         <v>143566</v>
       </c>
       <c r="F40" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="G40" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="H40" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>152987</v>
       </c>
       <c r="I40" s="4">
@@ -2989,27 +4496,27 @@
         <v>63</v>
       </c>
       <c r="C44" s="4">
-        <f t="shared" ref="C44:H44" si="33">SUM(C41:C43)</f>
+        <f t="shared" ref="C44:H44" si="38">SUM(C41:C43)</f>
         <v>0</v>
       </c>
       <c r="D44" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="E44" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>209017</v>
       </c>
       <c r="F44" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="G44" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="H44" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>211993</v>
       </c>
       <c r="I44" s="4">
@@ -3017,15 +4524,15 @@
         <v>206177</v>
       </c>
       <c r="J44" s="4">
-        <f t="shared" ref="J44:L44" si="34">SUM(J41:J43)</f>
+        <f t="shared" ref="J44:L44" si="39">SUM(J41:J43)</f>
         <v>0</v>
       </c>
       <c r="K44" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="L44" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>212559</v>
       </c>
       <c r="M44" s="4"/>
@@ -3044,43 +4551,43 @@
         <v>64</v>
       </c>
       <c r="C45" s="9">
-        <f t="shared" ref="C45:I45" si="35">C44+C40</f>
+        <f t="shared" ref="C45:I45" si="40">C44+C40</f>
         <v>0</v>
       </c>
       <c r="D45" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="E45" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>352583</v>
       </c>
       <c r="F45" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="G45" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="H45" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>364980</v>
       </c>
       <c r="I45" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>331612</v>
       </c>
       <c r="J45" s="9">
-        <f t="shared" ref="J45:L45" si="36">J44+J40</f>
+        <f t="shared" ref="J45:L45" si="41">J44+J40</f>
         <v>0</v>
       </c>
       <c r="K45" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="L45" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>331233</v>
       </c>
       <c r="M45" s="4"/>
@@ -3264,27 +4771,27 @@
         <v>73</v>
       </c>
       <c r="C51" s="4">
-        <f t="shared" ref="C51:H51" si="37">SUM(C46:C50)</f>
+        <f t="shared" ref="C51:H51" si="42">SUM(C46:C50)</f>
         <v>0</v>
       </c>
       <c r="D51" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="E51" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>145308</v>
       </c>
       <c r="F51" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="G51" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="H51" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>176392</v>
       </c>
       <c r="I51" s="4">
@@ -3292,15 +4799,15 @@
         <v>131624</v>
       </c>
       <c r="J51" s="4">
-        <f t="shared" ref="J51:L51" si="38">SUM(J46:J50)</f>
+        <f t="shared" ref="J51:L51" si="43">SUM(J46:J50)</f>
         <v>0</v>
       </c>
       <c r="K51" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="L51" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>144571</v>
       </c>
       <c r="M51" s="4"/>
@@ -3385,27 +4892,27 @@
         <v>69</v>
       </c>
       <c r="C54" s="4">
-        <f t="shared" ref="C54:H54" si="39">SUM(C52:C53)</f>
+        <f t="shared" ref="C54:H54" si="44">SUM(C52:C53)</f>
         <v>0</v>
       </c>
       <c r="D54" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="E54" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>145129</v>
       </c>
       <c r="F54" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="G54" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="H54" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>131638</v>
       </c>
       <c r="I54" s="4">
@@ -3437,40 +4944,40 @@
         <v>70</v>
       </c>
       <c r="C55" s="9">
-        <f t="shared" ref="C55:I55" si="40">C54+C51</f>
+        <f t="shared" ref="C55:I55" si="45">C54+C51</f>
         <v>0</v>
       </c>
       <c r="D55" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="E55" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>290437</v>
       </c>
       <c r="F55" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="G55" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="H55" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>308030</v>
       </c>
       <c r="I55" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>264904</v>
       </c>
       <c r="J55" s="4"/>
       <c r="K55" s="9">
-        <f t="shared" ref="K55:L55" si="41">K54+K51</f>
+        <f t="shared" ref="K55:L55" si="46">K54+K51</f>
         <v>0</v>
       </c>
       <c r="L55" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>264437</v>
       </c>
       <c r="M55" s="4"/>
@@ -3522,43 +5029,43 @@
         <v>72</v>
       </c>
       <c r="C57" s="9">
-        <f t="shared" ref="C57:I57" si="42">C55+C56</f>
+        <f t="shared" ref="C57:I57" si="47">C55+C56</f>
         <v>0</v>
       </c>
       <c r="D57" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="E57" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>352583</v>
       </c>
       <c r="F57" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="G57" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="H57" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>364980</v>
       </c>
       <c r="I57" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>331612</v>
       </c>
       <c r="J57" s="9">
-        <f t="shared" ref="J57:L57" si="43">J55+J56</f>
+        <f t="shared" ref="J57:L57" si="48">J55+J56</f>
         <v>0</v>
       </c>
       <c r="K57" s="9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="L57" s="9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>331233</v>
       </c>
       <c r="M57" s="4"/>
@@ -3687,27 +5194,27 @@
         <v>76</v>
       </c>
       <c r="C62" s="4">
-        <f t="shared" ref="C62" si="44">C60-C61</f>
+        <f t="shared" ref="C62" si="49">C60-C61</f>
         <v>0</v>
       </c>
       <c r="D62" s="4">
-        <f t="shared" ref="D62:H62" si="45">+D60+D61</f>
+        <f t="shared" ref="D62:H62" si="50">+D60+D61</f>
         <v>0</v>
       </c>
       <c r="E62" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>80149</v>
       </c>
       <c r="F62" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="G62" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="H62" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>58197</v>
       </c>
       <c r="I62" s="4">
@@ -3715,15 +5222,15 @@
         <v>84904</v>
       </c>
       <c r="J62" s="4">
-        <f t="shared" ref="J62:L62" si="46">+J60+J61</f>
+        <f t="shared" ref="J62:L62" si="51">+J60+J61</f>
         <v>0</v>
       </c>
       <c r="K62" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="L62" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>47876</v>
       </c>
       <c r="M62" s="4"/>

--- a/AAPL.xlsx
+++ b/AAPL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6396B4F3-14C7-478D-904B-4EE3D5238BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CDA4B54-D853-456E-A9AA-FD67B121F78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{5CC9697C-BEBF-454C-9830-8930A9F64DCB}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{5CC9697C-BEBF-454C-9830-8930A9F64DCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="85">
   <si>
     <t>AAPL</t>
   </si>
@@ -290,6 +290,9 @@
   <si>
     <t>FY25</t>
   </si>
+  <si>
+    <t>Q126</t>
+  </si>
 </sst>
 </file>
 
@@ -300,13 +303,19 @@
     <numFmt numFmtId="165" formatCode="#,##0.0;\(#,##0.0\)"/>
     <numFmt numFmtId="166" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -377,27 +386,30 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -739,7 +751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64CED78A-9E29-4339-B274-4FCECE48B9E7}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -766,7 +778,7 @@
         <v>4</v>
       </c>
       <c r="H3" s="3">
-        <v>272.89999999999998</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -777,10 +789,10 @@
         <v>5</v>
       </c>
       <c r="H4" s="4">
-        <v>14776.352999999999</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>80</v>
+        <v>14681.14</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -792,7 +804,7 @@
       </c>
       <c r="H5" s="4">
         <f>H3*H4</f>
-        <v>4032466.7336999993</v>
+        <v>3743690.6999999997</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -800,11 +812,11 @@
         <v>7</v>
       </c>
       <c r="H6" s="4">
-        <f>35934+18763</f>
-        <v>54697</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>80</v>
+        <f>45317+21590</f>
+        <v>66907</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -818,11 +830,11 @@
         <v>8</v>
       </c>
       <c r="H7" s="4">
-        <f>12350+78328</f>
-        <v>90678</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>80</v>
+        <f>1997+76685</f>
+        <v>78682</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -831,7 +843,7 @@
       </c>
       <c r="H8" s="4">
         <f>H5-H6+H7</f>
-        <v>4068447.7336999993</v>
+        <v>3755465.6999999997</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -851,13 +863,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41AC909-CB0A-404C-BB37-AEC25D043BC8}">
-  <dimension ref="A1:CE548"/>
+  <dimension ref="A1:CF548"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomRight" activeCell="O24" sqref="O24:O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -867,12 +879,12 @@
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:84" x14ac:dyDescent="0.2">
       <c r="C2" s="5" t="s">
         <v>14</v>
       </c>
@@ -909,33 +921,36 @@
       <c r="N2" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5" t="s">
+      <c r="O2" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="U2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="V2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="W2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="13" t="s">
+      <c r="X2" s="13" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:84" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>42</v>
       </c>
@@ -955,7 +970,7 @@
         <v>39296</v>
       </c>
       <c r="J3" s="4">
-        <f>+V3-SUM(G3:I3)</f>
+        <f>+W3-SUM(G3:I3)</f>
         <v>46222</v>
       </c>
       <c r="K3" s="4">
@@ -968,27 +983,29 @@
         <v>44582</v>
       </c>
       <c r="N3" s="4">
-        <f>+W3-SUM(K3:M3)</f>
+        <f>+X3-SUM(K3:M3)</f>
         <v>49025</v>
       </c>
-      <c r="O3" s="4"/>
+      <c r="O3" s="4">
+        <v>85269</v>
+      </c>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
-      <c r="T3" s="4">
+      <c r="T3" s="4"/>
+      <c r="U3" s="4">
         <v>205489</v>
       </c>
-      <c r="U3" s="4">
+      <c r="V3" s="4">
         <v>200583</v>
       </c>
-      <c r="V3" s="4">
+      <c r="W3" s="4">
         <v>201183</v>
       </c>
-      <c r="W3" s="4">
+      <c r="X3" s="4">
         <v>209586</v>
       </c>
-      <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
@@ -1048,8 +1065,9 @@
       <c r="CC3" s="4"/>
       <c r="CD3" s="4"/>
       <c r="CE3" s="4"/>
-    </row>
-    <row r="4" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF3" s="4"/>
+    </row>
+    <row r="4" spans="1:84" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>44</v>
       </c>
@@ -1069,7 +1087,7 @@
         <v>7009</v>
       </c>
       <c r="J4" s="4">
-        <f t="shared" ref="J4:J8" si="0">+V4-SUM(G4:I4)</f>
+        <f t="shared" ref="J4:J8" si="0">+W4-SUM(G4:I4)</f>
         <v>7744</v>
       </c>
       <c r="K4" s="4">
@@ -1082,27 +1100,29 @@
         <v>8046</v>
       </c>
       <c r="N4" s="4">
-        <f t="shared" ref="N4:N8" si="1">+W4-SUM(K4:M4)</f>
+        <f t="shared" ref="N4:N8" si="1">+X4-SUM(K4:M4)</f>
         <v>8726</v>
       </c>
-      <c r="O4" s="4"/>
+      <c r="O4" s="4">
+        <v>8386</v>
+      </c>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
-      <c r="T4" s="4">
+      <c r="T4" s="4"/>
+      <c r="U4" s="4">
         <v>40177</v>
       </c>
-      <c r="U4" s="4">
+      <c r="V4" s="4">
         <v>29357</v>
       </c>
-      <c r="V4" s="4">
+      <c r="W4" s="4">
         <v>29984</v>
       </c>
-      <c r="W4" s="4">
+      <c r="X4" s="4">
         <v>33708</v>
       </c>
-      <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
@@ -1162,8 +1182,9 @@
       <c r="CC4" s="4"/>
       <c r="CD4" s="4"/>
       <c r="CE4" s="4"/>
-    </row>
-    <row r="5" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF4" s="4"/>
+    </row>
+    <row r="5" spans="1:84" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>43</v>
       </c>
@@ -1199,24 +1220,26 @@
         <f t="shared" si="1"/>
         <v>6952</v>
       </c>
-      <c r="O5" s="4"/>
+      <c r="O5" s="4">
+        <v>8595</v>
+      </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
-      <c r="T5" s="4">
+      <c r="T5" s="4"/>
+      <c r="U5" s="4">
         <v>29292</v>
       </c>
-      <c r="U5" s="4">
+      <c r="V5" s="4">
         <v>28300</v>
       </c>
-      <c r="V5" s="4">
+      <c r="W5" s="4">
         <v>26694</v>
       </c>
-      <c r="W5" s="4">
+      <c r="X5" s="4">
         <v>28023</v>
       </c>
-      <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
@@ -1276,8 +1299,9 @@
       <c r="CC5" s="4"/>
       <c r="CD5" s="4"/>
       <c r="CE5" s="4"/>
-    </row>
-    <row r="6" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF5" s="4"/>
+    </row>
+    <row r="6" spans="1:84" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>45</v>
       </c>
@@ -1313,24 +1337,26 @@
         <f t="shared" si="1"/>
         <v>9013</v>
       </c>
-      <c r="O6" s="4"/>
+      <c r="O6" s="4">
+        <v>11493</v>
+      </c>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
-      <c r="T6" s="4">
+      <c r="T6" s="4"/>
+      <c r="U6" s="4">
         <v>41241</v>
       </c>
-      <c r="U6" s="4">
+      <c r="V6" s="4">
         <v>39845</v>
       </c>
-      <c r="V6" s="4">
+      <c r="W6" s="4">
         <v>37005</v>
       </c>
-      <c r="W6" s="4">
+      <c r="X6" s="4">
         <v>35686</v>
       </c>
-      <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
@@ -1390,8 +1416,9 @@
       <c r="CC6" s="4"/>
       <c r="CD6" s="4"/>
       <c r="CE6" s="4"/>
-    </row>
-    <row r="7" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF6" s="4"/>
+    </row>
+    <row r="7" spans="1:84" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>28</v>
       </c>
@@ -1427,27 +1454,29 @@
         <f t="shared" si="1"/>
         <v>73716</v>
       </c>
-      <c r="O7" s="4"/>
+      <c r="O7" s="4">
+        <v>113743</v>
+      </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
-      <c r="T7" s="4">
-        <f>+SUM(T3:T6)</f>
-        <v>316199</v>
-      </c>
+      <c r="T7" s="4"/>
       <c r="U7" s="4">
         <f>+SUM(U3:U6)</f>
-        <v>298085</v>
+        <v>316199</v>
       </c>
       <c r="V7" s="4">
         <f>+SUM(V3:V6)</f>
+        <v>298085</v>
+      </c>
+      <c r="W7" s="4">
+        <f>+SUM(W3:W6)</f>
         <v>294866</v>
       </c>
-      <c r="W7" s="4">
+      <c r="X7" s="4">
         <v>307003</v>
       </c>
-      <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
@@ -1507,8 +1536,9 @@
       <c r="CC7" s="4"/>
       <c r="CD7" s="4"/>
       <c r="CE7" s="4"/>
-    </row>
-    <row r="8" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF7" s="4"/>
+    </row>
+    <row r="8" spans="1:84" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>29</v>
       </c>
@@ -1544,24 +1574,26 @@
         <f t="shared" si="1"/>
         <v>28750</v>
       </c>
-      <c r="O8" s="4"/>
+      <c r="O8" s="4">
+        <v>30013</v>
+      </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
-      <c r="T8" s="4">
+      <c r="T8" s="4"/>
+      <c r="U8" s="4">
         <v>78129</v>
       </c>
-      <c r="U8" s="4">
+      <c r="V8" s="4">
         <v>85200</v>
       </c>
-      <c r="V8" s="4">
+      <c r="W8" s="4">
         <v>96169</v>
       </c>
-      <c r="W8" s="4">
+      <c r="X8" s="4">
         <v>109158</v>
       </c>
-      <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
@@ -1621,8 +1653,9 @@
       <c r="CC8" s="4"/>
       <c r="CD8" s="4"/>
       <c r="CE8" s="4"/>
-    </row>
-    <row r="9" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF8" s="4"/>
+    </row>
+    <row r="9" spans="1:84" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>30</v>
       </c>
@@ -1655,7 +1688,7 @@
         <v>85777</v>
       </c>
       <c r="J9" s="9">
-        <f t="shared" ref="J9:N9" si="3">J7+J8</f>
+        <f t="shared" ref="J9:O9" si="3">J7+J8</f>
         <v>94930</v>
       </c>
       <c r="K9" s="9">
@@ -1674,13 +1707,13 @@
         <f t="shared" si="3"/>
         <v>102466</v>
       </c>
-      <c r="O9" s="4"/>
-      <c r="P9" s="9">
-        <f t="shared" ref="P9:U9" si="4">+P7+P8</f>
-        <v>0</v>
-      </c>
+      <c r="O9" s="9">
+        <f t="shared" si="3"/>
+        <v>143756</v>
+      </c>
+      <c r="P9" s="4"/>
       <c r="Q9" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="Q9:V9" si="4">+Q7+Q8</f>
         <v>0</v>
       </c>
       <c r="R9" s="9">
@@ -1693,21 +1726,24 @@
       </c>
       <c r="T9" s="9">
         <f t="shared" si="4"/>
-        <v>394328</v>
+        <v>0</v>
       </c>
       <c r="U9" s="9">
         <f t="shared" si="4"/>
+        <v>394328</v>
+      </c>
+      <c r="V9" s="9">
+        <f t="shared" si="4"/>
         <v>383285</v>
-      </c>
-      <c r="V9" s="9">
-        <f>+V7+V8</f>
-        <v>391035</v>
       </c>
       <c r="W9" s="9">
         <f>+W7+W8</f>
+        <v>391035</v>
+      </c>
+      <c r="X9" s="9">
+        <f>+X7+X8</f>
         <v>416161</v>
       </c>
-      <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
       <c r="AA9" s="4"/>
@@ -1767,8 +1803,9 @@
       <c r="CC9" s="4"/>
       <c r="CD9" s="4"/>
       <c r="CE9" s="4"/>
-    </row>
-    <row r="10" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF9" s="4"/>
+    </row>
+    <row r="10" spans="1:84" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>31</v>
       </c>
@@ -1788,7 +1825,7 @@
         <v>39803</v>
       </c>
       <c r="J10" s="4">
-        <f>+V10-SUM(G10:I10)</f>
+        <f>+W10-SUM(G10:I10)</f>
         <v>44566</v>
       </c>
       <c r="K10" s="4">
@@ -1801,27 +1838,29 @@
         <v>43620</v>
       </c>
       <c r="N10" s="4">
-        <f>+W10-SUM(K10:M10)</f>
+        <f>+X10-SUM(K10:M10)</f>
         <v>47019</v>
       </c>
-      <c r="O10" s="4"/>
+      <c r="O10" s="4">
+        <v>67478</v>
+      </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="4">
+      <c r="T10" s="4"/>
+      <c r="U10" s="4">
         <v>201471</v>
       </c>
-      <c r="U10" s="4">
+      <c r="V10" s="4">
         <v>189282</v>
       </c>
-      <c r="V10" s="4">
+      <c r="W10" s="4">
         <v>185233</v>
       </c>
-      <c r="W10" s="4">
+      <c r="X10" s="4">
         <v>194116</v>
       </c>
-      <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
       <c r="AA10" s="4"/>
@@ -1881,8 +1920,9 @@
       <c r="CC10" s="4"/>
       <c r="CD10" s="4"/>
       <c r="CE10" s="4"/>
-    </row>
-    <row r="11" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF10" s="4"/>
+    </row>
+    <row r="11" spans="1:84" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>32</v>
       </c>
@@ -1902,7 +1942,7 @@
         <v>6296</v>
       </c>
       <c r="J11" s="4">
-        <f>+V11-SUM(G11:I11)</f>
+        <f>+W11-SUM(G11:I11)</f>
         <v>6485</v>
       </c>
       <c r="K11" s="4">
@@ -1915,27 +1955,29 @@
         <v>6698</v>
       </c>
       <c r="N11" s="4">
-        <f>+W11-SUM(K11:M11)</f>
+        <f>+X11-SUM(K11:M11)</f>
         <v>7106</v>
       </c>
-      <c r="O11" s="4"/>
+      <c r="O11" s="4">
+        <v>7047</v>
+      </c>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="4">
+      <c r="T11" s="4"/>
+      <c r="U11" s="4">
         <v>22075</v>
       </c>
-      <c r="U11" s="4">
+      <c r="V11" s="4">
         <v>24855</v>
       </c>
-      <c r="V11" s="4">
+      <c r="W11" s="4">
         <v>25119</v>
       </c>
-      <c r="W11" s="4">
+      <c r="X11" s="4">
         <v>26844</v>
       </c>
-      <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
@@ -1995,8 +2037,9 @@
       <c r="CC11" s="4"/>
       <c r="CD11" s="4"/>
       <c r="CE11" s="4"/>
-    </row>
-    <row r="12" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF11" s="4"/>
+    </row>
+    <row r="12" spans="1:84" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>33</v>
       </c>
@@ -2033,7 +2076,7 @@
         <v>43879</v>
       </c>
       <c r="K12" s="4">
-        <f t="shared" ref="K12:N12" si="6">K9-SUM(K10:K11)</f>
+        <f t="shared" ref="K12:O13" si="6">K9-SUM(K10:K11)</f>
         <v>58275</v>
       </c>
       <c r="L12" s="4">
@@ -2048,13 +2091,13 @@
         <f t="shared" si="6"/>
         <v>48341</v>
       </c>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4">
-        <f t="shared" ref="P12:W12" si="7">P9-SUM(P10:P11)</f>
-        <v>0</v>
-      </c>
+      <c r="O12" s="4">
+        <f t="shared" si="6"/>
+        <v>69231</v>
+      </c>
+      <c r="P12" s="4"/>
       <c r="Q12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="Q12:X12" si="7">Q9-SUM(Q10:Q11)</f>
         <v>0</v>
       </c>
       <c r="R12" s="4">
@@ -2067,21 +2110,24 @@
       </c>
       <c r="T12" s="4">
         <f t="shared" si="7"/>
-        <v>170782</v>
+        <v>0</v>
       </c>
       <c r="U12" s="4">
         <f t="shared" si="7"/>
-        <v>169148</v>
+        <v>170782</v>
       </c>
       <c r="V12" s="4">
         <f t="shared" si="7"/>
-        <v>180683</v>
+        <v>169148</v>
       </c>
       <c r="W12" s="4">
         <f t="shared" si="7"/>
+        <v>180683</v>
+      </c>
+      <c r="X12" s="4">
+        <f t="shared" si="7"/>
         <v>195201</v>
       </c>
-      <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
@@ -2141,8 +2187,9 @@
       <c r="CC12" s="4"/>
       <c r="CD12" s="4"/>
       <c r="CE12" s="4"/>
-    </row>
-    <row r="13" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF12" s="4"/>
+    </row>
+    <row r="13" spans="1:84" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>34</v>
       </c>
@@ -2162,7 +2209,7 @@
         <v>8006</v>
       </c>
       <c r="J13" s="4">
-        <f>+V13-SUM(G13:I13)</f>
+        <f>+W13-SUM(G13:I13)</f>
         <v>7765</v>
       </c>
       <c r="K13" s="4">
@@ -2175,27 +2222,29 @@
         <v>8866</v>
       </c>
       <c r="N13" s="4">
-        <f>+W13-SUM(K13:M13)</f>
+        <f>+X13-SUM(K13:M13)</f>
         <v>8866</v>
       </c>
-      <c r="O13" s="4"/>
+      <c r="O13" s="4">
+        <v>10887</v>
+      </c>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="4">
+      <c r="T13" s="4"/>
+      <c r="U13" s="4">
         <v>26251</v>
       </c>
-      <c r="U13" s="4">
+      <c r="V13" s="4">
         <v>29915</v>
       </c>
-      <c r="V13" s="4">
+      <c r="W13" s="4">
         <v>31370</v>
       </c>
-      <c r="W13" s="4">
+      <c r="X13" s="4">
         <v>34550</v>
       </c>
-      <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
@@ -2255,8 +2304,9 @@
       <c r="CC13" s="4"/>
       <c r="CD13" s="4"/>
       <c r="CE13" s="4"/>
-    </row>
-    <row r="14" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF13" s="4"/>
+    </row>
+    <row r="14" spans="1:84" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>35</v>
       </c>
@@ -2276,7 +2326,7 @@
         <v>6320</v>
       </c>
       <c r="J14" s="4">
-        <f>+V14-SUM(G14:I14)</f>
+        <f>+W14-SUM(G14:I14)</f>
         <v>6523</v>
       </c>
       <c r="K14" s="4">
@@ -2289,27 +2339,29 @@
         <v>6650</v>
       </c>
       <c r="N14" s="4">
-        <f>+W14-SUM(K14:M14)</f>
+        <f>+X14-SUM(K14:M14)</f>
         <v>7048</v>
       </c>
-      <c r="O14" s="4"/>
+      <c r="O14" s="4">
+        <v>7492</v>
+      </c>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="4">
+      <c r="T14" s="4"/>
+      <c r="U14" s="4">
         <v>25094</v>
       </c>
-      <c r="U14" s="4">
+      <c r="V14" s="4">
         <v>24932</v>
       </c>
-      <c r="V14" s="4">
+      <c r="W14" s="4">
         <v>26097</v>
       </c>
-      <c r="W14" s="4">
+      <c r="X14" s="4">
         <v>27601</v>
       </c>
-      <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
       <c r="AA14" s="4"/>
@@ -2369,8 +2421,9 @@
       <c r="CC14" s="4"/>
       <c r="CD14" s="4"/>
       <c r="CE14" s="4"/>
-    </row>
-    <row r="15" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF14" s="4"/>
+    </row>
+    <row r="15" spans="1:84" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>36</v>
       </c>
@@ -2407,7 +2460,7 @@
         <v>29591</v>
       </c>
       <c r="K15" s="4">
-        <f t="shared" ref="K15:N15" si="9">K12-SUM(K13:K14)</f>
+        <f t="shared" ref="K15:O15" si="9">K12-SUM(K13:K14)</f>
         <v>42832</v>
       </c>
       <c r="L15" s="4">
@@ -2422,13 +2475,13 @@
         <f t="shared" si="9"/>
         <v>32427</v>
       </c>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4">
-        <f t="shared" ref="P15:W15" si="10">P12-SUM(P13:P14)</f>
-        <v>0</v>
-      </c>
+      <c r="O15" s="4">
+        <f t="shared" si="9"/>
+        <v>50852</v>
+      </c>
+      <c r="P15" s="4"/>
       <c r="Q15" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="Q15:X15" si="10">Q12-SUM(Q13:Q14)</f>
         <v>0</v>
       </c>
       <c r="R15" s="4">
@@ -2441,21 +2494,24 @@
       </c>
       <c r="T15" s="4">
         <f t="shared" si="10"/>
-        <v>119437</v>
+        <v>0</v>
       </c>
       <c r="U15" s="4">
         <f t="shared" si="10"/>
-        <v>114301</v>
+        <v>119437</v>
       </c>
       <c r="V15" s="4">
         <f t="shared" si="10"/>
-        <v>123216</v>
+        <v>114301</v>
       </c>
       <c r="W15" s="4">
         <f t="shared" si="10"/>
+        <v>123216</v>
+      </c>
+      <c r="X15" s="4">
+        <f t="shared" si="10"/>
         <v>133050</v>
       </c>
-      <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
       <c r="AA15" s="4"/>
@@ -2515,8 +2571,9 @@
       <c r="CC15" s="4"/>
       <c r="CD15" s="4"/>
       <c r="CE15" s="4"/>
-    </row>
-    <row r="16" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF15" s="4"/>
+    </row>
+    <row r="16" spans="1:84" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
@@ -2536,7 +2593,7 @@
         <v>142</v>
       </c>
       <c r="J16" s="4">
-        <f>+V16-SUM(G16:I16)</f>
+        <f>+W16-SUM(G16:I16)</f>
         <v>19</v>
       </c>
       <c r="K16" s="4">
@@ -2549,27 +2606,29 @@
         <v>-171</v>
       </c>
       <c r="N16" s="4">
-        <f>+W16-SUM(K16:M16)</f>
+        <f>+X16-SUM(K16:M16)</f>
         <v>377</v>
       </c>
-      <c r="O16" s="4"/>
+      <c r="O16" s="4">
+        <v>150</v>
+      </c>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
-      <c r="T16" s="4">
+      <c r="T16" s="4"/>
+      <c r="U16" s="4">
         <v>-334</v>
       </c>
-      <c r="U16" s="4">
+      <c r="V16" s="4">
         <v>-565</v>
       </c>
-      <c r="V16" s="4">
+      <c r="W16" s="4">
         <v>269</v>
       </c>
-      <c r="W16" s="4">
+      <c r="X16" s="4">
         <v>-321</v>
       </c>
-      <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
       <c r="AA16" s="4"/>
@@ -2629,8 +2688,9 @@
       <c r="CC16" s="4"/>
       <c r="CD16" s="4"/>
       <c r="CE16" s="4"/>
-    </row>
-    <row r="17" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF16" s="4"/>
+    </row>
+    <row r="17" spans="1:84" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>38</v>
       </c>
@@ -2667,7 +2727,7 @@
         <v>29610</v>
       </c>
       <c r="K17" s="4">
-        <f t="shared" ref="K17:N17" si="12">K15+K16</f>
+        <f t="shared" ref="K17:O17" si="12">K15+K16</f>
         <v>42584</v>
       </c>
       <c r="L17" s="4">
@@ -2682,13 +2742,13 @@
         <f t="shared" si="12"/>
         <v>32804</v>
       </c>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4">
-        <f t="shared" ref="P17:W17" si="13">P15+P16</f>
-        <v>0</v>
-      </c>
+      <c r="O17" s="4">
+        <f t="shared" si="12"/>
+        <v>51002</v>
+      </c>
+      <c r="P17" s="4"/>
       <c r="Q17" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="Q17:X17" si="13">Q15+Q16</f>
         <v>0</v>
       </c>
       <c r="R17" s="4">
@@ -2701,21 +2761,24 @@
       </c>
       <c r="T17" s="4">
         <f t="shared" si="13"/>
-        <v>119103</v>
+        <v>0</v>
       </c>
       <c r="U17" s="4">
         <f t="shared" si="13"/>
-        <v>113736</v>
+        <v>119103</v>
       </c>
       <c r="V17" s="4">
         <f t="shared" si="13"/>
-        <v>123485</v>
+        <v>113736</v>
       </c>
       <c r="W17" s="4">
         <f t="shared" si="13"/>
+        <v>123485</v>
+      </c>
+      <c r="X17" s="4">
+        <f t="shared" si="13"/>
         <v>132729</v>
       </c>
-      <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
       <c r="AA17" s="4"/>
@@ -2775,8 +2838,9 @@
       <c r="CC17" s="4"/>
       <c r="CD17" s="4"/>
       <c r="CE17" s="4"/>
-    </row>
-    <row r="18" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF17" s="4"/>
+    </row>
+    <row r="18" spans="1:84" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>39</v>
       </c>
@@ -2796,7 +2860,7 @@
         <v>4046</v>
       </c>
       <c r="J18" s="4">
-        <f>+V18-SUM(G18:I18)</f>
+        <f>+W18-SUM(G18:I18)</f>
         <v>14874</v>
       </c>
       <c r="K18" s="4">
@@ -2809,27 +2873,29 @@
         <v>4597</v>
       </c>
       <c r="N18" s="4">
-        <f>+W18-SUM(K18:M18)</f>
+        <f>+X18-SUM(K18:M18)</f>
         <v>5338</v>
       </c>
-      <c r="O18" s="4"/>
+      <c r="O18" s="4">
+        <v>8905</v>
+      </c>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
-      <c r="T18" s="4">
+      <c r="T18" s="4"/>
+      <c r="U18" s="4">
         <v>19300</v>
       </c>
-      <c r="U18" s="4">
+      <c r="V18" s="4">
         <v>16741</v>
       </c>
-      <c r="V18" s="4">
+      <c r="W18" s="4">
         <v>29749</v>
       </c>
-      <c r="W18" s="4">
+      <c r="X18" s="4">
         <v>20719</v>
       </c>
-      <c r="X18" s="4"/>
       <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
       <c r="AA18" s="4"/>
@@ -2889,8 +2955,9 @@
       <c r="CC18" s="4"/>
       <c r="CD18" s="4"/>
       <c r="CE18" s="4"/>
-    </row>
-    <row r="19" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF18" s="4"/>
+    </row>
+    <row r="19" spans="1:84" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>40</v>
       </c>
@@ -2907,7 +2974,7 @@
         <v>19881</v>
       </c>
       <c r="F19" s="4">
-        <f t="shared" ref="F19:W19" si="15">F17-F18</f>
+        <f t="shared" ref="F19:X19" si="15">F17-F18</f>
         <v>0</v>
       </c>
       <c r="G19" s="4">
@@ -2942,11 +3009,11 @@
         <f t="shared" si="15"/>
         <v>27466</v>
       </c>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4">
+      <c r="O19" s="4">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
+        <v>42097</v>
+      </c>
+      <c r="P19" s="4"/>
       <c r="Q19" s="4">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -2961,21 +3028,24 @@
       </c>
       <c r="T19" s="4">
         <f t="shared" si="15"/>
-        <v>99803</v>
+        <v>0</v>
       </c>
       <c r="U19" s="4">
         <f t="shared" si="15"/>
-        <v>96995</v>
+        <v>99803</v>
       </c>
       <c r="V19" s="4">
         <f t="shared" si="15"/>
-        <v>93736</v>
+        <v>96995</v>
       </c>
       <c r="W19" s="4">
         <f t="shared" si="15"/>
+        <v>93736</v>
+      </c>
+      <c r="X19" s="4">
+        <f t="shared" si="15"/>
         <v>112010</v>
       </c>
-      <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
       <c r="AA19" s="4"/>
@@ -3035,8 +3105,9 @@
       <c r="CC19" s="4"/>
       <c r="CD19" s="4"/>
       <c r="CE19" s="4"/>
-    </row>
-    <row r="20" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF19" s="4"/>
+    </row>
+    <row r="20" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -3119,8 +3190,9 @@
       <c r="CC20" s="4"/>
       <c r="CD20" s="4"/>
       <c r="CE20" s="4"/>
-    </row>
-    <row r="21" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF20" s="4"/>
+    </row>
+    <row r="21" spans="1:84" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
@@ -3137,7 +3209,7 @@
         <v>1.2664982079442137</v>
       </c>
       <c r="F21" s="10" t="e">
-        <f t="shared" ref="F21:W21" si="17">F19/F22</f>
+        <f t="shared" ref="F21:X21" si="17">F19/F22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G21" s="10">
@@ -3172,11 +3244,11 @@
         <f t="shared" si="17"/>
         <v>1.8373749874569354</v>
       </c>
-      <c r="O21" s="4"/>
-      <c r="P21" s="10" t="e">
+      <c r="O21" s="10">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
+        <v>2.8543903584434069</v>
+      </c>
+      <c r="P21" s="4"/>
       <c r="Q21" s="10" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
@@ -3189,23 +3261,26 @@
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T21" s="10">
+      <c r="T21" s="10" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U21" s="10">
         <f t="shared" si="17"/>
         <v>6.1546144376377772</v>
       </c>
-      <c r="U21" s="10">
+      <c r="V21" s="10">
         <f t="shared" si="17"/>
         <v>6.1606692635543778</v>
       </c>
-      <c r="V21" s="10">
+      <c r="W21" s="10">
         <f t="shared" si="17"/>
         <v>6.1090540709549925</v>
       </c>
-      <c r="W21" s="10">
+      <c r="X21" s="10">
         <f t="shared" si="17"/>
         <v>7.4930595042980901</v>
       </c>
-      <c r="X21" s="4"/>
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
       <c r="AA21" s="4"/>
@@ -3265,8 +3340,9 @@
       <c r="CC21" s="4"/>
       <c r="CD21" s="4"/>
       <c r="CE21" s="4"/>
-    </row>
-    <row r="22" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF21" s="4"/>
+    </row>
+    <row r="22" spans="1:84" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>5</v>
       </c>
@@ -3286,7 +3362,7 @@
         <v>15287.521000000001</v>
       </c>
       <c r="J22" s="4">
-        <f>+V22</f>
+        <f>+W22</f>
         <v>15343.782999999999</v>
       </c>
       <c r="K22" s="4">
@@ -3299,27 +3375,29 @@
         <v>14902.886</v>
       </c>
       <c r="N22" s="4">
-        <f>+W22</f>
+        <f>+X22</f>
         <v>14948.5</v>
       </c>
-      <c r="O22" s="4"/>
+      <c r="O22" s="4">
+        <v>14748.157999999999</v>
+      </c>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
-      <c r="T22" s="4">
+      <c r="T22" s="4"/>
+      <c r="U22" s="4">
         <v>16215.963</v>
       </c>
-      <c r="U22" s="4">
+      <c r="V22" s="4">
         <v>15744.231</v>
       </c>
-      <c r="V22" s="4">
+      <c r="W22" s="4">
         <v>15343.782999999999</v>
       </c>
-      <c r="W22" s="4">
+      <c r="X22" s="4">
         <v>14948.5</v>
       </c>
-      <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
       <c r="AA22" s="4"/>
@@ -3379,8 +3457,9 @@
       <c r="CC22" s="4"/>
       <c r="CD22" s="4"/>
       <c r="CE22" s="4"/>
-    </row>
-    <row r="23" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF22" s="4"/>
+    </row>
+    <row r="23" spans="1:84" x14ac:dyDescent="0.2">
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -3462,8 +3541,9 @@
       <c r="CC23" s="4"/>
       <c r="CD23" s="4"/>
       <c r="CE23" s="4"/>
-    </row>
-    <row r="24" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF23" s="4"/>
+    </row>
+    <row r="24" spans="1:84" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>46</v>
       </c>
@@ -3485,7 +3565,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K24" s="11">
-        <f t="shared" ref="K24:N27" si="19">K3/G3-1</f>
+        <f t="shared" ref="K24:O27" si="19">K3/G3-1</f>
         <v>-8.0915899113368495E-3</v>
       </c>
       <c r="L24" s="11">
@@ -3500,14 +3580,14 @@
         <f t="shared" si="19"/>
         <v>6.0642118471723405E-2</v>
       </c>
-      <c r="O24" s="4"/>
+      <c r="O24" s="11">
+        <f t="shared" si="19"/>
+        <v>0.23331597674216775</v>
+      </c>
       <c r="P24" s="4"/>
-      <c r="Q24" s="11" t="e">
-        <f t="shared" ref="Q24:U27" si="20">+Q3/P3-1</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="Q24" s="4"/>
       <c r="R24" s="11" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="R24:V27" si="20">+R3/Q3-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S24" s="11" t="e">
@@ -3518,20 +3598,24 @@
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U24" s="11">
+      <c r="U24" s="11" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V24" s="11">
         <f t="shared" si="20"/>
         <v>-2.3874757286278081E-2</v>
       </c>
-      <c r="V24" s="11">
-        <f>+V3/U3-1</f>
-        <v>2.9912804175826757E-3</v>
-      </c>
       <c r="W24" s="11">
         <f>+W3/V3-1</f>
+        <v>2.9912804175826757E-3</v>
+      </c>
+      <c r="X24" s="11">
+        <f>+X3/W3-1</f>
         <v>4.1767942619406195E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:84" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>47</v>
       </c>
@@ -3568,12 +3652,12 @@
         <f t="shared" si="19"/>
         <v>0.12680785123966931</v>
       </c>
-      <c r="O25" s="4"/>
+      <c r="O25" s="11">
+        <f t="shared" si="19"/>
+        <v>-6.6874374095916345E-2</v>
+      </c>
       <c r="P25" s="4"/>
-      <c r="Q25" s="11" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="Q25" s="4"/>
       <c r="R25" s="11" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
@@ -3586,20 +3670,24 @@
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U25" s="11">
+      <c r="U25" s="11" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V25" s="11">
         <f t="shared" si="20"/>
         <v>-0.26930831072504169</v>
       </c>
-      <c r="V25" s="11">
-        <f t="shared" ref="V25:W27" si="22">+V4/U4-1</f>
+      <c r="W25" s="11">
+        <f t="shared" ref="W25:X27" si="22">+W4/V4-1</f>
         <v>2.1357768164322E-2</v>
       </c>
-      <c r="W25" s="11">
+      <c r="X25" s="11">
         <f t="shared" si="22"/>
         <v>0.12419957310565644</v>
       </c>
     </row>
-    <row r="26" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:84" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>48</v>
       </c>
@@ -3636,12 +3724,12 @@
         <f t="shared" si="19"/>
         <v>2.877697841725535E-4</v>
       </c>
-      <c r="O26" s="4"/>
+      <c r="O26" s="11">
+        <f t="shared" si="19"/>
+        <v>6.2685459940652777E-2</v>
+      </c>
       <c r="P26" s="4"/>
-      <c r="Q26" s="11" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="Q26" s="4"/>
       <c r="R26" s="11" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
@@ -3654,20 +3742,24 @@
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U26" s="11">
+      <c r="U26" s="11" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V26" s="11">
         <f t="shared" si="20"/>
         <v>-3.3865901952751631E-2</v>
       </c>
-      <c r="V26" s="11">
+      <c r="W26" s="11">
         <f t="shared" si="22"/>
         <v>-5.674911660777382E-2</v>
       </c>
-      <c r="W26" s="11">
+      <c r="X26" s="11">
         <f t="shared" si="22"/>
         <v>4.9786468869408962E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:84" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>49</v>
       </c>
@@ -3704,12 +3796,12 @@
         <f t="shared" si="19"/>
         <v>-3.2072550320725313E-3</v>
       </c>
-      <c r="O27" s="4"/>
+      <c r="O27" s="11">
+        <f t="shared" si="19"/>
+        <v>-2.1622541925597982E-2</v>
+      </c>
       <c r="P27" s="4"/>
-      <c r="Q27" s="11" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="Q27" s="4"/>
       <c r="R27" s="11" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
@@ -3722,20 +3814,24 @@
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U27" s="11">
+      <c r="U27" s="11" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V27" s="11">
         <f t="shared" si="20"/>
         <v>-3.3849809655439933E-2</v>
       </c>
-      <c r="V27" s="11">
+      <c r="W27" s="11">
         <f t="shared" si="22"/>
         <v>-7.1276195256619435E-2</v>
       </c>
-      <c r="W27" s="11">
+      <c r="X27" s="11">
         <f t="shared" si="22"/>
         <v>-3.5643831914606183E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:84" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>50</v>
       </c>
@@ -3757,7 +3853,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K28" s="11">
-        <f t="shared" ref="K28:N28" si="24">K8/G8-1</f>
+        <f t="shared" ref="K28:O28" si="24">K8/G8-1</f>
         <v>0.13942120517368162</v>
       </c>
       <c r="L28" s="11">
@@ -3772,14 +3868,14 @@
         <f t="shared" si="24"/>
         <v>0.1512894441774788</v>
       </c>
-      <c r="O28" s="4"/>
+      <c r="O28" s="11">
+        <f t="shared" si="24"/>
+        <v>0.13944570994684891</v>
+      </c>
       <c r="P28" s="4"/>
-      <c r="Q28" s="11" t="e">
-        <f t="shared" ref="Q28:U28" si="25">+Q8/P8-1</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="Q28" s="4"/>
       <c r="R28" s="11" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="R28:V28" si="25">+R8/Q8-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S28" s="11" t="e">
@@ -3790,20 +3886,24 @@
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U28" s="11">
+      <c r="U28" s="11" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V28" s="11">
         <f t="shared" si="25"/>
         <v>9.0504166186691215E-2</v>
       </c>
-      <c r="V28" s="11">
-        <f>+V8/U8-1</f>
-        <v>0.12874413145539898</v>
-      </c>
       <c r="W28" s="11">
         <f>+W8/V8-1</f>
+        <v>0.12874413145539898</v>
+      </c>
+      <c r="X28" s="11">
+        <f>+X8/W8-1</f>
         <v>0.13506431386413498</v>
       </c>
     </row>
-    <row r="29" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:84" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>51</v>
       </c>
@@ -3825,7 +3925,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K29" s="12">
-        <f t="shared" ref="K29:N29" si="26">K9/G9-1</f>
+        <f t="shared" ref="K29:O29" si="26">K9/G9-1</f>
         <v>3.9514948776918191E-2</v>
       </c>
       <c r="L29" s="12">
@@ -3840,14 +3940,14 @@
         <f t="shared" si="26"/>
         <v>7.9384809859896821E-2</v>
       </c>
-      <c r="O29" s="9"/>
+      <c r="O29" s="12">
+        <f t="shared" si="26"/>
+        <v>0.15652453740949324</v>
+      </c>
       <c r="P29" s="9"/>
-      <c r="Q29" s="12" t="e">
-        <f t="shared" ref="Q29:U29" si="27">+Q9/P9-1</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="Q29" s="9"/>
       <c r="R29" s="12" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="R29:V29" si="27">+R9/Q9-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S29" s="12" t="e">
@@ -3858,20 +3958,24 @@
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U29" s="12">
+      <c r="U29" s="12" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V29" s="12">
         <f t="shared" si="27"/>
         <v>-2.800460530319937E-2</v>
       </c>
-      <c r="V29" s="12">
-        <f>+V9/U9-1</f>
-        <v>2.021994077514111E-2</v>
-      </c>
       <c r="W29" s="12">
         <f>+W9/V9-1</f>
+        <v>2.021994077514111E-2</v>
+      </c>
+      <c r="X29" s="12">
+        <f>+X9/W9-1</f>
         <v>6.425511782832749E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:84" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>52</v>
       </c>
@@ -3923,63 +4027,67 @@
         <f t="shared" si="29"/>
         <v>0.47177600374758455</v>
       </c>
-      <c r="O30" s="4"/>
+      <c r="O30" s="11">
+        <f t="shared" ref="O30" si="30">O12/O9</f>
+        <v>0.4815868555051615</v>
+      </c>
       <c r="P30" s="4"/>
-      <c r="Q30" s="11" t="e">
-        <f t="shared" ref="Q30:W30" si="30">Q12/Q9</f>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="11" t="e">
+        <f t="shared" ref="R30:X30" si="31">R12/R9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R30" s="11" t="e">
-        <f t="shared" si="30"/>
+      <c r="S30" s="11" t="e">
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S30" s="11" t="e">
-        <f t="shared" si="30"/>
+      <c r="T30" s="11" t="e">
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T30" s="11">
-        <f t="shared" si="30"/>
+      <c r="U30" s="11">
+        <f t="shared" si="31"/>
         <v>0.43309630561360085</v>
       </c>
-      <c r="U30" s="11">
-        <f t="shared" si="30"/>
+      <c r="V30" s="11">
+        <f t="shared" si="31"/>
         <v>0.44131129577207562</v>
       </c>
-      <c r="V30" s="11">
-        <f t="shared" si="30"/>
+      <c r="W30" s="11">
+        <f t="shared" si="31"/>
         <v>0.46206349815233932</v>
       </c>
-      <c r="W30" s="11">
-        <f t="shared" si="30"/>
+      <c r="X30" s="11">
+        <f t="shared" si="31"/>
         <v>0.46905164107160452</v>
       </c>
     </row>
-    <row r="31" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:84" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C31" s="11" t="e">
-        <f t="shared" ref="C31:H31" si="31">C15/C9</f>
+        <f t="shared" ref="C31:H31" si="32">C15/C9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D31" s="11" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E31" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.28115945572576012</v>
       </c>
       <c r="F31" s="11" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G31" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.33763746602550698</v>
       </c>
       <c r="H31" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.30742785362467356</v>
       </c>
       <c r="I31" s="11">
@@ -3991,78 +4099,82 @@
         <v>0.31171389444854103</v>
       </c>
       <c r="K31" s="11">
-        <f t="shared" ref="K31:N31" si="32">K15/K9</f>
+        <f t="shared" ref="K31:N31" si="33">K15/K9</f>
         <v>0.34458567980691873</v>
       </c>
       <c r="L31" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.31029058610094484</v>
       </c>
       <c r="M31" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.29990641881832492</v>
       </c>
       <c r="N31" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.31646594968086977</v>
       </c>
-      <c r="O31" s="4"/>
+      <c r="O31" s="11">
+        <f t="shared" ref="O31" si="34">O15/O9</f>
+        <v>0.35373827875010433</v>
+      </c>
       <c r="P31" s="4"/>
-      <c r="Q31" s="11" t="e">
-        <f t="shared" ref="Q31:W31" si="33">Q15/Q9</f>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="11" t="e">
+        <f t="shared" ref="R31:X31" si="35">R15/R9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R31" s="11" t="e">
-        <f t="shared" si="33"/>
+      <c r="S31" s="11" t="e">
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S31" s="11" t="e">
-        <f t="shared" si="33"/>
+      <c r="T31" s="11" t="e">
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T31" s="11">
-        <f t="shared" si="33"/>
+      <c r="U31" s="11">
+        <f t="shared" si="35"/>
         <v>0.30288744395528594</v>
       </c>
-      <c r="U31" s="11">
-        <f t="shared" si="33"/>
+      <c r="V31" s="11">
+        <f t="shared" si="35"/>
         <v>0.29821412265024722</v>
       </c>
-      <c r="V31" s="11">
-        <f t="shared" si="33"/>
+      <c r="W31" s="11">
+        <f t="shared" si="35"/>
         <v>0.31510222870075566</v>
       </c>
-      <c r="W31" s="11">
-        <f t="shared" si="33"/>
+      <c r="X31" s="11">
+        <f t="shared" si="35"/>
         <v>0.31970799762591884</v>
       </c>
     </row>
-    <row r="32" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:84" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C32" s="11" t="e">
-        <f t="shared" ref="C32:H32" si="34">C18/C17</f>
+        <f t="shared" ref="C32:H32" si="36">C18/C17</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D32" s="11" t="e">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E32" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.12545638499098227</v>
       </c>
       <c r="F32" s="11" t="e">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G32" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.15889194752374575</v>
       </c>
       <c r="H32" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.1576021099151757</v>
       </c>
       <c r="I32" s="11">
@@ -4074,53 +4186,57 @@
         <v>0.50233029381965555</v>
       </c>
       <c r="K32" s="11">
-        <f t="shared" ref="K32:N32" si="35">K18/K17</f>
+        <f t="shared" ref="K32:N32" si="37">K18/K17</f>
         <v>0.14686267142588766</v>
       </c>
       <c r="L32" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.15455475946775846</v>
       </c>
       <c r="M32" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.16399700331775535</v>
       </c>
       <c r="N32" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.16272405804170223</v>
       </c>
-      <c r="O32" s="4"/>
+      <c r="O32" s="11">
+        <f t="shared" ref="O32" si="38">O18/O17</f>
+        <v>0.17460099603937101</v>
+      </c>
       <c r="P32" s="4"/>
-      <c r="Q32" s="11" t="e">
-        <f t="shared" ref="Q32:W32" si="36">Q18/Q17</f>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="11" t="e">
+        <f t="shared" ref="R32:X32" si="39">R18/R17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R32" s="11" t="e">
-        <f t="shared" si="36"/>
+      <c r="S32" s="11" t="e">
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S32" s="11" t="e">
-        <f t="shared" si="36"/>
+      <c r="T32" s="11" t="e">
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T32" s="11">
-        <f t="shared" si="36"/>
+      <c r="U32" s="11">
+        <f t="shared" si="39"/>
         <v>0.16204461684424407</v>
       </c>
-      <c r="U32" s="11">
-        <f t="shared" si="36"/>
+      <c r="V32" s="11">
+        <f t="shared" si="39"/>
         <v>0.14719174228036858</v>
       </c>
-      <c r="V32" s="11">
-        <f t="shared" si="36"/>
+      <c r="W32" s="11">
+        <f t="shared" si="39"/>
         <v>0.24091185164189982</v>
       </c>
-      <c r="W32" s="11">
-        <f t="shared" si="36"/>
+      <c r="X32" s="11">
+        <f t="shared" si="39"/>
         <v>0.15610002335586043</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -4141,8 +4257,9 @@
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
       <c r="V33" s="4"/>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="4"/>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>55</v>
       </c>
@@ -4174,8 +4291,9 @@
       <c r="T34" s="4"/>
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="4"/>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>56</v>
       </c>
@@ -4207,8 +4325,9 @@
       <c r="T35" s="4"/>
       <c r="U35" s="4"/>
       <c r="V35" s="4"/>
-    </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="4"/>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>57</v>
       </c>
@@ -4240,8 +4359,9 @@
       <c r="T36" s="4"/>
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W36" s="4"/>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>58</v>
       </c>
@@ -4273,8 +4393,9 @@
       <c r="T37" s="4"/>
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
-    </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W37" s="4"/>
+    </row>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>59</v>
       </c>
@@ -4306,8 +4427,9 @@
       <c r="T38" s="4"/>
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="4"/>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
         <v>60</v>
       </c>
@@ -4339,17 +4461,18 @@
       <c r="T39" s="4"/>
       <c r="U39" s="4"/>
       <c r="V39" s="4"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="4"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C40" s="4">
-        <f t="shared" ref="C40:H40" si="37">SUM(C34:C39)</f>
+        <f t="shared" ref="C40:H40" si="40">SUM(C34:C39)</f>
         <v>0</v>
       </c>
       <c r="D40" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="E40" s="4">
@@ -4357,15 +4480,15 @@
         <v>143566</v>
       </c>
       <c r="F40" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="G40" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="H40" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>152987</v>
       </c>
       <c r="I40" s="4">
@@ -4391,8 +4514,9 @@
       <c r="T40" s="4"/>
       <c r="U40" s="4"/>
       <c r="V40" s="4"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="4"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
         <v>56</v>
       </c>
@@ -4424,8 +4548,9 @@
       <c r="T41" s="4"/>
       <c r="U41" s="4"/>
       <c r="V41" s="4"/>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="4"/>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
         <v>62</v>
       </c>
@@ -4457,8 +4582,9 @@
       <c r="T42" s="4"/>
       <c r="U42" s="4"/>
       <c r="V42" s="4"/>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="4"/>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
         <v>60</v>
       </c>
@@ -4490,33 +4616,34 @@
       <c r="T43" s="4"/>
       <c r="U43" s="4"/>
       <c r="V43" s="4"/>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="4"/>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C44" s="4">
-        <f t="shared" ref="C44:H44" si="38">SUM(C41:C43)</f>
+        <f t="shared" ref="C44:H44" si="41">SUM(C41:C43)</f>
         <v>0</v>
       </c>
       <c r="D44" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="E44" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>209017</v>
       </c>
       <c r="F44" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="G44" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="H44" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>211993</v>
       </c>
       <c r="I44" s="4">
@@ -4524,15 +4651,15 @@
         <v>206177</v>
       </c>
       <c r="J44" s="4">
-        <f t="shared" ref="J44:L44" si="39">SUM(J41:J43)</f>
+        <f t="shared" ref="J44:L44" si="42">SUM(J41:J43)</f>
         <v>0</v>
       </c>
       <c r="K44" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="L44" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>212559</v>
       </c>
       <c r="M44" s="4"/>
@@ -4545,49 +4672,50 @@
       <c r="T44" s="4"/>
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="4"/>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C45" s="9">
-        <f t="shared" ref="C45:I45" si="40">C44+C40</f>
+        <f t="shared" ref="C45:I45" si="43">C44+C40</f>
         <v>0</v>
       </c>
       <c r="D45" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="E45" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>352583</v>
       </c>
       <c r="F45" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="G45" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="H45" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>364980</v>
       </c>
       <c r="I45" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>331612</v>
       </c>
       <c r="J45" s="9">
-        <f t="shared" ref="J45:L45" si="41">J44+J40</f>
+        <f t="shared" ref="J45:L45" si="44">J44+J40</f>
         <v>0</v>
       </c>
       <c r="K45" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="L45" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>331233</v>
       </c>
       <c r="M45" s="4"/>
@@ -4600,8 +4728,9 @@
       <c r="T45" s="4"/>
       <c r="U45" s="4"/>
       <c r="V45" s="4"/>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="4"/>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
         <v>65</v>
       </c>
@@ -4633,8 +4762,9 @@
       <c r="T46" s="4"/>
       <c r="U46" s="4"/>
       <c r="V46" s="4"/>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="4"/>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B47" s="2" t="s">
         <v>60</v>
       </c>
@@ -4666,8 +4796,9 @@
       <c r="T47" s="4"/>
       <c r="U47" s="4"/>
       <c r="V47" s="4"/>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="4"/>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
         <v>66</v>
       </c>
@@ -4699,8 +4830,9 @@
       <c r="T48" s="4"/>
       <c r="U48" s="4"/>
       <c r="V48" s="4"/>
-    </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="4"/>
+    </row>
+    <row r="49" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
         <v>67</v>
       </c>
@@ -4732,8 +4864,9 @@
       <c r="T49" s="4"/>
       <c r="U49" s="4"/>
       <c r="V49" s="4"/>
-    </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="4"/>
+    </row>
+    <row r="50" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
         <v>68</v>
       </c>
@@ -4765,33 +4898,34 @@
       <c r="T50" s="4"/>
       <c r="U50" s="4"/>
       <c r="V50" s="4"/>
-    </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="4"/>
+    </row>
+    <row r="51" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C51" s="4">
-        <f t="shared" ref="C51:H51" si="42">SUM(C46:C50)</f>
+        <f t="shared" ref="C51:H51" si="45">SUM(C46:C50)</f>
         <v>0</v>
       </c>
       <c r="D51" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="E51" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>145308</v>
       </c>
       <c r="F51" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="G51" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="H51" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>176392</v>
       </c>
       <c r="I51" s="4">
@@ -4799,15 +4933,15 @@
         <v>131624</v>
       </c>
       <c r="J51" s="4">
-        <f t="shared" ref="J51:L51" si="43">SUM(J46:J50)</f>
+        <f t="shared" ref="J51:L51" si="46">SUM(J46:J50)</f>
         <v>0</v>
       </c>
       <c r="K51" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="L51" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>144571</v>
       </c>
       <c r="M51" s="4"/>
@@ -4820,8 +4954,9 @@
       <c r="T51" s="4"/>
       <c r="U51" s="4"/>
       <c r="V51" s="4"/>
-    </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="4"/>
+    </row>
+    <row r="52" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
         <v>68</v>
       </c>
@@ -4853,8 +4988,9 @@
       <c r="T52" s="4"/>
       <c r="U52" s="4"/>
       <c r="V52" s="4"/>
-    </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="4"/>
+    </row>
+    <row r="53" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
         <v>60</v>
       </c>
@@ -4886,33 +5022,34 @@
       <c r="T53" s="4"/>
       <c r="U53" s="4"/>
       <c r="V53" s="4"/>
-    </row>
-    <row r="54" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="4"/>
+    </row>
+    <row r="54" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C54" s="4">
-        <f t="shared" ref="C54:H54" si="44">SUM(C52:C53)</f>
+        <f t="shared" ref="C54:H54" si="47">SUM(C52:C53)</f>
         <v>0</v>
       </c>
       <c r="D54" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="E54" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>145129</v>
       </c>
       <c r="F54" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="G54" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="H54" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>131638</v>
       </c>
       <c r="I54" s="4">
@@ -4938,46 +5075,47 @@
       <c r="T54" s="4"/>
       <c r="U54" s="4"/>
       <c r="V54" s="4"/>
-    </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="4"/>
+    </row>
+    <row r="55" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C55" s="9">
-        <f t="shared" ref="C55:I55" si="45">C54+C51</f>
+        <f t="shared" ref="C55:I55" si="48">C54+C51</f>
         <v>0</v>
       </c>
       <c r="D55" s="9">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="E55" s="9">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>290437</v>
       </c>
       <c r="F55" s="9">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="G55" s="9">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="H55" s="9">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>308030</v>
       </c>
       <c r="I55" s="9">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>264904</v>
       </c>
       <c r="J55" s="4"/>
       <c r="K55" s="9">
-        <f t="shared" ref="K55:L55" si="46">K54+K51</f>
+        <f t="shared" ref="K55:L55" si="49">K54+K51</f>
         <v>0</v>
       </c>
       <c r="L55" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>264437</v>
       </c>
       <c r="M55" s="4"/>
@@ -4990,8 +5128,9 @@
       <c r="T55" s="4"/>
       <c r="U55" s="4"/>
       <c r="V55" s="4"/>
-    </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="4"/>
+    </row>
+    <row r="56" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
         <v>71</v>
       </c>
@@ -5023,49 +5162,50 @@
       <c r="T56" s="4"/>
       <c r="U56" s="4"/>
       <c r="V56" s="4"/>
-    </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="4"/>
+    </row>
+    <row r="57" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C57" s="9">
-        <f t="shared" ref="C57:I57" si="47">C55+C56</f>
+        <f t="shared" ref="C57:I57" si="50">C55+C56</f>
         <v>0</v>
       </c>
       <c r="D57" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="E57" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>352583</v>
       </c>
       <c r="F57" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="G57" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="H57" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>364980</v>
       </c>
       <c r="I57" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>331612</v>
       </c>
       <c r="J57" s="9">
-        <f t="shared" ref="J57:L57" si="48">J55+J56</f>
+        <f t="shared" ref="J57:L57" si="51">J55+J56</f>
         <v>0</v>
       </c>
       <c r="K57" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="L57" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>331233</v>
       </c>
       <c r="M57" s="4"/>
@@ -5078,8 +5218,9 @@
       <c r="T57" s="4"/>
       <c r="U57" s="4"/>
       <c r="V57" s="4"/>
-    </row>
-    <row r="58" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="4"/>
+    </row>
+    <row r="58" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -5100,8 +5241,9 @@
       <c r="T58" s="4"/>
       <c r="U58" s="4"/>
       <c r="V58" s="4"/>
-    </row>
-    <row r="59" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="4"/>
+    </row>
+    <row r="59" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -5122,8 +5264,9 @@
       <c r="T59" s="4"/>
       <c r="U59" s="4"/>
       <c r="V59" s="4"/>
-    </row>
-    <row r="60" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="4"/>
+    </row>
+    <row r="60" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
         <v>74</v>
       </c>
@@ -5155,8 +5298,9 @@
       <c r="T60" s="4"/>
       <c r="U60" s="4"/>
       <c r="V60" s="4"/>
-    </row>
-    <row r="61" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="4"/>
+    </row>
+    <row r="61" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
         <v>75</v>
       </c>
@@ -5188,33 +5332,34 @@
       <c r="T61" s="4"/>
       <c r="U61" s="4"/>
       <c r="V61" s="4"/>
-    </row>
-    <row r="62" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="4"/>
+    </row>
+    <row r="62" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C62" s="4">
-        <f t="shared" ref="C62" si="49">C60-C61</f>
+        <f t="shared" ref="C62" si="52">C60-C61</f>
         <v>0</v>
       </c>
       <c r="D62" s="4">
-        <f t="shared" ref="D62:H62" si="50">+D60+D61</f>
+        <f t="shared" ref="D62:H62" si="53">+D60+D61</f>
         <v>0</v>
       </c>
       <c r="E62" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>80149</v>
       </c>
       <c r="F62" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="G62" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="H62" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>58197</v>
       </c>
       <c r="I62" s="4">
@@ -5222,15 +5367,15 @@
         <v>84904</v>
       </c>
       <c r="J62" s="4">
-        <f t="shared" ref="J62:L62" si="51">+J60+J61</f>
+        <f t="shared" ref="J62:L62" si="54">+J60+J61</f>
         <v>0</v>
       </c>
       <c r="K62" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="L62" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>47876</v>
       </c>
       <c r="M62" s="4"/>
@@ -5243,8 +5388,9 @@
       <c r="T62" s="4"/>
       <c r="U62" s="4"/>
       <c r="V62" s="4"/>
-    </row>
-    <row r="63" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="4"/>
+    </row>
+    <row r="63" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
@@ -5265,8 +5411,9 @@
       <c r="T63" s="4"/>
       <c r="U63" s="4"/>
       <c r="V63" s="4"/>
-    </row>
-    <row r="64" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="4"/>
+    </row>
+    <row r="64" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
@@ -5287,8 +5434,9 @@
       <c r="T64" s="4"/>
       <c r="U64" s="4"/>
       <c r="V64" s="4"/>
-    </row>
-    <row r="65" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="4"/>
+    </row>
+    <row r="65" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
@@ -5309,8 +5457,9 @@
       <c r="T65" s="4"/>
       <c r="U65" s="4"/>
       <c r="V65" s="4"/>
-    </row>
-    <row r="66" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="4"/>
+    </row>
+    <row r="66" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
@@ -5331,8 +5480,9 @@
       <c r="T66" s="4"/>
       <c r="U66" s="4"/>
       <c r="V66" s="4"/>
-    </row>
-    <row r="67" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="4"/>
+    </row>
+    <row r="67" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
@@ -5353,8 +5503,9 @@
       <c r="T67" s="4"/>
       <c r="U67" s="4"/>
       <c r="V67" s="4"/>
-    </row>
-    <row r="68" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="4"/>
+    </row>
+    <row r="68" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
@@ -5375,8 +5526,9 @@
       <c r="T68" s="4"/>
       <c r="U68" s="4"/>
       <c r="V68" s="4"/>
-    </row>
-    <row r="69" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="4"/>
+    </row>
+    <row r="69" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
@@ -5397,8 +5549,9 @@
       <c r="T69" s="4"/>
       <c r="U69" s="4"/>
       <c r="V69" s="4"/>
-    </row>
-    <row r="70" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="4"/>
+    </row>
+    <row r="70" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
@@ -5419,8 +5572,9 @@
       <c r="T70" s="4"/>
       <c r="U70" s="4"/>
       <c r="V70" s="4"/>
-    </row>
-    <row r="71" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="4"/>
+    </row>
+    <row r="71" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
@@ -5441,8 +5595,9 @@
       <c r="T71" s="4"/>
       <c r="U71" s="4"/>
       <c r="V71" s="4"/>
-    </row>
-    <row r="72" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="4"/>
+    </row>
+    <row r="72" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
@@ -5463,8 +5618,9 @@
       <c r="T72" s="4"/>
       <c r="U72" s="4"/>
       <c r="V72" s="4"/>
-    </row>
-    <row r="73" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="4"/>
+    </row>
+    <row r="73" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
@@ -5485,8 +5641,9 @@
       <c r="T73" s="4"/>
       <c r="U73" s="4"/>
       <c r="V73" s="4"/>
-    </row>
-    <row r="74" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="4"/>
+    </row>
+    <row r="74" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
@@ -5507,8 +5664,9 @@
       <c r="T74" s="4"/>
       <c r="U74" s="4"/>
       <c r="V74" s="4"/>
-    </row>
-    <row r="75" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="4"/>
+    </row>
+    <row r="75" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
@@ -5529,8 +5687,9 @@
       <c r="T75" s="4"/>
       <c r="U75" s="4"/>
       <c r="V75" s="4"/>
-    </row>
-    <row r="76" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="4"/>
+    </row>
+    <row r="76" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
@@ -5551,8 +5710,9 @@
       <c r="T76" s="4"/>
       <c r="U76" s="4"/>
       <c r="V76" s="4"/>
-    </row>
-    <row r="77" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="4"/>
+    </row>
+    <row r="77" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
@@ -5573,8 +5733,9 @@
       <c r="T77" s="4"/>
       <c r="U77" s="4"/>
       <c r="V77" s="4"/>
-    </row>
-    <row r="78" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="4"/>
+    </row>
+    <row r="78" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
@@ -5595,8 +5756,9 @@
       <c r="T78" s="4"/>
       <c r="U78" s="4"/>
       <c r="V78" s="4"/>
-    </row>
-    <row r="79" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W78" s="4"/>
+    </row>
+    <row r="79" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
@@ -5617,8 +5779,9 @@
       <c r="T79" s="4"/>
       <c r="U79" s="4"/>
       <c r="V79" s="4"/>
-    </row>
-    <row r="80" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W79" s="4"/>
+    </row>
+    <row r="80" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
@@ -5639,8 +5802,9 @@
       <c r="T80" s="4"/>
       <c r="U80" s="4"/>
       <c r="V80" s="4"/>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="4"/>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
@@ -5661,8 +5825,9 @@
       <c r="T81" s="4"/>
       <c r="U81" s="4"/>
       <c r="V81" s="4"/>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="4"/>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
@@ -5683,8 +5848,9 @@
       <c r="T82" s="4"/>
       <c r="U82" s="4"/>
       <c r="V82" s="4"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="4"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
@@ -5705,8 +5871,9 @@
       <c r="T83" s="4"/>
       <c r="U83" s="4"/>
       <c r="V83" s="4"/>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="4"/>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
@@ -5727,8 +5894,9 @@
       <c r="T84" s="4"/>
       <c r="U84" s="4"/>
       <c r="V84" s="4"/>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="4"/>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
@@ -5749,8 +5917,9 @@
       <c r="T85" s="4"/>
       <c r="U85" s="4"/>
       <c r="V85" s="4"/>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="4"/>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
@@ -5771,8 +5940,9 @@
       <c r="T86" s="4"/>
       <c r="U86" s="4"/>
       <c r="V86" s="4"/>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="4"/>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -5793,8 +5963,9 @@
       <c r="T87" s="4"/>
       <c r="U87" s="4"/>
       <c r="V87" s="4"/>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="4"/>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
@@ -5815,8 +5986,9 @@
       <c r="T88" s="4"/>
       <c r="U88" s="4"/>
       <c r="V88" s="4"/>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="4"/>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
@@ -5837,8 +6009,9 @@
       <c r="T89" s="4"/>
       <c r="U89" s="4"/>
       <c r="V89" s="4"/>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="4"/>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -5859,8 +6032,9 @@
       <c r="T90" s="4"/>
       <c r="U90" s="4"/>
       <c r="V90" s="4"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="4"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
@@ -5881,8 +6055,9 @@
       <c r="T91" s="4"/>
       <c r="U91" s="4"/>
       <c r="V91" s="4"/>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="4"/>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
@@ -5903,8 +6078,9 @@
       <c r="T92" s="4"/>
       <c r="U92" s="4"/>
       <c r="V92" s="4"/>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="4"/>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
@@ -5925,8 +6101,9 @@
       <c r="T93" s="4"/>
       <c r="U93" s="4"/>
       <c r="V93" s="4"/>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="4"/>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
@@ -5947,8 +6124,9 @@
       <c r="T94" s="4"/>
       <c r="U94" s="4"/>
       <c r="V94" s="4"/>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="4"/>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
@@ -5969,8 +6147,9 @@
       <c r="T95" s="4"/>
       <c r="U95" s="4"/>
       <c r="V95" s="4"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="4"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
@@ -5991,8 +6170,9 @@
       <c r="T96" s="4"/>
       <c r="U96" s="4"/>
       <c r="V96" s="4"/>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="4"/>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
@@ -6013,8 +6193,9 @@
       <c r="T97" s="4"/>
       <c r="U97" s="4"/>
       <c r="V97" s="4"/>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="4"/>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
@@ -6035,8 +6216,9 @@
       <c r="T98" s="4"/>
       <c r="U98" s="4"/>
       <c r="V98" s="4"/>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="4"/>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
@@ -6057,8 +6239,9 @@
       <c r="T99" s="4"/>
       <c r="U99" s="4"/>
       <c r="V99" s="4"/>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="4"/>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
@@ -6079,8 +6262,9 @@
       <c r="T100" s="4"/>
       <c r="U100" s="4"/>
       <c r="V100" s="4"/>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="4"/>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
@@ -6101,8 +6285,9 @@
       <c r="T101" s="4"/>
       <c r="U101" s="4"/>
       <c r="V101" s="4"/>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="4"/>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
@@ -6123,8 +6308,9 @@
       <c r="T102" s="4"/>
       <c r="U102" s="4"/>
       <c r="V102" s="4"/>
-    </row>
-    <row r="103" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W102" s="4"/>
+    </row>
+    <row r="103" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
@@ -6145,8 +6331,9 @@
       <c r="T103" s="4"/>
       <c r="U103" s="4"/>
       <c r="V103" s="4"/>
-    </row>
-    <row r="104" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W103" s="4"/>
+    </row>
+    <row r="104" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
@@ -6167,8 +6354,9 @@
       <c r="T104" s="4"/>
       <c r="U104" s="4"/>
       <c r="V104" s="4"/>
-    </row>
-    <row r="105" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W104" s="4"/>
+    </row>
+    <row r="105" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
@@ -6189,8 +6377,9 @@
       <c r="T105" s="4"/>
       <c r="U105" s="4"/>
       <c r="V105" s="4"/>
-    </row>
-    <row r="106" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W105" s="4"/>
+    </row>
+    <row r="106" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
@@ -6211,8 +6400,9 @@
       <c r="T106" s="4"/>
       <c r="U106" s="4"/>
       <c r="V106" s="4"/>
-    </row>
-    <row r="107" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W106" s="4"/>
+    </row>
+    <row r="107" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
@@ -6233,8 +6423,9 @@
       <c r="T107" s="4"/>
       <c r="U107" s="4"/>
       <c r="V107" s="4"/>
-    </row>
-    <row r="108" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W107" s="4"/>
+    </row>
+    <row r="108" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
@@ -6255,8 +6446,9 @@
       <c r="T108" s="4"/>
       <c r="U108" s="4"/>
       <c r="V108" s="4"/>
-    </row>
-    <row r="109" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W108" s="4"/>
+    </row>
+    <row r="109" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
@@ -6277,8 +6469,9 @@
       <c r="T109" s="4"/>
       <c r="U109" s="4"/>
       <c r="V109" s="4"/>
-    </row>
-    <row r="110" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W109" s="4"/>
+    </row>
+    <row r="110" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
@@ -6299,8 +6492,9 @@
       <c r="T110" s="4"/>
       <c r="U110" s="4"/>
       <c r="V110" s="4"/>
-    </row>
-    <row r="111" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W110" s="4"/>
+    </row>
+    <row r="111" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
@@ -6321,8 +6515,9 @@
       <c r="T111" s="4"/>
       <c r="U111" s="4"/>
       <c r="V111" s="4"/>
-    </row>
-    <row r="112" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W111" s="4"/>
+    </row>
+    <row r="112" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
@@ -6343,8 +6538,9 @@
       <c r="T112" s="4"/>
       <c r="U112" s="4"/>
       <c r="V112" s="4"/>
-    </row>
-    <row r="113" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W112" s="4"/>
+    </row>
+    <row r="113" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
@@ -6365,8 +6561,9 @@
       <c r="T113" s="4"/>
       <c r="U113" s="4"/>
       <c r="V113" s="4"/>
-    </row>
-    <row r="114" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W113" s="4"/>
+    </row>
+    <row r="114" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
@@ -6387,8 +6584,9 @@
       <c r="T114" s="4"/>
       <c r="U114" s="4"/>
       <c r="V114" s="4"/>
-    </row>
-    <row r="115" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W114" s="4"/>
+    </row>
+    <row r="115" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
@@ -6409,8 +6607,9 @@
       <c r="T115" s="4"/>
       <c r="U115" s="4"/>
       <c r="V115" s="4"/>
-    </row>
-    <row r="116" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W115" s="4"/>
+    </row>
+    <row r="116" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
@@ -6431,8 +6630,9 @@
       <c r="T116" s="4"/>
       <c r="U116" s="4"/>
       <c r="V116" s="4"/>
-    </row>
-    <row r="117" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W116" s="4"/>
+    </row>
+    <row r="117" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
@@ -6453,8 +6653,9 @@
       <c r="T117" s="4"/>
       <c r="U117" s="4"/>
       <c r="V117" s="4"/>
-    </row>
-    <row r="118" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W117" s="4"/>
+    </row>
+    <row r="118" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
@@ -6475,8 +6676,9 @@
       <c r="T118" s="4"/>
       <c r="U118" s="4"/>
       <c r="V118" s="4"/>
-    </row>
-    <row r="119" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W118" s="4"/>
+    </row>
+    <row r="119" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
@@ -6497,8 +6699,9 @@
       <c r="T119" s="4"/>
       <c r="U119" s="4"/>
       <c r="V119" s="4"/>
-    </row>
-    <row r="120" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W119" s="4"/>
+    </row>
+    <row r="120" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
@@ -6519,8 +6722,9 @@
       <c r="T120" s="4"/>
       <c r="U120" s="4"/>
       <c r="V120" s="4"/>
-    </row>
-    <row r="121" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W120" s="4"/>
+    </row>
+    <row r="121" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
@@ -6541,8 +6745,9 @@
       <c r="T121" s="4"/>
       <c r="U121" s="4"/>
       <c r="V121" s="4"/>
-    </row>
-    <row r="122" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W121" s="4"/>
+    </row>
+    <row r="122" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
@@ -6563,8 +6768,9 @@
       <c r="T122" s="4"/>
       <c r="U122" s="4"/>
       <c r="V122" s="4"/>
-    </row>
-    <row r="123" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W122" s="4"/>
+    </row>
+    <row r="123" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
@@ -6585,8 +6791,9 @@
       <c r="T123" s="4"/>
       <c r="U123" s="4"/>
       <c r="V123" s="4"/>
-    </row>
-    <row r="124" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W123" s="4"/>
+    </row>
+    <row r="124" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
@@ -6607,8 +6814,9 @@
       <c r="T124" s="4"/>
       <c r="U124" s="4"/>
       <c r="V124" s="4"/>
-    </row>
-    <row r="125" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W124" s="4"/>
+    </row>
+    <row r="125" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
@@ -6629,8 +6837,9 @@
       <c r="T125" s="4"/>
       <c r="U125" s="4"/>
       <c r="V125" s="4"/>
-    </row>
-    <row r="126" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W125" s="4"/>
+    </row>
+    <row r="126" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
@@ -6651,8 +6860,9 @@
       <c r="T126" s="4"/>
       <c r="U126" s="4"/>
       <c r="V126" s="4"/>
-    </row>
-    <row r="127" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W126" s="4"/>
+    </row>
+    <row r="127" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
@@ -6673,8 +6883,9 @@
       <c r="T127" s="4"/>
       <c r="U127" s="4"/>
       <c r="V127" s="4"/>
-    </row>
-    <row r="128" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W127" s="4"/>
+    </row>
+    <row r="128" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
@@ -6695,8 +6906,9 @@
       <c r="T128" s="4"/>
       <c r="U128" s="4"/>
       <c r="V128" s="4"/>
-    </row>
-    <row r="129" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W128" s="4"/>
+    </row>
+    <row r="129" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
@@ -6717,8 +6929,9 @@
       <c r="T129" s="4"/>
       <c r="U129" s="4"/>
       <c r="V129" s="4"/>
-    </row>
-    <row r="130" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W129" s="4"/>
+    </row>
+    <row r="130" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
@@ -6739,8 +6952,9 @@
       <c r="T130" s="4"/>
       <c r="U130" s="4"/>
       <c r="V130" s="4"/>
-    </row>
-    <row r="131" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W130" s="4"/>
+    </row>
+    <row r="131" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
@@ -6761,8 +6975,9 @@
       <c r="T131" s="4"/>
       <c r="U131" s="4"/>
       <c r="V131" s="4"/>
-    </row>
-    <row r="132" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W131" s="4"/>
+    </row>
+    <row r="132" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
@@ -6783,8 +6998,9 @@
       <c r="T132" s="4"/>
       <c r="U132" s="4"/>
       <c r="V132" s="4"/>
-    </row>
-    <row r="133" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W132" s="4"/>
+    </row>
+    <row r="133" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
@@ -6805,8 +7021,9 @@
       <c r="T133" s="4"/>
       <c r="U133" s="4"/>
       <c r="V133" s="4"/>
-    </row>
-    <row r="134" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W133" s="4"/>
+    </row>
+    <row r="134" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
@@ -6827,8 +7044,9 @@
       <c r="T134" s="4"/>
       <c r="U134" s="4"/>
       <c r="V134" s="4"/>
-    </row>
-    <row r="135" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W134" s="4"/>
+    </row>
+    <row r="135" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
@@ -6849,8 +7067,9 @@
       <c r="T135" s="4"/>
       <c r="U135" s="4"/>
       <c r="V135" s="4"/>
-    </row>
-    <row r="136" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W135" s="4"/>
+    </row>
+    <row r="136" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
@@ -6871,8 +7090,9 @@
       <c r="T136" s="4"/>
       <c r="U136" s="4"/>
       <c r="V136" s="4"/>
-    </row>
-    <row r="137" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W136" s="4"/>
+    </row>
+    <row r="137" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
@@ -6893,8 +7113,9 @@
       <c r="T137" s="4"/>
       <c r="U137" s="4"/>
       <c r="V137" s="4"/>
-    </row>
-    <row r="138" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W137" s="4"/>
+    </row>
+    <row r="138" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
@@ -6915,8 +7136,9 @@
       <c r="T138" s="4"/>
       <c r="U138" s="4"/>
       <c r="V138" s="4"/>
-    </row>
-    <row r="139" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W138" s="4"/>
+    </row>
+    <row r="139" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
@@ -6937,8 +7159,9 @@
       <c r="T139" s="4"/>
       <c r="U139" s="4"/>
       <c r="V139" s="4"/>
-    </row>
-    <row r="140" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W139" s="4"/>
+    </row>
+    <row r="140" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
@@ -6959,8 +7182,9 @@
       <c r="T140" s="4"/>
       <c r="U140" s="4"/>
       <c r="V140" s="4"/>
-    </row>
-    <row r="141" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W140" s="4"/>
+    </row>
+    <row r="141" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
@@ -6981,8 +7205,9 @@
       <c r="T141" s="4"/>
       <c r="U141" s="4"/>
       <c r="V141" s="4"/>
-    </row>
-    <row r="142" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W141" s="4"/>
+    </row>
+    <row r="142" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
@@ -7003,8 +7228,9 @@
       <c r="T142" s="4"/>
       <c r="U142" s="4"/>
       <c r="V142" s="4"/>
-    </row>
-    <row r="143" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W142" s="4"/>
+    </row>
+    <row r="143" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
@@ -7025,8 +7251,9 @@
       <c r="T143" s="4"/>
       <c r="U143" s="4"/>
       <c r="V143" s="4"/>
-    </row>
-    <row r="144" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W143" s="4"/>
+    </row>
+    <row r="144" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
@@ -7047,8 +7274,9 @@
       <c r="T144" s="4"/>
       <c r="U144" s="4"/>
       <c r="V144" s="4"/>
-    </row>
-    <row r="145" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W144" s="4"/>
+    </row>
+    <row r="145" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
@@ -7069,8 +7297,9 @@
       <c r="T145" s="4"/>
       <c r="U145" s="4"/>
       <c r="V145" s="4"/>
-    </row>
-    <row r="146" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W145" s="4"/>
+    </row>
+    <row r="146" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
@@ -7091,8 +7320,9 @@
       <c r="T146" s="4"/>
       <c r="U146" s="4"/>
       <c r="V146" s="4"/>
-    </row>
-    <row r="147" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W146" s="4"/>
+    </row>
+    <row r="147" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
@@ -7113,8 +7343,9 @@
       <c r="T147" s="4"/>
       <c r="U147" s="4"/>
       <c r="V147" s="4"/>
-    </row>
-    <row r="148" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W147" s="4"/>
+    </row>
+    <row r="148" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
@@ -7135,8 +7366,9 @@
       <c r="T148" s="4"/>
       <c r="U148" s="4"/>
       <c r="V148" s="4"/>
-    </row>
-    <row r="149" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W148" s="4"/>
+    </row>
+    <row r="149" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
@@ -7157,8 +7389,9 @@
       <c r="T149" s="4"/>
       <c r="U149" s="4"/>
       <c r="V149" s="4"/>
-    </row>
-    <row r="150" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W149" s="4"/>
+    </row>
+    <row r="150" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
@@ -7179,8 +7412,9 @@
       <c r="T150" s="4"/>
       <c r="U150" s="4"/>
       <c r="V150" s="4"/>
-    </row>
-    <row r="151" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W150" s="4"/>
+    </row>
+    <row r="151" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
@@ -7201,8 +7435,9 @@
       <c r="T151" s="4"/>
       <c r="U151" s="4"/>
       <c r="V151" s="4"/>
-    </row>
-    <row r="152" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W151" s="4"/>
+    </row>
+    <row r="152" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
@@ -7223,8 +7458,9 @@
       <c r="T152" s="4"/>
       <c r="U152" s="4"/>
       <c r="V152" s="4"/>
-    </row>
-    <row r="153" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W152" s="4"/>
+    </row>
+    <row r="153" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
@@ -7245,8 +7481,9 @@
       <c r="T153" s="4"/>
       <c r="U153" s="4"/>
       <c r="V153" s="4"/>
-    </row>
-    <row r="154" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W153" s="4"/>
+    </row>
+    <row r="154" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
@@ -7267,8 +7504,9 @@
       <c r="T154" s="4"/>
       <c r="U154" s="4"/>
       <c r="V154" s="4"/>
-    </row>
-    <row r="155" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W154" s="4"/>
+    </row>
+    <row r="155" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
@@ -7289,8 +7527,9 @@
       <c r="T155" s="4"/>
       <c r="U155" s="4"/>
       <c r="V155" s="4"/>
-    </row>
-    <row r="156" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W155" s="4"/>
+    </row>
+    <row r="156" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
@@ -7311,8 +7550,9 @@
       <c r="T156" s="4"/>
       <c r="U156" s="4"/>
       <c r="V156" s="4"/>
-    </row>
-    <row r="157" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W156" s="4"/>
+    </row>
+    <row r="157" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
@@ -7333,8 +7573,9 @@
       <c r="T157" s="4"/>
       <c r="U157" s="4"/>
       <c r="V157" s="4"/>
-    </row>
-    <row r="158" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W157" s="4"/>
+    </row>
+    <row r="158" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
@@ -7355,8 +7596,9 @@
       <c r="T158" s="4"/>
       <c r="U158" s="4"/>
       <c r="V158" s="4"/>
-    </row>
-    <row r="159" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W158" s="4"/>
+    </row>
+    <row r="159" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
@@ -7377,8 +7619,9 @@
       <c r="T159" s="4"/>
       <c r="U159" s="4"/>
       <c r="V159" s="4"/>
-    </row>
-    <row r="160" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W159" s="4"/>
+    </row>
+    <row r="160" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
@@ -7399,8 +7642,9 @@
       <c r="T160" s="4"/>
       <c r="U160" s="4"/>
       <c r="V160" s="4"/>
-    </row>
-    <row r="161" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W160" s="4"/>
+    </row>
+    <row r="161" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
@@ -7421,8 +7665,9 @@
       <c r="T161" s="4"/>
       <c r="U161" s="4"/>
       <c r="V161" s="4"/>
-    </row>
-    <row r="162" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W161" s="4"/>
+    </row>
+    <row r="162" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
@@ -7443,8 +7688,9 @@
       <c r="T162" s="4"/>
       <c r="U162" s="4"/>
       <c r="V162" s="4"/>
-    </row>
-    <row r="163" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W162" s="4"/>
+    </row>
+    <row r="163" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
@@ -7465,8 +7711,9 @@
       <c r="T163" s="4"/>
       <c r="U163" s="4"/>
       <c r="V163" s="4"/>
-    </row>
-    <row r="164" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W163" s="4"/>
+    </row>
+    <row r="164" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
@@ -7487,8 +7734,9 @@
       <c r="T164" s="4"/>
       <c r="U164" s="4"/>
       <c r="V164" s="4"/>
-    </row>
-    <row r="165" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W164" s="4"/>
+    </row>
+    <row r="165" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
@@ -7509,8 +7757,9 @@
       <c r="T165" s="4"/>
       <c r="U165" s="4"/>
       <c r="V165" s="4"/>
-    </row>
-    <row r="166" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W165" s="4"/>
+    </row>
+    <row r="166" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
@@ -7531,8 +7780,9 @@
       <c r="T166" s="4"/>
       <c r="U166" s="4"/>
       <c r="V166" s="4"/>
-    </row>
-    <row r="167" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W166" s="4"/>
+    </row>
+    <row r="167" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
@@ -7553,8 +7803,9 @@
       <c r="T167" s="4"/>
       <c r="U167" s="4"/>
       <c r="V167" s="4"/>
-    </row>
-    <row r="168" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W167" s="4"/>
+    </row>
+    <row r="168" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
@@ -7575,8 +7826,9 @@
       <c r="T168" s="4"/>
       <c r="U168" s="4"/>
       <c r="V168" s="4"/>
-    </row>
-    <row r="169" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W168" s="4"/>
+    </row>
+    <row r="169" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
@@ -7597,8 +7849,9 @@
       <c r="T169" s="4"/>
       <c r="U169" s="4"/>
       <c r="V169" s="4"/>
-    </row>
-    <row r="170" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W169" s="4"/>
+    </row>
+    <row r="170" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
@@ -7619,8 +7872,9 @@
       <c r="T170" s="4"/>
       <c r="U170" s="4"/>
       <c r="V170" s="4"/>
-    </row>
-    <row r="171" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W170" s="4"/>
+    </row>
+    <row r="171" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
@@ -7641,8 +7895,9 @@
       <c r="T171" s="4"/>
       <c r="U171" s="4"/>
       <c r="V171" s="4"/>
-    </row>
-    <row r="172" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W171" s="4"/>
+    </row>
+    <row r="172" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
@@ -7663,8 +7918,9 @@
       <c r="T172" s="4"/>
       <c r="U172" s="4"/>
       <c r="V172" s="4"/>
-    </row>
-    <row r="173" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W172" s="4"/>
+    </row>
+    <row r="173" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
@@ -7685,8 +7941,9 @@
       <c r="T173" s="4"/>
       <c r="U173" s="4"/>
       <c r="V173" s="4"/>
-    </row>
-    <row r="174" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W173" s="4"/>
+    </row>
+    <row r="174" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
@@ -7707,8 +7964,9 @@
       <c r="T174" s="4"/>
       <c r="U174" s="4"/>
       <c r="V174" s="4"/>
-    </row>
-    <row r="175" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W174" s="4"/>
+    </row>
+    <row r="175" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
@@ -7729,8 +7987,9 @@
       <c r="T175" s="4"/>
       <c r="U175" s="4"/>
       <c r="V175" s="4"/>
-    </row>
-    <row r="176" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W175" s="4"/>
+    </row>
+    <row r="176" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
@@ -7751,8 +8010,9 @@
       <c r="T176" s="4"/>
       <c r="U176" s="4"/>
       <c r="V176" s="4"/>
-    </row>
-    <row r="177" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W176" s="4"/>
+    </row>
+    <row r="177" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
@@ -7773,8 +8033,9 @@
       <c r="T177" s="4"/>
       <c r="U177" s="4"/>
       <c r="V177" s="4"/>
-    </row>
-    <row r="178" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W177" s="4"/>
+    </row>
+    <row r="178" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="4"/>
@@ -7795,8 +8056,9 @@
       <c r="T178" s="4"/>
       <c r="U178" s="4"/>
       <c r="V178" s="4"/>
-    </row>
-    <row r="179" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W178" s="4"/>
+    </row>
+    <row r="179" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
@@ -7817,8 +8079,9 @@
       <c r="T179" s="4"/>
       <c r="U179" s="4"/>
       <c r="V179" s="4"/>
-    </row>
-    <row r="180" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W179" s="4"/>
+    </row>
+    <row r="180" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="4"/>
@@ -7839,8 +8102,9 @@
       <c r="T180" s="4"/>
       <c r="U180" s="4"/>
       <c r="V180" s="4"/>
-    </row>
-    <row r="181" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W180" s="4"/>
+    </row>
+    <row r="181" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="4"/>
@@ -7861,8 +8125,9 @@
       <c r="T181" s="4"/>
       <c r="U181" s="4"/>
       <c r="V181" s="4"/>
-    </row>
-    <row r="182" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W181" s="4"/>
+    </row>
+    <row r="182" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
       <c r="E182" s="4"/>
@@ -7883,8 +8148,9 @@
       <c r="T182" s="4"/>
       <c r="U182" s="4"/>
       <c r="V182" s="4"/>
-    </row>
-    <row r="183" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W182" s="4"/>
+    </row>
+    <row r="183" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
       <c r="E183" s="4"/>
@@ -7905,8 +8171,9 @@
       <c r="T183" s="4"/>
       <c r="U183" s="4"/>
       <c r="V183" s="4"/>
-    </row>
-    <row r="184" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W183" s="4"/>
+    </row>
+    <row r="184" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
@@ -7927,8 +8194,9 @@
       <c r="T184" s="4"/>
       <c r="U184" s="4"/>
       <c r="V184" s="4"/>
-    </row>
-    <row r="185" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W184" s="4"/>
+    </row>
+    <row r="185" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
@@ -7949,8 +8217,9 @@
       <c r="T185" s="4"/>
       <c r="U185" s="4"/>
       <c r="V185" s="4"/>
-    </row>
-    <row r="186" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W185" s="4"/>
+    </row>
+    <row r="186" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
       <c r="E186" s="4"/>
@@ -7971,8 +8240,9 @@
       <c r="T186" s="4"/>
       <c r="U186" s="4"/>
       <c r="V186" s="4"/>
-    </row>
-    <row r="187" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W186" s="4"/>
+    </row>
+    <row r="187" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
@@ -7993,8 +8263,9 @@
       <c r="T187" s="4"/>
       <c r="U187" s="4"/>
       <c r="V187" s="4"/>
-    </row>
-    <row r="188" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W187" s="4"/>
+    </row>
+    <row r="188" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
       <c r="E188" s="4"/>
@@ -8015,8 +8286,9 @@
       <c r="T188" s="4"/>
       <c r="U188" s="4"/>
       <c r="V188" s="4"/>
-    </row>
-    <row r="189" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W188" s="4"/>
+    </row>
+    <row r="189" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="4"/>
@@ -8037,8 +8309,9 @@
       <c r="T189" s="4"/>
       <c r="U189" s="4"/>
       <c r="V189" s="4"/>
-    </row>
-    <row r="190" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W189" s="4"/>
+    </row>
+    <row r="190" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
       <c r="E190" s="4"/>
@@ -8059,8 +8332,9 @@
       <c r="T190" s="4"/>
       <c r="U190" s="4"/>
       <c r="V190" s="4"/>
-    </row>
-    <row r="191" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W190" s="4"/>
+    </row>
+    <row r="191" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
       <c r="E191" s="4"/>
@@ -8081,8 +8355,9 @@
       <c r="T191" s="4"/>
       <c r="U191" s="4"/>
       <c r="V191" s="4"/>
-    </row>
-    <row r="192" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W191" s="4"/>
+    </row>
+    <row r="192" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
       <c r="E192" s="4"/>
@@ -8103,8 +8378,9 @@
       <c r="T192" s="4"/>
       <c r="U192" s="4"/>
       <c r="V192" s="4"/>
-    </row>
-    <row r="193" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W192" s="4"/>
+    </row>
+    <row r="193" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
       <c r="E193" s="4"/>
@@ -8125,8 +8401,9 @@
       <c r="T193" s="4"/>
       <c r="U193" s="4"/>
       <c r="V193" s="4"/>
-    </row>
-    <row r="194" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W193" s="4"/>
+    </row>
+    <row r="194" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
       <c r="E194" s="4"/>
@@ -8147,8 +8424,9 @@
       <c r="T194" s="4"/>
       <c r="U194" s="4"/>
       <c r="V194" s="4"/>
-    </row>
-    <row r="195" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W194" s="4"/>
+    </row>
+    <row r="195" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
       <c r="E195" s="4"/>
@@ -8169,8 +8447,9 @@
       <c r="T195" s="4"/>
       <c r="U195" s="4"/>
       <c r="V195" s="4"/>
-    </row>
-    <row r="196" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W195" s="4"/>
+    </row>
+    <row r="196" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
       <c r="E196" s="4"/>
@@ -8191,8 +8470,9 @@
       <c r="T196" s="4"/>
       <c r="U196" s="4"/>
       <c r="V196" s="4"/>
-    </row>
-    <row r="197" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W196" s="4"/>
+    </row>
+    <row r="197" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
       <c r="E197" s="4"/>
@@ -8213,8 +8493,9 @@
       <c r="T197" s="4"/>
       <c r="U197" s="4"/>
       <c r="V197" s="4"/>
-    </row>
-    <row r="198" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W197" s="4"/>
+    </row>
+    <row r="198" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
       <c r="E198" s="4"/>
@@ -8235,8 +8516,9 @@
       <c r="T198" s="4"/>
       <c r="U198" s="4"/>
       <c r="V198" s="4"/>
-    </row>
-    <row r="199" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W198" s="4"/>
+    </row>
+    <row r="199" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
       <c r="E199" s="4"/>
@@ -8257,8 +8539,9 @@
       <c r="T199" s="4"/>
       <c r="U199" s="4"/>
       <c r="V199" s="4"/>
-    </row>
-    <row r="200" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W199" s="4"/>
+    </row>
+    <row r="200" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
       <c r="E200" s="4"/>
@@ -8279,8 +8562,9 @@
       <c r="T200" s="4"/>
       <c r="U200" s="4"/>
       <c r="V200" s="4"/>
-    </row>
-    <row r="201" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W200" s="4"/>
+    </row>
+    <row r="201" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
       <c r="E201" s="4"/>
@@ -8301,8 +8585,9 @@
       <c r="T201" s="4"/>
       <c r="U201" s="4"/>
       <c r="V201" s="4"/>
-    </row>
-    <row r="202" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W201" s="4"/>
+    </row>
+    <row r="202" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
       <c r="E202" s="4"/>
@@ -8323,8 +8608,9 @@
       <c r="T202" s="4"/>
       <c r="U202" s="4"/>
       <c r="V202" s="4"/>
-    </row>
-    <row r="203" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W202" s="4"/>
+    </row>
+    <row r="203" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
       <c r="E203" s="4"/>
@@ -8345,8 +8631,9 @@
       <c r="T203" s="4"/>
       <c r="U203" s="4"/>
       <c r="V203" s="4"/>
-    </row>
-    <row r="204" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W203" s="4"/>
+    </row>
+    <row r="204" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
       <c r="E204" s="4"/>
@@ -8367,8 +8654,9 @@
       <c r="T204" s="4"/>
       <c r="U204" s="4"/>
       <c r="V204" s="4"/>
-    </row>
-    <row r="205" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W204" s="4"/>
+    </row>
+    <row r="205" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
       <c r="E205" s="4"/>
@@ -8389,8 +8677,9 @@
       <c r="T205" s="4"/>
       <c r="U205" s="4"/>
       <c r="V205" s="4"/>
-    </row>
-    <row r="206" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W205" s="4"/>
+    </row>
+    <row r="206" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
       <c r="E206" s="4"/>
@@ -8411,8 +8700,9 @@
       <c r="T206" s="4"/>
       <c r="U206" s="4"/>
       <c r="V206" s="4"/>
-    </row>
-    <row r="207" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W206" s="4"/>
+    </row>
+    <row r="207" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
@@ -8433,8 +8723,9 @@
       <c r="T207" s="4"/>
       <c r="U207" s="4"/>
       <c r="V207" s="4"/>
-    </row>
-    <row r="208" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W207" s="4"/>
+    </row>
+    <row r="208" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
       <c r="E208" s="4"/>
@@ -8455,8 +8746,9 @@
       <c r="T208" s="4"/>
       <c r="U208" s="4"/>
       <c r="V208" s="4"/>
-    </row>
-    <row r="209" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W208" s="4"/>
+    </row>
+    <row r="209" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
       <c r="E209" s="4"/>
@@ -8477,8 +8769,9 @@
       <c r="T209" s="4"/>
       <c r="U209" s="4"/>
       <c r="V209" s="4"/>
-    </row>
-    <row r="210" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W209" s="4"/>
+    </row>
+    <row r="210" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
       <c r="E210" s="4"/>
@@ -8499,8 +8792,9 @@
       <c r="T210" s="4"/>
       <c r="U210" s="4"/>
       <c r="V210" s="4"/>
-    </row>
-    <row r="211" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W210" s="4"/>
+    </row>
+    <row r="211" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
       <c r="E211" s="4"/>
@@ -8521,8 +8815,9 @@
       <c r="T211" s="4"/>
       <c r="U211" s="4"/>
       <c r="V211" s="4"/>
-    </row>
-    <row r="212" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W211" s="4"/>
+    </row>
+    <row r="212" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
       <c r="E212" s="4"/>
@@ -8543,8 +8838,9 @@
       <c r="T212" s="4"/>
       <c r="U212" s="4"/>
       <c r="V212" s="4"/>
-    </row>
-    <row r="213" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W212" s="4"/>
+    </row>
+    <row r="213" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
       <c r="E213" s="4"/>
@@ -8565,8 +8861,9 @@
       <c r="T213" s="4"/>
       <c r="U213" s="4"/>
       <c r="V213" s="4"/>
-    </row>
-    <row r="214" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W213" s="4"/>
+    </row>
+    <row r="214" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
       <c r="E214" s="4"/>
@@ -8587,8 +8884,9 @@
       <c r="T214" s="4"/>
       <c r="U214" s="4"/>
       <c r="V214" s="4"/>
-    </row>
-    <row r="215" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W214" s="4"/>
+    </row>
+    <row r="215" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
       <c r="E215" s="4"/>
@@ -8609,8 +8907,9 @@
       <c r="T215" s="4"/>
       <c r="U215" s="4"/>
       <c r="V215" s="4"/>
-    </row>
-    <row r="216" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W215" s="4"/>
+    </row>
+    <row r="216" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
       <c r="E216" s="4"/>
@@ -8631,8 +8930,9 @@
       <c r="T216" s="4"/>
       <c r="U216" s="4"/>
       <c r="V216" s="4"/>
-    </row>
-    <row r="217" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W216" s="4"/>
+    </row>
+    <row r="217" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
       <c r="E217" s="4"/>
@@ -8653,8 +8953,9 @@
       <c r="T217" s="4"/>
       <c r="U217" s="4"/>
       <c r="V217" s="4"/>
-    </row>
-    <row r="218" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W217" s="4"/>
+    </row>
+    <row r="218" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
       <c r="E218" s="4"/>
@@ -8675,8 +8976,9 @@
       <c r="T218" s="4"/>
       <c r="U218" s="4"/>
       <c r="V218" s="4"/>
-    </row>
-    <row r="219" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W218" s="4"/>
+    </row>
+    <row r="219" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
@@ -8697,8 +8999,9 @@
       <c r="T219" s="4"/>
       <c r="U219" s="4"/>
       <c r="V219" s="4"/>
-    </row>
-    <row r="220" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W219" s="4"/>
+    </row>
+    <row r="220" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
       <c r="E220" s="4"/>
@@ -8719,8 +9022,9 @@
       <c r="T220" s="4"/>
       <c r="U220" s="4"/>
       <c r="V220" s="4"/>
-    </row>
-    <row r="221" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W220" s="4"/>
+    </row>
+    <row r="221" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
@@ -8741,8 +9045,9 @@
       <c r="T221" s="4"/>
       <c r="U221" s="4"/>
       <c r="V221" s="4"/>
-    </row>
-    <row r="222" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W221" s="4"/>
+    </row>
+    <row r="222" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
       <c r="E222" s="4"/>
@@ -8763,8 +9068,9 @@
       <c r="T222" s="4"/>
       <c r="U222" s="4"/>
       <c r="V222" s="4"/>
-    </row>
-    <row r="223" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W222" s="4"/>
+    </row>
+    <row r="223" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
       <c r="E223" s="4"/>
@@ -8785,8 +9091,9 @@
       <c r="T223" s="4"/>
       <c r="U223" s="4"/>
       <c r="V223" s="4"/>
-    </row>
-    <row r="224" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W223" s="4"/>
+    </row>
+    <row r="224" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
       <c r="E224" s="4"/>
@@ -8807,8 +9114,9 @@
       <c r="T224" s="4"/>
       <c r="U224" s="4"/>
       <c r="V224" s="4"/>
-    </row>
-    <row r="225" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W224" s="4"/>
+    </row>
+    <row r="225" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="4"/>
@@ -8829,8 +9137,9 @@
       <c r="T225" s="4"/>
       <c r="U225" s="4"/>
       <c r="V225" s="4"/>
-    </row>
-    <row r="226" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W225" s="4"/>
+    </row>
+    <row r="226" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
       <c r="E226" s="4"/>
@@ -8851,8 +9160,9 @@
       <c r="T226" s="4"/>
       <c r="U226" s="4"/>
       <c r="V226" s="4"/>
-    </row>
-    <row r="227" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W226" s="4"/>
+    </row>
+    <row r="227" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
       <c r="E227" s="4"/>
@@ -8873,8 +9183,9 @@
       <c r="T227" s="4"/>
       <c r="U227" s="4"/>
       <c r="V227" s="4"/>
-    </row>
-    <row r="228" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W227" s="4"/>
+    </row>
+    <row r="228" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
       <c r="E228" s="4"/>
@@ -8895,8 +9206,9 @@
       <c r="T228" s="4"/>
       <c r="U228" s="4"/>
       <c r="V228" s="4"/>
-    </row>
-    <row r="229" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W228" s="4"/>
+    </row>
+    <row r="229" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
       <c r="E229" s="4"/>
@@ -8917,8 +9229,9 @@
       <c r="T229" s="4"/>
       <c r="U229" s="4"/>
       <c r="V229" s="4"/>
-    </row>
-    <row r="230" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W229" s="4"/>
+    </row>
+    <row r="230" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
       <c r="E230" s="4"/>
@@ -8939,8 +9252,9 @@
       <c r="T230" s="4"/>
       <c r="U230" s="4"/>
       <c r="V230" s="4"/>
-    </row>
-    <row r="231" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W230" s="4"/>
+    </row>
+    <row r="231" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
       <c r="E231" s="4"/>
@@ -8961,8 +9275,9 @@
       <c r="T231" s="4"/>
       <c r="U231" s="4"/>
       <c r="V231" s="4"/>
-    </row>
-    <row r="232" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W231" s="4"/>
+    </row>
+    <row r="232" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
       <c r="E232" s="4"/>
@@ -8983,8 +9298,9 @@
       <c r="T232" s="4"/>
       <c r="U232" s="4"/>
       <c r="V232" s="4"/>
-    </row>
-    <row r="233" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W232" s="4"/>
+    </row>
+    <row r="233" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
       <c r="E233" s="4"/>
@@ -9005,8 +9321,9 @@
       <c r="T233" s="4"/>
       <c r="U233" s="4"/>
       <c r="V233" s="4"/>
-    </row>
-    <row r="234" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W233" s="4"/>
+    </row>
+    <row r="234" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
       <c r="E234" s="4"/>
@@ -9027,8 +9344,9 @@
       <c r="T234" s="4"/>
       <c r="U234" s="4"/>
       <c r="V234" s="4"/>
-    </row>
-    <row r="235" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W234" s="4"/>
+    </row>
+    <row r="235" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
       <c r="E235" s="4"/>
@@ -9049,8 +9367,9 @@
       <c r="T235" s="4"/>
       <c r="U235" s="4"/>
       <c r="V235" s="4"/>
-    </row>
-    <row r="236" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W235" s="4"/>
+    </row>
+    <row r="236" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
       <c r="E236" s="4"/>
@@ -9071,8 +9390,9 @@
       <c r="T236" s="4"/>
       <c r="U236" s="4"/>
       <c r="V236" s="4"/>
-    </row>
-    <row r="237" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W236" s="4"/>
+    </row>
+    <row r="237" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
       <c r="E237" s="4"/>
@@ -9093,8 +9413,9 @@
       <c r="T237" s="4"/>
       <c r="U237" s="4"/>
       <c r="V237" s="4"/>
-    </row>
-    <row r="238" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W237" s="4"/>
+    </row>
+    <row r="238" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
       <c r="E238" s="4"/>
@@ -9115,8 +9436,9 @@
       <c r="T238" s="4"/>
       <c r="U238" s="4"/>
       <c r="V238" s="4"/>
-    </row>
-    <row r="239" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W238" s="4"/>
+    </row>
+    <row r="239" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
       <c r="E239" s="4"/>
@@ -9137,8 +9459,9 @@
       <c r="T239" s="4"/>
       <c r="U239" s="4"/>
       <c r="V239" s="4"/>
-    </row>
-    <row r="240" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W239" s="4"/>
+    </row>
+    <row r="240" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
       <c r="E240" s="4"/>
@@ -9159,8 +9482,9 @@
       <c r="T240" s="4"/>
       <c r="U240" s="4"/>
       <c r="V240" s="4"/>
-    </row>
-    <row r="241" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W240" s="4"/>
+    </row>
+    <row r="241" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
       <c r="E241" s="4"/>
@@ -9181,8 +9505,9 @@
       <c r="T241" s="4"/>
       <c r="U241" s="4"/>
       <c r="V241" s="4"/>
-    </row>
-    <row r="242" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W241" s="4"/>
+    </row>
+    <row r="242" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
       <c r="E242" s="4"/>
@@ -9203,8 +9528,9 @@
       <c r="T242" s="4"/>
       <c r="U242" s="4"/>
       <c r="V242" s="4"/>
-    </row>
-    <row r="243" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W242" s="4"/>
+    </row>
+    <row r="243" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
       <c r="E243" s="4"/>
@@ -9225,8 +9551,9 @@
       <c r="T243" s="4"/>
       <c r="U243" s="4"/>
       <c r="V243" s="4"/>
-    </row>
-    <row r="244" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W243" s="4"/>
+    </row>
+    <row r="244" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
       <c r="E244" s="4"/>
@@ -9247,8 +9574,9 @@
       <c r="T244" s="4"/>
       <c r="U244" s="4"/>
       <c r="V244" s="4"/>
-    </row>
-    <row r="245" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W244" s="4"/>
+    </row>
+    <row r="245" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
       <c r="E245" s="4"/>
@@ -9269,8 +9597,9 @@
       <c r="T245" s="4"/>
       <c r="U245" s="4"/>
       <c r="V245" s="4"/>
-    </row>
-    <row r="246" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W245" s="4"/>
+    </row>
+    <row r="246" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
       <c r="E246" s="4"/>
@@ -9291,8 +9620,9 @@
       <c r="T246" s="4"/>
       <c r="U246" s="4"/>
       <c r="V246" s="4"/>
-    </row>
-    <row r="247" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W246" s="4"/>
+    </row>
+    <row r="247" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
       <c r="E247" s="4"/>
@@ -9313,8 +9643,9 @@
       <c r="T247" s="4"/>
       <c r="U247" s="4"/>
       <c r="V247" s="4"/>
-    </row>
-    <row r="248" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W247" s="4"/>
+    </row>
+    <row r="248" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
       <c r="E248" s="4"/>
@@ -9335,8 +9666,9 @@
       <c r="T248" s="4"/>
       <c r="U248" s="4"/>
       <c r="V248" s="4"/>
-    </row>
-    <row r="249" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W248" s="4"/>
+    </row>
+    <row r="249" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
       <c r="E249" s="4"/>
@@ -9357,8 +9689,9 @@
       <c r="T249" s="4"/>
       <c r="U249" s="4"/>
       <c r="V249" s="4"/>
-    </row>
-    <row r="250" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W249" s="4"/>
+    </row>
+    <row r="250" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
       <c r="E250" s="4"/>
@@ -9379,8 +9712,9 @@
       <c r="T250" s="4"/>
       <c r="U250" s="4"/>
       <c r="V250" s="4"/>
-    </row>
-    <row r="251" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W250" s="4"/>
+    </row>
+    <row r="251" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
       <c r="E251" s="4"/>
@@ -9401,8 +9735,9 @@
       <c r="T251" s="4"/>
       <c r="U251" s="4"/>
       <c r="V251" s="4"/>
-    </row>
-    <row r="252" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W251" s="4"/>
+    </row>
+    <row r="252" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
       <c r="E252" s="4"/>
@@ -9423,8 +9758,9 @@
       <c r="T252" s="4"/>
       <c r="U252" s="4"/>
       <c r="V252" s="4"/>
-    </row>
-    <row r="253" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W252" s="4"/>
+    </row>
+    <row r="253" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
       <c r="E253" s="4"/>
@@ -9445,8 +9781,9 @@
       <c r="T253" s="4"/>
       <c r="U253" s="4"/>
       <c r="V253" s="4"/>
-    </row>
-    <row r="254" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W253" s="4"/>
+    </row>
+    <row r="254" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
       <c r="E254" s="4"/>
@@ -9467,8 +9804,9 @@
       <c r="T254" s="4"/>
       <c r="U254" s="4"/>
       <c r="V254" s="4"/>
-    </row>
-    <row r="255" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W254" s="4"/>
+    </row>
+    <row r="255" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
       <c r="E255" s="4"/>
@@ -9489,8 +9827,9 @@
       <c r="T255" s="4"/>
       <c r="U255" s="4"/>
       <c r="V255" s="4"/>
-    </row>
-    <row r="256" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W255" s="4"/>
+    </row>
+    <row r="256" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
       <c r="E256" s="4"/>
@@ -9511,8 +9850,9 @@
       <c r="T256" s="4"/>
       <c r="U256" s="4"/>
       <c r="V256" s="4"/>
-    </row>
-    <row r="257" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W256" s="4"/>
+    </row>
+    <row r="257" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
       <c r="E257" s="4"/>
@@ -9533,8 +9873,9 @@
       <c r="T257" s="4"/>
       <c r="U257" s="4"/>
       <c r="V257" s="4"/>
-    </row>
-    <row r="258" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W257" s="4"/>
+    </row>
+    <row r="258" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
       <c r="E258" s="4"/>
@@ -9555,8 +9896,9 @@
       <c r="T258" s="4"/>
       <c r="U258" s="4"/>
       <c r="V258" s="4"/>
-    </row>
-    <row r="259" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W258" s="4"/>
+    </row>
+    <row r="259" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
       <c r="E259" s="4"/>
@@ -9577,8 +9919,9 @@
       <c r="T259" s="4"/>
       <c r="U259" s="4"/>
       <c r="V259" s="4"/>
-    </row>
-    <row r="260" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W259" s="4"/>
+    </row>
+    <row r="260" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
       <c r="E260" s="4"/>
@@ -9599,8 +9942,9 @@
       <c r="T260" s="4"/>
       <c r="U260" s="4"/>
       <c r="V260" s="4"/>
-    </row>
-    <row r="261" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W260" s="4"/>
+    </row>
+    <row r="261" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
       <c r="E261" s="4"/>
@@ -9621,8 +9965,9 @@
       <c r="T261" s="4"/>
       <c r="U261" s="4"/>
       <c r="V261" s="4"/>
-    </row>
-    <row r="262" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W261" s="4"/>
+    </row>
+    <row r="262" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
       <c r="E262" s="4"/>
@@ -9643,8 +9988,9 @@
       <c r="T262" s="4"/>
       <c r="U262" s="4"/>
       <c r="V262" s="4"/>
-    </row>
-    <row r="263" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W262" s="4"/>
+    </row>
+    <row r="263" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
       <c r="E263" s="4"/>
@@ -9665,8 +10011,9 @@
       <c r="T263" s="4"/>
       <c r="U263" s="4"/>
       <c r="V263" s="4"/>
-    </row>
-    <row r="264" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W263" s="4"/>
+    </row>
+    <row r="264" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
       <c r="E264" s="4"/>
@@ -9687,8 +10034,9 @@
       <c r="T264" s="4"/>
       <c r="U264" s="4"/>
       <c r="V264" s="4"/>
-    </row>
-    <row r="265" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W264" s="4"/>
+    </row>
+    <row r="265" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
       <c r="E265" s="4"/>
@@ -9709,8 +10057,9 @@
       <c r="T265" s="4"/>
       <c r="U265" s="4"/>
       <c r="V265" s="4"/>
-    </row>
-    <row r="266" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W265" s="4"/>
+    </row>
+    <row r="266" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
       <c r="E266" s="4"/>
@@ -9731,8 +10080,9 @@
       <c r="T266" s="4"/>
       <c r="U266" s="4"/>
       <c r="V266" s="4"/>
-    </row>
-    <row r="267" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W266" s="4"/>
+    </row>
+    <row r="267" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
       <c r="E267" s="4"/>
@@ -9753,8 +10103,9 @@
       <c r="T267" s="4"/>
       <c r="U267" s="4"/>
       <c r="V267" s="4"/>
-    </row>
-    <row r="268" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W267" s="4"/>
+    </row>
+    <row r="268" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C268" s="4"/>
       <c r="D268" s="4"/>
       <c r="E268" s="4"/>
@@ -9775,8 +10126,9 @@
       <c r="T268" s="4"/>
       <c r="U268" s="4"/>
       <c r="V268" s="4"/>
-    </row>
-    <row r="269" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W268" s="4"/>
+    </row>
+    <row r="269" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C269" s="4"/>
       <c r="D269" s="4"/>
       <c r="E269" s="4"/>
@@ -9797,8 +10149,9 @@
       <c r="T269" s="4"/>
       <c r="U269" s="4"/>
       <c r="V269" s="4"/>
-    </row>
-    <row r="270" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W269" s="4"/>
+    </row>
+    <row r="270" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C270" s="4"/>
       <c r="D270" s="4"/>
       <c r="E270" s="4"/>
@@ -9819,8 +10172,9 @@
       <c r="T270" s="4"/>
       <c r="U270" s="4"/>
       <c r="V270" s="4"/>
-    </row>
-    <row r="271" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W270" s="4"/>
+    </row>
+    <row r="271" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
       <c r="E271" s="4"/>
@@ -9841,8 +10195,9 @@
       <c r="T271" s="4"/>
       <c r="U271" s="4"/>
       <c r="V271" s="4"/>
-    </row>
-    <row r="272" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W271" s="4"/>
+    </row>
+    <row r="272" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C272" s="4"/>
       <c r="D272" s="4"/>
       <c r="E272" s="4"/>
@@ -9863,8 +10218,9 @@
       <c r="T272" s="4"/>
       <c r="U272" s="4"/>
       <c r="V272" s="4"/>
-    </row>
-    <row r="273" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W272" s="4"/>
+    </row>
+    <row r="273" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C273" s="4"/>
       <c r="D273" s="4"/>
       <c r="E273" s="4"/>
@@ -9885,8 +10241,9 @@
       <c r="T273" s="4"/>
       <c r="U273" s="4"/>
       <c r="V273" s="4"/>
-    </row>
-    <row r="274" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W273" s="4"/>
+    </row>
+    <row r="274" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C274" s="4"/>
       <c r="D274" s="4"/>
       <c r="E274" s="4"/>
@@ -9907,8 +10264,9 @@
       <c r="T274" s="4"/>
       <c r="U274" s="4"/>
       <c r="V274" s="4"/>
-    </row>
-    <row r="275" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W274" s="4"/>
+    </row>
+    <row r="275" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C275" s="4"/>
       <c r="D275" s="4"/>
       <c r="E275" s="4"/>
@@ -9929,8 +10287,9 @@
       <c r="T275" s="4"/>
       <c r="U275" s="4"/>
       <c r="V275" s="4"/>
-    </row>
-    <row r="276" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W275" s="4"/>
+    </row>
+    <row r="276" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C276" s="4"/>
       <c r="D276" s="4"/>
       <c r="E276" s="4"/>
@@ -9951,8 +10310,9 @@
       <c r="T276" s="4"/>
       <c r="U276" s="4"/>
       <c r="V276" s="4"/>
-    </row>
-    <row r="277" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W276" s="4"/>
+    </row>
+    <row r="277" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C277" s="4"/>
       <c r="D277" s="4"/>
       <c r="E277" s="4"/>
@@ -9973,8 +10333,9 @@
       <c r="T277" s="4"/>
       <c r="U277" s="4"/>
       <c r="V277" s="4"/>
-    </row>
-    <row r="278" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W277" s="4"/>
+    </row>
+    <row r="278" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C278" s="4"/>
       <c r="D278" s="4"/>
       <c r="E278" s="4"/>
@@ -9995,8 +10356,9 @@
       <c r="T278" s="4"/>
       <c r="U278" s="4"/>
       <c r="V278" s="4"/>
-    </row>
-    <row r="279" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W278" s="4"/>
+    </row>
+    <row r="279" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C279" s="4"/>
       <c r="D279" s="4"/>
       <c r="E279" s="4"/>
@@ -10017,8 +10379,9 @@
       <c r="T279" s="4"/>
       <c r="U279" s="4"/>
       <c r="V279" s="4"/>
-    </row>
-    <row r="280" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W279" s="4"/>
+    </row>
+    <row r="280" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C280" s="4"/>
       <c r="D280" s="4"/>
       <c r="E280" s="4"/>
@@ -10039,8 +10402,9 @@
       <c r="T280" s="4"/>
       <c r="U280" s="4"/>
       <c r="V280" s="4"/>
-    </row>
-    <row r="281" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W280" s="4"/>
+    </row>
+    <row r="281" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C281" s="4"/>
       <c r="D281" s="4"/>
       <c r="E281" s="4"/>
@@ -10061,8 +10425,9 @@
       <c r="T281" s="4"/>
       <c r="U281" s="4"/>
       <c r="V281" s="4"/>
-    </row>
-    <row r="282" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W281" s="4"/>
+    </row>
+    <row r="282" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C282" s="4"/>
       <c r="D282" s="4"/>
       <c r="E282" s="4"/>
@@ -10083,8 +10448,9 @@
       <c r="T282" s="4"/>
       <c r="U282" s="4"/>
       <c r="V282" s="4"/>
-    </row>
-    <row r="283" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W282" s="4"/>
+    </row>
+    <row r="283" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C283" s="4"/>
       <c r="D283" s="4"/>
       <c r="E283" s="4"/>
@@ -10105,8 +10471,9 @@
       <c r="T283" s="4"/>
       <c r="U283" s="4"/>
       <c r="V283" s="4"/>
-    </row>
-    <row r="284" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W283" s="4"/>
+    </row>
+    <row r="284" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C284" s="4"/>
       <c r="D284" s="4"/>
       <c r="E284" s="4"/>
@@ -10127,8 +10494,9 @@
       <c r="T284" s="4"/>
       <c r="U284" s="4"/>
       <c r="V284" s="4"/>
-    </row>
-    <row r="285" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W284" s="4"/>
+    </row>
+    <row r="285" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C285" s="4"/>
       <c r="D285" s="4"/>
       <c r="E285" s="4"/>
@@ -10149,8 +10517,9 @@
       <c r="T285" s="4"/>
       <c r="U285" s="4"/>
       <c r="V285" s="4"/>
-    </row>
-    <row r="286" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W285" s="4"/>
+    </row>
+    <row r="286" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C286" s="4"/>
       <c r="D286" s="4"/>
       <c r="E286" s="4"/>
@@ -10171,8 +10540,9 @@
       <c r="T286" s="4"/>
       <c r="U286" s="4"/>
       <c r="V286" s="4"/>
-    </row>
-    <row r="287" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W286" s="4"/>
+    </row>
+    <row r="287" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C287" s="4"/>
       <c r="D287" s="4"/>
       <c r="E287" s="4"/>
@@ -10193,8 +10563,9 @@
       <c r="T287" s="4"/>
       <c r="U287" s="4"/>
       <c r="V287" s="4"/>
-    </row>
-    <row r="288" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W287" s="4"/>
+    </row>
+    <row r="288" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C288" s="4"/>
       <c r="D288" s="4"/>
       <c r="E288" s="4"/>
@@ -10215,8 +10586,9 @@
       <c r="T288" s="4"/>
       <c r="U288" s="4"/>
       <c r="V288" s="4"/>
-    </row>
-    <row r="289" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W288" s="4"/>
+    </row>
+    <row r="289" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C289" s="4"/>
       <c r="D289" s="4"/>
       <c r="E289" s="4"/>
@@ -10237,8 +10609,9 @@
       <c r="T289" s="4"/>
       <c r="U289" s="4"/>
       <c r="V289" s="4"/>
-    </row>
-    <row r="290" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W289" s="4"/>
+    </row>
+    <row r="290" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C290" s="4"/>
       <c r="D290" s="4"/>
       <c r="E290" s="4"/>
@@ -10259,8 +10632,9 @@
       <c r="T290" s="4"/>
       <c r="U290" s="4"/>
       <c r="V290" s="4"/>
-    </row>
-    <row r="291" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W290" s="4"/>
+    </row>
+    <row r="291" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C291" s="4"/>
       <c r="D291" s="4"/>
       <c r="E291" s="4"/>
@@ -10281,8 +10655,9 @@
       <c r="T291" s="4"/>
       <c r="U291" s="4"/>
       <c r="V291" s="4"/>
-    </row>
-    <row r="292" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W291" s="4"/>
+    </row>
+    <row r="292" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C292" s="4"/>
       <c r="D292" s="4"/>
       <c r="E292" s="4"/>
@@ -10303,8 +10678,9 @@
       <c r="T292" s="4"/>
       <c r="U292" s="4"/>
       <c r="V292" s="4"/>
-    </row>
-    <row r="293" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W292" s="4"/>
+    </row>
+    <row r="293" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C293" s="4"/>
       <c r="D293" s="4"/>
       <c r="E293" s="4"/>
@@ -10325,8 +10701,9 @@
       <c r="T293" s="4"/>
       <c r="U293" s="4"/>
       <c r="V293" s="4"/>
-    </row>
-    <row r="294" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W293" s="4"/>
+    </row>
+    <row r="294" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C294" s="4"/>
       <c r="D294" s="4"/>
       <c r="E294" s="4"/>
@@ -10347,8 +10724,9 @@
       <c r="T294" s="4"/>
       <c r="U294" s="4"/>
       <c r="V294" s="4"/>
-    </row>
-    <row r="295" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W294" s="4"/>
+    </row>
+    <row r="295" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C295" s="4"/>
       <c r="D295" s="4"/>
       <c r="E295" s="4"/>
@@ -10369,8 +10747,9 @@
       <c r="T295" s="4"/>
       <c r="U295" s="4"/>
       <c r="V295" s="4"/>
-    </row>
-    <row r="296" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W295" s="4"/>
+    </row>
+    <row r="296" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C296" s="4"/>
       <c r="D296" s="4"/>
       <c r="E296" s="4"/>
@@ -10391,8 +10770,9 @@
       <c r="T296" s="4"/>
       <c r="U296" s="4"/>
       <c r="V296" s="4"/>
-    </row>
-    <row r="297" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W296" s="4"/>
+    </row>
+    <row r="297" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C297" s="4"/>
       <c r="D297" s="4"/>
       <c r="E297" s="4"/>
@@ -10413,8 +10793,9 @@
       <c r="T297" s="4"/>
       <c r="U297" s="4"/>
       <c r="V297" s="4"/>
-    </row>
-    <row r="298" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W297" s="4"/>
+    </row>
+    <row r="298" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C298" s="4"/>
       <c r="D298" s="4"/>
       <c r="E298" s="4"/>
@@ -10435,8 +10816,9 @@
       <c r="T298" s="4"/>
       <c r="U298" s="4"/>
       <c r="V298" s="4"/>
-    </row>
-    <row r="299" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W298" s="4"/>
+    </row>
+    <row r="299" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C299" s="4"/>
       <c r="D299" s="4"/>
       <c r="E299" s="4"/>
@@ -10457,8 +10839,9 @@
       <c r="T299" s="4"/>
       <c r="U299" s="4"/>
       <c r="V299" s="4"/>
-    </row>
-    <row r="300" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W299" s="4"/>
+    </row>
+    <row r="300" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C300" s="4"/>
       <c r="D300" s="4"/>
       <c r="E300" s="4"/>
@@ -10479,8 +10862,9 @@
       <c r="T300" s="4"/>
       <c r="U300" s="4"/>
       <c r="V300" s="4"/>
-    </row>
-    <row r="301" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W300" s="4"/>
+    </row>
+    <row r="301" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C301" s="4"/>
       <c r="D301" s="4"/>
       <c r="E301" s="4"/>
@@ -10501,8 +10885,9 @@
       <c r="T301" s="4"/>
       <c r="U301" s="4"/>
       <c r="V301" s="4"/>
-    </row>
-    <row r="302" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W301" s="4"/>
+    </row>
+    <row r="302" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C302" s="4"/>
       <c r="D302" s="4"/>
       <c r="E302" s="4"/>
@@ -10523,8 +10908,9 @@
       <c r="T302" s="4"/>
       <c r="U302" s="4"/>
       <c r="V302" s="4"/>
-    </row>
-    <row r="303" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W302" s="4"/>
+    </row>
+    <row r="303" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C303" s="4"/>
       <c r="D303" s="4"/>
       <c r="E303" s="4"/>
@@ -10545,8 +10931,9 @@
       <c r="T303" s="4"/>
       <c r="U303" s="4"/>
       <c r="V303" s="4"/>
-    </row>
-    <row r="304" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W303" s="4"/>
+    </row>
+    <row r="304" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C304" s="4"/>
       <c r="D304" s="4"/>
       <c r="E304" s="4"/>
@@ -10567,8 +10954,9 @@
       <c r="T304" s="4"/>
       <c r="U304" s="4"/>
       <c r="V304" s="4"/>
-    </row>
-    <row r="305" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W304" s="4"/>
+    </row>
+    <row r="305" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C305" s="4"/>
       <c r="D305" s="4"/>
       <c r="E305" s="4"/>
@@ -10589,8 +10977,9 @@
       <c r="T305" s="4"/>
       <c r="U305" s="4"/>
       <c r="V305" s="4"/>
-    </row>
-    <row r="306" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W305" s="4"/>
+    </row>
+    <row r="306" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C306" s="4"/>
       <c r="D306" s="4"/>
       <c r="E306" s="4"/>
@@ -10611,8 +11000,9 @@
       <c r="T306" s="4"/>
       <c r="U306" s="4"/>
       <c r="V306" s="4"/>
-    </row>
-    <row r="307" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W306" s="4"/>
+    </row>
+    <row r="307" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C307" s="4"/>
       <c r="D307" s="4"/>
       <c r="E307" s="4"/>
@@ -10633,8 +11023,9 @@
       <c r="T307" s="4"/>
       <c r="U307" s="4"/>
       <c r="V307" s="4"/>
-    </row>
-    <row r="308" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W307" s="4"/>
+    </row>
+    <row r="308" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C308" s="4"/>
       <c r="D308" s="4"/>
       <c r="E308" s="4"/>
@@ -10655,8 +11046,9 @@
       <c r="T308" s="4"/>
       <c r="U308" s="4"/>
       <c r="V308" s="4"/>
-    </row>
-    <row r="309" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W308" s="4"/>
+    </row>
+    <row r="309" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C309" s="4"/>
       <c r="D309" s="4"/>
       <c r="E309" s="4"/>
@@ -10677,8 +11069,9 @@
       <c r="T309" s="4"/>
       <c r="U309" s="4"/>
       <c r="V309" s="4"/>
-    </row>
-    <row r="310" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W309" s="4"/>
+    </row>
+    <row r="310" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C310" s="4"/>
       <c r="D310" s="4"/>
       <c r="E310" s="4"/>
@@ -10699,8 +11092,9 @@
       <c r="T310" s="4"/>
       <c r="U310" s="4"/>
       <c r="V310" s="4"/>
-    </row>
-    <row r="311" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W310" s="4"/>
+    </row>
+    <row r="311" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C311" s="4"/>
       <c r="D311" s="4"/>
       <c r="E311" s="4"/>
@@ -10721,8 +11115,9 @@
       <c r="T311" s="4"/>
       <c r="U311" s="4"/>
       <c r="V311" s="4"/>
-    </row>
-    <row r="312" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W311" s="4"/>
+    </row>
+    <row r="312" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C312" s="4"/>
       <c r="D312" s="4"/>
       <c r="E312" s="4"/>
@@ -10743,8 +11138,9 @@
       <c r="T312" s="4"/>
       <c r="U312" s="4"/>
       <c r="V312" s="4"/>
-    </row>
-    <row r="313" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W312" s="4"/>
+    </row>
+    <row r="313" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C313" s="4"/>
       <c r="D313" s="4"/>
       <c r="E313" s="4"/>
@@ -10765,8 +11161,9 @@
       <c r="T313" s="4"/>
       <c r="U313" s="4"/>
       <c r="V313" s="4"/>
-    </row>
-    <row r="314" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W313" s="4"/>
+    </row>
+    <row r="314" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C314" s="4"/>
       <c r="D314" s="4"/>
       <c r="E314" s="4"/>
@@ -10787,8 +11184,9 @@
       <c r="T314" s="4"/>
       <c r="U314" s="4"/>
       <c r="V314" s="4"/>
-    </row>
-    <row r="315" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W314" s="4"/>
+    </row>
+    <row r="315" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C315" s="4"/>
       <c r="D315" s="4"/>
       <c r="E315" s="4"/>
@@ -10809,8 +11207,9 @@
       <c r="T315" s="4"/>
       <c r="U315" s="4"/>
       <c r="V315" s="4"/>
-    </row>
-    <row r="316" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W315" s="4"/>
+    </row>
+    <row r="316" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C316" s="4"/>
       <c r="D316" s="4"/>
       <c r="E316" s="4"/>
@@ -10831,8 +11230,9 @@
       <c r="T316" s="4"/>
       <c r="U316" s="4"/>
       <c r="V316" s="4"/>
-    </row>
-    <row r="317" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W316" s="4"/>
+    </row>
+    <row r="317" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C317" s="4"/>
       <c r="D317" s="4"/>
       <c r="E317" s="4"/>
@@ -10853,8 +11253,9 @@
       <c r="T317" s="4"/>
       <c r="U317" s="4"/>
       <c r="V317" s="4"/>
-    </row>
-    <row r="318" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W317" s="4"/>
+    </row>
+    <row r="318" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C318" s="4"/>
       <c r="D318" s="4"/>
       <c r="E318" s="4"/>
@@ -10875,8 +11276,9 @@
       <c r="T318" s="4"/>
       <c r="U318" s="4"/>
       <c r="V318" s="4"/>
-    </row>
-    <row r="319" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W318" s="4"/>
+    </row>
+    <row r="319" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C319" s="4"/>
       <c r="D319" s="4"/>
       <c r="E319" s="4"/>
@@ -10897,8 +11299,9 @@
       <c r="T319" s="4"/>
       <c r="U319" s="4"/>
       <c r="V319" s="4"/>
-    </row>
-    <row r="320" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W319" s="4"/>
+    </row>
+    <row r="320" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C320" s="4"/>
       <c r="D320" s="4"/>
       <c r="E320" s="4"/>
@@ -10919,8 +11322,9 @@
       <c r="T320" s="4"/>
       <c r="U320" s="4"/>
       <c r="V320" s="4"/>
-    </row>
-    <row r="321" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W320" s="4"/>
+    </row>
+    <row r="321" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C321" s="4"/>
       <c r="D321" s="4"/>
       <c r="E321" s="4"/>
@@ -10941,8 +11345,9 @@
       <c r="T321" s="4"/>
       <c r="U321" s="4"/>
       <c r="V321" s="4"/>
-    </row>
-    <row r="322" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W321" s="4"/>
+    </row>
+    <row r="322" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C322" s="4"/>
       <c r="D322" s="4"/>
       <c r="E322" s="4"/>
@@ -10963,8 +11368,9 @@
       <c r="T322" s="4"/>
       <c r="U322" s="4"/>
       <c r="V322" s="4"/>
-    </row>
-    <row r="323" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W322" s="4"/>
+    </row>
+    <row r="323" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C323" s="4"/>
       <c r="D323" s="4"/>
       <c r="E323" s="4"/>
@@ -10985,8 +11391,9 @@
       <c r="T323" s="4"/>
       <c r="U323" s="4"/>
       <c r="V323" s="4"/>
-    </row>
-    <row r="324" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W323" s="4"/>
+    </row>
+    <row r="324" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C324" s="4"/>
       <c r="D324" s="4"/>
       <c r="E324" s="4"/>
@@ -11007,8 +11414,9 @@
       <c r="T324" s="4"/>
       <c r="U324" s="4"/>
       <c r="V324" s="4"/>
-    </row>
-    <row r="325" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W324" s="4"/>
+    </row>
+    <row r="325" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C325" s="4"/>
       <c r="D325" s="4"/>
       <c r="E325" s="4"/>
@@ -11029,8 +11437,9 @@
       <c r="T325" s="4"/>
       <c r="U325" s="4"/>
       <c r="V325" s="4"/>
-    </row>
-    <row r="326" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W325" s="4"/>
+    </row>
+    <row r="326" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C326" s="4"/>
       <c r="D326" s="4"/>
       <c r="E326" s="4"/>
@@ -11051,8 +11460,9 @@
       <c r="T326" s="4"/>
       <c r="U326" s="4"/>
       <c r="V326" s="4"/>
-    </row>
-    <row r="327" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W326" s="4"/>
+    </row>
+    <row r="327" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C327" s="4"/>
       <c r="D327" s="4"/>
       <c r="E327" s="4"/>
@@ -11073,8 +11483,9 @@
       <c r="T327" s="4"/>
       <c r="U327" s="4"/>
       <c r="V327" s="4"/>
-    </row>
-    <row r="328" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W327" s="4"/>
+    </row>
+    <row r="328" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C328" s="4"/>
       <c r="D328" s="4"/>
       <c r="E328" s="4"/>
@@ -11095,8 +11506,9 @@
       <c r="T328" s="4"/>
       <c r="U328" s="4"/>
       <c r="V328" s="4"/>
-    </row>
-    <row r="329" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W328" s="4"/>
+    </row>
+    <row r="329" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C329" s="4"/>
       <c r="D329" s="4"/>
       <c r="E329" s="4"/>
@@ -11117,8 +11529,9 @@
       <c r="T329" s="4"/>
       <c r="U329" s="4"/>
       <c r="V329" s="4"/>
-    </row>
-    <row r="330" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W329" s="4"/>
+    </row>
+    <row r="330" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C330" s="4"/>
       <c r="D330" s="4"/>
       <c r="E330" s="4"/>
@@ -11139,8 +11552,9 @@
       <c r="T330" s="4"/>
       <c r="U330" s="4"/>
       <c r="V330" s="4"/>
-    </row>
-    <row r="331" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W330" s="4"/>
+    </row>
+    <row r="331" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C331" s="4"/>
       <c r="D331" s="4"/>
       <c r="E331" s="4"/>
@@ -11161,8 +11575,9 @@
       <c r="T331" s="4"/>
       <c r="U331" s="4"/>
       <c r="V331" s="4"/>
-    </row>
-    <row r="332" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W331" s="4"/>
+    </row>
+    <row r="332" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C332" s="4"/>
       <c r="D332" s="4"/>
       <c r="E332" s="4"/>
@@ -11183,8 +11598,9 @@
       <c r="T332" s="4"/>
       <c r="U332" s="4"/>
       <c r="V332" s="4"/>
-    </row>
-    <row r="333" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W332" s="4"/>
+    </row>
+    <row r="333" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C333" s="4"/>
       <c r="D333" s="4"/>
       <c r="E333" s="4"/>
@@ -11205,8 +11621,9 @@
       <c r="T333" s="4"/>
       <c r="U333" s="4"/>
       <c r="V333" s="4"/>
-    </row>
-    <row r="334" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W333" s="4"/>
+    </row>
+    <row r="334" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C334" s="4"/>
       <c r="D334" s="4"/>
       <c r="E334" s="4"/>
@@ -11227,8 +11644,9 @@
       <c r="T334" s="4"/>
       <c r="U334" s="4"/>
       <c r="V334" s="4"/>
-    </row>
-    <row r="335" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W334" s="4"/>
+    </row>
+    <row r="335" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C335" s="4"/>
       <c r="D335" s="4"/>
       <c r="E335" s="4"/>
@@ -11249,8 +11667,9 @@
       <c r="T335" s="4"/>
       <c r="U335" s="4"/>
       <c r="V335" s="4"/>
-    </row>
-    <row r="336" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W335" s="4"/>
+    </row>
+    <row r="336" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C336" s="4"/>
       <c r="D336" s="4"/>
       <c r="E336" s="4"/>
@@ -11271,8 +11690,9 @@
       <c r="T336" s="4"/>
       <c r="U336" s="4"/>
       <c r="V336" s="4"/>
-    </row>
-    <row r="337" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W336" s="4"/>
+    </row>
+    <row r="337" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C337" s="4"/>
       <c r="D337" s="4"/>
       <c r="E337" s="4"/>
@@ -11293,8 +11713,9 @@
       <c r="T337" s="4"/>
       <c r="U337" s="4"/>
       <c r="V337" s="4"/>
-    </row>
-    <row r="338" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W337" s="4"/>
+    </row>
+    <row r="338" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C338" s="4"/>
       <c r="D338" s="4"/>
       <c r="E338" s="4"/>
@@ -11315,8 +11736,9 @@
       <c r="T338" s="4"/>
       <c r="U338" s="4"/>
       <c r="V338" s="4"/>
-    </row>
-    <row r="339" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W338" s="4"/>
+    </row>
+    <row r="339" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C339" s="4"/>
       <c r="D339" s="4"/>
       <c r="E339" s="4"/>
@@ -11337,8 +11759,9 @@
       <c r="T339" s="4"/>
       <c r="U339" s="4"/>
       <c r="V339" s="4"/>
-    </row>
-    <row r="340" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W339" s="4"/>
+    </row>
+    <row r="340" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C340" s="4"/>
       <c r="D340" s="4"/>
       <c r="E340" s="4"/>
@@ -11359,8 +11782,9 @@
       <c r="T340" s="4"/>
       <c r="U340" s="4"/>
       <c r="V340" s="4"/>
-    </row>
-    <row r="341" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W340" s="4"/>
+    </row>
+    <row r="341" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C341" s="4"/>
       <c r="D341" s="4"/>
       <c r="E341" s="4"/>
@@ -11381,8 +11805,9 @@
       <c r="T341" s="4"/>
       <c r="U341" s="4"/>
       <c r="V341" s="4"/>
-    </row>
-    <row r="342" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W341" s="4"/>
+    </row>
+    <row r="342" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C342" s="4"/>
       <c r="D342" s="4"/>
       <c r="E342" s="4"/>
@@ -11403,8 +11828,9 @@
       <c r="T342" s="4"/>
       <c r="U342" s="4"/>
       <c r="V342" s="4"/>
-    </row>
-    <row r="343" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W342" s="4"/>
+    </row>
+    <row r="343" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C343" s="4"/>
       <c r="D343" s="4"/>
       <c r="E343" s="4"/>
@@ -11425,8 +11851,9 @@
       <c r="T343" s="4"/>
       <c r="U343" s="4"/>
       <c r="V343" s="4"/>
-    </row>
-    <row r="344" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W343" s="4"/>
+    </row>
+    <row r="344" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C344" s="4"/>
       <c r="D344" s="4"/>
       <c r="E344" s="4"/>
@@ -11447,8 +11874,9 @@
       <c r="T344" s="4"/>
       <c r="U344" s="4"/>
       <c r="V344" s="4"/>
-    </row>
-    <row r="345" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W344" s="4"/>
+    </row>
+    <row r="345" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C345" s="4"/>
       <c r="D345" s="4"/>
       <c r="E345" s="4"/>
@@ -11469,8 +11897,9 @@
       <c r="T345" s="4"/>
       <c r="U345" s="4"/>
       <c r="V345" s="4"/>
-    </row>
-    <row r="346" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W345" s="4"/>
+    </row>
+    <row r="346" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C346" s="4"/>
       <c r="D346" s="4"/>
       <c r="E346" s="4"/>
@@ -11491,8 +11920,9 @@
       <c r="T346" s="4"/>
       <c r="U346" s="4"/>
       <c r="V346" s="4"/>
-    </row>
-    <row r="347" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W346" s="4"/>
+    </row>
+    <row r="347" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C347" s="4"/>
       <c r="D347" s="4"/>
       <c r="E347" s="4"/>
@@ -11513,8 +11943,9 @@
       <c r="T347" s="4"/>
       <c r="U347" s="4"/>
       <c r="V347" s="4"/>
-    </row>
-    <row r="348" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W347" s="4"/>
+    </row>
+    <row r="348" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C348" s="4"/>
       <c r="D348" s="4"/>
       <c r="E348" s="4"/>
@@ -11535,8 +11966,9 @@
       <c r="T348" s="4"/>
       <c r="U348" s="4"/>
       <c r="V348" s="4"/>
-    </row>
-    <row r="349" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W348" s="4"/>
+    </row>
+    <row r="349" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C349" s="4"/>
       <c r="D349" s="4"/>
       <c r="E349" s="4"/>
@@ -11557,8 +11989,9 @@
       <c r="T349" s="4"/>
       <c r="U349" s="4"/>
       <c r="V349" s="4"/>
-    </row>
-    <row r="350" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W349" s="4"/>
+    </row>
+    <row r="350" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C350" s="4"/>
       <c r="D350" s="4"/>
       <c r="E350" s="4"/>
@@ -11579,8 +12012,9 @@
       <c r="T350" s="4"/>
       <c r="U350" s="4"/>
       <c r="V350" s="4"/>
-    </row>
-    <row r="351" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W350" s="4"/>
+    </row>
+    <row r="351" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C351" s="4"/>
       <c r="D351" s="4"/>
       <c r="E351" s="4"/>
@@ -11601,8 +12035,9 @@
       <c r="T351" s="4"/>
       <c r="U351" s="4"/>
       <c r="V351" s="4"/>
-    </row>
-    <row r="352" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W351" s="4"/>
+    </row>
+    <row r="352" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C352" s="4"/>
       <c r="D352" s="4"/>
       <c r="E352" s="4"/>
@@ -11623,8 +12058,9 @@
       <c r="T352" s="4"/>
       <c r="U352" s="4"/>
       <c r="V352" s="4"/>
-    </row>
-    <row r="353" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W352" s="4"/>
+    </row>
+    <row r="353" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C353" s="4"/>
       <c r="D353" s="4"/>
       <c r="E353" s="4"/>
@@ -11645,8 +12081,9 @@
       <c r="T353" s="4"/>
       <c r="U353" s="4"/>
       <c r="V353" s="4"/>
-    </row>
-    <row r="354" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W353" s="4"/>
+    </row>
+    <row r="354" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C354" s="4"/>
       <c r="D354" s="4"/>
       <c r="E354" s="4"/>
@@ -11667,8 +12104,9 @@
       <c r="T354" s="4"/>
       <c r="U354" s="4"/>
       <c r="V354" s="4"/>
-    </row>
-    <row r="355" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W354" s="4"/>
+    </row>
+    <row r="355" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C355" s="4"/>
       <c r="D355" s="4"/>
       <c r="E355" s="4"/>
@@ -11689,8 +12127,9 @@
       <c r="T355" s="4"/>
       <c r="U355" s="4"/>
       <c r="V355" s="4"/>
-    </row>
-    <row r="356" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W355" s="4"/>
+    </row>
+    <row r="356" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C356" s="4"/>
       <c r="D356" s="4"/>
       <c r="E356" s="4"/>
@@ -11711,8 +12150,9 @@
       <c r="T356" s="4"/>
       <c r="U356" s="4"/>
       <c r="V356" s="4"/>
-    </row>
-    <row r="357" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W356" s="4"/>
+    </row>
+    <row r="357" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C357" s="4"/>
       <c r="D357" s="4"/>
       <c r="E357" s="4"/>
@@ -11733,8 +12173,9 @@
       <c r="T357" s="4"/>
       <c r="U357" s="4"/>
       <c r="V357" s="4"/>
-    </row>
-    <row r="358" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W357" s="4"/>
+    </row>
+    <row r="358" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C358" s="4"/>
       <c r="D358" s="4"/>
       <c r="E358" s="4"/>
@@ -11755,8 +12196,9 @@
       <c r="T358" s="4"/>
       <c r="U358" s="4"/>
       <c r="V358" s="4"/>
-    </row>
-    <row r="359" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W358" s="4"/>
+    </row>
+    <row r="359" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C359" s="4"/>
       <c r="D359" s="4"/>
       <c r="E359" s="4"/>
@@ -11777,8 +12219,9 @@
       <c r="T359" s="4"/>
       <c r="U359" s="4"/>
       <c r="V359" s="4"/>
-    </row>
-    <row r="360" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W359" s="4"/>
+    </row>
+    <row r="360" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C360" s="4"/>
       <c r="D360" s="4"/>
       <c r="E360" s="4"/>
@@ -11799,8 +12242,9 @@
       <c r="T360" s="4"/>
       <c r="U360" s="4"/>
       <c r="V360" s="4"/>
-    </row>
-    <row r="361" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W360" s="4"/>
+    </row>
+    <row r="361" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C361" s="4"/>
       <c r="D361" s="4"/>
       <c r="E361" s="4"/>
@@ -11821,8 +12265,9 @@
       <c r="T361" s="4"/>
       <c r="U361" s="4"/>
       <c r="V361" s="4"/>
-    </row>
-    <row r="362" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W361" s="4"/>
+    </row>
+    <row r="362" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C362" s="4"/>
       <c r="D362" s="4"/>
       <c r="E362" s="4"/>
@@ -11843,8 +12288,9 @@
       <c r="T362" s="4"/>
       <c r="U362" s="4"/>
       <c r="V362" s="4"/>
-    </row>
-    <row r="363" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W362" s="4"/>
+    </row>
+    <row r="363" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C363" s="4"/>
       <c r="D363" s="4"/>
       <c r="E363" s="4"/>
@@ -11865,8 +12311,9 @@
       <c r="T363" s="4"/>
       <c r="U363" s="4"/>
       <c r="V363" s="4"/>
-    </row>
-    <row r="364" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W363" s="4"/>
+    </row>
+    <row r="364" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C364" s="4"/>
       <c r="D364" s="4"/>
       <c r="E364" s="4"/>
@@ -11887,8 +12334,9 @@
       <c r="T364" s="4"/>
       <c r="U364" s="4"/>
       <c r="V364" s="4"/>
-    </row>
-    <row r="365" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W364" s="4"/>
+    </row>
+    <row r="365" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C365" s="4"/>
       <c r="D365" s="4"/>
       <c r="E365" s="4"/>
@@ -11909,8 +12357,9 @@
       <c r="T365" s="4"/>
       <c r="U365" s="4"/>
       <c r="V365" s="4"/>
-    </row>
-    <row r="366" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W365" s="4"/>
+    </row>
+    <row r="366" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C366" s="4"/>
       <c r="D366" s="4"/>
       <c r="E366" s="4"/>
@@ -11931,8 +12380,9 @@
       <c r="T366" s="4"/>
       <c r="U366" s="4"/>
       <c r="V366" s="4"/>
-    </row>
-    <row r="367" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W366" s="4"/>
+    </row>
+    <row r="367" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C367" s="4"/>
       <c r="D367" s="4"/>
       <c r="E367" s="4"/>
@@ -11953,8 +12403,9 @@
       <c r="T367" s="4"/>
       <c r="U367" s="4"/>
       <c r="V367" s="4"/>
-    </row>
-    <row r="368" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W367" s="4"/>
+    </row>
+    <row r="368" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C368" s="4"/>
       <c r="D368" s="4"/>
       <c r="E368" s="4"/>
@@ -11975,8 +12426,9 @@
       <c r="T368" s="4"/>
       <c r="U368" s="4"/>
       <c r="V368" s="4"/>
-    </row>
-    <row r="369" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W368" s="4"/>
+    </row>
+    <row r="369" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C369" s="4"/>
       <c r="D369" s="4"/>
       <c r="E369" s="4"/>
@@ -11997,8 +12449,9 @@
       <c r="T369" s="4"/>
       <c r="U369" s="4"/>
       <c r="V369" s="4"/>
-    </row>
-    <row r="370" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W369" s="4"/>
+    </row>
+    <row r="370" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C370" s="4"/>
       <c r="D370" s="4"/>
       <c r="E370" s="4"/>
@@ -12019,8 +12472,9 @@
       <c r="T370" s="4"/>
       <c r="U370" s="4"/>
       <c r="V370" s="4"/>
-    </row>
-    <row r="371" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W370" s="4"/>
+    </row>
+    <row r="371" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C371" s="4"/>
       <c r="D371" s="4"/>
       <c r="E371" s="4"/>
@@ -12041,8 +12495,9 @@
       <c r="T371" s="4"/>
       <c r="U371" s="4"/>
       <c r="V371" s="4"/>
-    </row>
-    <row r="372" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W371" s="4"/>
+    </row>
+    <row r="372" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C372" s="4"/>
       <c r="D372" s="4"/>
       <c r="E372" s="4"/>
@@ -12063,8 +12518,9 @@
       <c r="T372" s="4"/>
       <c r="U372" s="4"/>
       <c r="V372" s="4"/>
-    </row>
-    <row r="373" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W372" s="4"/>
+    </row>
+    <row r="373" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C373" s="4"/>
       <c r="D373" s="4"/>
       <c r="E373" s="4"/>
@@ -12085,8 +12541,9 @@
       <c r="T373" s="4"/>
       <c r="U373" s="4"/>
       <c r="V373" s="4"/>
-    </row>
-    <row r="374" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W373" s="4"/>
+    </row>
+    <row r="374" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C374" s="4"/>
       <c r="D374" s="4"/>
       <c r="E374" s="4"/>
@@ -12107,8 +12564,9 @@
       <c r="T374" s="4"/>
       <c r="U374" s="4"/>
       <c r="V374" s="4"/>
-    </row>
-    <row r="375" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W374" s="4"/>
+    </row>
+    <row r="375" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C375" s="4"/>
       <c r="D375" s="4"/>
       <c r="E375" s="4"/>
@@ -12129,8 +12587,9 @@
       <c r="T375" s="4"/>
       <c r="U375" s="4"/>
       <c r="V375" s="4"/>
-    </row>
-    <row r="376" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W375" s="4"/>
+    </row>
+    <row r="376" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C376" s="4"/>
       <c r="D376" s="4"/>
       <c r="E376" s="4"/>
@@ -12151,8 +12610,9 @@
       <c r="T376" s="4"/>
       <c r="U376" s="4"/>
       <c r="V376" s="4"/>
-    </row>
-    <row r="377" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W376" s="4"/>
+    </row>
+    <row r="377" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C377" s="4"/>
       <c r="D377" s="4"/>
       <c r="E377" s="4"/>
@@ -12173,8 +12633,9 @@
       <c r="T377" s="4"/>
       <c r="U377" s="4"/>
       <c r="V377" s="4"/>
-    </row>
-    <row r="378" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W377" s="4"/>
+    </row>
+    <row r="378" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C378" s="4"/>
       <c r="D378" s="4"/>
       <c r="E378" s="4"/>
@@ -12195,8 +12656,9 @@
       <c r="T378" s="4"/>
       <c r="U378" s="4"/>
       <c r="V378" s="4"/>
-    </row>
-    <row r="379" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W378" s="4"/>
+    </row>
+    <row r="379" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C379" s="4"/>
       <c r="D379" s="4"/>
       <c r="E379" s="4"/>
@@ -12217,8 +12679,9 @@
       <c r="T379" s="4"/>
       <c r="U379" s="4"/>
       <c r="V379" s="4"/>
-    </row>
-    <row r="380" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W379" s="4"/>
+    </row>
+    <row r="380" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C380" s="4"/>
       <c r="D380" s="4"/>
       <c r="E380" s="4"/>
@@ -12239,8 +12702,9 @@
       <c r="T380" s="4"/>
       <c r="U380" s="4"/>
       <c r="V380" s="4"/>
-    </row>
-    <row r="381" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W380" s="4"/>
+    </row>
+    <row r="381" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C381" s="4"/>
       <c r="D381" s="4"/>
       <c r="E381" s="4"/>
@@ -12261,8 +12725,9 @@
       <c r="T381" s="4"/>
       <c r="U381" s="4"/>
       <c r="V381" s="4"/>
-    </row>
-    <row r="382" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W381" s="4"/>
+    </row>
+    <row r="382" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C382" s="4"/>
       <c r="D382" s="4"/>
       <c r="E382" s="4"/>
@@ -12283,8 +12748,9 @@
       <c r="T382" s="4"/>
       <c r="U382" s="4"/>
       <c r="V382" s="4"/>
-    </row>
-    <row r="383" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W382" s="4"/>
+    </row>
+    <row r="383" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C383" s="4"/>
       <c r="D383" s="4"/>
       <c r="E383" s="4"/>
@@ -12305,8 +12771,9 @@
       <c r="T383" s="4"/>
       <c r="U383" s="4"/>
       <c r="V383" s="4"/>
-    </row>
-    <row r="384" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W383" s="4"/>
+    </row>
+    <row r="384" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C384" s="4"/>
       <c r="D384" s="4"/>
       <c r="E384" s="4"/>
@@ -12327,8 +12794,9 @@
       <c r="T384" s="4"/>
       <c r="U384" s="4"/>
       <c r="V384" s="4"/>
-    </row>
-    <row r="385" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W384" s="4"/>
+    </row>
+    <row r="385" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C385" s="4"/>
       <c r="D385" s="4"/>
       <c r="E385" s="4"/>
@@ -12349,8 +12817,9 @@
       <c r="T385" s="4"/>
       <c r="U385" s="4"/>
       <c r="V385" s="4"/>
-    </row>
-    <row r="386" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W385" s="4"/>
+    </row>
+    <row r="386" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C386" s="4"/>
       <c r="D386" s="4"/>
       <c r="E386" s="4"/>
@@ -12371,8 +12840,9 @@
       <c r="T386" s="4"/>
       <c r="U386" s="4"/>
       <c r="V386" s="4"/>
-    </row>
-    <row r="387" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W386" s="4"/>
+    </row>
+    <row r="387" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C387" s="4"/>
       <c r="D387" s="4"/>
       <c r="E387" s="4"/>
@@ -12393,8 +12863,9 @@
       <c r="T387" s="4"/>
       <c r="U387" s="4"/>
       <c r="V387" s="4"/>
-    </row>
-    <row r="388" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W387" s="4"/>
+    </row>
+    <row r="388" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C388" s="4"/>
       <c r="D388" s="4"/>
       <c r="E388" s="4"/>
@@ -12415,8 +12886,9 @@
       <c r="T388" s="4"/>
       <c r="U388" s="4"/>
       <c r="V388" s="4"/>
-    </row>
-    <row r="389" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W388" s="4"/>
+    </row>
+    <row r="389" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C389" s="4"/>
       <c r="D389" s="4"/>
       <c r="E389" s="4"/>
@@ -12437,8 +12909,9 @@
       <c r="T389" s="4"/>
       <c r="U389" s="4"/>
       <c r="V389" s="4"/>
-    </row>
-    <row r="390" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W389" s="4"/>
+    </row>
+    <row r="390" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C390" s="4"/>
       <c r="D390" s="4"/>
       <c r="E390" s="4"/>
@@ -12459,8 +12932,9 @@
       <c r="T390" s="4"/>
       <c r="U390" s="4"/>
       <c r="V390" s="4"/>
-    </row>
-    <row r="391" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W390" s="4"/>
+    </row>
+    <row r="391" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C391" s="4"/>
       <c r="D391" s="4"/>
       <c r="E391" s="4"/>
@@ -12481,8 +12955,9 @@
       <c r="T391" s="4"/>
       <c r="U391" s="4"/>
       <c r="V391" s="4"/>
-    </row>
-    <row r="392" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W391" s="4"/>
+    </row>
+    <row r="392" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C392" s="4"/>
       <c r="D392" s="4"/>
       <c r="E392" s="4"/>
@@ -12503,8 +12978,9 @@
       <c r="T392" s="4"/>
       <c r="U392" s="4"/>
       <c r="V392" s="4"/>
-    </row>
-    <row r="393" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W392" s="4"/>
+    </row>
+    <row r="393" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C393" s="4"/>
       <c r="D393" s="4"/>
       <c r="E393" s="4"/>
@@ -12525,8 +13001,9 @@
       <c r="T393" s="4"/>
       <c r="U393" s="4"/>
       <c r="V393" s="4"/>
-    </row>
-    <row r="394" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W393" s="4"/>
+    </row>
+    <row r="394" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C394" s="4"/>
       <c r="D394" s="4"/>
       <c r="E394" s="4"/>
@@ -12547,8 +13024,9 @@
       <c r="T394" s="4"/>
       <c r="U394" s="4"/>
       <c r="V394" s="4"/>
-    </row>
-    <row r="395" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W394" s="4"/>
+    </row>
+    <row r="395" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C395" s="4"/>
       <c r="D395" s="4"/>
       <c r="E395" s="4"/>
@@ -12569,8 +13047,9 @@
       <c r="T395" s="4"/>
       <c r="U395" s="4"/>
       <c r="V395" s="4"/>
-    </row>
-    <row r="396" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W395" s="4"/>
+    </row>
+    <row r="396" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C396" s="4"/>
       <c r="D396" s="4"/>
       <c r="E396" s="4"/>
@@ -12591,8 +13070,9 @@
       <c r="T396" s="4"/>
       <c r="U396" s="4"/>
       <c r="V396" s="4"/>
-    </row>
-    <row r="397" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W396" s="4"/>
+    </row>
+    <row r="397" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C397" s="4"/>
       <c r="D397" s="4"/>
       <c r="E397" s="4"/>
@@ -12613,8 +13093,9 @@
       <c r="T397" s="4"/>
       <c r="U397" s="4"/>
       <c r="V397" s="4"/>
-    </row>
-    <row r="398" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W397" s="4"/>
+    </row>
+    <row r="398" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C398" s="4"/>
       <c r="D398" s="4"/>
       <c r="E398" s="4"/>
@@ -12635,8 +13116,9 @@
       <c r="T398" s="4"/>
       <c r="U398" s="4"/>
       <c r="V398" s="4"/>
-    </row>
-    <row r="399" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W398" s="4"/>
+    </row>
+    <row r="399" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C399" s="4"/>
       <c r="D399" s="4"/>
       <c r="E399" s="4"/>
@@ -12657,8 +13139,9 @@
       <c r="T399" s="4"/>
       <c r="U399" s="4"/>
       <c r="V399" s="4"/>
-    </row>
-    <row r="400" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W399" s="4"/>
+    </row>
+    <row r="400" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C400" s="4"/>
       <c r="D400" s="4"/>
       <c r="E400" s="4"/>
@@ -12679,8 +13162,9 @@
       <c r="T400" s="4"/>
       <c r="U400" s="4"/>
       <c r="V400" s="4"/>
-    </row>
-    <row r="401" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W400" s="4"/>
+    </row>
+    <row r="401" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C401" s="4"/>
       <c r="D401" s="4"/>
       <c r="E401" s="4"/>
@@ -12701,8 +13185,9 @@
       <c r="T401" s="4"/>
       <c r="U401" s="4"/>
       <c r="V401" s="4"/>
-    </row>
-    <row r="402" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W401" s="4"/>
+    </row>
+    <row r="402" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C402" s="4"/>
       <c r="D402" s="4"/>
       <c r="E402" s="4"/>
@@ -12723,8 +13208,9 @@
       <c r="T402" s="4"/>
       <c r="U402" s="4"/>
       <c r="V402" s="4"/>
-    </row>
-    <row r="403" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W402" s="4"/>
+    </row>
+    <row r="403" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C403" s="4"/>
       <c r="D403" s="4"/>
       <c r="E403" s="4"/>
@@ -12745,8 +13231,9 @@
       <c r="T403" s="4"/>
       <c r="U403" s="4"/>
       <c r="V403" s="4"/>
-    </row>
-    <row r="404" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W403" s="4"/>
+    </row>
+    <row r="404" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C404" s="4"/>
       <c r="D404" s="4"/>
       <c r="E404" s="4"/>
@@ -12767,8 +13254,9 @@
       <c r="T404" s="4"/>
       <c r="U404" s="4"/>
       <c r="V404" s="4"/>
-    </row>
-    <row r="405" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W404" s="4"/>
+    </row>
+    <row r="405" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C405" s="4"/>
       <c r="D405" s="4"/>
       <c r="E405" s="4"/>
@@ -12789,8 +13277,9 @@
       <c r="T405" s="4"/>
       <c r="U405" s="4"/>
       <c r="V405" s="4"/>
-    </row>
-    <row r="406" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W405" s="4"/>
+    </row>
+    <row r="406" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C406" s="4"/>
       <c r="D406" s="4"/>
       <c r="E406" s="4"/>
@@ -12811,8 +13300,9 @@
       <c r="T406" s="4"/>
       <c r="U406" s="4"/>
       <c r="V406" s="4"/>
-    </row>
-    <row r="407" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W406" s="4"/>
+    </row>
+    <row r="407" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C407" s="4"/>
       <c r="D407" s="4"/>
       <c r="E407" s="4"/>
@@ -12833,8 +13323,9 @@
       <c r="T407" s="4"/>
       <c r="U407" s="4"/>
       <c r="V407" s="4"/>
-    </row>
-    <row r="408" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W407" s="4"/>
+    </row>
+    <row r="408" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C408" s="4"/>
       <c r="D408" s="4"/>
       <c r="E408" s="4"/>
@@ -12855,8 +13346,9 @@
       <c r="T408" s="4"/>
       <c r="U408" s="4"/>
       <c r="V408" s="4"/>
-    </row>
-    <row r="409" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W408" s="4"/>
+    </row>
+    <row r="409" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C409" s="4"/>
       <c r="D409" s="4"/>
       <c r="E409" s="4"/>
@@ -12877,8 +13369,9 @@
       <c r="T409" s="4"/>
       <c r="U409" s="4"/>
       <c r="V409" s="4"/>
-    </row>
-    <row r="410" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W409" s="4"/>
+    </row>
+    <row r="410" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C410" s="4"/>
       <c r="D410" s="4"/>
       <c r="E410" s="4"/>
@@ -12899,8 +13392,9 @@
       <c r="T410" s="4"/>
       <c r="U410" s="4"/>
       <c r="V410" s="4"/>
-    </row>
-    <row r="411" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W410" s="4"/>
+    </row>
+    <row r="411" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C411" s="4"/>
       <c r="D411" s="4"/>
       <c r="E411" s="4"/>
@@ -12921,8 +13415,9 @@
       <c r="T411" s="4"/>
       <c r="U411" s="4"/>
       <c r="V411" s="4"/>
-    </row>
-    <row r="412" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W411" s="4"/>
+    </row>
+    <row r="412" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C412" s="4"/>
       <c r="D412" s="4"/>
       <c r="E412" s="4"/>
@@ -12943,8 +13438,9 @@
       <c r="T412" s="4"/>
       <c r="U412" s="4"/>
       <c r="V412" s="4"/>
-    </row>
-    <row r="413" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W412" s="4"/>
+    </row>
+    <row r="413" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C413" s="4"/>
       <c r="D413" s="4"/>
       <c r="E413" s="4"/>
@@ -12965,8 +13461,9 @@
       <c r="T413" s="4"/>
       <c r="U413" s="4"/>
       <c r="V413" s="4"/>
-    </row>
-    <row r="414" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W413" s="4"/>
+    </row>
+    <row r="414" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C414" s="4"/>
       <c r="D414" s="4"/>
       <c r="E414" s="4"/>
@@ -12987,8 +13484,9 @@
       <c r="T414" s="4"/>
       <c r="U414" s="4"/>
       <c r="V414" s="4"/>
-    </row>
-    <row r="415" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W414" s="4"/>
+    </row>
+    <row r="415" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C415" s="4"/>
       <c r="D415" s="4"/>
       <c r="E415" s="4"/>
@@ -13009,8 +13507,9 @@
       <c r="T415" s="4"/>
       <c r="U415" s="4"/>
       <c r="V415" s="4"/>
-    </row>
-    <row r="416" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W415" s="4"/>
+    </row>
+    <row r="416" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C416" s="4"/>
       <c r="D416" s="4"/>
       <c r="E416" s="4"/>
@@ -13031,8 +13530,9 @@
       <c r="T416" s="4"/>
       <c r="U416" s="4"/>
       <c r="V416" s="4"/>
-    </row>
-    <row r="417" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W416" s="4"/>
+    </row>
+    <row r="417" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C417" s="4"/>
       <c r="D417" s="4"/>
       <c r="E417" s="4"/>
@@ -13053,8 +13553,9 @@
       <c r="T417" s="4"/>
       <c r="U417" s="4"/>
       <c r="V417" s="4"/>
-    </row>
-    <row r="418" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W417" s="4"/>
+    </row>
+    <row r="418" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C418" s="4"/>
       <c r="D418" s="4"/>
       <c r="E418" s="4"/>
@@ -13075,8 +13576,9 @@
       <c r="T418" s="4"/>
       <c r="U418" s="4"/>
       <c r="V418" s="4"/>
-    </row>
-    <row r="419" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W418" s="4"/>
+    </row>
+    <row r="419" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C419" s="4"/>
       <c r="D419" s="4"/>
       <c r="E419" s="4"/>
@@ -13097,8 +13599,9 @@
       <c r="T419" s="4"/>
       <c r="U419" s="4"/>
       <c r="V419" s="4"/>
-    </row>
-    <row r="420" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W419" s="4"/>
+    </row>
+    <row r="420" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C420" s="4"/>
       <c r="D420" s="4"/>
       <c r="E420" s="4"/>
@@ -13119,8 +13622,9 @@
       <c r="T420" s="4"/>
       <c r="U420" s="4"/>
       <c r="V420" s="4"/>
-    </row>
-    <row r="421" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W420" s="4"/>
+    </row>
+    <row r="421" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C421" s="4"/>
       <c r="D421" s="4"/>
       <c r="E421" s="4"/>
@@ -13141,8 +13645,9 @@
       <c r="T421" s="4"/>
       <c r="U421" s="4"/>
       <c r="V421" s="4"/>
-    </row>
-    <row r="422" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W421" s="4"/>
+    </row>
+    <row r="422" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C422" s="4"/>
       <c r="D422" s="4"/>
       <c r="E422" s="4"/>
@@ -13163,8 +13668,9 @@
       <c r="T422" s="4"/>
       <c r="U422" s="4"/>
       <c r="V422" s="4"/>
-    </row>
-    <row r="423" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W422" s="4"/>
+    </row>
+    <row r="423" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C423" s="4"/>
       <c r="D423" s="4"/>
       <c r="E423" s="4"/>
@@ -13185,8 +13691,9 @@
       <c r="T423" s="4"/>
       <c r="U423" s="4"/>
       <c r="V423" s="4"/>
-    </row>
-    <row r="424" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W423" s="4"/>
+    </row>
+    <row r="424" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C424" s="4"/>
       <c r="D424" s="4"/>
       <c r="E424" s="4"/>
@@ -13207,8 +13714,9 @@
       <c r="T424" s="4"/>
       <c r="U424" s="4"/>
       <c r="V424" s="4"/>
-    </row>
-    <row r="425" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W424" s="4"/>
+    </row>
+    <row r="425" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C425" s="4"/>
       <c r="D425" s="4"/>
       <c r="E425" s="4"/>
@@ -13229,8 +13737,9 @@
       <c r="T425" s="4"/>
       <c r="U425" s="4"/>
       <c r="V425" s="4"/>
-    </row>
-    <row r="426" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W425" s="4"/>
+    </row>
+    <row r="426" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C426" s="4"/>
       <c r="D426" s="4"/>
       <c r="E426" s="4"/>
@@ -13251,8 +13760,9 @@
       <c r="T426" s="4"/>
       <c r="U426" s="4"/>
       <c r="V426" s="4"/>
-    </row>
-    <row r="427" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W426" s="4"/>
+    </row>
+    <row r="427" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C427" s="4"/>
       <c r="D427" s="4"/>
       <c r="E427" s="4"/>
@@ -13273,8 +13783,9 @@
       <c r="T427" s="4"/>
       <c r="U427" s="4"/>
       <c r="V427" s="4"/>
-    </row>
-    <row r="428" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W427" s="4"/>
+    </row>
+    <row r="428" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C428" s="4"/>
       <c r="D428" s="4"/>
       <c r="E428" s="4"/>
@@ -13295,8 +13806,9 @@
       <c r="T428" s="4"/>
       <c r="U428" s="4"/>
       <c r="V428" s="4"/>
-    </row>
-    <row r="429" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W428" s="4"/>
+    </row>
+    <row r="429" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C429" s="4"/>
       <c r="D429" s="4"/>
       <c r="E429" s="4"/>
@@ -13317,8 +13829,9 @@
       <c r="T429" s="4"/>
       <c r="U429" s="4"/>
       <c r="V429" s="4"/>
-    </row>
-    <row r="430" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W429" s="4"/>
+    </row>
+    <row r="430" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C430" s="4"/>
       <c r="D430" s="4"/>
       <c r="E430" s="4"/>
@@ -13339,8 +13852,9 @@
       <c r="T430" s="4"/>
       <c r="U430" s="4"/>
       <c r="V430" s="4"/>
-    </row>
-    <row r="431" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W430" s="4"/>
+    </row>
+    <row r="431" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C431" s="4"/>
       <c r="D431" s="4"/>
       <c r="E431" s="4"/>
@@ -13361,8 +13875,9 @@
       <c r="T431" s="4"/>
       <c r="U431" s="4"/>
       <c r="V431" s="4"/>
-    </row>
-    <row r="432" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W431" s="4"/>
+    </row>
+    <row r="432" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C432" s="4"/>
       <c r="D432" s="4"/>
       <c r="E432" s="4"/>
@@ -13383,8 +13898,9 @@
       <c r="T432" s="4"/>
       <c r="U432" s="4"/>
       <c r="V432" s="4"/>
-    </row>
-    <row r="433" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W432" s="4"/>
+    </row>
+    <row r="433" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C433" s="4"/>
       <c r="D433" s="4"/>
       <c r="E433" s="4"/>
@@ -13405,8 +13921,9 @@
       <c r="T433" s="4"/>
       <c r="U433" s="4"/>
       <c r="V433" s="4"/>
-    </row>
-    <row r="434" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W433" s="4"/>
+    </row>
+    <row r="434" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C434" s="4"/>
       <c r="D434" s="4"/>
       <c r="E434" s="4"/>
@@ -13427,8 +13944,9 @@
       <c r="T434" s="4"/>
       <c r="U434" s="4"/>
       <c r="V434" s="4"/>
-    </row>
-    <row r="435" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W434" s="4"/>
+    </row>
+    <row r="435" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C435" s="4"/>
       <c r="D435" s="4"/>
       <c r="E435" s="4"/>
@@ -13449,8 +13967,9 @@
       <c r="T435" s="4"/>
       <c r="U435" s="4"/>
       <c r="V435" s="4"/>
-    </row>
-    <row r="436" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W435" s="4"/>
+    </row>
+    <row r="436" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C436" s="4"/>
       <c r="D436" s="4"/>
       <c r="E436" s="4"/>
@@ -13471,8 +13990,9 @@
       <c r="T436" s="4"/>
       <c r="U436" s="4"/>
       <c r="V436" s="4"/>
-    </row>
-    <row r="437" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W436" s="4"/>
+    </row>
+    <row r="437" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C437" s="4"/>
       <c r="D437" s="4"/>
       <c r="E437" s="4"/>
@@ -13493,8 +14013,9 @@
       <c r="T437" s="4"/>
       <c r="U437" s="4"/>
       <c r="V437" s="4"/>
-    </row>
-    <row r="438" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W437" s="4"/>
+    </row>
+    <row r="438" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C438" s="4"/>
       <c r="D438" s="4"/>
       <c r="E438" s="4"/>
@@ -13515,8 +14036,9 @@
       <c r="T438" s="4"/>
       <c r="U438" s="4"/>
       <c r="V438" s="4"/>
-    </row>
-    <row r="439" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W438" s="4"/>
+    </row>
+    <row r="439" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C439" s="4"/>
       <c r="D439" s="4"/>
       <c r="E439" s="4"/>
@@ -13537,8 +14059,9 @@
       <c r="T439" s="4"/>
       <c r="U439" s="4"/>
       <c r="V439" s="4"/>
-    </row>
-    <row r="440" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W439" s="4"/>
+    </row>
+    <row r="440" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C440" s="4"/>
       <c r="D440" s="4"/>
       <c r="E440" s="4"/>
@@ -13559,8 +14082,9 @@
       <c r="T440" s="4"/>
       <c r="U440" s="4"/>
       <c r="V440" s="4"/>
-    </row>
-    <row r="441" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W440" s="4"/>
+    </row>
+    <row r="441" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C441" s="4"/>
       <c r="D441" s="4"/>
       <c r="E441" s="4"/>
@@ -13581,8 +14105,9 @@
       <c r="T441" s="4"/>
       <c r="U441" s="4"/>
       <c r="V441" s="4"/>
-    </row>
-    <row r="442" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W441" s="4"/>
+    </row>
+    <row r="442" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C442" s="4"/>
       <c r="D442" s="4"/>
       <c r="E442" s="4"/>
@@ -13603,8 +14128,9 @@
       <c r="T442" s="4"/>
       <c r="U442" s="4"/>
       <c r="V442" s="4"/>
-    </row>
-    <row r="443" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W442" s="4"/>
+    </row>
+    <row r="443" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C443" s="4"/>
       <c r="D443" s="4"/>
       <c r="E443" s="4"/>
@@ -13625,8 +14151,9 @@
       <c r="T443" s="4"/>
       <c r="U443" s="4"/>
       <c r="V443" s="4"/>
-    </row>
-    <row r="444" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W443" s="4"/>
+    </row>
+    <row r="444" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C444" s="4"/>
       <c r="D444" s="4"/>
       <c r="E444" s="4"/>
@@ -13647,8 +14174,9 @@
       <c r="T444" s="4"/>
       <c r="U444" s="4"/>
       <c r="V444" s="4"/>
-    </row>
-    <row r="445" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W444" s="4"/>
+    </row>
+    <row r="445" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C445" s="4"/>
       <c r="D445" s="4"/>
       <c r="E445" s="4"/>
@@ -13669,8 +14197,9 @@
       <c r="T445" s="4"/>
       <c r="U445" s="4"/>
       <c r="V445" s="4"/>
-    </row>
-    <row r="446" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W445" s="4"/>
+    </row>
+    <row r="446" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C446" s="4"/>
       <c r="D446" s="4"/>
       <c r="E446" s="4"/>
@@ -13691,8 +14220,9 @@
       <c r="T446" s="4"/>
       <c r="U446" s="4"/>
       <c r="V446" s="4"/>
-    </row>
-    <row r="447" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W446" s="4"/>
+    </row>
+    <row r="447" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C447" s="4"/>
       <c r="D447" s="4"/>
       <c r="E447" s="4"/>
@@ -13713,8 +14243,9 @@
       <c r="T447" s="4"/>
       <c r="U447" s="4"/>
       <c r="V447" s="4"/>
-    </row>
-    <row r="448" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W447" s="4"/>
+    </row>
+    <row r="448" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C448" s="4"/>
       <c r="D448" s="4"/>
       <c r="E448" s="4"/>
@@ -13735,8 +14266,9 @@
       <c r="T448" s="4"/>
       <c r="U448" s="4"/>
       <c r="V448" s="4"/>
-    </row>
-    <row r="449" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W448" s="4"/>
+    </row>
+    <row r="449" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C449" s="4"/>
       <c r="D449" s="4"/>
       <c r="E449" s="4"/>
@@ -13757,8 +14289,9 @@
       <c r="T449" s="4"/>
       <c r="U449" s="4"/>
       <c r="V449" s="4"/>
-    </row>
-    <row r="450" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W449" s="4"/>
+    </row>
+    <row r="450" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C450" s="4"/>
       <c r="D450" s="4"/>
       <c r="E450" s="4"/>
@@ -13779,8 +14312,9 @@
       <c r="T450" s="4"/>
       <c r="U450" s="4"/>
       <c r="V450" s="4"/>
-    </row>
-    <row r="451" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W450" s="4"/>
+    </row>
+    <row r="451" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C451" s="4"/>
       <c r="D451" s="4"/>
       <c r="E451" s="4"/>
@@ -13801,8 +14335,9 @@
       <c r="T451" s="4"/>
       <c r="U451" s="4"/>
       <c r="V451" s="4"/>
-    </row>
-    <row r="452" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W451" s="4"/>
+    </row>
+    <row r="452" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C452" s="4"/>
       <c r="D452" s="4"/>
       <c r="E452" s="4"/>
@@ -13823,8 +14358,9 @@
       <c r="T452" s="4"/>
       <c r="U452" s="4"/>
       <c r="V452" s="4"/>
-    </row>
-    <row r="453" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W452" s="4"/>
+    </row>
+    <row r="453" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C453" s="4"/>
       <c r="D453" s="4"/>
       <c r="E453" s="4"/>
@@ -13845,8 +14381,9 @@
       <c r="T453" s="4"/>
       <c r="U453" s="4"/>
       <c r="V453" s="4"/>
-    </row>
-    <row r="454" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W453" s="4"/>
+    </row>
+    <row r="454" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C454" s="4"/>
       <c r="D454" s="4"/>
       <c r="E454" s="4"/>
@@ -13867,8 +14404,9 @@
       <c r="T454" s="4"/>
       <c r="U454" s="4"/>
       <c r="V454" s="4"/>
-    </row>
-    <row r="455" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W454" s="4"/>
+    </row>
+    <row r="455" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C455" s="4"/>
       <c r="D455" s="4"/>
       <c r="E455" s="4"/>
@@ -13889,8 +14427,9 @@
       <c r="T455" s="4"/>
       <c r="U455" s="4"/>
       <c r="V455" s="4"/>
-    </row>
-    <row r="456" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W455" s="4"/>
+    </row>
+    <row r="456" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C456" s="4"/>
       <c r="D456" s="4"/>
       <c r="E456" s="4"/>
@@ -13911,8 +14450,9 @@
       <c r="T456" s="4"/>
       <c r="U456" s="4"/>
       <c r="V456" s="4"/>
-    </row>
-    <row r="457" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W456" s="4"/>
+    </row>
+    <row r="457" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C457" s="4"/>
       <c r="D457" s="4"/>
       <c r="E457" s="4"/>
@@ -13933,8 +14473,9 @@
       <c r="T457" s="4"/>
       <c r="U457" s="4"/>
       <c r="V457" s="4"/>
-    </row>
-    <row r="458" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W457" s="4"/>
+    </row>
+    <row r="458" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C458" s="4"/>
       <c r="D458" s="4"/>
       <c r="E458" s="4"/>
@@ -13955,8 +14496,9 @@
       <c r="T458" s="4"/>
       <c r="U458" s="4"/>
       <c r="V458" s="4"/>
-    </row>
-    <row r="459" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W458" s="4"/>
+    </row>
+    <row r="459" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C459" s="4"/>
       <c r="D459" s="4"/>
       <c r="E459" s="4"/>
@@ -13977,8 +14519,9 @@
       <c r="T459" s="4"/>
       <c r="U459" s="4"/>
       <c r="V459" s="4"/>
-    </row>
-    <row r="460" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W459" s="4"/>
+    </row>
+    <row r="460" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C460" s="4"/>
       <c r="D460" s="4"/>
       <c r="E460" s="4"/>
@@ -13999,8 +14542,9 @@
       <c r="T460" s="4"/>
       <c r="U460" s="4"/>
       <c r="V460" s="4"/>
-    </row>
-    <row r="461" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W460" s="4"/>
+    </row>
+    <row r="461" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C461" s="4"/>
       <c r="D461" s="4"/>
       <c r="E461" s="4"/>
@@ -14021,8 +14565,9 @@
       <c r="T461" s="4"/>
       <c r="U461" s="4"/>
       <c r="V461" s="4"/>
-    </row>
-    <row r="462" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W461" s="4"/>
+    </row>
+    <row r="462" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C462" s="4"/>
       <c r="D462" s="4"/>
       <c r="E462" s="4"/>
@@ -14043,8 +14588,9 @@
       <c r="T462" s="4"/>
       <c r="U462" s="4"/>
       <c r="V462" s="4"/>
-    </row>
-    <row r="463" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W462" s="4"/>
+    </row>
+    <row r="463" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C463" s="4"/>
       <c r="D463" s="4"/>
       <c r="E463" s="4"/>
@@ -14065,8 +14611,9 @@
       <c r="T463" s="4"/>
       <c r="U463" s="4"/>
       <c r="V463" s="4"/>
-    </row>
-    <row r="464" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W463" s="4"/>
+    </row>
+    <row r="464" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C464" s="4"/>
       <c r="D464" s="4"/>
       <c r="E464" s="4"/>
@@ -14087,8 +14634,9 @@
       <c r="T464" s="4"/>
       <c r="U464" s="4"/>
       <c r="V464" s="4"/>
-    </row>
-    <row r="465" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W464" s="4"/>
+    </row>
+    <row r="465" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C465" s="4"/>
       <c r="D465" s="4"/>
       <c r="E465" s="4"/>
@@ -14109,8 +14657,9 @@
       <c r="T465" s="4"/>
       <c r="U465" s="4"/>
       <c r="V465" s="4"/>
-    </row>
-    <row r="466" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W465" s="4"/>
+    </row>
+    <row r="466" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C466" s="4"/>
       <c r="D466" s="4"/>
       <c r="E466" s="4"/>
@@ -14131,8 +14680,9 @@
       <c r="T466" s="4"/>
       <c r="U466" s="4"/>
       <c r="V466" s="4"/>
-    </row>
-    <row r="467" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W466" s="4"/>
+    </row>
+    <row r="467" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C467" s="4"/>
       <c r="D467" s="4"/>
       <c r="E467" s="4"/>
@@ -14153,8 +14703,9 @@
       <c r="T467" s="4"/>
       <c r="U467" s="4"/>
       <c r="V467" s="4"/>
-    </row>
-    <row r="468" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W467" s="4"/>
+    </row>
+    <row r="468" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C468" s="4"/>
       <c r="D468" s="4"/>
       <c r="E468" s="4"/>
@@ -14175,8 +14726,9 @@
       <c r="T468" s="4"/>
       <c r="U468" s="4"/>
       <c r="V468" s="4"/>
-    </row>
-    <row r="469" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W468" s="4"/>
+    </row>
+    <row r="469" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C469" s="4"/>
       <c r="D469" s="4"/>
       <c r="E469" s="4"/>
@@ -14197,8 +14749,9 @@
       <c r="T469" s="4"/>
       <c r="U469" s="4"/>
       <c r="V469" s="4"/>
-    </row>
-    <row r="470" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W469" s="4"/>
+    </row>
+    <row r="470" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C470" s="4"/>
       <c r="D470" s="4"/>
       <c r="E470" s="4"/>
@@ -14219,8 +14772,9 @@
       <c r="T470" s="4"/>
       <c r="U470" s="4"/>
       <c r="V470" s="4"/>
-    </row>
-    <row r="471" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W470" s="4"/>
+    </row>
+    <row r="471" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C471" s="4"/>
       <c r="D471" s="4"/>
       <c r="E471" s="4"/>
@@ -14241,8 +14795,9 @@
       <c r="T471" s="4"/>
       <c r="U471" s="4"/>
       <c r="V471" s="4"/>
-    </row>
-    <row r="472" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W471" s="4"/>
+    </row>
+    <row r="472" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C472" s="4"/>
       <c r="D472" s="4"/>
       <c r="E472" s="4"/>
@@ -14263,8 +14818,9 @@
       <c r="T472" s="4"/>
       <c r="U472" s="4"/>
       <c r="V472" s="4"/>
-    </row>
-    <row r="473" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W472" s="4"/>
+    </row>
+    <row r="473" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C473" s="4"/>
       <c r="D473" s="4"/>
       <c r="E473" s="4"/>
@@ -14285,8 +14841,9 @@
       <c r="T473" s="4"/>
       <c r="U473" s="4"/>
       <c r="V473" s="4"/>
-    </row>
-    <row r="474" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W473" s="4"/>
+    </row>
+    <row r="474" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C474" s="4"/>
       <c r="D474" s="4"/>
       <c r="E474" s="4"/>
@@ -14307,8 +14864,9 @@
       <c r="T474" s="4"/>
       <c r="U474" s="4"/>
       <c r="V474" s="4"/>
-    </row>
-    <row r="475" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W474" s="4"/>
+    </row>
+    <row r="475" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C475" s="4"/>
       <c r="D475" s="4"/>
       <c r="E475" s="4"/>
@@ -14329,8 +14887,9 @@
       <c r="T475" s="4"/>
       <c r="U475" s="4"/>
       <c r="V475" s="4"/>
-    </row>
-    <row r="476" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W475" s="4"/>
+    </row>
+    <row r="476" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C476" s="4"/>
       <c r="D476" s="4"/>
       <c r="E476" s="4"/>
@@ -14351,8 +14910,9 @@
       <c r="T476" s="4"/>
       <c r="U476" s="4"/>
       <c r="V476" s="4"/>
-    </row>
-    <row r="477" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W476" s="4"/>
+    </row>
+    <row r="477" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C477" s="4"/>
       <c r="D477" s="4"/>
       <c r="E477" s="4"/>
@@ -14373,8 +14933,9 @@
       <c r="T477" s="4"/>
       <c r="U477" s="4"/>
       <c r="V477" s="4"/>
-    </row>
-    <row r="478" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W477" s="4"/>
+    </row>
+    <row r="478" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C478" s="4"/>
       <c r="D478" s="4"/>
       <c r="E478" s="4"/>
@@ -14395,8 +14956,9 @@
       <c r="T478" s="4"/>
       <c r="U478" s="4"/>
       <c r="V478" s="4"/>
-    </row>
-    <row r="479" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W478" s="4"/>
+    </row>
+    <row r="479" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C479" s="4"/>
       <c r="D479" s="4"/>
       <c r="E479" s="4"/>
@@ -14417,8 +14979,9 @@
       <c r="T479" s="4"/>
       <c r="U479" s="4"/>
       <c r="V479" s="4"/>
-    </row>
-    <row r="480" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W479" s="4"/>
+    </row>
+    <row r="480" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C480" s="4"/>
       <c r="D480" s="4"/>
       <c r="E480" s="4"/>
@@ -14439,8 +15002,9 @@
       <c r="T480" s="4"/>
       <c r="U480" s="4"/>
       <c r="V480" s="4"/>
-    </row>
-    <row r="481" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W480" s="4"/>
+    </row>
+    <row r="481" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C481" s="4"/>
       <c r="D481" s="4"/>
       <c r="E481" s="4"/>
@@ -14461,8 +15025,9 @@
       <c r="T481" s="4"/>
       <c r="U481" s="4"/>
       <c r="V481" s="4"/>
-    </row>
-    <row r="482" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W481" s="4"/>
+    </row>
+    <row r="482" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C482" s="4"/>
       <c r="D482" s="4"/>
       <c r="E482" s="4"/>
@@ -14483,8 +15048,9 @@
       <c r="T482" s="4"/>
       <c r="U482" s="4"/>
       <c r="V482" s="4"/>
-    </row>
-    <row r="483" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W482" s="4"/>
+    </row>
+    <row r="483" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C483" s="4"/>
       <c r="D483" s="4"/>
       <c r="E483" s="4"/>
@@ -14505,8 +15071,9 @@
       <c r="T483" s="4"/>
       <c r="U483" s="4"/>
       <c r="V483" s="4"/>
-    </row>
-    <row r="484" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W483" s="4"/>
+    </row>
+    <row r="484" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C484" s="4"/>
       <c r="D484" s="4"/>
       <c r="E484" s="4"/>
@@ -14527,8 +15094,9 @@
       <c r="T484" s="4"/>
       <c r="U484" s="4"/>
       <c r="V484" s="4"/>
-    </row>
-    <row r="485" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W484" s="4"/>
+    </row>
+    <row r="485" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C485" s="4"/>
       <c r="D485" s="4"/>
       <c r="E485" s="4"/>
@@ -14549,8 +15117,9 @@
       <c r="T485" s="4"/>
       <c r="U485" s="4"/>
       <c r="V485" s="4"/>
-    </row>
-    <row r="486" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W485" s="4"/>
+    </row>
+    <row r="486" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C486" s="4"/>
       <c r="D486" s="4"/>
       <c r="E486" s="4"/>
@@ -14571,8 +15140,9 @@
       <c r="T486" s="4"/>
       <c r="U486" s="4"/>
       <c r="V486" s="4"/>
-    </row>
-    <row r="487" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W486" s="4"/>
+    </row>
+    <row r="487" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C487" s="4"/>
       <c r="D487" s="4"/>
       <c r="E487" s="4"/>
@@ -14593,8 +15163,9 @@
       <c r="T487" s="4"/>
       <c r="U487" s="4"/>
       <c r="V487" s="4"/>
-    </row>
-    <row r="488" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W487" s="4"/>
+    </row>
+    <row r="488" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C488" s="4"/>
       <c r="D488" s="4"/>
       <c r="E488" s="4"/>
@@ -14615,8 +15186,9 @@
       <c r="T488" s="4"/>
       <c r="U488" s="4"/>
       <c r="V488" s="4"/>
-    </row>
-    <row r="489" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W488" s="4"/>
+    </row>
+    <row r="489" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C489" s="4"/>
       <c r="D489" s="4"/>
       <c r="E489" s="4"/>
@@ -14637,8 +15209,9 @@
       <c r="T489" s="4"/>
       <c r="U489" s="4"/>
       <c r="V489" s="4"/>
-    </row>
-    <row r="490" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W489" s="4"/>
+    </row>
+    <row r="490" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C490" s="4"/>
       <c r="D490" s="4"/>
       <c r="E490" s="4"/>
@@ -14659,8 +15232,9 @@
       <c r="T490" s="4"/>
       <c r="U490" s="4"/>
       <c r="V490" s="4"/>
-    </row>
-    <row r="491" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W490" s="4"/>
+    </row>
+    <row r="491" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C491" s="4"/>
       <c r="D491" s="4"/>
       <c r="E491" s="4"/>
@@ -14681,8 +15255,9 @@
       <c r="T491" s="4"/>
       <c r="U491" s="4"/>
       <c r="V491" s="4"/>
-    </row>
-    <row r="492" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W491" s="4"/>
+    </row>
+    <row r="492" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C492" s="4"/>
       <c r="D492" s="4"/>
       <c r="E492" s="4"/>
@@ -14703,8 +15278,9 @@
       <c r="T492" s="4"/>
       <c r="U492" s="4"/>
       <c r="V492" s="4"/>
-    </row>
-    <row r="493" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W492" s="4"/>
+    </row>
+    <row r="493" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C493" s="4"/>
       <c r="D493" s="4"/>
       <c r="E493" s="4"/>
@@ -14725,8 +15301,9 @@
       <c r="T493" s="4"/>
       <c r="U493" s="4"/>
       <c r="V493" s="4"/>
-    </row>
-    <row r="494" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W493" s="4"/>
+    </row>
+    <row r="494" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C494" s="4"/>
       <c r="D494" s="4"/>
       <c r="E494" s="4"/>
@@ -14747,8 +15324,9 @@
       <c r="T494" s="4"/>
       <c r="U494" s="4"/>
       <c r="V494" s="4"/>
-    </row>
-    <row r="495" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W494" s="4"/>
+    </row>
+    <row r="495" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C495" s="4"/>
       <c r="D495" s="4"/>
       <c r="E495" s="4"/>
@@ -14769,8 +15347,9 @@
       <c r="T495" s="4"/>
       <c r="U495" s="4"/>
       <c r="V495" s="4"/>
-    </row>
-    <row r="496" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W495" s="4"/>
+    </row>
+    <row r="496" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C496" s="4"/>
       <c r="D496" s="4"/>
       <c r="E496" s="4"/>
@@ -14791,8 +15370,9 @@
       <c r="T496" s="4"/>
       <c r="U496" s="4"/>
       <c r="V496" s="4"/>
-    </row>
-    <row r="497" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W496" s="4"/>
+    </row>
+    <row r="497" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C497" s="4"/>
       <c r="D497" s="4"/>
       <c r="E497" s="4"/>
@@ -14813,8 +15393,9 @@
       <c r="T497" s="4"/>
       <c r="U497" s="4"/>
       <c r="V497" s="4"/>
-    </row>
-    <row r="498" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W497" s="4"/>
+    </row>
+    <row r="498" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C498" s="4"/>
       <c r="D498" s="4"/>
       <c r="E498" s="4"/>
@@ -14835,8 +15416,9 @@
       <c r="T498" s="4"/>
       <c r="U498" s="4"/>
       <c r="V498" s="4"/>
-    </row>
-    <row r="499" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W498" s="4"/>
+    </row>
+    <row r="499" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C499" s="4"/>
       <c r="D499" s="4"/>
       <c r="E499" s="4"/>
@@ -14857,8 +15439,9 @@
       <c r="T499" s="4"/>
       <c r="U499" s="4"/>
       <c r="V499" s="4"/>
-    </row>
-    <row r="500" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W499" s="4"/>
+    </row>
+    <row r="500" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C500" s="4"/>
       <c r="D500" s="4"/>
       <c r="E500" s="4"/>
@@ -14879,8 +15462,9 @@
       <c r="T500" s="4"/>
       <c r="U500" s="4"/>
       <c r="V500" s="4"/>
-    </row>
-    <row r="501" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W500" s="4"/>
+    </row>
+    <row r="501" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C501" s="4"/>
       <c r="D501" s="4"/>
       <c r="E501" s="4"/>
@@ -14901,8 +15485,9 @@
       <c r="T501" s="4"/>
       <c r="U501" s="4"/>
       <c r="V501" s="4"/>
-    </row>
-    <row r="502" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W501" s="4"/>
+    </row>
+    <row r="502" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C502" s="4"/>
       <c r="D502" s="4"/>
       <c r="E502" s="4"/>
@@ -14923,8 +15508,9 @@
       <c r="T502" s="4"/>
       <c r="U502" s="4"/>
       <c r="V502" s="4"/>
-    </row>
-    <row r="503" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W502" s="4"/>
+    </row>
+    <row r="503" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C503" s="4"/>
       <c r="D503" s="4"/>
       <c r="E503" s="4"/>
@@ -14945,8 +15531,9 @@
       <c r="T503" s="4"/>
       <c r="U503" s="4"/>
       <c r="V503" s="4"/>
-    </row>
-    <row r="504" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W503" s="4"/>
+    </row>
+    <row r="504" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C504" s="4"/>
       <c r="D504" s="4"/>
       <c r="E504" s="4"/>
@@ -14967,8 +15554,9 @@
       <c r="T504" s="4"/>
       <c r="U504" s="4"/>
       <c r="V504" s="4"/>
-    </row>
-    <row r="505" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W504" s="4"/>
+    </row>
+    <row r="505" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C505" s="4"/>
       <c r="D505" s="4"/>
       <c r="E505" s="4"/>
@@ -14989,8 +15577,9 @@
       <c r="T505" s="4"/>
       <c r="U505" s="4"/>
       <c r="V505" s="4"/>
-    </row>
-    <row r="506" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W505" s="4"/>
+    </row>
+    <row r="506" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C506" s="4"/>
       <c r="D506" s="4"/>
       <c r="E506" s="4"/>
@@ -15011,8 +15600,9 @@
       <c r="T506" s="4"/>
       <c r="U506" s="4"/>
       <c r="V506" s="4"/>
-    </row>
-    <row r="507" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W506" s="4"/>
+    </row>
+    <row r="507" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C507" s="4"/>
       <c r="D507" s="4"/>
       <c r="E507" s="4"/>
@@ -15033,8 +15623,9 @@
       <c r="T507" s="4"/>
       <c r="U507" s="4"/>
       <c r="V507" s="4"/>
-    </row>
-    <row r="508" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W507" s="4"/>
+    </row>
+    <row r="508" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C508" s="4"/>
       <c r="D508" s="4"/>
       <c r="E508" s="4"/>
@@ -15055,8 +15646,9 @@
       <c r="T508" s="4"/>
       <c r="U508" s="4"/>
       <c r="V508" s="4"/>
-    </row>
-    <row r="509" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W508" s="4"/>
+    </row>
+    <row r="509" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C509" s="4"/>
       <c r="D509" s="4"/>
       <c r="E509" s="4"/>
@@ -15077,8 +15669,9 @@
       <c r="T509" s="4"/>
       <c r="U509" s="4"/>
       <c r="V509" s="4"/>
-    </row>
-    <row r="510" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W509" s="4"/>
+    </row>
+    <row r="510" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C510" s="4"/>
       <c r="D510" s="4"/>
       <c r="E510" s="4"/>
@@ -15099,8 +15692,9 @@
       <c r="T510" s="4"/>
       <c r="U510" s="4"/>
       <c r="V510" s="4"/>
-    </row>
-    <row r="511" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W510" s="4"/>
+    </row>
+    <row r="511" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C511" s="4"/>
       <c r="D511" s="4"/>
       <c r="E511" s="4"/>
@@ -15121,8 +15715,9 @@
       <c r="T511" s="4"/>
       <c r="U511" s="4"/>
       <c r="V511" s="4"/>
-    </row>
-    <row r="512" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W511" s="4"/>
+    </row>
+    <row r="512" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C512" s="4"/>
       <c r="D512" s="4"/>
       <c r="E512" s="4"/>
@@ -15143,8 +15738,9 @@
       <c r="T512" s="4"/>
       <c r="U512" s="4"/>
       <c r="V512" s="4"/>
-    </row>
-    <row r="513" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W512" s="4"/>
+    </row>
+    <row r="513" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C513" s="4"/>
       <c r="D513" s="4"/>
       <c r="E513" s="4"/>
@@ -15165,8 +15761,9 @@
       <c r="T513" s="4"/>
       <c r="U513" s="4"/>
       <c r="V513" s="4"/>
-    </row>
-    <row r="514" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W513" s="4"/>
+    </row>
+    <row r="514" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C514" s="4"/>
       <c r="D514" s="4"/>
       <c r="E514" s="4"/>
@@ -15187,8 +15784,9 @@
       <c r="T514" s="4"/>
       <c r="U514" s="4"/>
       <c r="V514" s="4"/>
-    </row>
-    <row r="515" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W514" s="4"/>
+    </row>
+    <row r="515" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C515" s="4"/>
       <c r="D515" s="4"/>
       <c r="E515" s="4"/>
@@ -15209,8 +15807,9 @@
       <c r="T515" s="4"/>
       <c r="U515" s="4"/>
       <c r="V515" s="4"/>
-    </row>
-    <row r="516" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W515" s="4"/>
+    </row>
+    <row r="516" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C516" s="4"/>
       <c r="D516" s="4"/>
       <c r="E516" s="4"/>
@@ -15231,8 +15830,9 @@
       <c r="T516" s="4"/>
       <c r="U516" s="4"/>
       <c r="V516" s="4"/>
-    </row>
-    <row r="517" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W516" s="4"/>
+    </row>
+    <row r="517" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C517" s="4"/>
       <c r="D517" s="4"/>
       <c r="E517" s="4"/>
@@ -15253,8 +15853,9 @@
       <c r="T517" s="4"/>
       <c r="U517" s="4"/>
       <c r="V517" s="4"/>
-    </row>
-    <row r="518" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W517" s="4"/>
+    </row>
+    <row r="518" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C518" s="4"/>
       <c r="D518" s="4"/>
       <c r="E518" s="4"/>
@@ -15275,8 +15876,9 @@
       <c r="T518" s="4"/>
       <c r="U518" s="4"/>
       <c r="V518" s="4"/>
-    </row>
-    <row r="519" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W518" s="4"/>
+    </row>
+    <row r="519" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C519" s="4"/>
       <c r="D519" s="4"/>
       <c r="E519" s="4"/>
@@ -15297,8 +15899,9 @@
       <c r="T519" s="4"/>
       <c r="U519" s="4"/>
       <c r="V519" s="4"/>
-    </row>
-    <row r="520" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W519" s="4"/>
+    </row>
+    <row r="520" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C520" s="4"/>
       <c r="D520" s="4"/>
       <c r="E520" s="4"/>
@@ -15319,8 +15922,9 @@
       <c r="T520" s="4"/>
       <c r="U520" s="4"/>
       <c r="V520" s="4"/>
-    </row>
-    <row r="521" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W520" s="4"/>
+    </row>
+    <row r="521" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C521" s="4"/>
       <c r="D521" s="4"/>
       <c r="E521" s="4"/>
@@ -15341,8 +15945,9 @@
       <c r="T521" s="4"/>
       <c r="U521" s="4"/>
       <c r="V521" s="4"/>
-    </row>
-    <row r="522" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W521" s="4"/>
+    </row>
+    <row r="522" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C522" s="4"/>
       <c r="D522" s="4"/>
       <c r="E522" s="4"/>
@@ -15363,8 +15968,9 @@
       <c r="T522" s="4"/>
       <c r="U522" s="4"/>
       <c r="V522" s="4"/>
-    </row>
-    <row r="523" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W522" s="4"/>
+    </row>
+    <row r="523" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C523" s="4"/>
       <c r="D523" s="4"/>
       <c r="E523" s="4"/>
@@ -15385,8 +15991,9 @@
       <c r="T523" s="4"/>
       <c r="U523" s="4"/>
       <c r="V523" s="4"/>
-    </row>
-    <row r="524" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W523" s="4"/>
+    </row>
+    <row r="524" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C524" s="4"/>
       <c r="D524" s="4"/>
       <c r="E524" s="4"/>
@@ -15407,8 +16014,9 @@
       <c r="T524" s="4"/>
       <c r="U524" s="4"/>
       <c r="V524" s="4"/>
-    </row>
-    <row r="525" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W524" s="4"/>
+    </row>
+    <row r="525" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C525" s="4"/>
       <c r="D525" s="4"/>
       <c r="E525" s="4"/>
@@ -15429,8 +16037,9 @@
       <c r="T525" s="4"/>
       <c r="U525" s="4"/>
       <c r="V525" s="4"/>
-    </row>
-    <row r="526" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W525" s="4"/>
+    </row>
+    <row r="526" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C526" s="4"/>
       <c r="D526" s="4"/>
       <c r="E526" s="4"/>
@@ -15451,8 +16060,9 @@
       <c r="T526" s="4"/>
       <c r="U526" s="4"/>
       <c r="V526" s="4"/>
-    </row>
-    <row r="527" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W526" s="4"/>
+    </row>
+    <row r="527" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C527" s="4"/>
       <c r="D527" s="4"/>
       <c r="E527" s="4"/>
@@ -15473,8 +16083,9 @@
       <c r="T527" s="4"/>
       <c r="U527" s="4"/>
       <c r="V527" s="4"/>
-    </row>
-    <row r="528" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W527" s="4"/>
+    </row>
+    <row r="528" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C528" s="4"/>
       <c r="D528" s="4"/>
       <c r="E528" s="4"/>
@@ -15495,8 +16106,9 @@
       <c r="T528" s="4"/>
       <c r="U528" s="4"/>
       <c r="V528" s="4"/>
-    </row>
-    <row r="529" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W528" s="4"/>
+    </row>
+    <row r="529" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C529" s="4"/>
       <c r="D529" s="4"/>
       <c r="E529" s="4"/>
@@ -15517,8 +16129,9 @@
       <c r="T529" s="4"/>
       <c r="U529" s="4"/>
       <c r="V529" s="4"/>
-    </row>
-    <row r="530" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W529" s="4"/>
+    </row>
+    <row r="530" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C530" s="4"/>
       <c r="D530" s="4"/>
       <c r="E530" s="4"/>
@@ -15539,8 +16152,9 @@
       <c r="T530" s="4"/>
       <c r="U530" s="4"/>
       <c r="V530" s="4"/>
-    </row>
-    <row r="531" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W530" s="4"/>
+    </row>
+    <row r="531" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C531" s="4"/>
       <c r="D531" s="4"/>
       <c r="E531" s="4"/>
@@ -15561,8 +16175,9 @@
       <c r="T531" s="4"/>
       <c r="U531" s="4"/>
       <c r="V531" s="4"/>
-    </row>
-    <row r="532" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W531" s="4"/>
+    </row>
+    <row r="532" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C532" s="4"/>
       <c r="D532" s="4"/>
       <c r="E532" s="4"/>
@@ -15583,8 +16198,9 @@
       <c r="T532" s="4"/>
       <c r="U532" s="4"/>
       <c r="V532" s="4"/>
-    </row>
-    <row r="533" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W532" s="4"/>
+    </row>
+    <row r="533" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C533" s="4"/>
       <c r="D533" s="4"/>
       <c r="E533" s="4"/>
@@ -15605,8 +16221,9 @@
       <c r="T533" s="4"/>
       <c r="U533" s="4"/>
       <c r="V533" s="4"/>
-    </row>
-    <row r="534" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W533" s="4"/>
+    </row>
+    <row r="534" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C534" s="4"/>
       <c r="D534" s="4"/>
       <c r="E534" s="4"/>
@@ -15627,8 +16244,9 @@
       <c r="T534" s="4"/>
       <c r="U534" s="4"/>
       <c r="V534" s="4"/>
-    </row>
-    <row r="535" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W534" s="4"/>
+    </row>
+    <row r="535" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C535" s="4"/>
       <c r="D535" s="4"/>
       <c r="E535" s="4"/>
@@ -15649,8 +16267,9 @@
       <c r="T535" s="4"/>
       <c r="U535" s="4"/>
       <c r="V535" s="4"/>
-    </row>
-    <row r="536" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W535" s="4"/>
+    </row>
+    <row r="536" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C536" s="4"/>
       <c r="D536" s="4"/>
       <c r="E536" s="4"/>
@@ -15671,8 +16290,9 @@
       <c r="T536" s="4"/>
       <c r="U536" s="4"/>
       <c r="V536" s="4"/>
-    </row>
-    <row r="537" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W536" s="4"/>
+    </row>
+    <row r="537" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C537" s="4"/>
       <c r="D537" s="4"/>
       <c r="E537" s="4"/>
@@ -15693,8 +16313,9 @@
       <c r="T537" s="4"/>
       <c r="U537" s="4"/>
       <c r="V537" s="4"/>
-    </row>
-    <row r="538" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W537" s="4"/>
+    </row>
+    <row r="538" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C538" s="4"/>
       <c r="D538" s="4"/>
       <c r="E538" s="4"/>
@@ -15715,8 +16336,9 @@
       <c r="T538" s="4"/>
       <c r="U538" s="4"/>
       <c r="V538" s="4"/>
-    </row>
-    <row r="539" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W538" s="4"/>
+    </row>
+    <row r="539" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C539" s="4"/>
       <c r="D539" s="4"/>
       <c r="E539" s="4"/>
@@ -15737,8 +16359,9 @@
       <c r="T539" s="4"/>
       <c r="U539" s="4"/>
       <c r="V539" s="4"/>
-    </row>
-    <row r="540" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W539" s="4"/>
+    </row>
+    <row r="540" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C540" s="4"/>
       <c r="D540" s="4"/>
       <c r="E540" s="4"/>
@@ -15759,8 +16382,9 @@
       <c r="T540" s="4"/>
       <c r="U540" s="4"/>
       <c r="V540" s="4"/>
-    </row>
-    <row r="541" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W540" s="4"/>
+    </row>
+    <row r="541" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C541" s="4"/>
       <c r="D541" s="4"/>
       <c r="E541" s="4"/>
@@ -15781,8 +16405,9 @@
       <c r="T541" s="4"/>
       <c r="U541" s="4"/>
       <c r="V541" s="4"/>
-    </row>
-    <row r="542" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W541" s="4"/>
+    </row>
+    <row r="542" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C542" s="4"/>
       <c r="D542" s="4"/>
       <c r="E542" s="4"/>
@@ -15803,8 +16428,9 @@
       <c r="T542" s="4"/>
       <c r="U542" s="4"/>
       <c r="V542" s="4"/>
-    </row>
-    <row r="543" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W542" s="4"/>
+    </row>
+    <row r="543" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C543" s="4"/>
       <c r="D543" s="4"/>
       <c r="E543" s="4"/>
@@ -15825,8 +16451,9 @@
       <c r="T543" s="4"/>
       <c r="U543" s="4"/>
       <c r="V543" s="4"/>
-    </row>
-    <row r="544" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W543" s="4"/>
+    </row>
+    <row r="544" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C544" s="4"/>
       <c r="D544" s="4"/>
       <c r="E544" s="4"/>
@@ -15847,8 +16474,9 @@
       <c r="T544" s="4"/>
       <c r="U544" s="4"/>
       <c r="V544" s="4"/>
-    </row>
-    <row r="545" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W544" s="4"/>
+    </row>
+    <row r="545" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C545" s="4"/>
       <c r="D545" s="4"/>
       <c r="E545" s="4"/>
@@ -15869,8 +16497,9 @@
       <c r="T545" s="4"/>
       <c r="U545" s="4"/>
       <c r="V545" s="4"/>
-    </row>
-    <row r="546" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W545" s="4"/>
+    </row>
+    <row r="546" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C546" s="4"/>
       <c r="D546" s="4"/>
       <c r="E546" s="4"/>
@@ -15891,8 +16520,9 @@
       <c r="T546" s="4"/>
       <c r="U546" s="4"/>
       <c r="V546" s="4"/>
-    </row>
-    <row r="547" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W546" s="4"/>
+    </row>
+    <row r="547" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C547" s="4"/>
       <c r="D547" s="4"/>
       <c r="E547" s="4"/>
@@ -15913,8 +16543,9 @@
       <c r="T547" s="4"/>
       <c r="U547" s="4"/>
       <c r="V547" s="4"/>
-    </row>
-    <row r="548" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W547" s="4"/>
+    </row>
+    <row r="548" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C548" s="4"/>
       <c r="D548" s="4"/>
       <c r="E548" s="4"/>
@@ -15935,6 +16566,7 @@
       <c r="T548" s="4"/>
       <c r="U548" s="4"/>
       <c r="V548" s="4"/>
+      <c r="W548" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
